--- a/COREd WitE model list.xlsx
+++ b/COREd WitE model list.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1566" uniqueCount="1301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1715" uniqueCount="1406">
   <si>
     <t>A0039</t>
   </si>
@@ -3933,6 +3933,321 @@
   </si>
   <si>
     <t>Gunners within the photo are part German, part Romanian</t>
+  </si>
+  <si>
+    <t>GP0234</t>
+  </si>
+  <si>
+    <t>T-4 (G)</t>
+  </si>
+  <si>
+    <t>T-4 (H)</t>
+  </si>
+  <si>
+    <t>GP0233</t>
+  </si>
+  <si>
+    <t>GP0177</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>L3/33</t>
+  </si>
+  <si>
+    <t>GP0178</t>
+  </si>
+  <si>
+    <t>L6/40</t>
+  </si>
+  <si>
+    <t>GP0179</t>
+  </si>
+  <si>
+    <t>M11/39</t>
+  </si>
+  <si>
+    <t>GP0197</t>
+  </si>
+  <si>
+    <t>8mm machine gun (Ita)</t>
+  </si>
+  <si>
+    <t>Breda 8mm, image depicts action in Russia, 1942</t>
+  </si>
+  <si>
+    <t>GP0198</t>
+  </si>
+  <si>
+    <t>20mm anti-tank rifle (Ita)</t>
+  </si>
+  <si>
+    <t>GP0191</t>
+  </si>
+  <si>
+    <t>37mm anti-tank gun (Ita)</t>
+  </si>
+  <si>
+    <t>GP0193</t>
+  </si>
+  <si>
+    <t>20mm anti-aircraft gun (Ita)</t>
+  </si>
+  <si>
+    <t>Breda M35, in Russia</t>
+  </si>
+  <si>
+    <t>GP0196</t>
+  </si>
+  <si>
+    <t>81mm mortar (Ita)</t>
+  </si>
+  <si>
+    <t>GP0192</t>
+  </si>
+  <si>
+    <t>47mm anti-tank gun (Ita)</t>
+  </si>
+  <si>
+    <t>GP0204</t>
+  </si>
+  <si>
+    <t>GP0205</t>
+  </si>
+  <si>
+    <t>100mm howitzer (Ita)</t>
+  </si>
+  <si>
+    <t>75mm field gun (Ita)</t>
+  </si>
+  <si>
+    <t>Obice da 100/17</t>
+  </si>
+  <si>
+    <t>75/27</t>
+  </si>
+  <si>
+    <t>GP0208</t>
+  </si>
+  <si>
+    <t>210mm howitzer (Ita)</t>
+  </si>
+  <si>
+    <t>Obice da 210/22</t>
+  </si>
+  <si>
+    <t>GP0207</t>
+  </si>
+  <si>
+    <t>Obice da 149/19</t>
+  </si>
+  <si>
+    <t>149mm howitzer (Ita)</t>
+  </si>
+  <si>
+    <t>GP0222</t>
+  </si>
+  <si>
+    <t>105mm field gun (Ita)</t>
+  </si>
+  <si>
+    <t>Cannone da 105/28</t>
+  </si>
+  <si>
+    <t>GP0202</t>
+  </si>
+  <si>
+    <t>Cavalry squad (Ita)</t>
+  </si>
+  <si>
+    <t>Regio esercito Cavalleria Italiana in Russia 1942</t>
+  </si>
+  <si>
+    <t>GP0203</t>
+  </si>
+  <si>
+    <t>Motorcycle squad (Ita)</t>
+  </si>
+  <si>
+    <t>GP0199</t>
+  </si>
+  <si>
+    <t>Motorized rifle squad (Ita)</t>
+  </si>
+  <si>
+    <t>GP0221</t>
+  </si>
+  <si>
+    <t>Incorrectly mapped to GP0199</t>
+  </si>
+  <si>
+    <t>Rifle squad (Ita)</t>
+  </si>
+  <si>
+    <t>GP0214</t>
+  </si>
+  <si>
+    <t>Labor squad (Ita)</t>
+  </si>
+  <si>
+    <t>GP0215</t>
+  </si>
+  <si>
+    <t>GP0211</t>
+  </si>
+  <si>
+    <t>GP0212</t>
+  </si>
+  <si>
+    <t>GP0213</t>
+  </si>
+  <si>
+    <t>L6/40 Flame Tank (Ita)</t>
+  </si>
+  <si>
+    <t>L3/33 Flame Tank (Ita)</t>
+  </si>
+  <si>
+    <t>GP0181</t>
+  </si>
+  <si>
+    <t>M15/42</t>
+  </si>
+  <si>
+    <t>Not used? GP0221 is a replacement for this, methinks. Placement holder for motorized rifle, but GP0221 is better</t>
+  </si>
+  <si>
+    <t>GP0182</t>
+  </si>
+  <si>
+    <t>GP0180</t>
+  </si>
+  <si>
+    <t>M13/41</t>
+  </si>
+  <si>
+    <t>P26/40</t>
+  </si>
+  <si>
+    <t>GP0183</t>
+  </si>
+  <si>
+    <t>Semovente L40</t>
+  </si>
+  <si>
+    <t>GP0184</t>
+  </si>
+  <si>
+    <t>Semovente M40</t>
+  </si>
+  <si>
+    <t>GP0201</t>
+  </si>
+  <si>
+    <t>Engineer squad (Ita)</t>
+  </si>
+  <si>
+    <t>GP0187</t>
+  </si>
+  <si>
+    <t>Autoblinda 41</t>
+  </si>
+  <si>
+    <t>L3 Lf - incorrectly mapped to GP0177</t>
+  </si>
+  <si>
+    <t>L6 Lf - incorrectly mapped to GP0178</t>
+  </si>
+  <si>
+    <t>GP1592</t>
+  </si>
+  <si>
+    <t>Air support (Ita)</t>
+  </si>
+  <si>
+    <t>GP1492</t>
+  </si>
+  <si>
+    <t>Support squad (Ita)</t>
+  </si>
+  <si>
+    <t>GP0188</t>
+  </si>
+  <si>
+    <t>Semovente M42</t>
+  </si>
+  <si>
+    <t>GP0185</t>
+  </si>
+  <si>
+    <t>Semovente M43</t>
+  </si>
+  <si>
+    <t>GP0186</t>
+  </si>
+  <si>
+    <t>Semovente M41M</t>
+  </si>
+  <si>
+    <t>GP0200</t>
+  </si>
+  <si>
+    <t>45mm mortar (Ita)</t>
+  </si>
+  <si>
+    <t>Mortaio d'assalto 45/5 Brixia</t>
+  </si>
+  <si>
+    <t>GP0189</t>
+  </si>
+  <si>
+    <t>75mm anti-tank gun (Ita)</t>
+  </si>
+  <si>
+    <t>Cannone da 75/46 C.A. modello 34</t>
+  </si>
+  <si>
+    <t>GP0190</t>
+  </si>
+  <si>
+    <t>20mm anti-tank gun (Ita)</t>
+  </si>
+  <si>
+    <t>Breda Model 35 anticarro</t>
+  </si>
+  <si>
+    <t>37/45 gun</t>
+  </si>
+  <si>
+    <t>GP0194</t>
+  </si>
+  <si>
+    <t>90mm anti-aircraft gun (Ita)</t>
+  </si>
+  <si>
+    <t>Cannone da 90/53</t>
+  </si>
+  <si>
+    <t>GP0195</t>
+  </si>
+  <si>
+    <t>65mm Field Gun (Ita)</t>
+  </si>
+  <si>
+    <t>Cannone da 65/17</t>
+  </si>
+  <si>
+    <t>75mm anti-aircraft gun (Ita)</t>
+  </si>
+  <si>
+    <t>GP0206</t>
+  </si>
+  <si>
+    <t>105mm howitzer (Ita)</t>
+  </si>
+  <si>
+    <t>Went with the Cannone da 105/28 rather than the Cannone da 105/14, due to lack of imagery</t>
   </si>
 </sst>
 </file>
@@ -3999,7 +4314,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -4048,11 +4363,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4092,6 +4418,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7390,13 +7719,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D287"/>
+  <dimension ref="A1:D327"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B203" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B182" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D232" sqref="D232"/>
+      <selection pane="bottomRight" activeCell="C212" sqref="C212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9676,1032 +10005,1579 @@
       <c r="D177" s="19"/>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B178" s="22" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C178" s="28" t="s">
+        <v>1307</v>
+      </c>
       <c r="D178" s="19"/>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>968</v>
+        <v>1308</v>
       </c>
       <c r="B179" s="22" t="s">
-        <v>1114</v>
+        <v>1306</v>
       </c>
       <c r="C179" s="28" t="s">
-        <v>969</v>
+        <v>1309</v>
       </c>
       <c r="D179" s="19"/>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>970</v>
+        <v>1310</v>
       </c>
       <c r="B180" s="22" t="s">
-        <v>1114</v>
+        <v>1306</v>
       </c>
       <c r="C180" s="28" t="s">
-        <v>971</v>
+        <v>1311</v>
       </c>
       <c r="D180" s="19"/>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>1363</v>
+      </c>
+      <c r="B181" s="22" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C181" s="26" t="s">
+        <v>1364</v>
+      </c>
       <c r="D181" s="19"/>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>901</v>
+        <v>1359</v>
       </c>
       <c r="B182" s="22" t="s">
-        <v>1114</v>
+        <v>1306</v>
       </c>
       <c r="C182" s="26" t="s">
-        <v>902</v>
-      </c>
-      <c r="D182" s="19" t="s">
-        <v>903</v>
-      </c>
+        <v>1360</v>
+      </c>
+      <c r="D182" s="19"/>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>897</v>
+        <v>1362</v>
       </c>
       <c r="B183" s="22" t="s">
-        <v>1114</v>
+        <v>1306</v>
       </c>
       <c r="C183" s="26" t="s">
-        <v>898</v>
+        <v>1365</v>
       </c>
       <c r="D183" s="19"/>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>991</v>
+        <v>1366</v>
       </c>
       <c r="B184" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C184" s="28" t="s">
-        <v>992</v>
+        <v>1306</v>
+      </c>
+      <c r="C184" s="26" t="s">
+        <v>1367</v>
       </c>
       <c r="D184" s="19"/>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>1022</v>
+        <v>1368</v>
       </c>
       <c r="B185" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C185" s="28" t="s">
-        <v>1112</v>
+        <v>1306</v>
+      </c>
+      <c r="C185" s="29" t="s">
+        <v>1369</v>
       </c>
       <c r="D185" s="19"/>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>1382</v>
+      </c>
+      <c r="B186" s="22" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C186" s="29" t="s">
+        <v>1383</v>
+      </c>
       <c r="D186" s="19"/>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>972</v>
+        <v>1384</v>
       </c>
       <c r="B187" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C187" s="28" t="s">
-        <v>973</v>
+        <v>1306</v>
+      </c>
+      <c r="C187" s="29" t="s">
+        <v>1385</v>
       </c>
       <c r="D187" s="19"/>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C188" s="28"/>
+      <c r="A188" t="s">
+        <v>1372</v>
+      </c>
+      <c r="B188" s="22" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C188" s="26" t="s">
+        <v>1373</v>
+      </c>
       <c r="D188" s="19"/>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>1274</v>
+        <v>1380</v>
       </c>
       <c r="B189" s="22" t="s">
-        <v>1183</v>
-      </c>
-      <c r="C189" s="28" t="s">
-        <v>1275</v>
-      </c>
-      <c r="D189" s="19" t="s">
-        <v>1276</v>
-      </c>
+        <v>1306</v>
+      </c>
+      <c r="C189" s="26" t="s">
+        <v>1381</v>
+      </c>
+      <c r="D189" s="19"/>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>1271</v>
+        <v>1389</v>
       </c>
       <c r="B190" s="22" t="s">
-        <v>1183</v>
-      </c>
-      <c r="C190" s="28" t="s">
-        <v>1272</v>
+        <v>1306</v>
+      </c>
+      <c r="C190" s="26" t="s">
+        <v>1390</v>
       </c>
       <c r="D190" s="19" t="s">
-        <v>1273</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>1157</v>
+        <v>1392</v>
       </c>
       <c r="B191" s="22" t="s">
-        <v>1124</v>
-      </c>
-      <c r="C191" s="28" t="s">
-        <v>1158</v>
-      </c>
-      <c r="D191" s="24" t="s">
-        <v>1159</v>
+        <v>1306</v>
+      </c>
+      <c r="C191" s="26" t="s">
+        <v>1393</v>
+      </c>
+      <c r="D191" s="19" t="s">
+        <v>1394</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>1163</v>
-      </c>
-      <c r="B192" s="22" t="s">
-        <v>1124</v>
-      </c>
-      <c r="C192" s="28" t="s">
-        <v>1164</v>
-      </c>
-      <c r="D192" s="24"/>
+        <v>1317</v>
+      </c>
+      <c r="B192" s="35" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C192" s="26" t="s">
+        <v>1318</v>
+      </c>
+      <c r="D192" s="21" t="s">
+        <v>1395</v>
+      </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>1165</v>
-      </c>
-      <c r="B193" s="22" t="s">
-        <v>1124</v>
-      </c>
-      <c r="C193" s="28" t="s">
-        <v>1166</v>
-      </c>
-      <c r="D193" s="24" t="s">
-        <v>1167</v>
-      </c>
+        <v>1324</v>
+      </c>
+      <c r="B193" s="34" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C193" s="26" t="s">
+        <v>1325</v>
+      </c>
+      <c r="D193" s="19"/>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>1168</v>
-      </c>
-      <c r="B194" s="22" t="s">
-        <v>1124</v>
-      </c>
-      <c r="C194" s="28" t="s">
-        <v>1169</v>
-      </c>
-      <c r="D194" s="24"/>
+        <v>1319</v>
+      </c>
+      <c r="B194" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C194" s="26" t="s">
+        <v>1320</v>
+      </c>
+      <c r="D194" s="19" t="s">
+        <v>1321</v>
+      </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>1172</v>
-      </c>
-      <c r="B195" s="22" t="s">
-        <v>1124</v>
-      </c>
-      <c r="C195" s="28" t="s">
-        <v>1173</v>
-      </c>
-      <c r="D195" s="24"/>
+        <v>1396</v>
+      </c>
+      <c r="B195" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C195" s="26" t="s">
+        <v>1397</v>
+      </c>
+      <c r="D195" s="19" t="s">
+        <v>1398</v>
+      </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>1174</v>
-      </c>
-      <c r="B196" s="22" t="s">
-        <v>1124</v>
-      </c>
-      <c r="C196" s="28" t="s">
-        <v>1175</v>
-      </c>
-      <c r="D196" s="24"/>
+        <v>1399</v>
+      </c>
+      <c r="B196" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C196" s="26" t="s">
+        <v>1400</v>
+      </c>
+      <c r="D196" s="19" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>1176</v>
-      </c>
-      <c r="B197" s="22" t="s">
-        <v>1124</v>
-      </c>
-      <c r="C197" s="28" t="s">
-        <v>1177</v>
-      </c>
-      <c r="D197" s="24" t="s">
-        <v>1178</v>
-      </c>
+        <v>1322</v>
+      </c>
+      <c r="B197" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C197" s="26" t="s">
+        <v>1323</v>
+      </c>
+      <c r="D197" s="19"/>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>1294</v>
+        <v>1312</v>
       </c>
       <c r="B198" s="22" t="s">
-        <v>1124</v>
-      </c>
-      <c r="C198" s="28" t="s">
-        <v>1295</v>
-      </c>
-      <c r="D198" s="24"/>
+        <v>1306</v>
+      </c>
+      <c r="C198" s="26" t="s">
+        <v>1313</v>
+      </c>
+      <c r="D198" s="19" t="s">
+        <v>1314</v>
+      </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B199" s="22" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C199" s="26" t="s">
+        <v>1316</v>
+      </c>
       <c r="D199" s="19"/>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>1160</v>
+        <v>1346</v>
       </c>
       <c r="B200" s="22" t="s">
-        <v>1124</v>
-      </c>
-      <c r="C200" s="26" t="s">
-        <v>1161</v>
-      </c>
-      <c r="D200" s="19" t="s">
-        <v>1162</v>
-      </c>
+        <v>1306</v>
+      </c>
+      <c r="C200" s="29" t="s">
+        <v>1350</v>
+      </c>
+      <c r="D200" s="19"/>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D201" s="19"/>
+      <c r="A201" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B201" s="22" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C201" s="26" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D201" s="19" t="s">
+        <v>1388</v>
+      </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>1296</v>
+        <v>1370</v>
       </c>
       <c r="B202" s="22" t="s">
-        <v>1124</v>
+        <v>1306</v>
       </c>
       <c r="C202" s="26" t="s">
-        <v>1297</v>
+        <v>1371</v>
       </c>
       <c r="D202" s="19"/>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>1143</v>
+        <v>1341</v>
       </c>
       <c r="B203" s="22" t="s">
-        <v>1124</v>
+        <v>1306</v>
       </c>
       <c r="C203" s="26" t="s">
-        <v>1144</v>
+        <v>1342</v>
       </c>
       <c r="D203" s="19" t="s">
-        <v>1145</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>1140</v>
+        <v>1344</v>
       </c>
       <c r="B204" s="22" t="s">
-        <v>1124</v>
+        <v>1306</v>
       </c>
       <c r="C204" s="26" t="s">
-        <v>1141</v>
-      </c>
-      <c r="D204" s="19" t="s">
-        <v>1142</v>
-      </c>
+        <v>1345</v>
+      </c>
+      <c r="D204" s="19"/>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D205" s="19"/>
+      <c r="A205" t="s">
+        <v>1326</v>
+      </c>
+      <c r="B205" s="22" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C205" s="26" t="s">
+        <v>1329</v>
+      </c>
+      <c r="D205" s="19" t="s">
+        <v>1331</v>
+      </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>1138</v>
+        <v>1327</v>
       </c>
       <c r="B206" s="22" t="s">
-        <v>1124</v>
+        <v>1306</v>
       </c>
       <c r="C206" s="26" t="s">
-        <v>1139</v>
-      </c>
-      <c r="D206" s="19"/>
+        <v>1328</v>
+      </c>
+      <c r="D206" s="19" t="s">
+        <v>1330</v>
+      </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>1149</v>
+        <v>1403</v>
       </c>
       <c r="B207" s="22" t="s">
-        <v>1124</v>
+        <v>1306</v>
       </c>
       <c r="C207" s="26" t="s">
-        <v>1150</v>
-      </c>
-      <c r="D207" s="19"/>
+        <v>1404</v>
+      </c>
+      <c r="D207" s="19" t="s">
+        <v>1405</v>
+      </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D208" s="19"/>
+      <c r="A208" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B208" s="22" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C208" s="26" t="s">
+        <v>1337</v>
+      </c>
+      <c r="D208" s="19" t="s">
+        <v>1336</v>
+      </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>1128</v>
+        <v>1332</v>
       </c>
       <c r="B209" s="22" t="s">
-        <v>1124</v>
+        <v>1306</v>
       </c>
       <c r="C209" s="26" t="s">
-        <v>1129</v>
-      </c>
-      <c r="D209" s="19"/>
+        <v>1333</v>
+      </c>
+      <c r="D209" s="19" t="s">
+        <v>1334</v>
+      </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>1123</v>
+        <v>968</v>
       </c>
       <c r="B210" s="22" t="s">
-        <v>1124</v>
-      </c>
-      <c r="C210" s="26" t="s">
-        <v>1125</v>
+        <v>1114</v>
+      </c>
+      <c r="C210" s="28" t="s">
+        <v>969</v>
       </c>
       <c r="D210" s="19"/>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>1126</v>
+        <v>970</v>
       </c>
       <c r="B211" s="22" t="s">
-        <v>1124</v>
-      </c>
-      <c r="C211" s="26" t="s">
-        <v>1127</v>
+        <v>1114</v>
+      </c>
+      <c r="C211" s="28" t="s">
+        <v>971</v>
       </c>
       <c r="D211" s="19"/>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>1132</v>
-      </c>
-      <c r="B212" s="22" t="s">
-        <v>1124</v>
-      </c>
-      <c r="C212" s="26" t="s">
-        <v>1133</v>
-      </c>
-      <c r="D212" s="19"/>
+        <v>1354</v>
+      </c>
+      <c r="B212" s="32" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C212" s="28" t="s">
+        <v>1358</v>
+      </c>
+      <c r="D212" s="20" t="s">
+        <v>1374</v>
+      </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>1130</v>
-      </c>
-      <c r="B213" s="22" t="s">
-        <v>1124</v>
-      </c>
-      <c r="C213" s="26" t="s">
-        <v>1131</v>
-      </c>
-      <c r="D213" s="19"/>
+        <v>1355</v>
+      </c>
+      <c r="B213" s="32" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C213" s="28" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D213" s="20" t="s">
+        <v>1375</v>
+      </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D214" s="19"/>
+      <c r="A214" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B214" s="22" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C214" s="26" t="s">
+        <v>1402</v>
+      </c>
+      <c r="D214" s="19" t="s">
+        <v>1391</v>
+      </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>1154</v>
+        <v>1351</v>
       </c>
       <c r="B215" s="22" t="s">
-        <v>1124</v>
-      </c>
-      <c r="C215" s="26" t="s">
-        <v>1155</v>
-      </c>
-      <c r="D215" s="19" t="s">
-        <v>1156</v>
-      </c>
+        <v>1306</v>
+      </c>
+      <c r="C215" s="28" t="s">
+        <v>1352</v>
+      </c>
+      <c r="D215" s="19"/>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>1151</v>
-      </c>
-      <c r="B216" s="22" t="s">
-        <v>1124</v>
-      </c>
-      <c r="C216" s="26" t="s">
-        <v>1152</v>
-      </c>
-      <c r="D216" s="19" t="s">
-        <v>1153</v>
+        <v>1353</v>
+      </c>
+      <c r="B216" s="32" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C216" s="33" t="s">
+        <v>1347</v>
+      </c>
+      <c r="D216" s="20" t="s">
+        <v>1361</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D217" s="19"/>
+      <c r="A217" t="s">
+        <v>901</v>
+      </c>
+      <c r="B217" s="22" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C217" s="26" t="s">
+        <v>902</v>
+      </c>
+      <c r="D217" s="19" t="s">
+        <v>903</v>
+      </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>1134</v>
+        <v>897</v>
       </c>
       <c r="B218" s="22" t="s">
-        <v>1124</v>
+        <v>1114</v>
       </c>
       <c r="C218" s="26" t="s">
-        <v>1135</v>
+        <v>898</v>
       </c>
       <c r="D218" s="19"/>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>1136</v>
+        <v>991</v>
       </c>
       <c r="B219" s="22" t="s">
-        <v>1124</v>
-      </c>
-      <c r="C219" s="26" t="s">
-        <v>1137</v>
+        <v>1114</v>
+      </c>
+      <c r="C219" s="28" t="s">
+        <v>992</v>
       </c>
       <c r="D219" s="19"/>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B220" s="22" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C220" s="28" t="s">
+        <v>1112</v>
+      </c>
       <c r="D220" s="19"/>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A221" t="s">
-        <v>1179</v>
-      </c>
-      <c r="B221" s="22" t="s">
-        <v>1124</v>
-      </c>
-      <c r="C221" s="26" t="s">
-        <v>1180</v>
-      </c>
-      <c r="D221" s="19" t="s">
-        <v>1181</v>
-      </c>
+      <c r="D221" s="19"/>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>972</v>
+      </c>
+      <c r="B222" s="22" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C222" s="28" t="s">
+        <v>973</v>
+      </c>
       <c r="D222" s="19"/>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A223" t="s">
-        <v>1147</v>
-      </c>
-      <c r="B223" s="22" t="s">
-        <v>1124</v>
-      </c>
-      <c r="C223" s="26" t="s">
-        <v>1148</v>
-      </c>
+      <c r="C223" s="28"/>
       <c r="D223" s="19"/>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>946</v>
-      </c>
-      <c r="B224" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C224" s="28" t="s">
-        <v>947</v>
-      </c>
-      <c r="D224" s="19"/>
+        <v>1348</v>
+      </c>
+      <c r="B224" s="32" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C224" s="26" t="s">
+        <v>1347</v>
+      </c>
+      <c r="D224" s="20" t="s">
+        <v>1349</v>
+      </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D225" s="19"/>
+      <c r="A225" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B225" s="22" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C225" s="28" t="s">
+        <v>1339</v>
+      </c>
+      <c r="D225" s="19" t="s">
+        <v>1340</v>
+      </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>983</v>
+        <v>1274</v>
       </c>
       <c r="B226" s="22" t="s">
-        <v>1114</v>
+        <v>1183</v>
       </c>
       <c r="C226" s="28" t="s">
-        <v>984</v>
-      </c>
-      <c r="D226" s="19"/>
+        <v>1275</v>
+      </c>
+      <c r="D226" s="19" t="s">
+        <v>1276</v>
+      </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D227" s="19"/>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B227" s="22" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C227" s="28" t="s">
+        <v>1272</v>
+      </c>
+      <c r="D227" s="19" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>948</v>
+        <v>1157</v>
       </c>
       <c r="B228" s="22" t="s">
-        <v>1114</v>
+        <v>1124</v>
       </c>
       <c r="C228" s="28" t="s">
-        <v>949</v>
-      </c>
-      <c r="D228" s="19" t="s">
-        <v>1107</v>
+        <v>1158</v>
+      </c>
+      <c r="D228" s="24" t="s">
+        <v>1159</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>725</v>
+        <v>1163</v>
       </c>
       <c r="B229" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C229" s="26" t="s">
-        <v>726</v>
-      </c>
-      <c r="D229" s="19" t="s">
-        <v>727</v>
-      </c>
+        <v>1124</v>
+      </c>
+      <c r="C229" s="28" t="s">
+        <v>1164</v>
+      </c>
+      <c r="D229" s="24"/>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D230" s="19"/>
+      <c r="A230" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B230" s="22" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C230" s="28" t="s">
+        <v>1166</v>
+      </c>
+      <c r="D230" s="24" t="s">
+        <v>1167</v>
+      </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>1298</v>
+        <v>1168</v>
       </c>
       <c r="B231" s="22" t="s">
         <v>1124</v>
       </c>
-      <c r="C231" s="26" t="s">
-        <v>1299</v>
-      </c>
-      <c r="D231" s="19" t="s">
-        <v>1300</v>
-      </c>
+      <c r="C231" s="28" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D231" s="24"/>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D232" s="19"/>
+      <c r="A232" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B232" s="22" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C232" s="28" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D232" s="24"/>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>944</v>
+        <v>1174</v>
       </c>
       <c r="B233" s="22" t="s">
-        <v>1114</v>
+        <v>1124</v>
       </c>
       <c r="C233" s="28" t="s">
-        <v>945</v>
-      </c>
-      <c r="D233" s="19" t="s">
-        <v>1108</v>
-      </c>
+        <v>1175</v>
+      </c>
+      <c r="D233" s="24"/>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D234" s="19"/>
+      <c r="A234" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B234" s="22" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C234" s="28" t="s">
+        <v>1177</v>
+      </c>
+      <c r="D234" s="24" t="s">
+        <v>1178</v>
+      </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>955</v>
+        <v>1294</v>
       </c>
       <c r="B235" s="22" t="s">
-        <v>1114</v>
+        <v>1124</v>
       </c>
       <c r="C235" s="28" t="s">
-        <v>723</v>
-      </c>
-      <c r="D235" s="19" t="s">
-        <v>956</v>
-      </c>
+        <v>1295</v>
+      </c>
+      <c r="D235" s="24"/>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D236" s="19"/>
+      <c r="A236" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B236" s="22" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C236" s="28" t="s">
+        <v>1302</v>
+      </c>
+      <c r="D236" s="24"/>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>941</v>
+        <v>1301</v>
       </c>
       <c r="B237" s="22" t="s">
-        <v>1114</v>
+        <v>1124</v>
       </c>
       <c r="C237" s="28" t="s">
-        <v>942</v>
-      </c>
-      <c r="D237" s="20" t="s">
-        <v>943</v>
-      </c>
+        <v>1303</v>
+      </c>
+      <c r="D237" s="24"/>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A238" t="s">
-        <v>939</v>
-      </c>
-      <c r="B238" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C238" s="28" t="s">
-        <v>940</v>
-      </c>
-      <c r="D238" s="19" t="s">
-        <v>1109</v>
-      </c>
+      <c r="D238" s="19"/>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D239" s="19"/>
+      <c r="A239" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B239" s="22" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C239" s="26" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D239" s="19" t="s">
+        <v>1162</v>
+      </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A240" t="s">
-        <v>1019</v>
-      </c>
-      <c r="B240" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C240" s="28" t="s">
-        <v>1020</v>
-      </c>
       <c r="D240" s="19"/>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>1017</v>
+        <v>1296</v>
       </c>
       <c r="B241" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C241" s="28" t="s">
-        <v>1018</v>
+        <v>1124</v>
+      </c>
+      <c r="C241" s="26" t="s">
+        <v>1297</v>
       </c>
       <c r="D241" s="19"/>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>1016</v>
+        <v>1143</v>
       </c>
       <c r="B242" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C242" s="28" t="s">
-        <v>1103</v>
-      </c>
-      <c r="D242" s="19"/>
+        <v>1124</v>
+      </c>
+      <c r="C242" s="26" t="s">
+        <v>1144</v>
+      </c>
+      <c r="D242" s="19" t="s">
+        <v>1145</v>
+      </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>1014</v>
+        <v>1140</v>
       </c>
       <c r="B243" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C243" s="28" t="s">
-        <v>1015</v>
-      </c>
-      <c r="D243" s="19"/>
+        <v>1124</v>
+      </c>
+      <c r="C243" s="26" t="s">
+        <v>1141</v>
+      </c>
+      <c r="D243" s="19" t="s">
+        <v>1142</v>
+      </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A244" t="s">
-        <v>1012</v>
-      </c>
-      <c r="B244" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C244" s="28" t="s">
-        <v>1013</v>
-      </c>
       <c r="D244" s="19"/>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>1102</v>
+        <v>1138</v>
       </c>
       <c r="B245" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C245" s="28" t="s">
-        <v>1011</v>
+        <v>1124</v>
+      </c>
+      <c r="C245" s="26" t="s">
+        <v>1139</v>
       </c>
       <c r="D245" s="19"/>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>1009</v>
+        <v>1149</v>
       </c>
       <c r="B246" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C246" s="28" t="s">
-        <v>1010</v>
-      </c>
-      <c r="D246" s="19" t="s">
-        <v>1105</v>
-      </c>
+        <v>1124</v>
+      </c>
+      <c r="C246" s="26" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D246" s="19"/>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A247" t="s">
-        <v>1007</v>
-      </c>
-      <c r="B247" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C247" s="28" t="s">
-        <v>1008</v>
-      </c>
       <c r="D247" s="19"/>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>1005</v>
+        <v>1128</v>
       </c>
       <c r="B248" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C248" s="28" t="s">
-        <v>1006</v>
+        <v>1124</v>
+      </c>
+      <c r="C248" s="26" t="s">
+        <v>1129</v>
       </c>
       <c r="D248" s="19"/>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>989</v>
+        <v>1123</v>
       </c>
       <c r="B249" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C249" s="28" t="s">
-        <v>990</v>
+        <v>1124</v>
+      </c>
+      <c r="C249" s="26" t="s">
+        <v>1125</v>
       </c>
       <c r="D249" s="19"/>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B250" s="22" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C250" s="26" t="s">
+        <v>1127</v>
+      </c>
       <c r="D250" s="19"/>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>697</v>
+        <v>1132</v>
       </c>
       <c r="B251" s="22" t="s">
-        <v>1114</v>
+        <v>1124</v>
       </c>
       <c r="C251" s="26" t="s">
-        <v>698</v>
+        <v>1133</v>
       </c>
       <c r="D251" s="19"/>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B252" s="22" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C252" s="26" t="s">
+        <v>1131</v>
+      </c>
       <c r="D252" s="19"/>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A253" t="s">
-        <v>974</v>
-      </c>
-      <c r="B253" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C253" s="28" t="s">
-        <v>1004</v>
-      </c>
       <c r="D253" s="19"/>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>1002</v>
+        <v>1154</v>
       </c>
       <c r="B254" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C254" s="28" t="s">
-        <v>1003</v>
-      </c>
-      <c r="D254" s="19"/>
+        <v>1124</v>
+      </c>
+      <c r="C254" s="26" t="s">
+        <v>1155</v>
+      </c>
+      <c r="D254" s="19" t="s">
+        <v>1156</v>
+      </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D255" s="19"/>
-    </row>
-    <row r="256" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A256" t="s">
-        <v>1110</v>
-      </c>
-      <c r="B256" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C256" s="31" t="s">
-        <v>1111</v>
-      </c>
-      <c r="D256" s="23" t="s">
-        <v>1121</v>
-      </c>
+      <c r="A255" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B255" s="22" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C255" s="26" t="s">
+        <v>1152</v>
+      </c>
+      <c r="D255" s="19" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D256" s="19"/>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B257" s="22" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C257" s="26" t="s">
+        <v>1135</v>
+      </c>
       <c r="D257" s="19"/>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>981</v>
+        <v>1136</v>
       </c>
       <c r="B258" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C258" s="28" t="s">
-        <v>982</v>
+        <v>1124</v>
+      </c>
+      <c r="C258" s="26" t="s">
+        <v>1137</v>
       </c>
       <c r="D258" s="19"/>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A259" t="s">
-        <v>979</v>
-      </c>
-      <c r="B259" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C259" s="28" t="s">
-        <v>980</v>
-      </c>
       <c r="D259" s="19"/>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>975</v>
+        <v>1179</v>
       </c>
       <c r="B260" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C260" s="28" t="s">
-        <v>976</v>
-      </c>
-      <c r="D260" s="19"/>
+        <v>1124</v>
+      </c>
+      <c r="C260" s="26" t="s">
+        <v>1180</v>
+      </c>
+      <c r="D260" s="19" t="s">
+        <v>1181</v>
+      </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A261" t="s">
-        <v>813</v>
-      </c>
-      <c r="B261" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C261" s="26" t="s">
-        <v>814</v>
-      </c>
       <c r="D261" s="19"/>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>811</v>
+        <v>1147</v>
       </c>
       <c r="B262" s="22" t="s">
-        <v>1114</v>
+        <v>1124</v>
       </c>
       <c r="C262" s="26" t="s">
-        <v>812</v>
+        <v>1148</v>
       </c>
       <c r="D262" s="19"/>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>1268</v>
+        <v>946</v>
       </c>
       <c r="B263" s="22" t="s">
-        <v>1183</v>
-      </c>
-      <c r="C263" s="26" t="s">
-        <v>1269</v>
-      </c>
-      <c r="D263" s="19" t="s">
-        <v>1270</v>
-      </c>
+        <v>1114</v>
+      </c>
+      <c r="C263" s="28" t="s">
+        <v>947</v>
+      </c>
+      <c r="D263" s="19"/>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D264" s="19"/>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>850</v>
+        <v>983</v>
       </c>
       <c r="B265" s="22" t="s">
         <v>1114</v>
       </c>
-      <c r="C265" s="29" t="s">
-        <v>853</v>
-      </c>
-      <c r="D265" s="19" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="266" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A266" t="s">
-        <v>1265</v>
-      </c>
-      <c r="B266" s="32" t="s">
-        <v>1183</v>
-      </c>
-      <c r="C266" s="29" t="s">
-        <v>1266</v>
-      </c>
-      <c r="D266" s="23" t="s">
-        <v>1267</v>
-      </c>
+      <c r="C265" s="28" t="s">
+        <v>984</v>
+      </c>
+      <c r="D265" s="19"/>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D266" s="19"/>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C267" s="29"/>
-      <c r="D267" s="19"/>
+      <c r="A267" t="s">
+        <v>948</v>
+      </c>
+      <c r="B267" s="22" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C267" s="28" t="s">
+        <v>949</v>
+      </c>
+      <c r="D267" s="19" t="s">
+        <v>1107</v>
+      </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>987</v>
+        <v>725</v>
       </c>
       <c r="B268" s="22" t="s">
         <v>1114</v>
       </c>
-      <c r="C268" s="28" t="s">
-        <v>988</v>
-      </c>
-      <c r="D268" s="19"/>
+      <c r="C268" s="26" t="s">
+        <v>726</v>
+      </c>
+      <c r="D268" s="19" t="s">
+        <v>727</v>
+      </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A269" t="s">
-        <v>977</v>
-      </c>
-      <c r="B269" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C269" s="28" t="s">
-        <v>978</v>
-      </c>
       <c r="D269" s="19"/>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D270" s="19"/>
+      <c r="A270" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B270" s="22" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C270" s="26" t="s">
+        <v>1299</v>
+      </c>
+      <c r="D270" s="19" t="s">
+        <v>1300</v>
+      </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A271" t="s">
-        <v>666</v>
-      </c>
-      <c r="B271" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C271" s="26" t="s">
-        <v>667</v>
-      </c>
-      <c r="D271" s="21"/>
+      <c r="D271" s="19"/>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>1258</v>
+        <v>944</v>
       </c>
       <c r="B272" s="22" t="s">
-        <v>1183</v>
-      </c>
-      <c r="C272" s="26" t="s">
-        <v>1244</v>
-      </c>
-      <c r="D272" s="21"/>
+        <v>1114</v>
+      </c>
+      <c r="C272" s="28" t="s">
+        <v>945</v>
+      </c>
+      <c r="D272" s="19" t="s">
+        <v>1108</v>
+      </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D273" s="19"/>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>684</v>
+        <v>955</v>
       </c>
       <c r="B274" s="22" t="s">
         <v>1114</v>
       </c>
-      <c r="C274" s="29" t="s">
-        <v>685</v>
-      </c>
-      <c r="D274" s="19"/>
+      <c r="C274" s="28" t="s">
+        <v>723</v>
+      </c>
+      <c r="D274" s="19" t="s">
+        <v>956</v>
+      </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A275" t="s">
-        <v>1241</v>
-      </c>
-      <c r="B275" s="22" t="s">
-        <v>1183</v>
-      </c>
-      <c r="C275" s="29" t="s">
-        <v>1242</v>
-      </c>
       <c r="D275" s="19"/>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D276" s="19"/>
+      <c r="A276" t="s">
+        <v>941</v>
+      </c>
+      <c r="B276" s="22" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C276" s="28" t="s">
+        <v>942</v>
+      </c>
+      <c r="D276" s="20" t="s">
+        <v>943</v>
+      </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>1170</v>
+        <v>939</v>
       </c>
       <c r="B277" s="22" t="s">
-        <v>1124</v>
-      </c>
-      <c r="C277" s="29" t="s">
-        <v>1171</v>
-      </c>
-      <c r="D277" s="19"/>
+        <v>1114</v>
+      </c>
+      <c r="C277" s="28" t="s">
+        <v>940</v>
+      </c>
+      <c r="D277" s="19" t="s">
+        <v>1109</v>
+      </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D278" s="19"/>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B279" s="22" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C279" s="28" t="s">
+        <v>1020</v>
+      </c>
       <c r="D279" s="19"/>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B280" s="22" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C280" s="28" t="s">
+        <v>1018</v>
+      </c>
       <c r="D280" s="19"/>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B281" s="22" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C281" s="28" t="s">
+        <v>1103</v>
+      </c>
       <c r="D281" s="19"/>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B282" s="22" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C282" s="28" t="s">
+        <v>1015</v>
+      </c>
       <c r="D282" s="19"/>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B283" s="22" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C283" s="28" t="s">
+        <v>1013</v>
+      </c>
       <c r="D283" s="19"/>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B284" s="22" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C284" s="28" t="s">
+        <v>1011</v>
+      </c>
       <c r="D284" s="19"/>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D285" s="19"/>
+      <c r="A285" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B285" s="22" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C285" s="28" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D285" s="19" t="s">
+        <v>1105</v>
+      </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B286" s="22" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C286" s="28" t="s">
+        <v>1008</v>
+      </c>
       <c r="D286" s="19"/>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B287" s="22" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C287" s="28" t="s">
+        <v>1006</v>
+      </c>
       <c r="D287" s="19"/>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>989</v>
+      </c>
+      <c r="B288" s="22" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C288" s="28" t="s">
+        <v>990</v>
+      </c>
+      <c r="D288" s="19"/>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D289" s="19"/>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>697</v>
+      </c>
+      <c r="B290" s="22" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C290" s="26" t="s">
+        <v>698</v>
+      </c>
+      <c r="D290" s="19"/>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D291" s="19"/>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>974</v>
+      </c>
+      <c r="B292" s="22" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C292" s="28" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D292" s="19"/>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B293" s="22" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C293" s="28" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D293" s="19"/>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D294" s="19"/>
+    </row>
+    <row r="295" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B295" s="22" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C295" s="31" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D295" s="23" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D296" s="19"/>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>981</v>
+      </c>
+      <c r="B297" s="22" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C297" s="28" t="s">
+        <v>982</v>
+      </c>
+      <c r="D297" s="19"/>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>979</v>
+      </c>
+      <c r="B298" s="22" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C298" s="28" t="s">
+        <v>980</v>
+      </c>
+      <c r="D298" s="19"/>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>975</v>
+      </c>
+      <c r="B299" s="22" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C299" s="28" t="s">
+        <v>976</v>
+      </c>
+      <c r="D299" s="19"/>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>813</v>
+      </c>
+      <c r="B300" s="22" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C300" s="26" t="s">
+        <v>814</v>
+      </c>
+      <c r="D300" s="19"/>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>811</v>
+      </c>
+      <c r="B301" s="22" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C301" s="26" t="s">
+        <v>812</v>
+      </c>
+      <c r="D301" s="19"/>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B302" s="22" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C302" s="26" t="s">
+        <v>1269</v>
+      </c>
+      <c r="D302" s="19" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D303" s="19"/>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>850</v>
+      </c>
+      <c r="B304" s="22" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C304" s="29" t="s">
+        <v>853</v>
+      </c>
+      <c r="D304" s="19" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B305" s="32" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C305" s="29" t="s">
+        <v>1266</v>
+      </c>
+      <c r="D305" s="23" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C306" s="29"/>
+      <c r="D306" s="19"/>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>987</v>
+      </c>
+      <c r="B307" s="22" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C307" s="28" t="s">
+        <v>988</v>
+      </c>
+      <c r="D307" s="19"/>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>977</v>
+      </c>
+      <c r="B308" s="22" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C308" s="28" t="s">
+        <v>978</v>
+      </c>
+      <c r="D308" s="19"/>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D309" s="19"/>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>666</v>
+      </c>
+      <c r="B310" s="22" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C310" s="26" t="s">
+        <v>667</v>
+      </c>
+      <c r="D310" s="21"/>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B311" s="22" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C311" s="26" t="s">
+        <v>1244</v>
+      </c>
+      <c r="D311" s="21"/>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>1378</v>
+      </c>
+      <c r="B312" s="22" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C312" s="29" t="s">
+        <v>1379</v>
+      </c>
+      <c r="D312" s="19"/>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D313" s="19"/>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>684</v>
+      </c>
+      <c r="B314" s="22" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C314" s="29" t="s">
+        <v>685</v>
+      </c>
+      <c r="D314" s="19"/>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B315" s="22" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C315" s="29" t="s">
+        <v>1242</v>
+      </c>
+      <c r="D315" s="19"/>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>1376</v>
+      </c>
+      <c r="B316" s="22" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C316" s="29" t="s">
+        <v>1377</v>
+      </c>
+      <c r="D316" s="19"/>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B317" s="22" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C317" s="29" t="s">
+        <v>1171</v>
+      </c>
+      <c r="D317" s="19"/>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D318" s="19"/>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D319" s="19"/>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D320" s="19"/>
+    </row>
+    <row r="321" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D321" s="19"/>
+    </row>
+    <row r="322" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D322" s="19"/>
+    </row>
+    <row r="323" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D323" s="19"/>
+    </row>
+    <row r="324" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D324" s="19"/>
+    </row>
+    <row r="325" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D325" s="19"/>
+    </row>
+    <row r="326" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D326" s="19"/>
+    </row>
+    <row r="327" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D327" s="19"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D1"/>

--- a/COREd WitE model list.xlsx
+++ b/COREd WitE model list.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1715" uniqueCount="1406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2009" uniqueCount="1616">
   <si>
     <t>A0039</t>
   </si>
@@ -3464,9 +3464,6 @@
     <t>GP0247</t>
   </si>
   <si>
-    <t>60mm mortar</t>
-  </si>
-  <si>
     <t>60mm Stokes-Brandt</t>
   </si>
   <si>
@@ -3575,9 +3572,6 @@
     <t>105mm Field Gun (Rom)</t>
   </si>
   <si>
-    <t>Schneider Mle 1936</t>
-  </si>
-  <si>
     <t>GP0134</t>
   </si>
   <si>
@@ -3836,9 +3830,6 @@
     <t>Depicted is the US-built 75-K17 (75 mm Gun M1917) rather than the French-built 75-K97. The Finns had over four times the US-built ones (200+), and those actually saw action in contrast to the 48 French guns, which did not. Vanilla uses the French 75 modèle 1897 as a base. The current Vanilla image is both non-Finnish and lacks a Finnish flag overlay.</t>
   </si>
   <si>
-    <t>GP0549</t>
-  </si>
-  <si>
     <t>88mm anti-air gun (Fin)</t>
   </si>
   <si>
@@ -4248,6 +4239,645 @@
   </si>
   <si>
     <t>Went with the Cannone da 105/28 rather than the Cannone da 105/14, due to lack of imagery</t>
+  </si>
+  <si>
+    <t>GP0459</t>
+  </si>
+  <si>
+    <t>GP0460</t>
+  </si>
+  <si>
+    <t>47mm Infantry gun (Rom)</t>
+  </si>
+  <si>
+    <t>GP0361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75-mm anti-tank gun PaK 97/38 L/36 </t>
+  </si>
+  <si>
+    <t>GP0273</t>
+  </si>
+  <si>
+    <t>75mm anti-aircraft gun (Rom)</t>
+  </si>
+  <si>
+    <t>GP0259</t>
+  </si>
+  <si>
+    <t>25mm Hotchkiss. Romanian soldiers wearing French helmets</t>
+  </si>
+  <si>
+    <t>GP0258</t>
+  </si>
+  <si>
+    <t>37mm anti-aircraft gun (Rom)</t>
+  </si>
+  <si>
+    <t>25mm anti-aircraft gun (Rom)</t>
+  </si>
+  <si>
+    <t>TUNUL ANTIAERIAN 3.7cm</t>
+  </si>
+  <si>
+    <t>GP0265</t>
+  </si>
+  <si>
+    <t>13.2mm anti-aircraft gun (Rom)</t>
+  </si>
+  <si>
+    <t>Romanian Hotchkiss M31 - not the French style helmets</t>
+  </si>
+  <si>
+    <t>GP0264</t>
+  </si>
+  <si>
+    <t>122mm howitzer (Rom)</t>
+  </si>
+  <si>
+    <t>Shot is actually Soviet</t>
+  </si>
+  <si>
+    <t>GP0263</t>
+  </si>
+  <si>
+    <t>120mm howitzer (Rom)</t>
+  </si>
+  <si>
+    <t>Based on the shield it must be a vz.30</t>
+  </si>
+  <si>
+    <t>GP0271</t>
+  </si>
+  <si>
+    <t>45mm anti-tank gun (Rom)</t>
+  </si>
+  <si>
+    <t>Schneider Mle 1936. Image is also used for 149mm gun</t>
+  </si>
+  <si>
+    <t>GP0262</t>
+  </si>
+  <si>
+    <t>75mm field gun (Rom)</t>
+  </si>
+  <si>
+    <t>Depicted is a Schneider/Pulitov 7.5cm Mod. 1902/36. I did have a Schneider 1897 as well, but this image is much nicer and the gun is pretty similar</t>
+  </si>
+  <si>
+    <t>GP0252</t>
+  </si>
+  <si>
+    <t>7.92 Quad anti-aircraft gun</t>
+  </si>
+  <si>
+    <t>Depicted is a MG81 Achtling… Could not find anything suitable other than a modern-day MG-42 Quad mount, which seemed off. Couldn't have gone for two twin MG-34 mounts instead? Plenty of Quad Maxims, Brownings and Vickers left and right, but German stuff... Vanilla uses the same Achtling source image.</t>
+  </si>
+  <si>
+    <t>GP0287</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>Nimrod</t>
+  </si>
+  <si>
+    <t>GP0354</t>
+  </si>
+  <si>
+    <t>Motorcycle Squad (Hun)</t>
+  </si>
+  <si>
+    <t>GP0301</t>
+  </si>
+  <si>
+    <t>Cavalry Squad (Hun)</t>
+  </si>
+  <si>
+    <t>GP0314</t>
+  </si>
+  <si>
+    <t>Labor Squad (Hun)</t>
+  </si>
+  <si>
+    <t>GP0294</t>
+  </si>
+  <si>
+    <t>81mm mortar (Hun)</t>
+  </si>
+  <si>
+    <t>GP0277</t>
+  </si>
+  <si>
+    <t>CV-33 (Hun)</t>
+  </si>
+  <si>
+    <t>35M Ansaldo</t>
+  </si>
+  <si>
+    <t>GP0276</t>
+  </si>
+  <si>
+    <t>15cm Nebelwerfer (Hun)</t>
+  </si>
+  <si>
+    <t>GP0288</t>
+  </si>
+  <si>
+    <t>39M Cszaba armored car</t>
+  </si>
+  <si>
+    <t>GP0296</t>
+  </si>
+  <si>
+    <t>8mm machine gun (Hun)</t>
+  </si>
+  <si>
+    <t>GP0302</t>
+  </si>
+  <si>
+    <t>20mm anti-tank rifle (Hun)</t>
+  </si>
+  <si>
+    <t>GP0300</t>
+  </si>
+  <si>
+    <t>Engineer squad (Hun)</t>
+  </si>
+  <si>
+    <t>GP0293</t>
+  </si>
+  <si>
+    <t>50mm mortar (Hun)</t>
+  </si>
+  <si>
+    <t>GP0292</t>
+  </si>
+  <si>
+    <t>40mm anti-aircraft gun (Hun)</t>
+  </si>
+  <si>
+    <t>Bofors 40mm</t>
+  </si>
+  <si>
+    <t>GP0297</t>
+  </si>
+  <si>
+    <t>7.92mm machine gun (Hun)</t>
+  </si>
+  <si>
+    <t>Depicted is a M.31 rather than an MG-34 (the M.31 is the pre-runner of the MG-34)</t>
+  </si>
+  <si>
+    <t>GP0298</t>
+  </si>
+  <si>
+    <t>GP0299</t>
+  </si>
+  <si>
+    <t>GP0290</t>
+  </si>
+  <si>
+    <t>Not Böhler guns, but Belgian 4.7cm 36M FRC guns!</t>
+  </si>
+  <si>
+    <t>GP0449</t>
+  </si>
+  <si>
+    <t>210 cm howitzer (Hun)</t>
+  </si>
+  <si>
+    <t>GP0278</t>
+  </si>
+  <si>
+    <t>38M Toldi II</t>
+  </si>
+  <si>
+    <t>GP0303</t>
+  </si>
+  <si>
+    <t>38M Toldi IIa</t>
+  </si>
+  <si>
+    <t>GP0279</t>
+  </si>
+  <si>
+    <t>40M Turan I</t>
+  </si>
+  <si>
+    <t>GP0280</t>
+  </si>
+  <si>
+    <t>41M Turan II</t>
+  </si>
+  <si>
+    <t>GP1594</t>
+  </si>
+  <si>
+    <t>Air support (Hun)</t>
+  </si>
+  <si>
+    <t>GP1595</t>
+  </si>
+  <si>
+    <t>Slovakia</t>
+  </si>
+  <si>
+    <t>Air support (Slo)</t>
+  </si>
+  <si>
+    <t>GP0315</t>
+  </si>
+  <si>
+    <t>Rifle Squad 1939 (Slo)</t>
+  </si>
+  <si>
+    <t>GP0318</t>
+  </si>
+  <si>
+    <t>7.92mm machine gun (Slo)</t>
+  </si>
+  <si>
+    <t>GP0326</t>
+  </si>
+  <si>
+    <t>100mm Howitzer (Slo)</t>
+  </si>
+  <si>
+    <t>10 cm lehká houfnice vz. 30</t>
+  </si>
+  <si>
+    <t>GP0325</t>
+  </si>
+  <si>
+    <t>10 cm lehká houfnice vz. 14/19</t>
+  </si>
+  <si>
+    <t>GP0320</t>
+  </si>
+  <si>
+    <t>37mm anti-tank gun (Slo)</t>
+  </si>
+  <si>
+    <t>KPÚV VZ.37</t>
+  </si>
+  <si>
+    <t>GP0331</t>
+  </si>
+  <si>
+    <t>OA vz. 30 Armored Car (Slo)</t>
+  </si>
+  <si>
+    <t>GP0328</t>
+  </si>
+  <si>
+    <t>149mm Howitzer (Slo)</t>
+  </si>
+  <si>
+    <t>houfnice vz. 25</t>
+  </si>
+  <si>
+    <t>GP0324</t>
+  </si>
+  <si>
+    <t>80mm Howitzer (Slo)</t>
+  </si>
+  <si>
+    <t>8 cm lehký kanon vz. 30</t>
+  </si>
+  <si>
+    <t>GP0323</t>
+  </si>
+  <si>
+    <t>75mm mountain gun (Slo)</t>
+  </si>
+  <si>
+    <t>7,5 cm horský kanon vz.15</t>
+  </si>
+  <si>
+    <t>GP0329</t>
+  </si>
+  <si>
+    <t>20mm anti-aircraft gun (Slo)</t>
+  </si>
+  <si>
+    <t>2cm VKPL Vz.36</t>
+  </si>
+  <si>
+    <t>GP0319</t>
+  </si>
+  <si>
+    <t>81mm mortar (Slo)</t>
+  </si>
+  <si>
+    <t>80_mm_vz._34N</t>
+  </si>
+  <si>
+    <t>GP0330</t>
+  </si>
+  <si>
+    <t>88mm anti-aircraft gun (Slo)</t>
+  </si>
+  <si>
+    <t>8.8cm Flak 37</t>
+  </si>
+  <si>
+    <t>GP0327</t>
+  </si>
+  <si>
+    <t>GP0321</t>
+  </si>
+  <si>
+    <t>45mm anti-tank gun (Slo)</t>
+  </si>
+  <si>
+    <t>M1937 (ex-Soviet) - image could be any nation due to winter camouflage</t>
+  </si>
+  <si>
+    <t>105mm Field Gun (Slo)</t>
+  </si>
+  <si>
+    <t>GP0322</t>
+  </si>
+  <si>
+    <t>50mm anti-tank gun (Slo)</t>
+  </si>
+  <si>
+    <t>GP0334</t>
+  </si>
+  <si>
+    <t>LT-40 MG</t>
+  </si>
+  <si>
+    <t>Note the lack of a main gun</t>
+  </si>
+  <si>
+    <t>GP0335</t>
+  </si>
+  <si>
+    <t>LT-40</t>
+  </si>
+  <si>
+    <t>GP0336</t>
+  </si>
+  <si>
+    <t>Marder III (Slo)</t>
+  </si>
+  <si>
+    <t>Confirmed Slovak Marder</t>
+  </si>
+  <si>
+    <t>GP0340</t>
+  </si>
+  <si>
+    <t>** Vanilla - not actually used? **</t>
+  </si>
+  <si>
+    <t>GP0316</t>
+  </si>
+  <si>
+    <t>GP0317</t>
+  </si>
+  <si>
+    <t>Rifle Squad 1943 (Slo)</t>
+  </si>
+  <si>
+    <t>At least these guys ARE Slovakian Engineers - and it's better than using a Romanian Engineer pic like Vanilla does</t>
+  </si>
+  <si>
+    <t>Image could be any nation due to winter camouflage. Doubtful to be Slovakian though</t>
+  </si>
+  <si>
+    <t>GP0376</t>
+  </si>
+  <si>
+    <t>Combat Engineer Squad (Slo)</t>
+  </si>
+  <si>
+    <t>GP0237</t>
+  </si>
+  <si>
+    <t>TACAM T-60</t>
+  </si>
+  <si>
+    <t>GP0243</t>
+  </si>
+  <si>
+    <t>37mm anti-tank gun (Rom)</t>
+  </si>
+  <si>
+    <t>Bofors 37mm</t>
+  </si>
+  <si>
+    <t>GP0272</t>
+  </si>
+  <si>
+    <t>Labor Squad (Rom)</t>
+  </si>
+  <si>
+    <t>Depicted is a Slovakian forced labor squad</t>
+  </si>
+  <si>
+    <t>GP0270</t>
+  </si>
+  <si>
+    <t>Panzer III Ausf N (Rom)</t>
+  </si>
+  <si>
+    <t>Same image as Vanilla</t>
+  </si>
+  <si>
+    <t>GP0235</t>
+  </si>
+  <si>
+    <t>GP0236</t>
+  </si>
+  <si>
+    <t>Tiger (Rom)</t>
+  </si>
+  <si>
+    <t>Actually a Grossdeutschland Tiger</t>
+  </si>
+  <si>
+    <t>TA-3</t>
+  </si>
+  <si>
+    <t>Depicts a Romanian TA-3 tank, see the star insignia</t>
+  </si>
+  <si>
+    <t>GP0240</t>
+  </si>
+  <si>
+    <t>GP0238</t>
+  </si>
+  <si>
+    <t>TACAM R-2</t>
+  </si>
+  <si>
+    <t>GP0249</t>
+  </si>
+  <si>
+    <t>120mm mortar (Rom)</t>
+  </si>
+  <si>
+    <t>81mm mortar (Rom)</t>
+  </si>
+  <si>
+    <t>60mm mortar (Rom)</t>
+  </si>
+  <si>
+    <t>GP0242</t>
+  </si>
+  <si>
+    <t>20mm anti-aircraft gun (Rom)</t>
+  </si>
+  <si>
+    <t>Image probably depicts German troops</t>
+  </si>
+  <si>
+    <t>GP0245</t>
+  </si>
+  <si>
+    <t>50mm anti-tank gun (Rom)</t>
+  </si>
+  <si>
+    <t>PAK 38</t>
+  </si>
+  <si>
+    <t>GP0239</t>
+  </si>
+  <si>
+    <t>Italian</t>
+  </si>
+  <si>
+    <t>149mm field gun (Ita)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cannone da 149-35 </t>
+  </si>
+  <si>
+    <t>47mm anti-tank gun (Rom)</t>
+  </si>
+  <si>
+    <t>M37/38 - ex Soviet</t>
+  </si>
+  <si>
+    <t>GP0244</t>
+  </si>
+  <si>
+    <t>GP0268</t>
+  </si>
+  <si>
+    <t>105mm Howitzer (Rom)</t>
+  </si>
+  <si>
+    <t>LeFH18</t>
+  </si>
+  <si>
+    <t>GP1493</t>
+  </si>
+  <si>
+    <t>GP1494</t>
+  </si>
+  <si>
+    <t>Support squad (Rom)</t>
+  </si>
+  <si>
+    <t>GP1495</t>
+  </si>
+  <si>
+    <t>Support squad (Slo)</t>
+  </si>
+  <si>
+    <t>Support squad (Hun)</t>
+  </si>
+  <si>
+    <t>Rifle squad 1944 (Hun)</t>
+  </si>
+  <si>
+    <t>Rifle squad 1939 (Hun)</t>
+  </si>
+  <si>
+    <t>GP0274</t>
+  </si>
+  <si>
+    <t>Jagdpanzer 38 (Hun)</t>
+  </si>
+  <si>
+    <t>GP0285</t>
+  </si>
+  <si>
+    <t>Tiger (Hun)</t>
+  </si>
+  <si>
+    <t>Tiger in Hungarian service, with German markings (Lt. Tarczay, Galicia, 1944)</t>
+  </si>
+  <si>
+    <t>GP0308</t>
+  </si>
+  <si>
+    <t>80mm anti-aircraft gun (Hun)</t>
+  </si>
+  <si>
+    <t>80mm Bofors 29M. Note the Hungarian officer</t>
+  </si>
+  <si>
+    <t>GP0283</t>
+  </si>
+  <si>
+    <t>Pz IV Ausf. F (Hun)</t>
+  </si>
+  <si>
+    <t>Though difficult to see at this resolution, the tank is actually carrying Hungarian markings!</t>
+  </si>
+  <si>
+    <t>GP0359</t>
+  </si>
+  <si>
+    <t>40mm anti-tank gun (Hun)</t>
+  </si>
+  <si>
+    <t>MAVAG 40.M 40 mm, misnamed 41M in-game</t>
+  </si>
+  <si>
+    <t>GP0289</t>
+  </si>
+  <si>
+    <t>37mm anti-tank gun (Hun)</t>
+  </si>
+  <si>
+    <t>47mm anti-tank gun (Hun)</t>
+  </si>
+  <si>
+    <t>GP0306</t>
+  </si>
+  <si>
+    <t>13.2mm anti-aircraft gun (Hun)</t>
+  </si>
+  <si>
+    <t>Breda M.31 - generic Hotchkiss image used instead. Can't find any reference to Hungarians actually using the 13.2mm</t>
+  </si>
+  <si>
+    <t>GP0311</t>
+  </si>
+  <si>
+    <t>105mm Howitzer (Hun)</t>
+  </si>
+  <si>
+    <t>GP0358</t>
+  </si>
+  <si>
+    <t>50mm anti-tank gun (Hun)</t>
+  </si>
+  <si>
+    <t>Confirmed Hungarian 50mm PAK 38</t>
+  </si>
+  <si>
+    <t>GP0286</t>
+  </si>
+  <si>
+    <t>Stug III Ausf. G (Hun)</t>
   </si>
 </sst>
 </file>
@@ -4378,7 +5008,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4417,10 +5047,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4731,7 +5364,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B278" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B298" sqref="B298"/>
+      <selection pane="bottomRight" activeCell="B309" sqref="B309"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7486,7 +8119,7 @@
         <v>644</v>
       </c>
       <c r="B288" s="17" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="C288" s="2" t="s">
         <v>643</v>
@@ -7702,7 +8335,7 @@
         <v>833</v>
       </c>
       <c r="B309" s="17" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="C309" s="2" t="s">
         <v>837</v>
@@ -7719,13 +8352,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D327"/>
+  <dimension ref="A1:D409"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B182" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B251" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C212" sqref="C212"/>
+      <selection pane="bottomRight" activeCell="C273" sqref="C273"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9420,108 +10053,108 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="B134" s="22" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="C134" s="28" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="D134" s="19"/>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B135" s="22" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C135" s="26" t="s">
         <v>1182</v>
       </c>
-      <c r="B135" s="22" t="s">
+      <c r="D135" s="19" t="s">
         <v>1183</v>
-      </c>
-      <c r="C135" s="26" t="s">
-        <v>1184</v>
-      </c>
-      <c r="D135" s="19" t="s">
-        <v>1185</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="B136" s="22" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="C136" s="26" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="D136" s="19" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="B137" s="22" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="C137" s="26" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="D137" s="19"/>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="B138" s="22" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="C138" s="26" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="D138" s="19"/>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B139" s="22" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C139" s="26" t="s">
+        <v>1192</v>
+      </c>
+      <c r="D139" s="19" t="s">
         <v>1193</v>
-      </c>
-      <c r="B139" s="22" t="s">
-        <v>1183</v>
-      </c>
-      <c r="C139" s="26" t="s">
-        <v>1194</v>
-      </c>
-      <c r="D139" s="19" t="s">
-        <v>1195</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="B140" s="22" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="C140" s="26" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="D140" s="19" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="B141" s="22" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="C141" s="26" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="D141" s="19" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
@@ -9550,368 +10183,368 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B144" s="22" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C144" s="28" t="s">
+        <v>1222</v>
+      </c>
+      <c r="D144" s="19" t="s">
         <v>1223</v>
-      </c>
-      <c r="B144" s="22" t="s">
-        <v>1183</v>
-      </c>
-      <c r="C144" s="28" t="s">
-        <v>1224</v>
-      </c>
-      <c r="D144" s="19" t="s">
-        <v>1225</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B145" s="22" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C145" s="28" t="s">
+        <v>1225</v>
+      </c>
+      <c r="D145" s="19" t="s">
         <v>1226</v>
-      </c>
-      <c r="B145" s="22" t="s">
-        <v>1183</v>
-      </c>
-      <c r="C145" s="28" t="s">
-        <v>1227</v>
-      </c>
-      <c r="D145" s="19" t="s">
-        <v>1228</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B146" s="22" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C146" s="26" t="s">
         <v>1229</v>
       </c>
-      <c r="B146" s="22" t="s">
-        <v>1183</v>
-      </c>
-      <c r="C146" s="26" t="s">
-        <v>1231</v>
-      </c>
       <c r="D146" s="19" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="B147" s="22" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="C147" s="26" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="D147" s="19" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="B148" s="22" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="C148" s="26" t="s">
         <v>1141</v>
       </c>
       <c r="D148" s="19" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B149" s="22" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C149" s="26" t="s">
+        <v>1219</v>
+      </c>
+      <c r="D149" s="19" t="s">
         <v>1220</v>
-      </c>
-      <c r="B149" s="22" t="s">
-        <v>1183</v>
-      </c>
-      <c r="C149" s="26" t="s">
-        <v>1221</v>
-      </c>
-      <c r="D149" s="19" t="s">
-        <v>1222</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B150" s="22" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C150" s="26" t="s">
+        <v>1250</v>
+      </c>
+      <c r="D150" s="19" t="s">
         <v>1251</v>
-      </c>
-      <c r="B150" s="22" t="s">
-        <v>1183</v>
-      </c>
-      <c r="C150" s="26" t="s">
-        <v>1252</v>
-      </c>
-      <c r="D150" s="19" t="s">
-        <v>1253</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>1254</v>
-      </c>
-      <c r="B151" s="32" t="s">
-        <v>1183</v>
+        <v>1252</v>
+      </c>
+      <c r="B151" s="36" t="s">
+        <v>1181</v>
       </c>
       <c r="C151" s="28" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="D151" s="20" t="s">
-        <v>1293</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="B152" s="22" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="C152" s="26" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="D152" s="19"/>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="B153" s="22" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="C153" s="29" t="s">
-        <v>1292</v>
+        <v>1289</v>
       </c>
       <c r="D153" s="19"/>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="B154" s="22" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="C154" s="26" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="D154" s="19"/>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="B155" s="22" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="C155" s="26" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="D155" s="19"/>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B156" s="22" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C156" s="26" t="s">
+        <v>1213</v>
+      </c>
+      <c r="D156" s="19" t="s">
         <v>1214</v>
-      </c>
-      <c r="B156" s="22" t="s">
-        <v>1183</v>
-      </c>
-      <c r="C156" s="26" t="s">
-        <v>1215</v>
-      </c>
-      <c r="D156" s="19" t="s">
-        <v>1216</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>1287</v>
+        <v>1284</v>
       </c>
       <c r="B157" s="22" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="C157" s="26" t="s">
-        <v>1288</v>
+        <v>1285</v>
       </c>
       <c r="D157" s="19"/>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>1289</v>
+        <v>1286</v>
       </c>
       <c r="B158" s="22" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="C158" s="26" t="s">
-        <v>1290</v>
+        <v>1287</v>
       </c>
       <c r="D158" s="19" t="s">
-        <v>1291</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B159" s="22" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C159" s="26" t="s">
+        <v>1234</v>
+      </c>
+      <c r="D159" s="19" t="s">
         <v>1235</v>
-      </c>
-      <c r="B159" s="22" t="s">
-        <v>1183</v>
-      </c>
-      <c r="C159" s="26" t="s">
-        <v>1236</v>
-      </c>
-      <c r="D159" s="19" t="s">
-        <v>1237</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B160" s="22" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C160" s="26" t="s">
+        <v>1244</v>
+      </c>
+      <c r="D160" s="19" t="s">
         <v>1245</v>
-      </c>
-      <c r="B160" s="22" t="s">
-        <v>1183</v>
-      </c>
-      <c r="C160" s="26" t="s">
-        <v>1246</v>
-      </c>
-      <c r="D160" s="19" t="s">
-        <v>1247</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B161" s="22" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C161" s="26" t="s">
+        <v>1247</v>
+      </c>
+      <c r="D161" s="19" t="s">
         <v>1248</v>
-      </c>
-      <c r="B161" s="22" t="s">
-        <v>1183</v>
-      </c>
-      <c r="C161" s="26" t="s">
-        <v>1249</v>
-      </c>
-      <c r="D161" s="19" t="s">
-        <v>1250</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="B162" s="22" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="C162" s="26" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="D162" s="19" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B163" s="36" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C163" s="26" t="s">
+        <v>1237</v>
+      </c>
+      <c r="D163" s="19" t="s">
         <v>1238</v>
-      </c>
-      <c r="B163" s="22" t="s">
-        <v>1183</v>
-      </c>
-      <c r="C163" s="26" t="s">
-        <v>1239</v>
-      </c>
-      <c r="D163" s="19" t="s">
-        <v>1240</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>1284</v>
-      </c>
-      <c r="B164" s="32" t="s">
-        <v>1183</v>
+        <v>1281</v>
+      </c>
+      <c r="B164" s="36" t="s">
+        <v>1181</v>
       </c>
       <c r="C164" s="26" t="s">
-        <v>1285</v>
+        <v>1282</v>
       </c>
       <c r="D164" s="20" t="s">
-        <v>1286</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>1281</v>
-      </c>
-      <c r="B165" s="32" t="s">
-        <v>1183</v>
+        <v>1278</v>
+      </c>
+      <c r="B165" s="36" t="s">
+        <v>1181</v>
       </c>
       <c r="C165" s="26" t="s">
-        <v>1282</v>
+        <v>1279</v>
       </c>
       <c r="D165" s="20" t="s">
-        <v>1283</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>1278</v>
-      </c>
-      <c r="B166" s="22" t="s">
-        <v>1183</v>
+        <v>1275</v>
+      </c>
+      <c r="B166" s="36" t="s">
+        <v>1181</v>
       </c>
       <c r="C166" s="26" t="s">
-        <v>1280</v>
+        <v>1277</v>
       </c>
       <c r="D166" s="19" t="s">
-        <v>1279</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B167" s="22" t="s">
-        <v>1183</v>
+        <v>1200</v>
+      </c>
+      <c r="B167" s="36" t="s">
+        <v>1181</v>
       </c>
       <c r="C167" s="26" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="D167" s="19"/>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="B168" s="22" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="C168" s="26" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="D168" s="19" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="B169" s="22" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="C169" s="26" t="s">
+        <v>1258</v>
+      </c>
+      <c r="D169" s="19" t="s">
         <v>1260</v>
-      </c>
-      <c r="D169" s="19" t="s">
-        <v>1262</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>1263</v>
-      </c>
-      <c r="B170" s="32" t="s">
-        <v>1183</v>
+        <v>1261</v>
+      </c>
+      <c r="B170" s="36" t="s">
+        <v>1181</v>
       </c>
       <c r="C170" s="26" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="D170" s="20" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
@@ -9994,426 +10627,426 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="B177" s="22" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="C177" s="28" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="D177" s="19"/>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>1305</v>
+        <v>1302</v>
       </c>
       <c r="B178" s="22" t="s">
-        <v>1306</v>
+        <v>1303</v>
       </c>
       <c r="C178" s="28" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
       <c r="D178" s="19"/>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>1308</v>
+        <v>1305</v>
       </c>
       <c r="B179" s="22" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C179" s="28" t="s">
         <v>1306</v>
-      </c>
-      <c r="C179" s="28" t="s">
-        <v>1309</v>
       </c>
       <c r="D179" s="19"/>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
       <c r="B180" s="22" t="s">
-        <v>1306</v>
+        <v>1303</v>
       </c>
       <c r="C180" s="28" t="s">
-        <v>1311</v>
+        <v>1308</v>
       </c>
       <c r="D180" s="19"/>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>1363</v>
+        <v>1360</v>
       </c>
       <c r="B181" s="22" t="s">
-        <v>1306</v>
+        <v>1303</v>
       </c>
       <c r="C181" s="26" t="s">
-        <v>1364</v>
+        <v>1361</v>
       </c>
       <c r="D181" s="19"/>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>1359</v>
+        <v>1356</v>
       </c>
       <c r="B182" s="22" t="s">
-        <v>1306</v>
+        <v>1303</v>
       </c>
       <c r="C182" s="26" t="s">
-        <v>1360</v>
+        <v>1357</v>
       </c>
       <c r="D182" s="19"/>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B183" s="22" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C183" s="26" t="s">
         <v>1362</v>
-      </c>
-      <c r="B183" s="22" t="s">
-        <v>1306</v>
-      </c>
-      <c r="C183" s="26" t="s">
-        <v>1365</v>
       </c>
       <c r="D183" s="19"/>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>1366</v>
+        <v>1363</v>
       </c>
       <c r="B184" s="22" t="s">
-        <v>1306</v>
+        <v>1303</v>
       </c>
       <c r="C184" s="26" t="s">
-        <v>1367</v>
+        <v>1364</v>
       </c>
       <c r="D184" s="19"/>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>1368</v>
+        <v>1365</v>
       </c>
       <c r="B185" s="22" t="s">
-        <v>1306</v>
+        <v>1303</v>
       </c>
       <c r="C185" s="29" t="s">
-        <v>1369</v>
+        <v>1366</v>
       </c>
       <c r="D185" s="19"/>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>1382</v>
+        <v>1379</v>
       </c>
       <c r="B186" s="22" t="s">
-        <v>1306</v>
+        <v>1303</v>
       </c>
       <c r="C186" s="29" t="s">
-        <v>1383</v>
+        <v>1380</v>
       </c>
       <c r="D186" s="19"/>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>1384</v>
+        <v>1381</v>
       </c>
       <c r="B187" s="22" t="s">
-        <v>1306</v>
+        <v>1303</v>
       </c>
       <c r="C187" s="29" t="s">
-        <v>1385</v>
+        <v>1382</v>
       </c>
       <c r="D187" s="19"/>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>1372</v>
+        <v>1369</v>
       </c>
       <c r="B188" s="22" t="s">
-        <v>1306</v>
+        <v>1303</v>
       </c>
       <c r="C188" s="26" t="s">
-        <v>1373</v>
+        <v>1370</v>
       </c>
       <c r="D188" s="19"/>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>1380</v>
+        <v>1377</v>
       </c>
       <c r="B189" s="22" t="s">
-        <v>1306</v>
+        <v>1303</v>
       </c>
       <c r="C189" s="26" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
       <c r="D189" s="19"/>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="B190" s="22" t="s">
-        <v>1306</v>
+        <v>1303</v>
       </c>
       <c r="C190" s="26" t="s">
-        <v>1390</v>
+        <v>1387</v>
       </c>
       <c r="D190" s="19" t="s">
-        <v>1391</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>1392</v>
+        <v>1389</v>
       </c>
       <c r="B191" s="22" t="s">
-        <v>1306</v>
+        <v>1303</v>
       </c>
       <c r="C191" s="26" t="s">
-        <v>1393</v>
+        <v>1390</v>
       </c>
       <c r="D191" s="19" t="s">
-        <v>1394</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>1317</v>
-      </c>
-      <c r="B192" s="35" t="s">
-        <v>1306</v>
+        <v>1314</v>
+      </c>
+      <c r="B192" s="36" t="s">
+        <v>1303</v>
       </c>
       <c r="C192" s="26" t="s">
-        <v>1318</v>
+        <v>1315</v>
       </c>
       <c r="D192" s="21" t="s">
-        <v>1395</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>1324</v>
-      </c>
-      <c r="B193" s="34" t="s">
-        <v>1306</v>
+        <v>1321</v>
+      </c>
+      <c r="B193" s="35" t="s">
+        <v>1303</v>
       </c>
       <c r="C193" s="26" t="s">
-        <v>1325</v>
+        <v>1322</v>
       </c>
       <c r="D193" s="19"/>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>1319</v>
+        <v>1316</v>
       </c>
       <c r="B194" t="s">
-        <v>1306</v>
+        <v>1303</v>
       </c>
       <c r="C194" s="26" t="s">
-        <v>1320</v>
+        <v>1317</v>
       </c>
       <c r="D194" s="19" t="s">
-        <v>1321</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="B195" t="s">
-        <v>1306</v>
+        <v>1303</v>
       </c>
       <c r="C195" s="26" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="D195" s="19" t="s">
-        <v>1398</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>1399</v>
+        <v>1396</v>
       </c>
       <c r="B196" t="s">
-        <v>1306</v>
+        <v>1303</v>
       </c>
       <c r="C196" s="26" t="s">
-        <v>1400</v>
+        <v>1397</v>
       </c>
       <c r="D196" s="19" t="s">
-        <v>1401</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>1322</v>
+        <v>1319</v>
       </c>
       <c r="B197" t="s">
-        <v>1306</v>
+        <v>1303</v>
       </c>
       <c r="C197" s="26" t="s">
-        <v>1323</v>
+        <v>1320</v>
       </c>
       <c r="D197" s="19"/>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>1312</v>
+        <v>1309</v>
       </c>
       <c r="B198" s="22" t="s">
-        <v>1306</v>
+        <v>1303</v>
       </c>
       <c r="C198" s="26" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
       <c r="D198" s="19" t="s">
-        <v>1314</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>1315</v>
+        <v>1312</v>
       </c>
       <c r="B199" s="22" t="s">
-        <v>1306</v>
+        <v>1303</v>
       </c>
       <c r="C199" s="26" t="s">
-        <v>1316</v>
+        <v>1313</v>
       </c>
       <c r="D199" s="19"/>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>1346</v>
+        <v>1343</v>
       </c>
       <c r="B200" s="22" t="s">
-        <v>1306</v>
+        <v>1303</v>
       </c>
       <c r="C200" s="29" t="s">
-        <v>1350</v>
+        <v>1347</v>
       </c>
       <c r="D200" s="19"/>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>1386</v>
+        <v>1383</v>
       </c>
       <c r="B201" s="22" t="s">
-        <v>1306</v>
+        <v>1303</v>
       </c>
       <c r="C201" s="26" t="s">
-        <v>1387</v>
+        <v>1384</v>
       </c>
       <c r="D201" s="19" t="s">
-        <v>1388</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>1370</v>
+        <v>1367</v>
       </c>
       <c r="B202" s="22" t="s">
-        <v>1306</v>
+        <v>1303</v>
       </c>
       <c r="C202" s="26" t="s">
-        <v>1371</v>
+        <v>1368</v>
       </c>
       <c r="D202" s="19"/>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>1341</v>
+        <v>1338</v>
       </c>
       <c r="B203" s="22" t="s">
-        <v>1306</v>
+        <v>1303</v>
       </c>
       <c r="C203" s="26" t="s">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="D203" s="19" t="s">
-        <v>1343</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>1344</v>
+        <v>1341</v>
       </c>
       <c r="B204" s="22" t="s">
-        <v>1306</v>
+        <v>1303</v>
       </c>
       <c r="C204" s="26" t="s">
-        <v>1345</v>
+        <v>1342</v>
       </c>
       <c r="D204" s="19"/>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
+        <v>1323</v>
+      </c>
+      <c r="B205" s="22" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C205" s="26" t="s">
         <v>1326</v>
       </c>
-      <c r="B205" s="22" t="s">
-        <v>1306</v>
-      </c>
-      <c r="C205" s="26" t="s">
-        <v>1329</v>
-      </c>
       <c r="D205" s="19" t="s">
-        <v>1331</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B206" s="22" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C206" s="26" t="s">
+        <v>1325</v>
+      </c>
+      <c r="D206" s="19" t="s">
         <v>1327</v>
-      </c>
-      <c r="B206" s="22" t="s">
-        <v>1306</v>
-      </c>
-      <c r="C206" s="26" t="s">
-        <v>1328</v>
-      </c>
-      <c r="D206" s="19" t="s">
-        <v>1330</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>1403</v>
+        <v>1400</v>
       </c>
       <c r="B207" s="22" t="s">
-        <v>1306</v>
+        <v>1303</v>
       </c>
       <c r="C207" s="26" t="s">
-        <v>1404</v>
+        <v>1401</v>
       </c>
       <c r="D207" s="19" t="s">
-        <v>1405</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>1335</v>
+        <v>1332</v>
       </c>
       <c r="B208" s="22" t="s">
-        <v>1306</v>
+        <v>1303</v>
       </c>
       <c r="C208" s="26" t="s">
-        <v>1337</v>
+        <v>1334</v>
       </c>
       <c r="D208" s="19" t="s">
-        <v>1336</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>1332</v>
+        <v>1329</v>
       </c>
       <c r="B209" s="22" t="s">
-        <v>1306</v>
+        <v>1303</v>
       </c>
       <c r="C209" s="26" t="s">
-        <v>1333</v>
+        <v>1330</v>
       </c>
       <c r="D209" s="19" t="s">
-        <v>1334</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
@@ -10442,77 +11075,77 @@
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>1354</v>
-      </c>
-      <c r="B212" s="32" t="s">
-        <v>1306</v>
+        <v>1351</v>
+      </c>
+      <c r="B212" s="36" t="s">
+        <v>1303</v>
       </c>
       <c r="C212" s="28" t="s">
-        <v>1358</v>
+        <v>1355</v>
       </c>
       <c r="D212" s="20" t="s">
-        <v>1374</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>1355</v>
-      </c>
-      <c r="B213" s="32" t="s">
-        <v>1306</v>
+        <v>1352</v>
+      </c>
+      <c r="B213" s="36" t="s">
+        <v>1303</v>
       </c>
       <c r="C213" s="28" t="s">
-        <v>1357</v>
+        <v>1354</v>
       </c>
       <c r="D213" s="20" t="s">
-        <v>1375</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>1356</v>
-      </c>
-      <c r="B214" s="22" t="s">
-        <v>1306</v>
+        <v>1353</v>
+      </c>
+      <c r="B214" s="36" t="s">
+        <v>1303</v>
       </c>
       <c r="C214" s="26" t="s">
-        <v>1402</v>
+        <v>1399</v>
       </c>
       <c r="D214" s="19" t="s">
-        <v>1391</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>1351</v>
-      </c>
-      <c r="B215" s="22" t="s">
-        <v>1306</v>
+        <v>1348</v>
+      </c>
+      <c r="B215" s="36" t="s">
+        <v>1303</v>
       </c>
       <c r="C215" s="28" t="s">
-        <v>1352</v>
+        <v>1349</v>
       </c>
       <c r="D215" s="19"/>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>1353</v>
-      </c>
-      <c r="B216" s="32" t="s">
-        <v>1306</v>
-      </c>
-      <c r="C216" s="33" t="s">
-        <v>1347</v>
+        <v>1350</v>
+      </c>
+      <c r="B216" s="36" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C216" s="34" t="s">
+        <v>1344</v>
       </c>
       <c r="D216" s="20" t="s">
-        <v>1361</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>901</v>
       </c>
-      <c r="B217" s="22" t="s">
+      <c r="B217" s="36" t="s">
         <v>1114</v>
       </c>
       <c r="C217" s="26" t="s">
@@ -10526,7 +11159,7 @@
       <c r="A218" t="s">
         <v>897</v>
       </c>
-      <c r="B218" s="22" t="s">
+      <c r="B218" s="36" t="s">
         <v>1114</v>
       </c>
       <c r="C218" s="26" t="s">
@@ -10538,7 +11171,7 @@
       <c r="A219" t="s">
         <v>991</v>
       </c>
-      <c r="B219" s="22" t="s">
+      <c r="B219" s="36" t="s">
         <v>1114</v>
       </c>
       <c r="C219" s="28" t="s">
@@ -10550,7 +11183,7 @@
       <c r="A220" t="s">
         <v>1022</v>
       </c>
-      <c r="B220" s="22" t="s">
+      <c r="B220" s="36" t="s">
         <v>1114</v>
       </c>
       <c r="C220" s="28" t="s">
@@ -10559,1025 +11192,2112 @@
       <c r="D220" s="19"/>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>972</v>
+      </c>
+      <c r="B221" s="36" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C221" s="28" t="s">
+        <v>973</v>
+      </c>
       <c r="D221" s="19"/>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>972</v>
-      </c>
-      <c r="B222" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C222" s="28" t="s">
-        <v>973</v>
-      </c>
-      <c r="D222" s="19"/>
+        <v>1345</v>
+      </c>
+      <c r="B222" s="36" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C222" s="26" t="s">
+        <v>1344</v>
+      </c>
+      <c r="D222" s="20" t="s">
+        <v>1346</v>
+      </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C223" s="28"/>
-      <c r="D223" s="19"/>
+      <c r="A223" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B223" s="22" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C223" s="28" t="s">
+        <v>1336</v>
+      </c>
+      <c r="D223" s="19" t="s">
+        <v>1337</v>
+      </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>1348</v>
-      </c>
-      <c r="B224" s="32" t="s">
-        <v>1306</v>
-      </c>
-      <c r="C224" s="26" t="s">
-        <v>1347</v>
-      </c>
-      <c r="D224" s="20" t="s">
-        <v>1349</v>
+        <v>1271</v>
+      </c>
+      <c r="B224" s="22" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C224" s="28" t="s">
+        <v>1272</v>
+      </c>
+      <c r="D224" s="19" t="s">
+        <v>1273</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>1338</v>
+        <v>1268</v>
       </c>
       <c r="B225" s="22" t="s">
-        <v>1306</v>
+        <v>1181</v>
       </c>
       <c r="C225" s="28" t="s">
-        <v>1339</v>
+        <v>1269</v>
       </c>
       <c r="D225" s="19" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>1274</v>
+        <v>1156</v>
       </c>
       <c r="B226" s="22" t="s">
-        <v>1183</v>
+        <v>1124</v>
       </c>
       <c r="C226" s="28" t="s">
-        <v>1275</v>
-      </c>
-      <c r="D226" s="19" t="s">
-        <v>1276</v>
+        <v>1157</v>
+      </c>
+      <c r="D226" s="24" t="s">
+        <v>1158</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>1271</v>
+        <v>1162</v>
       </c>
       <c r="B227" s="22" t="s">
-        <v>1183</v>
+        <v>1124</v>
       </c>
       <c r="C227" s="28" t="s">
-        <v>1272</v>
-      </c>
-      <c r="D227" s="19" t="s">
-        <v>1273</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>1163</v>
+      </c>
+      <c r="D227" s="24"/>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>1157</v>
+        <v>1164</v>
       </c>
       <c r="B228" s="22" t="s">
         <v>1124</v>
       </c>
       <c r="C228" s="28" t="s">
-        <v>1158</v>
+        <v>1165</v>
       </c>
       <c r="D228" s="24" t="s">
-        <v>1159</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>1163</v>
+        <v>1167</v>
       </c>
       <c r="B229" s="22" t="s">
         <v>1124</v>
       </c>
       <c r="C229" s="28" t="s">
-        <v>1164</v>
+        <v>1168</v>
       </c>
       <c r="D229" s="24"/>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>1165</v>
+        <v>1171</v>
       </c>
       <c r="B230" s="22" t="s">
         <v>1124</v>
       </c>
       <c r="C230" s="28" t="s">
-        <v>1166</v>
-      </c>
-      <c r="D230" s="24" t="s">
-        <v>1167</v>
-      </c>
+        <v>1172</v>
+      </c>
+      <c r="D230" s="24"/>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>1168</v>
+        <v>1173</v>
       </c>
       <c r="B231" s="22" t="s">
         <v>1124</v>
       </c>
       <c r="C231" s="28" t="s">
-        <v>1169</v>
+        <v>1174</v>
       </c>
       <c r="D231" s="24"/>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>1172</v>
+        <v>1175</v>
       </c>
       <c r="B232" s="22" t="s">
         <v>1124</v>
       </c>
       <c r="C232" s="28" t="s">
-        <v>1173</v>
-      </c>
-      <c r="D232" s="24"/>
+        <v>1176</v>
+      </c>
+      <c r="D232" s="24" t="s">
+        <v>1177</v>
+      </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>1174</v>
+        <v>1291</v>
       </c>
       <c r="B233" s="22" t="s">
         <v>1124</v>
       </c>
       <c r="C233" s="28" t="s">
-        <v>1175</v>
+        <v>1292</v>
       </c>
       <c r="D233" s="24"/>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>1176</v>
+        <v>1301</v>
       </c>
       <c r="B234" s="22" t="s">
         <v>1124</v>
       </c>
       <c r="C234" s="28" t="s">
-        <v>1177</v>
-      </c>
-      <c r="D234" s="24" t="s">
-        <v>1178</v>
-      </c>
+        <v>1299</v>
+      </c>
+      <c r="D234" s="24"/>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>1294</v>
+        <v>1298</v>
       </c>
       <c r="B235" s="22" t="s">
         <v>1124</v>
       </c>
       <c r="C235" s="28" t="s">
-        <v>1295</v>
+        <v>1300</v>
       </c>
       <c r="D235" s="24"/>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>1304</v>
+        <v>1552</v>
       </c>
       <c r="B236" s="22" t="s">
         <v>1124</v>
       </c>
-      <c r="C236" s="28" t="s">
-        <v>1302</v>
-      </c>
-      <c r="D236" s="24"/>
+      <c r="C236" s="26" t="s">
+        <v>1554</v>
+      </c>
+      <c r="D236" s="19" t="s">
+        <v>1555</v>
+      </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>1301</v>
+        <v>1553</v>
       </c>
       <c r="B237" s="22" t="s">
         <v>1124</v>
       </c>
-      <c r="C237" s="28" t="s">
-        <v>1303</v>
-      </c>
-      <c r="D237" s="24"/>
+      <c r="C237" s="26" t="s">
+        <v>1556</v>
+      </c>
+      <c r="D237" s="19" t="s">
+        <v>1557</v>
+      </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>1541</v>
+      </c>
+      <c r="B238" s="22" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C238" s="26" t="s">
+        <v>1542</v>
+      </c>
       <c r="D238" s="19"/>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>1160</v>
+        <v>1559</v>
       </c>
       <c r="B239" s="22" t="s">
         <v>1124</v>
       </c>
       <c r="C239" s="26" t="s">
-        <v>1161</v>
-      </c>
-      <c r="D239" s="19" t="s">
-        <v>1162</v>
-      </c>
+        <v>1560</v>
+      </c>
+      <c r="D239" s="19"/>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D240" s="19"/>
+      <c r="A240" t="s">
+        <v>1571</v>
+      </c>
+      <c r="B240" s="22" t="s">
+        <v>1572</v>
+      </c>
+      <c r="C240" s="14" t="s">
+        <v>1573</v>
+      </c>
+      <c r="D240" s="19" t="s">
+        <v>1574</v>
+      </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>1296</v>
+        <v>1558</v>
       </c>
       <c r="B241" s="22" t="s">
         <v>1124</v>
       </c>
-      <c r="C241" s="26" t="s">
-        <v>1297</v>
+      <c r="C241" s="17" t="s">
+        <v>1533</v>
       </c>
       <c r="D241" s="19"/>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>1143</v>
+        <v>1159</v>
       </c>
       <c r="B242" s="22" t="s">
         <v>1124</v>
       </c>
       <c r="C242" s="26" t="s">
-        <v>1144</v>
+        <v>1160</v>
       </c>
       <c r="D242" s="19" t="s">
-        <v>1145</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>1140</v>
+        <v>1565</v>
       </c>
       <c r="B243" s="22" t="s">
         <v>1124</v>
       </c>
       <c r="C243" s="26" t="s">
-        <v>1141</v>
+        <v>1566</v>
       </c>
       <c r="D243" s="19" t="s">
-        <v>1142</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D244" s="19"/>
+      <c r="A244" t="s">
+        <v>1543</v>
+      </c>
+      <c r="B244" s="22" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C244" s="26" t="s">
+        <v>1544</v>
+      </c>
+      <c r="D244" s="19" t="s">
+        <v>1545</v>
+      </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>1138</v>
+        <v>1577</v>
       </c>
       <c r="B245" s="22" t="s">
         <v>1124</v>
       </c>
-      <c r="C245" s="26" t="s">
-        <v>1139</v>
+      <c r="C245" s="14" t="s">
+        <v>1575</v>
       </c>
       <c r="D245" s="19"/>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>1149</v>
+        <v>1568</v>
       </c>
       <c r="B246" s="22" t="s">
         <v>1124</v>
       </c>
-      <c r="C246" s="26" t="s">
-        <v>1150</v>
-      </c>
-      <c r="D246" s="19"/>
+      <c r="C246" s="29" t="s">
+        <v>1569</v>
+      </c>
+      <c r="D246" s="19" t="s">
+        <v>1570</v>
+      </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B247" s="22" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C247" s="26" t="s">
+        <v>1294</v>
+      </c>
       <c r="D247" s="19"/>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>1128</v>
+        <v>1143</v>
       </c>
       <c r="B248" s="22" t="s">
         <v>1124</v>
       </c>
       <c r="C248" s="26" t="s">
-        <v>1129</v>
-      </c>
-      <c r="D248" s="19"/>
+        <v>1564</v>
+      </c>
+      <c r="D248" s="19" t="s">
+        <v>1144</v>
+      </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>1123</v>
+        <v>1140</v>
       </c>
       <c r="B249" s="22" t="s">
         <v>1124</v>
       </c>
       <c r="C249" s="26" t="s">
-        <v>1125</v>
-      </c>
-      <c r="D249" s="19"/>
+        <v>1563</v>
+      </c>
+      <c r="D249" s="19" t="s">
+        <v>1142</v>
+      </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>1126</v>
+        <v>1561</v>
       </c>
       <c r="B250" s="22" t="s">
         <v>1124</v>
       </c>
       <c r="C250" s="26" t="s">
-        <v>1127</v>
+        <v>1562</v>
       </c>
       <c r="D250" s="19"/>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>1132</v>
+        <v>1138</v>
       </c>
       <c r="B251" s="22" t="s">
         <v>1124</v>
       </c>
       <c r="C251" s="26" t="s">
-        <v>1133</v>
+        <v>1139</v>
       </c>
       <c r="D251" s="19"/>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>1130</v>
+        <v>1148</v>
       </c>
       <c r="B252" s="22" t="s">
         <v>1124</v>
       </c>
       <c r="C252" s="26" t="s">
-        <v>1131</v>
+        <v>1149</v>
       </c>
       <c r="D252" s="19"/>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D253" s="19"/>
+    <row r="253" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>1431</v>
+      </c>
+      <c r="B253" s="22" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C253" s="26" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D253" s="24" t="s">
+        <v>1433</v>
+      </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>1154</v>
+        <v>1128</v>
       </c>
       <c r="B254" s="22" t="s">
         <v>1124</v>
       </c>
       <c r="C254" s="26" t="s">
-        <v>1155</v>
-      </c>
-      <c r="D254" s="19" t="s">
-        <v>1156</v>
-      </c>
+        <v>1129</v>
+      </c>
+      <c r="D254" s="19"/>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>1151</v>
+        <v>1123</v>
       </c>
       <c r="B255" s="22" t="s">
         <v>1124</v>
       </c>
       <c r="C255" s="26" t="s">
-        <v>1152</v>
-      </c>
-      <c r="D255" s="19" t="s">
-        <v>1153</v>
-      </c>
+        <v>1125</v>
+      </c>
+      <c r="D255" s="19"/>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B256" s="22" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C256" s="26" t="s">
+        <v>1127</v>
+      </c>
       <c r="D256" s="19"/>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="B257" s="22" t="s">
         <v>1124</v>
       </c>
       <c r="C257" s="26" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="D257" s="19"/>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>1136</v>
+        <v>1130</v>
       </c>
       <c r="B258" s="22" t="s">
         <v>1124</v>
       </c>
       <c r="C258" s="26" t="s">
-        <v>1137</v>
+        <v>1131</v>
       </c>
       <c r="D258" s="19"/>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D259" s="19"/>
+      <c r="A259" t="s">
+        <v>1412</v>
+      </c>
+      <c r="B259" s="22" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C259" s="26" t="s">
+        <v>1413</v>
+      </c>
+      <c r="D259" s="19" t="s">
+        <v>1415</v>
+      </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>1179</v>
+        <v>1410</v>
       </c>
       <c r="B260" s="22" t="s">
         <v>1124</v>
       </c>
       <c r="C260" s="26" t="s">
-        <v>1180</v>
+        <v>1414</v>
       </c>
       <c r="D260" s="19" t="s">
-        <v>1181</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D261" s="19"/>
+      <c r="A261" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B261" s="22" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C261" s="26" t="s">
+        <v>1154</v>
+      </c>
+      <c r="D261" s="19" t="s">
+        <v>1155</v>
+      </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>1147</v>
+        <v>1150</v>
       </c>
       <c r="B262" s="22" t="s">
         <v>1124</v>
       </c>
       <c r="C262" s="26" t="s">
-        <v>1148</v>
-      </c>
-      <c r="D262" s="19"/>
+        <v>1151</v>
+      </c>
+      <c r="D262" s="19" t="s">
+        <v>1152</v>
+      </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>946</v>
+        <v>1428</v>
       </c>
       <c r="B263" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C263" s="28" t="s">
-        <v>947</v>
-      </c>
-      <c r="D263" s="19"/>
+        <v>1124</v>
+      </c>
+      <c r="C263" s="26" t="s">
+        <v>1429</v>
+      </c>
+      <c r="D263" s="19" t="s">
+        <v>1430</v>
+      </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D264" s="19"/>
+      <c r="A264" t="s">
+        <v>1422</v>
+      </c>
+      <c r="B264" s="22" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C264" s="26" t="s">
+        <v>1423</v>
+      </c>
+      <c r="D264" s="19" t="s">
+        <v>1424</v>
+      </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>983</v>
+        <v>1419</v>
       </c>
       <c r="B265" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C265" s="28" t="s">
-        <v>984</v>
-      </c>
-      <c r="D265" s="19"/>
+        <v>1124</v>
+      </c>
+      <c r="C265" s="26" t="s">
+        <v>1420</v>
+      </c>
+      <c r="D265" s="19" t="s">
+        <v>1421</v>
+      </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D266" s="19"/>
+      <c r="A266" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B266" s="22" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C266" s="26" t="s">
+        <v>1417</v>
+      </c>
+      <c r="D266" s="19" t="s">
+        <v>1418</v>
+      </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>948</v>
+        <v>1134</v>
       </c>
       <c r="B267" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C267" s="28" t="s">
-        <v>949</v>
-      </c>
-      <c r="D267" s="19" t="s">
-        <v>1107</v>
-      </c>
+        <v>1124</v>
+      </c>
+      <c r="C267" s="26" t="s">
+        <v>1135</v>
+      </c>
+      <c r="D267" s="19"/>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>725</v>
+        <v>1136</v>
       </c>
       <c r="B268" s="22" t="s">
-        <v>1114</v>
+        <v>1124</v>
       </c>
       <c r="C268" s="26" t="s">
-        <v>726</v>
-      </c>
-      <c r="D268" s="19" t="s">
-        <v>727</v>
-      </c>
+        <v>1137</v>
+      </c>
+      <c r="D268" s="19"/>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D269" s="19"/>
+      <c r="A269" t="s">
+        <v>1578</v>
+      </c>
+      <c r="B269" s="22" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C269" s="38" t="s">
+        <v>1579</v>
+      </c>
+      <c r="D269" s="19" t="s">
+        <v>1580</v>
+      </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>1298</v>
-      </c>
-      <c r="B270" s="22" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B270" s="33" t="s">
         <v>1124</v>
       </c>
       <c r="C270" s="26" t="s">
-        <v>1299</v>
-      </c>
-      <c r="D270" s="19" t="s">
-        <v>1300</v>
+        <v>1179</v>
+      </c>
+      <c r="D270" s="20" t="s">
+        <v>1427</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D271" s="19"/>
+      <c r="A271" t="s">
+        <v>1549</v>
+      </c>
+      <c r="B271" s="22" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C271" s="26" t="s">
+        <v>1550</v>
+      </c>
+      <c r="D271" s="19" t="s">
+        <v>1551</v>
+      </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>944</v>
+        <v>1425</v>
       </c>
       <c r="B272" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C272" s="28" t="s">
-        <v>945</v>
+        <v>1124</v>
+      </c>
+      <c r="C272" s="29" t="s">
+        <v>1426</v>
       </c>
       <c r="D272" s="19" t="s">
-        <v>1108</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D273" s="19"/>
+      <c r="A273" t="s">
+        <v>1546</v>
+      </c>
+      <c r="B273" s="22" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C273" s="26" t="s">
+        <v>1547</v>
+      </c>
+      <c r="D273" s="19" t="s">
+        <v>1548</v>
+      </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>955</v>
+        <v>1408</v>
       </c>
       <c r="B274" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C274" s="28" t="s">
-        <v>723</v>
-      </c>
-      <c r="D274" s="19" t="s">
-        <v>956</v>
-      </c>
+        <v>1124</v>
+      </c>
+      <c r="C274" s="26" t="s">
+        <v>1409</v>
+      </c>
+      <c r="D274" s="19"/>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>1589</v>
+      </c>
+      <c r="B275" s="22" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C275" s="26" t="s">
+        <v>1590</v>
+      </c>
       <c r="D275" s="19"/>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A276" t="s">
-        <v>941</v>
-      </c>
-      <c r="B276" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C276" s="28" t="s">
-        <v>942</v>
-      </c>
-      <c r="D276" s="20" t="s">
-        <v>943</v>
-      </c>
+      <c r="D276" s="19"/>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>939</v>
+        <v>1448</v>
       </c>
       <c r="B277" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C277" s="28" t="s">
-        <v>940</v>
-      </c>
-      <c r="D277" s="19" t="s">
-        <v>1109</v>
-      </c>
+        <v>1435</v>
+      </c>
+      <c r="C277" s="26" t="s">
+        <v>1449</v>
+      </c>
+      <c r="D277" s="19"/>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D278" s="19"/>
+      <c r="A278" t="s">
+        <v>1445</v>
+      </c>
+      <c r="B278" s="22" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C278" s="26" t="s">
+        <v>1446</v>
+      </c>
+      <c r="D278" s="19" t="s">
+        <v>1447</v>
+      </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>1019</v>
+        <v>1472</v>
       </c>
       <c r="B279" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C279" s="28" t="s">
-        <v>1020</v>
+        <v>1435</v>
+      </c>
+      <c r="C279" s="26" t="s">
+        <v>1473</v>
       </c>
       <c r="D279" s="19"/>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>1017</v>
+        <v>1476</v>
       </c>
       <c r="B280" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C280" s="28" t="s">
-        <v>1018</v>
+        <v>1435</v>
+      </c>
+      <c r="C280" s="26" t="s">
+        <v>1477</v>
       </c>
       <c r="D280" s="19"/>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>1016</v>
+        <v>1478</v>
       </c>
       <c r="B281" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C281" s="28" t="s">
-        <v>1103</v>
+        <v>1435</v>
+      </c>
+      <c r="C281" s="26" t="s">
+        <v>1479</v>
       </c>
       <c r="D281" s="19"/>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A282" t="s">
-        <v>1014</v>
-      </c>
-      <c r="B282" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C282" s="28" t="s">
-        <v>1015</v>
-      </c>
       <c r="D282" s="19"/>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>1012</v>
+        <v>1597</v>
       </c>
       <c r="B283" s="22" t="s">
-        <v>1114</v>
+        <v>1435</v>
       </c>
       <c r="C283" s="28" t="s">
-        <v>1013</v>
-      </c>
-      <c r="D283" s="19"/>
+        <v>1598</v>
+      </c>
+      <c r="D283" s="19" t="s">
+        <v>1599</v>
+      </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A284" t="s">
-        <v>1102</v>
-      </c>
-      <c r="B284" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C284" s="28" t="s">
-        <v>1011</v>
-      </c>
       <c r="D284" s="19"/>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>1009</v>
+        <v>1591</v>
       </c>
       <c r="B285" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C285" s="28" t="s">
-        <v>1010</v>
+        <v>1435</v>
+      </c>
+      <c r="C285" s="26" t="s">
+        <v>1592</v>
       </c>
       <c r="D285" s="19" t="s">
-        <v>1105</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>1007</v>
+        <v>1614</v>
       </c>
       <c r="B286" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C286" s="28" t="s">
-        <v>1008</v>
+        <v>1435</v>
+      </c>
+      <c r="C286" s="26" t="s">
+        <v>1615</v>
       </c>
       <c r="D286" s="19"/>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>1005</v>
+        <v>1434</v>
       </c>
       <c r="B287" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C287" s="28" t="s">
-        <v>1006</v>
+        <v>1435</v>
+      </c>
+      <c r="C287" s="26" t="s">
+        <v>1436</v>
       </c>
       <c r="D287" s="19"/>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>989</v>
+        <v>1450</v>
       </c>
       <c r="B288" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C288" s="28" t="s">
-        <v>990</v>
+        <v>1435</v>
+      </c>
+      <c r="C288" s="26" t="s">
+        <v>1451</v>
       </c>
       <c r="D288" s="19"/>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>1603</v>
+      </c>
+      <c r="B289" s="22" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C289" s="26" t="s">
+        <v>1604</v>
+      </c>
       <c r="D289" s="19"/>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>697</v>
-      </c>
-      <c r="B290" s="22" t="s">
-        <v>1114</v>
+        <v>1468</v>
+      </c>
+      <c r="B290" s="33" t="s">
+        <v>1435</v>
       </c>
       <c r="C290" s="26" t="s">
-        <v>698</v>
-      </c>
-      <c r="D290" s="19"/>
+        <v>1605</v>
+      </c>
+      <c r="D290" s="20" t="s">
+        <v>1469</v>
+      </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D291" s="19"/>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>974</v>
+        <v>1460</v>
       </c>
       <c r="B292" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C292" s="28" t="s">
-        <v>1004</v>
-      </c>
-      <c r="D292" s="19"/>
+        <v>1435</v>
+      </c>
+      <c r="C292" s="26" t="s">
+        <v>1461</v>
+      </c>
+      <c r="D292" s="19" t="s">
+        <v>1462</v>
+      </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>1002</v>
+        <v>1458</v>
       </c>
       <c r="B293" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C293" s="28" t="s">
-        <v>1003</v>
+        <v>1435</v>
+      </c>
+      <c r="C293" s="26" t="s">
+        <v>1459</v>
       </c>
       <c r="D293" s="19"/>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>1443</v>
+      </c>
+      <c r="B294" s="22" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C294" s="32" t="s">
+        <v>1444</v>
+      </c>
       <c r="D294" s="19"/>
     </row>
-    <row r="295" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A295" t="s">
-        <v>1110</v>
-      </c>
-      <c r="B295" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C295" s="31" t="s">
-        <v>1111</v>
-      </c>
-      <c r="D295" s="23" t="s">
-        <v>1121</v>
-      </c>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D295" s="19"/>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>1452</v>
+      </c>
+      <c r="B296" s="22" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C296" s="26" t="s">
+        <v>1453</v>
+      </c>
       <c r="D296" s="19"/>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>981</v>
+        <v>1463</v>
       </c>
       <c r="B297" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C297" s="28" t="s">
-        <v>982</v>
-      </c>
-      <c r="D297" s="19"/>
+        <v>1435</v>
+      </c>
+      <c r="C297" s="26" t="s">
+        <v>1464</v>
+      </c>
+      <c r="D297" s="19" t="s">
+        <v>1465</v>
+      </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>979</v>
+        <v>1466</v>
       </c>
       <c r="B298" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C298" s="28" t="s">
-        <v>980</v>
+        <v>1435</v>
+      </c>
+      <c r="C298" s="29" t="s">
+        <v>1587</v>
       </c>
       <c r="D298" s="19"/>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>975</v>
-      </c>
-      <c r="B299" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C299" s="28" t="s">
-        <v>976</v>
+        <v>1467</v>
+      </c>
+      <c r="B299" s="37" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C299" s="32" t="s">
+        <v>1588</v>
       </c>
       <c r="D299" s="19"/>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>813</v>
+        <v>1456</v>
       </c>
       <c r="B300" s="22" t="s">
-        <v>1114</v>
+        <v>1435</v>
       </c>
       <c r="C300" s="26" t="s">
-        <v>814</v>
+        <v>1457</v>
       </c>
       <c r="D300" s="19"/>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>811</v>
+        <v>1439</v>
       </c>
       <c r="B301" s="22" t="s">
-        <v>1114</v>
+        <v>1435</v>
       </c>
       <c r="C301" s="26" t="s">
-        <v>812</v>
+        <v>1440</v>
       </c>
       <c r="D301" s="19"/>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>1268</v>
+        <v>1454</v>
       </c>
       <c r="B302" s="22" t="s">
-        <v>1183</v>
+        <v>1435</v>
       </c>
       <c r="C302" s="26" t="s">
-        <v>1269</v>
-      </c>
-      <c r="D302" s="19" t="s">
-        <v>1270</v>
-      </c>
+        <v>1455</v>
+      </c>
+      <c r="D302" s="19"/>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>1474</v>
+      </c>
+      <c r="B303" s="22" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C303" s="26" t="s">
+        <v>1475</v>
+      </c>
       <c r="D303" s="19"/>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A304" t="s">
-        <v>850</v>
-      </c>
-      <c r="B304" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C304" s="29" t="s">
-        <v>853</v>
-      </c>
-      <c r="D304" s="19" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="305" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="D304" s="19"/>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>1265</v>
-      </c>
-      <c r="B305" s="32" t="s">
-        <v>1183</v>
-      </c>
-      <c r="C305" s="29" t="s">
-        <v>1266</v>
-      </c>
-      <c r="D305" s="23" t="s">
-        <v>1267</v>
+        <v>1606</v>
+      </c>
+      <c r="B305" s="22" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C305" s="26" t="s">
+        <v>1607</v>
+      </c>
+      <c r="D305" s="19" t="s">
+        <v>1608</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C306" s="29"/>
       <c r="D306" s="19"/>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>987</v>
+        <v>1594</v>
       </c>
       <c r="B307" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C307" s="28" t="s">
-        <v>988</v>
-      </c>
-      <c r="D307" s="19"/>
+        <v>1435</v>
+      </c>
+      <c r="C307" s="26" t="s">
+        <v>1595</v>
+      </c>
+      <c r="D307" s="19" t="s">
+        <v>1596</v>
+      </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A308" t="s">
-        <v>977</v>
-      </c>
-      <c r="B308" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C308" s="28" t="s">
-        <v>978</v>
-      </c>
       <c r="D308" s="19"/>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>1609</v>
+      </c>
+      <c r="B309" s="22" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C309" s="26" t="s">
+        <v>1610</v>
+      </c>
       <c r="D309" s="19"/>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A310" t="s">
-        <v>666</v>
-      </c>
-      <c r="B310" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C310" s="26" t="s">
-        <v>667</v>
-      </c>
-      <c r="D310" s="21"/>
+      <c r="D310" s="19"/>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>1258</v>
+        <v>1441</v>
       </c>
       <c r="B311" s="22" t="s">
-        <v>1183</v>
+        <v>1435</v>
       </c>
       <c r="C311" s="26" t="s">
-        <v>1244</v>
-      </c>
-      <c r="D311" s="21"/>
+        <v>1442</v>
+      </c>
+      <c r="D311" s="19"/>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>1378</v>
+        <v>1485</v>
       </c>
       <c r="B312" s="22" t="s">
-        <v>1306</v>
+        <v>1483</v>
       </c>
       <c r="C312" s="29" t="s">
-        <v>1379</v>
+        <v>1536</v>
       </c>
       <c r="D312" s="19"/>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>1534</v>
+      </c>
+      <c r="B313" s="22" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C313" s="29" t="s">
+        <v>1486</v>
+      </c>
       <c r="D313" s="19"/>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>684</v>
+        <v>1535</v>
       </c>
       <c r="B314" s="22" t="s">
-        <v>1114</v>
+        <v>1483</v>
       </c>
       <c r="C314" s="29" t="s">
-        <v>685</v>
-      </c>
-      <c r="D314" s="19"/>
+        <v>1540</v>
+      </c>
+      <c r="D314" s="19" t="s">
+        <v>1537</v>
+      </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>1241</v>
+        <v>1487</v>
       </c>
       <c r="B315" s="22" t="s">
-        <v>1183</v>
-      </c>
-      <c r="C315" s="29" t="s">
-        <v>1242</v>
+        <v>1483</v>
+      </c>
+      <c r="C315" s="26" t="s">
+        <v>1488</v>
       </c>
       <c r="D315" s="19"/>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>1376</v>
+        <v>1511</v>
       </c>
       <c r="B316" s="22" t="s">
-        <v>1306</v>
-      </c>
-      <c r="C316" s="29" t="s">
-        <v>1377</v>
-      </c>
-      <c r="D316" s="19"/>
+        <v>1483</v>
+      </c>
+      <c r="C316" s="26" t="s">
+        <v>1512</v>
+      </c>
+      <c r="D316" s="19" t="s">
+        <v>1513</v>
+      </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
+        <v>1494</v>
+      </c>
+      <c r="B317" s="22" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C317" s="26" t="s">
+        <v>1495</v>
+      </c>
+      <c r="D317" s="19" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>1518</v>
+      </c>
+      <c r="B318" s="22" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C318" s="26" t="s">
+        <v>1519</v>
+      </c>
+      <c r="D318" s="19" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>1522</v>
+      </c>
+      <c r="B319" s="22" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C319" s="29" t="s">
+        <v>1523</v>
+      </c>
+      <c r="D319" s="19" t="s">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>1505</v>
+      </c>
+      <c r="B320" s="22" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C320" s="26" t="s">
+        <v>1506</v>
+      </c>
+      <c r="D320" s="19" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>1502</v>
+      </c>
+      <c r="B321" s="22" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C321" s="26" t="s">
+        <v>1503</v>
+      </c>
+      <c r="D321" s="19" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>1492</v>
+      </c>
+      <c r="B322" s="22" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C322" s="26" t="s">
+        <v>1490</v>
+      </c>
+      <c r="D322" s="24" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>1489</v>
+      </c>
+      <c r="B323" s="22" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C323" s="26" t="s">
+        <v>1490</v>
+      </c>
+      <c r="D323" s="24" t="s">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>1517</v>
+      </c>
+      <c r="B324" s="22" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C324" s="26" t="s">
+        <v>1521</v>
+      </c>
+      <c r="D324" s="24"/>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>1499</v>
+      </c>
+      <c r="B325" s="22" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C325" s="26" t="s">
+        <v>1500</v>
+      </c>
+      <c r="D325" s="24" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>1508</v>
+      </c>
+      <c r="B326" s="22" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C326" s="26" t="s">
+        <v>1509</v>
+      </c>
+      <c r="D326" s="19" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>1514</v>
+      </c>
+      <c r="B327" s="22" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C327" s="26" t="s">
+        <v>1515</v>
+      </c>
+      <c r="D327" s="19" t="s">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>1497</v>
+      </c>
+      <c r="B328" s="22" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C328" s="26" t="s">
+        <v>1498</v>
+      </c>
+      <c r="D328" s="19"/>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D329" s="19"/>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B330" s="22" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C330" s="26" t="s">
+        <v>1525</v>
+      </c>
+      <c r="D330" s="19" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>1527</v>
+      </c>
+      <c r="B331" s="22" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C331" s="26" t="s">
+        <v>1528</v>
+      </c>
+      <c r="D331" s="19"/>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>1529</v>
+      </c>
+      <c r="B332" s="22" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C332" s="26" t="s">
+        <v>1530</v>
+      </c>
+      <c r="D332" s="19" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B333" s="22" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C333" s="26" t="s">
+        <v>1147</v>
+      </c>
+      <c r="D333" s="19"/>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>946</v>
+      </c>
+      <c r="B334" s="22" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C334" s="28" t="s">
+        <v>947</v>
+      </c>
+      <c r="D334" s="19"/>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C335" s="28"/>
+      <c r="D335" s="19"/>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>1532</v>
+      </c>
+      <c r="B336" s="22" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C336" s="17" t="s">
+        <v>1533</v>
+      </c>
+      <c r="D336" s="19"/>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D337" s="19"/>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>983</v>
+      </c>
+      <c r="B338" s="22" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C338" s="28" t="s">
+        <v>984</v>
+      </c>
+      <c r="D338" s="19"/>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D339" s="19"/>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>1437</v>
+      </c>
+      <c r="B340" s="22" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C340" s="26" t="s">
+        <v>1438</v>
+      </c>
+      <c r="D340" s="19"/>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D341" s="19"/>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>948</v>
+      </c>
+      <c r="B342" s="22" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C342" s="28" t="s">
+        <v>949</v>
+      </c>
+      <c r="D342" s="19" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>725</v>
+      </c>
+      <c r="B343" s="22" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C343" s="26" t="s">
+        <v>726</v>
+      </c>
+      <c r="D343" s="19" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>1611</v>
+      </c>
+      <c r="B344" s="22" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C344" s="26" t="s">
+        <v>1612</v>
+      </c>
+      <c r="D344" s="19" t="s">
+        <v>1613</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>1600</v>
+      </c>
+      <c r="B345" s="33" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C345" s="26" t="s">
+        <v>1601</v>
+      </c>
+      <c r="D345" s="20" t="s">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B346" s="22" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C346" s="26" t="s">
+        <v>1296</v>
+      </c>
+      <c r="D346" s="19" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B347" s="22" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C347" s="26" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D347" s="19" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>944</v>
+      </c>
+      <c r="B348" s="22" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C348" s="28" t="s">
+        <v>945</v>
+      </c>
+      <c r="D348" s="19" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D349" s="19"/>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>955</v>
+      </c>
+      <c r="B350" s="22" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C350" s="28" t="s">
+        <v>723</v>
+      </c>
+      <c r="D350" s="19" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D351" s="19"/>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>941</v>
+      </c>
+      <c r="B352" s="22" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C352" s="28" t="s">
+        <v>942</v>
+      </c>
+      <c r="D352" s="20" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>939</v>
+      </c>
+      <c r="B353" s="22" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C353" s="28" t="s">
+        <v>940</v>
+      </c>
+      <c r="D353" s="19" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D354" s="19"/>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>1539</v>
+      </c>
+      <c r="B355" s="22" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C355" s="17" t="s">
+        <v>1533</v>
+      </c>
+      <c r="D355" s="19"/>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D356" s="19"/>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B357" s="22" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C357" s="28" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D357" s="19"/>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B358" s="22" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C358" s="28" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D358" s="19"/>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B359" s="22" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C359" s="28" t="s">
+        <v>1103</v>
+      </c>
+      <c r="D359" s="19"/>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B360" s="22" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C360" s="28" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D360" s="19"/>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B361" s="22" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C361" s="28" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D361" s="19"/>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B362" s="22" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C362" s="28" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D362" s="19"/>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B363" s="22" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C363" s="28" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D363" s="19" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A364" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B364" s="22" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C364" s="28" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D364" s="19"/>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B365" s="22" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C365" s="28" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D365" s="19"/>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A366" t="s">
+        <v>989</v>
+      </c>
+      <c r="B366" s="22" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C366" s="28" t="s">
+        <v>990</v>
+      </c>
+      <c r="D366" s="19"/>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D367" s="19"/>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
+        <v>697</v>
+      </c>
+      <c r="B368" s="22" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C368" s="26" t="s">
+        <v>698</v>
+      </c>
+      <c r="D368" s="19"/>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D369" s="19"/>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A370" t="s">
+        <v>974</v>
+      </c>
+      <c r="B370" s="22" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C370" s="28" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D370" s="19"/>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A371" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B371" s="22" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C371" s="28" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D371" s="19"/>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C372" s="28"/>
+      <c r="D372" s="19"/>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A373" t="s">
+        <v>1470</v>
+      </c>
+      <c r="B373" s="22" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C373" s="26" t="s">
+        <v>1471</v>
+      </c>
+      <c r="D373" s="19"/>
+    </row>
+    <row r="374" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A374" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B374" s="22" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C374" s="31" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D374" s="23" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D375" s="19"/>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A376" t="s">
+        <v>981</v>
+      </c>
+      <c r="B376" s="22" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C376" s="28" t="s">
+        <v>982</v>
+      </c>
+      <c r="D376" s="19"/>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A377" t="s">
+        <v>979</v>
+      </c>
+      <c r="B377" s="22" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C377" s="28" t="s">
+        <v>980</v>
+      </c>
+      <c r="D377" s="19"/>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A378" t="s">
+        <v>975</v>
+      </c>
+      <c r="B378" s="22" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C378" s="28" t="s">
+        <v>976</v>
+      </c>
+      <c r="D378" s="19"/>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A379" t="s">
+        <v>813</v>
+      </c>
+      <c r="B379" s="22" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C379" s="26" t="s">
+        <v>814</v>
+      </c>
+      <c r="D379" s="19"/>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A380" t="s">
+        <v>811</v>
+      </c>
+      <c r="B380" s="22" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C380" s="26" t="s">
+        <v>812</v>
+      </c>
+      <c r="D380" s="19"/>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A381" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B381" s="22" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C381" s="26" t="s">
+        <v>1266</v>
+      </c>
+      <c r="D381" s="19" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A382" t="s">
+        <v>1404</v>
+      </c>
+      <c r="B382" s="22" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C382" s="29" t="s">
+        <v>1405</v>
+      </c>
+      <c r="D382" s="19"/>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A383" t="s">
+        <v>850</v>
+      </c>
+      <c r="B383" s="22" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C383" s="29" t="s">
+        <v>853</v>
+      </c>
+      <c r="D383" s="19" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A384" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B384" s="36" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C384" s="29" t="s">
+        <v>1264</v>
+      </c>
+      <c r="D384" s="23" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C385" s="29"/>
+      <c r="D385" s="19"/>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A386" t="s">
+        <v>987</v>
+      </c>
+      <c r="B386" s="22" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C386" s="28" t="s">
+        <v>988</v>
+      </c>
+      <c r="D386" s="19"/>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A387" t="s">
+        <v>977</v>
+      </c>
+      <c r="B387" s="22" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C387" s="28" t="s">
+        <v>978</v>
+      </c>
+      <c r="D387" s="19"/>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D388" s="19"/>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A389" t="s">
+        <v>666</v>
+      </c>
+      <c r="B389" s="22" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C389" s="26" t="s">
+        <v>667</v>
+      </c>
+      <c r="D389" s="21"/>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A390" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B390" s="22" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C390" s="26" t="s">
+        <v>1242</v>
+      </c>
+      <c r="D390" s="21"/>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A391" t="s">
+        <v>1375</v>
+      </c>
+      <c r="B391" s="22" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C391" s="29" t="s">
+        <v>1376</v>
+      </c>
+      <c r="D391" s="19"/>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A392" t="s">
+        <v>1581</v>
+      </c>
+      <c r="B392" s="22" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C392" s="32" t="s">
+        <v>1583</v>
+      </c>
+      <c r="D392" s="19"/>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A393" t="s">
+        <v>1582</v>
+      </c>
+      <c r="B393" s="22" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C393" s="32" t="s">
+        <v>1586</v>
+      </c>
+      <c r="D393" s="19"/>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A394" t="s">
+        <v>1584</v>
+      </c>
+      <c r="B394" s="22" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C394" s="29" t="s">
+        <v>1585</v>
+      </c>
+      <c r="D394" s="19"/>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D395" s="19"/>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A396" t="s">
+        <v>684</v>
+      </c>
+      <c r="B396" s="22" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C396" s="29" t="s">
+        <v>685</v>
+      </c>
+      <c r="D396" s="19"/>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A397" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B397" s="22" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C397" s="29" t="s">
+        <v>1240</v>
+      </c>
+      <c r="D397" s="19"/>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A398" t="s">
+        <v>1373</v>
+      </c>
+      <c r="B398" s="22" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C398" s="29" t="s">
+        <v>1374</v>
+      </c>
+      <c r="D398" s="19"/>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A399" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B399" s="22" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C399" s="29" t="s">
         <v>1170</v>
       </c>
-      <c r="B317" s="22" t="s">
-        <v>1124</v>
-      </c>
-      <c r="C317" s="29" t="s">
-        <v>1171</v>
-      </c>
-      <c r="D317" s="19"/>
-    </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D318" s="19"/>
-    </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D319" s="19"/>
-    </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D320" s="19"/>
-    </row>
-    <row r="321" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D321" s="19"/>
-    </row>
-    <row r="322" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D322" s="19"/>
-    </row>
-    <row r="323" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D323" s="19"/>
-    </row>
-    <row r="324" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D324" s="19"/>
-    </row>
-    <row r="325" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D325" s="19"/>
-    </row>
-    <row r="326" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D326" s="19"/>
-    </row>
-    <row r="327" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D327" s="19"/>
+      <c r="D399" s="19"/>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A400" t="s">
+        <v>1480</v>
+      </c>
+      <c r="B400" s="22" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C400" s="29" t="s">
+        <v>1481</v>
+      </c>
+      <c r="D400" s="19"/>
+    </row>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A401" t="s">
+        <v>1482</v>
+      </c>
+      <c r="B401" s="22" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C401" s="29" t="s">
+        <v>1484</v>
+      </c>
+      <c r="D401" s="19"/>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D402" s="19"/>
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D403" s="19"/>
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D404" s="19"/>
+    </row>
+    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D405" s="19"/>
+    </row>
+    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D406" s="19"/>
+    </row>
+    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D407" s="19"/>
+    </row>
+    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D408" s="19"/>
+    </row>
+    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D409" s="19"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D1"/>

--- a/COREd WitE model list.xlsx
+++ b/COREd WitE model list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7800" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Air units" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2009" uniqueCount="1616">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2294" uniqueCount="1807">
   <si>
     <t>A0039</t>
   </si>
@@ -4469,6 +4469,9 @@
     <t>GP0280</t>
   </si>
   <si>
+    <t>GP0281</t>
+  </si>
+  <si>
     <t>41M Turan II</t>
   </si>
   <si>
@@ -4772,9 +4775,6 @@
     <t>105mm Howitzer (Rom)</t>
   </si>
   <si>
-    <t>LeFH18</t>
-  </si>
-  <si>
     <t>GP1493</t>
   </si>
   <si>
@@ -4878,6 +4878,579 @@
   </si>
   <si>
     <t>Stug III Ausf. G (Hun)</t>
+  </si>
+  <si>
+    <t>Pz 38(t) Ausf. E (Hun)</t>
+  </si>
+  <si>
+    <t>Confirmed Hungarian Pz 38</t>
+  </si>
+  <si>
+    <t>GP0282</t>
+  </si>
+  <si>
+    <t>Pz III Ausf M (Hun)</t>
+  </si>
+  <si>
+    <t>Confirmed Hungarian Pz IIIm</t>
+  </si>
+  <si>
+    <t>GP0284</t>
+  </si>
+  <si>
+    <t>Pz IV Ausf. J (Hun)</t>
+  </si>
+  <si>
+    <t>Actually a German Pz IV J</t>
+  </si>
+  <si>
+    <t>GP0291</t>
+  </si>
+  <si>
+    <t>75mm anti-tank gun PAK 40 (Hun)</t>
+  </si>
+  <si>
+    <t>Confirmed Hungarian PAK 40</t>
+  </si>
+  <si>
+    <t>GP0355</t>
+  </si>
+  <si>
+    <t>80mm Field Gun (Hun)</t>
+  </si>
+  <si>
+    <t>Skoda 05/08M</t>
+  </si>
+  <si>
+    <t>GP0307</t>
+  </si>
+  <si>
+    <t>Zrínyi II</t>
+  </si>
+  <si>
+    <t>GP0353</t>
+  </si>
+  <si>
+    <t>Toldi I</t>
+  </si>
+  <si>
+    <t>GP0350</t>
+  </si>
+  <si>
+    <t>GP0351</t>
+  </si>
+  <si>
+    <t>GP0352</t>
+  </si>
+  <si>
+    <t>** not used **</t>
+  </si>
+  <si>
+    <t>GP0332</t>
+  </si>
+  <si>
+    <t>GP0333</t>
+  </si>
+  <si>
+    <t>GP0339</t>
+  </si>
+  <si>
+    <t>GP0341</t>
+  </si>
+  <si>
+    <t>GP0342</t>
+  </si>
+  <si>
+    <t>GP0343</t>
+  </si>
+  <si>
+    <t>GP0344</t>
+  </si>
+  <si>
+    <t>GP0345</t>
+  </si>
+  <si>
+    <t>GP0346</t>
+  </si>
+  <si>
+    <t>GP0347</t>
+  </si>
+  <si>
+    <t>GP0348</t>
+  </si>
+  <si>
+    <t>LT-38 (Slo)</t>
+  </si>
+  <si>
+    <t>LT-35 (Slo)</t>
+  </si>
+  <si>
+    <t>GP0312</t>
+  </si>
+  <si>
+    <t>GP0313</t>
+  </si>
+  <si>
+    <t>GP0309</t>
+  </si>
+  <si>
+    <t>GP0310</t>
+  </si>
+  <si>
+    <t>GP0304</t>
+  </si>
+  <si>
+    <t>GP0305</t>
+  </si>
+  <si>
+    <t>GP0295</t>
+  </si>
+  <si>
+    <t>120mm mortar (Hun)</t>
+  </si>
+  <si>
+    <t>GP0275</t>
+  </si>
+  <si>
+    <t>Panther (Hun)</t>
+  </si>
+  <si>
+    <t>Actually a German Panther</t>
+  </si>
+  <si>
+    <t>Hungarian allright, but hoping for a better non-snow pic</t>
+  </si>
+  <si>
+    <t>GP0363</t>
+  </si>
+  <si>
+    <t>GP0364</t>
+  </si>
+  <si>
+    <t>GP0366</t>
+  </si>
+  <si>
+    <t>GP0367</t>
+  </si>
+  <si>
+    <t>GP0368</t>
+  </si>
+  <si>
+    <t>GP0371</t>
+  </si>
+  <si>
+    <t>GP0372</t>
+  </si>
+  <si>
+    <t>GP0373</t>
+  </si>
+  <si>
+    <t>GP0374</t>
+  </si>
+  <si>
+    <t>GP0375</t>
+  </si>
+  <si>
+    <t>GP0377</t>
+  </si>
+  <si>
+    <t>GP0378</t>
+  </si>
+  <si>
+    <t>GP0379</t>
+  </si>
+  <si>
+    <t>GP0380</t>
+  </si>
+  <si>
+    <t>GP0381</t>
+  </si>
+  <si>
+    <t>GP0382</t>
+  </si>
+  <si>
+    <t>GP0383</t>
+  </si>
+  <si>
+    <t>GP0384</t>
+  </si>
+  <si>
+    <t>GP0385</t>
+  </si>
+  <si>
+    <t>GP0386</t>
+  </si>
+  <si>
+    <t>GP0387</t>
+  </si>
+  <si>
+    <t>GP0388</t>
+  </si>
+  <si>
+    <t>GP0389</t>
+  </si>
+  <si>
+    <t>Soviet</t>
+  </si>
+  <si>
+    <t>GP0408</t>
+  </si>
+  <si>
+    <t>GP0411</t>
+  </si>
+  <si>
+    <t>GP0412</t>
+  </si>
+  <si>
+    <t>GP0398</t>
+  </si>
+  <si>
+    <t>GP0399</t>
+  </si>
+  <si>
+    <t>GP0400</t>
+  </si>
+  <si>
+    <t>GP0401</t>
+  </si>
+  <si>
+    <t>GP0402</t>
+  </si>
+  <si>
+    <t>GP0403</t>
+  </si>
+  <si>
+    <t>GP0404</t>
+  </si>
+  <si>
+    <t>GP0405</t>
+  </si>
+  <si>
+    <t>GP0406</t>
+  </si>
+  <si>
+    <t>75mm anti-tank gun (Hun)</t>
+  </si>
+  <si>
+    <t>97/38M. Highly likely the image depicts a German gun, but could not find any alternates that would fit</t>
+  </si>
+  <si>
+    <t>105mm field gun (Hun)</t>
+  </si>
+  <si>
+    <t>Image depicts a German-operated Dutch 10-veld gun - which was pretty much the same gun. I do have a source image of a Hungarian 31M one, but the gun isn't too clear in that shot. As it's the same gun and Hungarians used German helmets, this one will do. Besides, Vanilla also uses a 10-Veld gun for their image</t>
+  </si>
+  <si>
+    <t>75mm Howitzer (Hun)</t>
+  </si>
+  <si>
+    <t>75mm Field Gun (Hun)</t>
+  </si>
+  <si>
+    <t>240 mm Howitzer (Hun)</t>
+  </si>
+  <si>
+    <t>149mm Howitzer (Hun)</t>
+  </si>
+  <si>
+    <t>122mm Howitzer (Hun)</t>
+  </si>
+  <si>
+    <t>100mm Howitzer (Hun)</t>
+  </si>
+  <si>
+    <t>vz. 14/19</t>
+  </si>
+  <si>
+    <t>Skoda schwere Feldhaubitze M14, M14/35 or M14/39 rather than the vz.25 (which wasn't in Hungarian service)</t>
+  </si>
+  <si>
+    <t>15M 7,5 cm mountain gun rather than the 75/27 (which wasn't in Hungarian service)</t>
+  </si>
+  <si>
+    <t>H39. No 305mm mortar? The Hungarians had five of them in service. I can;t find any reference of the H39 being in Hungarian service. The H39 source image was labeled '240mm M39 11Magyar allas Don-nal_ 1942 222' though, which would suggest a Hungarian link</t>
+  </si>
+  <si>
+    <t>Canon de 75 mle Tir Rapide - a.k.a. 7.5cm FK 235(b), a variant of this gun is the 7-veld… Image depicts a German-operated FK 235(b). The Hungarian pieces are very, very camera-shy. No reference of the 1897 being in Hungarian service</t>
+  </si>
+  <si>
+    <t>LeFH18. Most likely it's a German pic rather than Romanian. The Romanians did field the LeFH18 from 1943 onwards, and also had Skoda 122mm 40/43 guns (of which I could not find any appropriate imagery)</t>
+  </si>
+  <si>
+    <t>Vanilla image depics an armored car</t>
+  </si>
+  <si>
+    <t>Vanilla image depicts a light tank</t>
+  </si>
+  <si>
+    <t>Vanilla image depics a heavy gun/railway gun</t>
+  </si>
+  <si>
+    <t>M-30. The image actually depicts Yugoslavian partisans operating a M-30 gun. The only Hungarian source pic I managed to find is post-war, and I can't find any reference to the gun being deployed by the Hungarians during the war (though it sounds reasonable)</t>
+  </si>
+  <si>
+    <t>Hungarian allright, but hoping for a better quality alternate. The mortar is Russian rather than German</t>
+  </si>
+  <si>
+    <t>GP0762</t>
+  </si>
+  <si>
+    <t>Churchill IV (Sov)</t>
+  </si>
+  <si>
+    <t>GP0761</t>
+  </si>
+  <si>
+    <t>Valentine III (Sov)</t>
+  </si>
+  <si>
+    <t>GP0749</t>
+  </si>
+  <si>
+    <t>M3 Lee (Sov)</t>
+  </si>
+  <si>
+    <t>GP0742</t>
+  </si>
+  <si>
+    <t>M3 Stuart (Sov)</t>
+  </si>
+  <si>
+    <t>GP0662</t>
+  </si>
+  <si>
+    <t>Matilda II (Sov)</t>
+  </si>
+  <si>
+    <t>GP0738</t>
+  </si>
+  <si>
+    <t>T-38 (Sov)</t>
+  </si>
+  <si>
+    <t>t-38 танк</t>
+  </si>
+  <si>
+    <t>Т-26 образца 1931</t>
+  </si>
+  <si>
+    <t>T-26 model 1931</t>
+  </si>
+  <si>
+    <t>GP0779</t>
+  </si>
+  <si>
+    <t>BA-20</t>
+  </si>
+  <si>
+    <t>GP0792</t>
+  </si>
+  <si>
+    <t>12.7mm anti-aircraft machine-gun (Sov)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ДШК </t>
+  </si>
+  <si>
+    <t>GP0814</t>
+  </si>
+  <si>
+    <t>7.62 Quad anti-aircraft machine-gun (Sov)</t>
+  </si>
+  <si>
+    <t>Счетверённая зенитно-пулемётная</t>
+  </si>
+  <si>
+    <t>GP0821</t>
+  </si>
+  <si>
+    <t>NKVD squad</t>
+  </si>
+  <si>
+    <t>войск нквд ссср</t>
+  </si>
+  <si>
+    <t>GP0831</t>
+  </si>
+  <si>
+    <t>Motorcycle squad (Sov)</t>
+  </si>
+  <si>
+    <t>GP0732</t>
+  </si>
+  <si>
+    <t>Partisan squad</t>
+  </si>
+  <si>
+    <t>GP0787</t>
+  </si>
+  <si>
+    <t>37mm anti-aircraft gun (Sov)</t>
+  </si>
+  <si>
+    <t>GP0806</t>
+  </si>
+  <si>
+    <t>85mm anti-aircraft gun (Sov)</t>
+  </si>
+  <si>
+    <t>Called K-52 in Russian!</t>
+  </si>
+  <si>
+    <t>GP0811</t>
+  </si>
+  <si>
+    <t>76mm anti-aircraft gun (Sov)</t>
+  </si>
+  <si>
+    <t>Most likely the image is a K-3 model 1931 rather than 1938, but the difference is primarily the carriage used for the gun</t>
+  </si>
+  <si>
+    <t>GP0841</t>
+  </si>
+  <si>
+    <t>M3A1 White Scout Car (Sov)</t>
+  </si>
+  <si>
+    <t>GP0774</t>
+  </si>
+  <si>
+    <t>BA-10</t>
+  </si>
+  <si>
+    <t>БА-10</t>
+  </si>
+  <si>
+    <t>БА-20</t>
+  </si>
+  <si>
+    <t>GP0775</t>
+  </si>
+  <si>
+    <t>BA-64</t>
+  </si>
+  <si>
+    <t>БА-64</t>
+  </si>
+  <si>
+    <t>GP1501</t>
+  </si>
+  <si>
+    <t>Support squad (Sov)</t>
+  </si>
+  <si>
+    <t>Image is also used for Air Support</t>
+  </si>
+  <si>
+    <t>BT-2 model 1932</t>
+  </si>
+  <si>
+    <t>BT-2 model 1931</t>
+  </si>
+  <si>
+    <t>БТ-2 пулемётный. Actually not a separate year model, but 'just' a BT-2 Machinegun</t>
+  </si>
+  <si>
+    <t>БТ-2 танк. Actually not a year model per se, but rather the BT-2 37mm</t>
+  </si>
+  <si>
+    <t>GP0772</t>
+  </si>
+  <si>
+    <t>GAZ-AAMG</t>
+  </si>
+  <si>
+    <t>ГАЗ-AAA МАКСИМ</t>
+  </si>
+  <si>
+    <t>GP0773</t>
+  </si>
+  <si>
+    <t>GAZ-AA-37</t>
+  </si>
+  <si>
+    <t>Image actually depicts a GAZ-AA 25mm 72-K rather than a 37mm 61-K. Of the latter only four were produced, against over 200 over the former</t>
+  </si>
+  <si>
+    <t>GP0730</t>
+  </si>
+  <si>
+    <t>Flamethrower Squad (Sov)</t>
+  </si>
+  <si>
+    <t>GP0727</t>
+  </si>
+  <si>
+    <t>76mm Field Gun ZiS (Sov)</t>
+  </si>
+  <si>
+    <t>ЗиС-3</t>
+  </si>
+  <si>
+    <t>GP0789</t>
+  </si>
+  <si>
+    <t>120mm mortar (Sov)</t>
+  </si>
+  <si>
+    <t>120-мм ПМ-38</t>
+  </si>
+  <si>
+    <t>GP0729</t>
+  </si>
+  <si>
+    <t>107mm mortar (Sov)</t>
+  </si>
+  <si>
+    <t>107 ГВПМ-1938</t>
+  </si>
+  <si>
+    <t>GP0780</t>
+  </si>
+  <si>
+    <t>45mm anti-tank gun M37 (Sov)</t>
+  </si>
+  <si>
+    <t>45-мм пушка 53-К поддерживает атаку пехоты</t>
+  </si>
+  <si>
+    <t>GP0781</t>
+  </si>
+  <si>
+    <t>45mm anti-tank gun M42 (Sov)</t>
+  </si>
+  <si>
+    <t>GP0784</t>
+  </si>
+  <si>
+    <t>76mm infantry gun (Sov)</t>
+  </si>
+  <si>
+    <t>76.2-мм полковая пушка обр.1927г.</t>
+  </si>
+  <si>
+    <t>GP0743</t>
+  </si>
+  <si>
+    <t>GP0744</t>
+  </si>
+  <si>
+    <t>OT-130/133</t>
+  </si>
+  <si>
+    <t>T-34 M1940</t>
+  </si>
+  <si>
+    <t>GP0741</t>
+  </si>
+  <si>
+    <t>T-70</t>
+  </si>
+  <si>
+    <t>BT-7M model 1939</t>
+  </si>
+  <si>
+    <t>БТ-7м</t>
   </si>
 </sst>
 </file>
@@ -4924,7 +5497,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4940,6 +5513,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5008,7 +5587,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -5030,9 +5609,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -5047,13 +5623,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8352,21 +8938,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D409"/>
+  <dimension ref="A1:D506"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B251" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B359" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C273" sqref="C273"/>
+      <selection pane="bottomRight" activeCell="C369" sqref="C369"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.875" style="26" customWidth="1"/>
-    <col min="4" max="4" width="170.875" style="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.875" style="23" customWidth="1"/>
+    <col min="4" max="4" width="170.875" style="38" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -8376,10 +8962,10 @@
       <c r="B1" s="18" t="s">
         <v>1113</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="22" t="s">
         <v>659</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="36" t="s">
         <v>60</v>
       </c>
     </row>
@@ -8387,13 +8973,13 @@
       <c r="A2" t="s">
         <v>660</v>
       </c>
-      <c r="B2" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C2" s="26" t="s">
+      <c r="B2" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C2" s="23" t="s">
         <v>661</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="21" t="s">
         <v>662</v>
       </c>
     </row>
@@ -8401,157 +8987,157 @@
       <c r="A3" t="s">
         <v>663</v>
       </c>
-      <c r="B3" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C3" s="26" t="s">
+      <c r="B3" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C3" s="23" t="s">
         <v>664</v>
       </c>
-      <c r="D3" s="19"/>
+      <c r="D3" s="21"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>674</v>
       </c>
-      <c r="B4" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C4" s="27" t="s">
+      <c r="B4" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C4" s="24" t="s">
         <v>676</v>
       </c>
-      <c r="D4" s="19"/>
+      <c r="D4" s="21"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>675</v>
       </c>
-      <c r="B5" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C5" s="26" t="s">
+      <c r="B5" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C5" s="23" t="s">
         <v>677</v>
       </c>
-      <c r="D5" s="19"/>
+      <c r="D5" s="21"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>865</v>
       </c>
-      <c r="B6" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C6" s="26" t="s">
+      <c r="B6" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C6" s="23" t="s">
         <v>866</v>
       </c>
-      <c r="D6" s="19"/>
+      <c r="D6" s="21"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>863</v>
       </c>
-      <c r="B7" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C7" s="26" t="s">
+      <c r="B7" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C7" s="23" t="s">
         <v>864</v>
       </c>
-      <c r="D7" s="19"/>
+      <c r="D7" s="21"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>869</v>
       </c>
-      <c r="B8" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C8" s="26" t="s">
+      <c r="B8" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C8" s="23" t="s">
         <v>868</v>
       </c>
-      <c r="D8" s="19"/>
+      <c r="D8" s="21"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>870</v>
       </c>
-      <c r="B9" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C9" s="26" t="s">
+      <c r="B9" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C9" s="23" t="s">
         <v>871</v>
       </c>
-      <c r="D9" s="19"/>
+      <c r="D9" s="21"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>1057</v>
       </c>
-      <c r="B10" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C10" s="28" t="s">
+      <c r="B10" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C10" s="25" t="s">
         <v>1062</v>
       </c>
-      <c r="D10" s="19"/>
+      <c r="D10" s="21"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1058</v>
       </c>
-      <c r="B11" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C11" s="28" t="s">
+      <c r="B11" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C11" s="25" t="s">
         <v>1061</v>
       </c>
-      <c r="D11" s="19"/>
+      <c r="D11" s="21"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1059</v>
       </c>
-      <c r="B12" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C12" s="28" t="s">
+      <c r="B12" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C12" s="25" t="s">
         <v>1060</v>
       </c>
-      <c r="D12" s="19"/>
+      <c r="D12" s="21"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>844</v>
       </c>
-      <c r="B13" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C13" s="26" t="s">
+      <c r="B13" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C13" s="23" t="s">
         <v>845</v>
       </c>
-      <c r="D13" s="19"/>
+      <c r="D13" s="21"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>855</v>
       </c>
-      <c r="B14" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C14" s="26" t="s">
+      <c r="B14" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C14" s="23" t="s">
         <v>856</v>
       </c>
-      <c r="D14" s="19"/>
+      <c r="D14" s="21"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>755</v>
       </c>
-      <c r="B15" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C15" s="26" t="s">
+      <c r="B15" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C15" s="23" t="s">
         <v>857</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="D15" s="21" t="s">
         <v>867</v>
       </c>
     </row>
@@ -8559,70 +9145,70 @@
       <c r="A16" t="s">
         <v>859</v>
       </c>
-      <c r="B16" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C16" s="26" t="s">
+      <c r="B16" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C16" s="23" t="s">
         <v>858</v>
       </c>
-      <c r="D16" s="19"/>
+      <c r="D16" s="21"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>756</v>
       </c>
-      <c r="B17" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C17" s="26" t="s">
+      <c r="B17" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C17" s="23" t="s">
         <v>757</v>
       </c>
-      <c r="D17" s="19"/>
+      <c r="D17" s="21"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>758</v>
       </c>
-      <c r="B18" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C18" s="26" t="s">
+      <c r="B18" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C18" s="23" t="s">
         <v>759</v>
       </c>
-      <c r="D18" s="19"/>
+      <c r="D18" s="21"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>1053</v>
       </c>
-      <c r="B19" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C19" s="28" t="s">
+      <c r="B19" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C19" s="25" t="s">
         <v>1056</v>
       </c>
-      <c r="D19" s="19"/>
+      <c r="D19" s="21"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>1054</v>
       </c>
-      <c r="B20" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C20" s="28" t="s">
+      <c r="B20" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C20" s="25" t="s">
         <v>1055</v>
       </c>
-      <c r="D20" s="19"/>
+      <c r="D20" s="21"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>910</v>
       </c>
-      <c r="B21" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C21" s="26" t="s">
+      <c r="B21" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C21" s="23" t="s">
         <v>911</v>
       </c>
       <c r="D21" s="20" t="s">
@@ -8633,118 +9219,118 @@
       <c r="A22" t="s">
         <v>913</v>
       </c>
-      <c r="B22" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C22" s="26" t="s">
+      <c r="B22" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C22" s="23" t="s">
         <v>914</v>
       </c>
-      <c r="D22" s="19"/>
+      <c r="D22" s="21"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>1051</v>
       </c>
-      <c r="B23" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C23" s="28" t="s">
+      <c r="B23" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C23" s="25" t="s">
         <v>1052</v>
       </c>
-      <c r="D23" s="19"/>
+      <c r="D23" s="21"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>1049</v>
       </c>
-      <c r="B24" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C24" s="28" t="s">
+      <c r="B24" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C24" s="25" t="s">
         <v>1050</v>
       </c>
-      <c r="D24" s="19"/>
+      <c r="D24" s="21"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>1047</v>
       </c>
-      <c r="B25" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C25" s="28" t="s">
+      <c r="B25" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C25" s="25" t="s">
         <v>1048</v>
       </c>
-      <c r="D25" s="19"/>
+      <c r="D25" s="21"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>1045</v>
       </c>
-      <c r="B26" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C26" s="28" t="s">
+      <c r="B26" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C26" s="25" t="s">
         <v>1046</v>
       </c>
-      <c r="D26" s="19"/>
+      <c r="D26" s="21"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>1043</v>
       </c>
-      <c r="B27" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C27" s="28" t="s">
+      <c r="B27" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C27" s="25" t="s">
         <v>1044</v>
       </c>
-      <c r="D27" s="19"/>
+      <c r="D27" s="21"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>1041</v>
       </c>
-      <c r="B28" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C28" s="28" t="s">
+      <c r="B28" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C28" s="25" t="s">
         <v>1042</v>
       </c>
-      <c r="D28" s="19"/>
+      <c r="D28" s="21"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>1039</v>
       </c>
-      <c r="B29" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C29" s="26" t="s">
+      <c r="B29" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C29" s="23" t="s">
         <v>1040</v>
       </c>
-      <c r="D29" s="19"/>
+      <c r="D29" s="21"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>840</v>
       </c>
-      <c r="B30" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C30" s="26" t="s">
+      <c r="B30" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C30" s="23" t="s">
         <v>841</v>
       </c>
-      <c r="D30" s="19"/>
+      <c r="D30" s="21"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>842</v>
       </c>
-      <c r="B31" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C31" s="26" t="s">
+      <c r="B31" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C31" s="23" t="s">
         <v>843</v>
       </c>
       <c r="D31" s="20" t="s">
@@ -8755,73 +9341,73 @@
       <c r="A32" t="s">
         <v>838</v>
       </c>
-      <c r="B32" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C32" s="26" t="s">
+      <c r="B32" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C32" s="23" t="s">
         <v>839</v>
       </c>
-      <c r="D32" s="19"/>
+      <c r="D32" s="21"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>1036</v>
       </c>
-      <c r="B33" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C33" s="28" t="s">
+      <c r="B33" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C33" s="25" t="s">
         <v>1037</v>
       </c>
-      <c r="D33" s="19"/>
+      <c r="D33" s="21"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>1035</v>
       </c>
-      <c r="B34" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C34" s="26" t="s">
+      <c r="B34" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C34" s="23" t="s">
         <v>1038</v>
       </c>
-      <c r="D34" s="19"/>
+      <c r="D34" s="21"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>1033</v>
       </c>
-      <c r="B35" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C35" s="28" t="s">
+      <c r="B35" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C35" s="25" t="s">
         <v>1034</v>
       </c>
-      <c r="D35" s="19"/>
+      <c r="D35" s="21"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>904</v>
       </c>
-      <c r="B36" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C36" s="26" t="s">
+      <c r="B36" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C36" s="23" t="s">
         <v>905</v>
       </c>
-      <c r="D36" s="19"/>
+      <c r="D36" s="21"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>907</v>
       </c>
-      <c r="B37" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C37" s="26" t="s">
+      <c r="B37" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C37" s="23" t="s">
         <v>908</v>
       </c>
-      <c r="D37" s="19" t="s">
+      <c r="D37" s="21" t="s">
         <v>909</v>
       </c>
     </row>
@@ -8829,13 +9415,13 @@
       <c r="A38" t="s">
         <v>906</v>
       </c>
-      <c r="B38" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C38" s="26" t="s">
+      <c r="B38" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C38" s="23" t="s">
         <v>861</v>
       </c>
-      <c r="D38" s="19" t="s">
+      <c r="D38" s="21" t="s">
         <v>862</v>
       </c>
     </row>
@@ -8843,70 +9429,70 @@
       <c r="A39" t="s">
         <v>860</v>
       </c>
-      <c r="B39" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C39" s="28" t="s">
+      <c r="B39" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C39" s="25" t="s">
         <v>1032</v>
       </c>
-      <c r="D39" s="19"/>
+      <c r="D39" s="21"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>895</v>
       </c>
-      <c r="B40" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C40" s="26" t="s">
+      <c r="B40" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C40" s="23" t="s">
         <v>896</v>
       </c>
-      <c r="D40" s="19"/>
+      <c r="D40" s="21"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>1028</v>
       </c>
-      <c r="B41" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C41" s="28" t="s">
+      <c r="B41" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C41" s="25" t="s">
         <v>1031</v>
       </c>
-      <c r="D41" s="19"/>
+      <c r="D41" s="21"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>1029</v>
       </c>
-      <c r="B42" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C42" s="28" t="s">
+      <c r="B42" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C42" s="25" t="s">
         <v>1030</v>
       </c>
-      <c r="D42" s="19"/>
+      <c r="D42" s="21"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>1026</v>
       </c>
-      <c r="B43" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C43" s="28" t="s">
+      <c r="B43" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C43" s="25" t="s">
         <v>1027</v>
       </c>
-      <c r="D43" s="19"/>
+      <c r="D43" s="21"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>1021</v>
       </c>
-      <c r="B44" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C44" s="28" t="s">
+      <c r="B44" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C44" s="25" t="s">
         <v>1025</v>
       </c>
       <c r="D44" s="20" t="s">
@@ -8917,130 +9503,130 @@
       <c r="A45" t="s">
         <v>1023</v>
       </c>
-      <c r="B45" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C45" s="28" t="s">
+      <c r="B45" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C45" s="25" t="s">
         <v>1024</v>
       </c>
-      <c r="D45" s="19"/>
+      <c r="D45" s="21"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>1000</v>
       </c>
-      <c r="B46" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C46" s="28" t="s">
+      <c r="B46" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C46" s="25" t="s">
         <v>1001</v>
       </c>
-      <c r="D46" s="19"/>
+      <c r="D46" s="21"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>998</v>
       </c>
-      <c r="B47" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C47" s="28" t="s">
+      <c r="B47" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C47" s="25" t="s">
         <v>999</v>
       </c>
-      <c r="D47" s="19"/>
+      <c r="D47" s="21"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>996</v>
       </c>
-      <c r="B48" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C48" s="28" t="s">
+      <c r="B48" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C48" s="25" t="s">
         <v>997</v>
       </c>
-      <c r="D48" s="19"/>
+      <c r="D48" s="21"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>958</v>
       </c>
-      <c r="B49" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C49" s="28" t="s">
+      <c r="B49" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C49" s="25" t="s">
         <v>959</v>
       </c>
-      <c r="D49" s="19"/>
+      <c r="D49" s="21"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>899</v>
       </c>
-      <c r="B50" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C50" s="26" t="s">
+      <c r="B50" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C50" s="23" t="s">
         <v>900</v>
       </c>
-      <c r="D50" s="19"/>
+      <c r="D50" s="21"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>960</v>
       </c>
-      <c r="B51" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C51" s="28" t="s">
+      <c r="B51" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C51" s="25" t="s">
         <v>961</v>
       </c>
-      <c r="D51" s="19"/>
+      <c r="D51" s="21"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>962</v>
       </c>
-      <c r="B52" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C52" s="28" t="s">
+      <c r="B52" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C52" s="25" t="s">
         <v>963</v>
       </c>
-      <c r="D52" s="19"/>
+      <c r="D52" s="21"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>736</v>
       </c>
-      <c r="B53" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C53" s="26" t="s">
+      <c r="B53" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C53" s="23" t="s">
         <v>737</v>
       </c>
-      <c r="D53" s="19"/>
+      <c r="D53" s="21"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>884</v>
       </c>
-      <c r="B54" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C54" s="28" t="s">
+      <c r="B54" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C54" s="25" t="s">
         <v>995</v>
       </c>
-      <c r="D54" s="19"/>
+      <c r="D54" s="21"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>750</v>
       </c>
-      <c r="B55" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C55" s="26" t="s">
+      <c r="B55" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C55" s="23" t="s">
         <v>751</v>
       </c>
       <c r="D55" s="20" t="s">
@@ -9051,13 +9637,13 @@
       <c r="A56" t="s">
         <v>700</v>
       </c>
-      <c r="B56" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C56" s="26" t="s">
+      <c r="B56" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C56" s="23" t="s">
         <v>752</v>
       </c>
-      <c r="D56" s="19" t="s">
+      <c r="D56" s="21" t="s">
         <v>701</v>
       </c>
     </row>
@@ -9065,121 +9651,121 @@
       <c r="A57" t="s">
         <v>872</v>
       </c>
-      <c r="B57" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C57" s="26" t="s">
+      <c r="B57" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C57" s="23" t="s">
         <v>875</v>
       </c>
-      <c r="D57" s="19"/>
+      <c r="D57" s="21"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>873</v>
       </c>
-      <c r="B58" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C58" s="26" t="s">
+      <c r="B58" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C58" s="23" t="s">
         <v>874</v>
       </c>
-      <c r="D58" s="19"/>
+      <c r="D58" s="21"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>876</v>
       </c>
-      <c r="B59" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C59" s="26" t="s">
+      <c r="B59" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C59" s="23" t="s">
         <v>877</v>
       </c>
-      <c r="D59" s="19"/>
+      <c r="D59" s="21"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>885</v>
       </c>
-      <c r="B60" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C60" s="28" t="s">
+      <c r="B60" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C60" s="25" t="s">
         <v>986</v>
       </c>
-      <c r="D60" s="19"/>
+      <c r="D60" s="21"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>886</v>
       </c>
-      <c r="B61" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C61" s="28" t="s">
+      <c r="B61" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C61" s="25" t="s">
         <v>985</v>
       </c>
-      <c r="D61" s="19"/>
+      <c r="D61" s="21"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>887</v>
       </c>
-      <c r="B62" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C62" s="28" t="s">
+      <c r="B62" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C62" s="25" t="s">
         <v>964</v>
       </c>
-      <c r="D62" s="19"/>
+      <c r="D62" s="21"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>744</v>
       </c>
-      <c r="B63" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C63" s="26" t="s">
+      <c r="B63" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C63" s="23" t="s">
         <v>745</v>
       </c>
-      <c r="D63" s="19"/>
+      <c r="D63" s="21"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>746</v>
       </c>
-      <c r="B64" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C64" s="26" t="s">
+      <c r="B64" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C64" s="23" t="s">
         <v>747</v>
       </c>
-      <c r="D64" s="19"/>
+      <c r="D64" s="21"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>748</v>
       </c>
-      <c r="B65" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C65" s="26" t="s">
+      <c r="B65" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C65" s="23" t="s">
         <v>749</v>
       </c>
-      <c r="D65" s="19"/>
+      <c r="D65" s="21"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>847</v>
       </c>
-      <c r="B66" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C66" s="26" t="s">
+      <c r="B66" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C66" s="23" t="s">
         <v>848</v>
       </c>
-      <c r="D66" s="19" t="s">
+      <c r="D66" s="21" t="s">
         <v>849</v>
       </c>
     </row>
@@ -9187,58 +9773,58 @@
       <c r="A67" t="s">
         <v>878</v>
       </c>
-      <c r="B67" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C67" s="26" t="s">
+      <c r="B67" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C67" s="23" t="s">
         <v>879</v>
       </c>
-      <c r="D67" s="19"/>
+      <c r="D67" s="21"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>693</v>
       </c>
-      <c r="B68" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C68" s="26" t="s">
+      <c r="B68" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C68" s="23" t="s">
         <v>694</v>
       </c>
-      <c r="D68" s="19"/>
+      <c r="D68" s="21"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>695</v>
       </c>
-      <c r="B69" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C69" s="26" t="s">
+      <c r="B69" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C69" s="23" t="s">
         <v>696</v>
       </c>
-      <c r="D69" s="19"/>
+      <c r="D69" s="21"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>802</v>
       </c>
-      <c r="B70" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C70" s="29" t="s">
+      <c r="B70" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C70" s="26" t="s">
         <v>803</v>
       </c>
-      <c r="D70" s="19"/>
+      <c r="D70" s="21"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>804</v>
       </c>
-      <c r="B71" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C71" s="29" t="s">
+      <c r="B71" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C71" s="26" t="s">
         <v>805</v>
       </c>
       <c r="D71" s="20" t="s">
@@ -9249,13 +9835,13 @@
       <c r="A72" t="s">
         <v>806</v>
       </c>
-      <c r="B72" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C72" s="29" t="s">
+      <c r="B72" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C72" s="26" t="s">
         <v>807</v>
       </c>
-      <c r="D72" s="19" t="s">
+      <c r="D72" s="21" t="s">
         <v>817</v>
       </c>
     </row>
@@ -9263,13 +9849,13 @@
       <c r="A73" t="s">
         <v>712</v>
       </c>
-      <c r="B73" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C73" s="26" t="s">
+      <c r="B73" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C73" s="23" t="s">
         <v>713</v>
       </c>
-      <c r="D73" s="19" t="s">
+      <c r="D73" s="21" t="s">
         <v>714</v>
       </c>
     </row>
@@ -9277,13 +9863,13 @@
       <c r="A74" t="s">
         <v>705</v>
       </c>
-      <c r="B74" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C74" s="26" t="s">
+      <c r="B74" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C74" s="23" t="s">
         <v>707</v>
       </c>
-      <c r="D74" s="19" t="s">
+      <c r="D74" s="21" t="s">
         <v>706</v>
       </c>
     </row>
@@ -9291,13 +9877,13 @@
       <c r="A75" t="s">
         <v>722</v>
       </c>
-      <c r="B75" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C75" s="26" t="s">
+      <c r="B75" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C75" s="23" t="s">
         <v>723</v>
       </c>
-      <c r="D75" s="19" t="s">
+      <c r="D75" s="21" t="s">
         <v>724</v>
       </c>
     </row>
@@ -9305,13 +9891,13 @@
       <c r="A76" t="s">
         <v>719</v>
       </c>
-      <c r="B76" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C76" s="26" t="s">
+      <c r="B76" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C76" s="23" t="s">
         <v>720</v>
       </c>
-      <c r="D76" s="19" t="s">
+      <c r="D76" s="21" t="s">
         <v>721</v>
       </c>
     </row>
@@ -9319,13 +9905,13 @@
       <c r="A77" t="s">
         <v>689</v>
       </c>
-      <c r="B77" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C77" s="26" t="s">
+      <c r="B77" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C77" s="23" t="s">
         <v>690</v>
       </c>
-      <c r="D77" s="19" t="s">
+      <c r="D77" s="21" t="s">
         <v>688</v>
       </c>
     </row>
@@ -9333,10 +9919,10 @@
       <c r="A78" t="s">
         <v>691</v>
       </c>
-      <c r="B78" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C78" s="26" t="s">
+      <c r="B78" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C78" s="23" t="s">
         <v>692</v>
       </c>
       <c r="D78" s="20" t="s">
@@ -9347,13 +9933,13 @@
       <c r="A79" t="s">
         <v>808</v>
       </c>
-      <c r="B79" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C79" s="26" t="s">
+      <c r="B79" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C79" s="23" t="s">
         <v>815</v>
       </c>
-      <c r="D79" s="19" t="s">
+      <c r="D79" s="21" t="s">
         <v>816</v>
       </c>
     </row>
@@ -9361,61 +9947,61 @@
       <c r="A80" t="s">
         <v>773</v>
       </c>
-      <c r="B80" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C80" s="26" t="s">
+      <c r="B80" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C80" s="23" t="s">
         <v>774</v>
       </c>
-      <c r="D80" s="19"/>
+      <c r="D80" s="21"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>772</v>
       </c>
-      <c r="B81" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C81" s="29" t="s">
+      <c r="B81" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C81" s="26" t="s">
         <v>775</v>
       </c>
-      <c r="D81" s="19"/>
+      <c r="D81" s="21"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>668</v>
       </c>
-      <c r="B82" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C82" s="26" t="s">
+      <c r="B82" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C82" s="23" t="s">
         <v>669</v>
       </c>
-      <c r="D82" s="19"/>
+      <c r="D82" s="21"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>768</v>
       </c>
-      <c r="B83" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C83" s="29" t="s">
+      <c r="B83" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C83" s="26" t="s">
         <v>769</v>
       </c>
-      <c r="D83" s="19"/>
+      <c r="D83" s="21"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>809</v>
       </c>
-      <c r="B84" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C84" s="28" t="s">
+      <c r="B84" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C84" s="25" t="s">
         <v>935</v>
       </c>
-      <c r="D84" s="19" t="s">
+      <c r="D84" s="21" t="s">
         <v>1101</v>
       </c>
     </row>
@@ -9423,61 +10009,61 @@
       <c r="A85" t="s">
         <v>672</v>
       </c>
-      <c r="B85" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C85" s="26" t="s">
+      <c r="B85" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C85" s="23" t="s">
         <v>673</v>
       </c>
-      <c r="D85" s="19"/>
+      <c r="D85" s="21"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>770</v>
       </c>
-      <c r="B86" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C86" s="29" t="s">
+      <c r="B86" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C86" s="26" t="s">
         <v>771</v>
       </c>
-      <c r="D86" s="19"/>
+      <c r="D86" s="21"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>810</v>
       </c>
-      <c r="B87" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C87" s="28" t="s">
+      <c r="B87" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C87" s="25" t="s">
         <v>936</v>
       </c>
-      <c r="D87" s="19"/>
+      <c r="D87" s="21"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>778</v>
       </c>
-      <c r="B88" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C88" s="29" t="s">
+      <c r="B88" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C88" s="26" t="s">
         <v>779</v>
       </c>
-      <c r="D88" s="19"/>
+      <c r="D88" s="21"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>670</v>
       </c>
-      <c r="B89" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C89" s="26" t="s">
+      <c r="B89" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C89" s="23" t="s">
         <v>671</v>
       </c>
-      <c r="D89" s="19" t="s">
+      <c r="D89" s="21" t="s">
         <v>688</v>
       </c>
     </row>
@@ -9485,37 +10071,37 @@
       <c r="A90" t="s">
         <v>678</v>
       </c>
-      <c r="B90" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C90" s="26" t="s">
+      <c r="B90" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C90" s="23" t="s">
         <v>679</v>
       </c>
-      <c r="D90" s="19"/>
+      <c r="D90" s="21"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>880</v>
       </c>
-      <c r="B91" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C91" s="28" t="s">
+      <c r="B91" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C91" s="25" t="s">
         <v>965</v>
       </c>
-      <c r="D91" s="19"/>
+      <c r="D91" s="21"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>702</v>
       </c>
-      <c r="B92" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C92" s="26" t="s">
+      <c r="B92" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C92" s="23" t="s">
         <v>703</v>
       </c>
-      <c r="D92" s="19" t="s">
+      <c r="D92" s="21" t="s">
         <v>704</v>
       </c>
     </row>
@@ -9523,13 +10109,13 @@
       <c r="A93" t="s">
         <v>881</v>
       </c>
-      <c r="B93" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C93" s="26" t="s">
+      <c r="B93" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C93" s="23" t="s">
         <v>916</v>
       </c>
-      <c r="D93" s="19" t="s">
+      <c r="D93" s="21" t="s">
         <v>917</v>
       </c>
     </row>
@@ -9537,37 +10123,37 @@
       <c r="A94" t="s">
         <v>717</v>
       </c>
-      <c r="B94" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C94" s="26" t="s">
+      <c r="B94" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C94" s="23" t="s">
         <v>718</v>
       </c>
-      <c r="D94" s="19"/>
+      <c r="D94" s="21"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>680</v>
       </c>
-      <c r="B95" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C95" s="26" t="s">
+      <c r="B95" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C95" s="23" t="s">
         <v>681</v>
       </c>
-      <c r="D95" s="19"/>
+      <c r="D95" s="21"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>683</v>
       </c>
-      <c r="B96" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C96" s="26" t="s">
+      <c r="B96" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C96" s="23" t="s">
         <v>682</v>
       </c>
-      <c r="D96" s="19" t="s">
+      <c r="D96" s="21" t="s">
         <v>743</v>
       </c>
     </row>
@@ -9575,97 +10161,97 @@
       <c r="A97" t="s">
         <v>776</v>
       </c>
-      <c r="B97" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C97" s="29" t="s">
+      <c r="B97" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C97" s="26" t="s">
         <v>777</v>
       </c>
-      <c r="D97" s="19"/>
+      <c r="D97" s="21"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>882</v>
       </c>
-      <c r="B98" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C98" s="28" t="s">
+      <c r="B98" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C98" s="25" t="s">
         <v>937</v>
       </c>
-      <c r="D98" s="19"/>
+      <c r="D98" s="21"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>738</v>
       </c>
-      <c r="B99" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C99" s="26" t="s">
+      <c r="B99" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C99" s="23" t="s">
         <v>794</v>
       </c>
-      <c r="D99" s="19"/>
+      <c r="D99" s="21"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>781</v>
       </c>
-      <c r="B100" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C100" s="29" t="s">
+      <c r="B100" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C100" s="26" t="s">
         <v>793</v>
       </c>
-      <c r="D100" s="19"/>
+      <c r="D100" s="21"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>883</v>
       </c>
-      <c r="B101" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C101" s="28" t="s">
+      <c r="B101" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C101" s="25" t="s">
         <v>934</v>
       </c>
-      <c r="D101" s="19"/>
+      <c r="D101" s="21"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>739</v>
       </c>
-      <c r="B102" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C102" s="26" t="s">
+      <c r="B102" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C102" s="23" t="s">
         <v>792</v>
       </c>
-      <c r="D102" s="19"/>
+      <c r="D102" s="21"/>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>780</v>
       </c>
-      <c r="B103" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C103" s="29" t="s">
+      <c r="B103" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C103" s="26" t="s">
         <v>791</v>
       </c>
-      <c r="D103" s="19"/>
+      <c r="D103" s="21"/>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>888</v>
       </c>
-      <c r="B104" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C104" s="28" t="s">
+      <c r="B104" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C104" s="25" t="s">
         <v>932</v>
       </c>
-      <c r="D104" s="19" t="s">
+      <c r="D104" s="21" t="s">
         <v>933</v>
       </c>
     </row>
@@ -9673,25 +10259,25 @@
       <c r="A105" t="s">
         <v>889</v>
       </c>
-      <c r="B105" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C105" s="28" t="s">
+      <c r="B105" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C105" s="25" t="s">
         <v>931</v>
       </c>
-      <c r="D105" s="19"/>
+      <c r="D105" s="21"/>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>742</v>
       </c>
-      <c r="B106" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C106" s="30" t="s">
+      <c r="B106" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C106" s="27" t="s">
         <v>790</v>
       </c>
-      <c r="D106" s="19" t="s">
+      <c r="D106" s="21" t="s">
         <v>763</v>
       </c>
     </row>
@@ -9699,13 +10285,13 @@
       <c r="A107" t="s">
         <v>715</v>
       </c>
-      <c r="B107" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C107" s="26" t="s">
+      <c r="B107" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C107" s="23" t="s">
         <v>716</v>
       </c>
-      <c r="D107" s="21" t="s">
+      <c r="D107" s="37" t="s">
         <v>1117</v>
       </c>
     </row>
@@ -9713,25 +10299,25 @@
       <c r="A108" t="s">
         <v>890</v>
       </c>
-      <c r="B108" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C108" s="28" t="s">
+      <c r="B108" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C108" s="25" t="s">
         <v>966</v>
       </c>
-      <c r="D108" s="19"/>
+      <c r="D108" s="21"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>764</v>
       </c>
-      <c r="B109" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C109" s="30" t="s">
+      <c r="B109" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C109" s="27" t="s">
         <v>789</v>
       </c>
-      <c r="D109" s="19" t="s">
+      <c r="D109" s="21" t="s">
         <v>765</v>
       </c>
     </row>
@@ -9739,13 +10325,13 @@
       <c r="A110" t="s">
         <v>762</v>
       </c>
-      <c r="B110" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C110" s="26" t="s">
+      <c r="B110" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C110" s="23" t="s">
         <v>760</v>
       </c>
-      <c r="D110" s="19" t="s">
+      <c r="D110" s="21" t="s">
         <v>761</v>
       </c>
     </row>
@@ -9753,13 +10339,13 @@
       <c r="A111" t="s">
         <v>708</v>
       </c>
-      <c r="B111" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C111" s="26" t="s">
+      <c r="B111" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C111" s="23" t="s">
         <v>788</v>
       </c>
-      <c r="D111" s="19" t="s">
+      <c r="D111" s="21" t="s">
         <v>709</v>
       </c>
     </row>
@@ -9767,13 +10353,13 @@
       <c r="A112" t="s">
         <v>891</v>
       </c>
-      <c r="B112" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C112" s="28" t="s">
+      <c r="B112" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C112" s="25" t="s">
         <v>957</v>
       </c>
-      <c r="D112" s="19" t="s">
+      <c r="D112" s="21" t="s">
         <v>1104</v>
       </c>
     </row>
@@ -9781,13 +10367,13 @@
       <c r="A113" t="s">
         <v>710</v>
       </c>
-      <c r="B113" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C113" s="26" t="s">
+      <c r="B113" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C113" s="23" t="s">
         <v>787</v>
       </c>
-      <c r="D113" s="19" t="s">
+      <c r="D113" s="21" t="s">
         <v>711</v>
       </c>
     </row>
@@ -9795,13 +10381,13 @@
       <c r="A114" t="s">
         <v>731</v>
       </c>
-      <c r="B114" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C114" s="26" t="s">
+      <c r="B114" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C114" s="23" t="s">
         <v>732</v>
       </c>
-      <c r="D114" s="19" t="s">
+      <c r="D114" s="21" t="s">
         <v>733</v>
       </c>
     </row>
@@ -9809,73 +10395,73 @@
       <c r="A115" t="s">
         <v>918</v>
       </c>
-      <c r="B115" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C115" s="28" t="s">
+      <c r="B115" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C115" s="25" t="s">
         <v>938</v>
       </c>
-      <c r="D115" s="19"/>
+      <c r="D115" s="21"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>919</v>
       </c>
-      <c r="B116" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C116" s="26" t="s">
+      <c r="B116" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C116" s="23" t="s">
         <v>923</v>
       </c>
-      <c r="D116" s="19"/>
+      <c r="D116" s="21"/>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>920</v>
       </c>
-      <c r="B117" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C117" s="26" t="s">
+      <c r="B117" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C117" s="23" t="s">
         <v>924</v>
       </c>
-      <c r="D117" s="21"/>
+      <c r="D117" s="37"/>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>921</v>
       </c>
-      <c r="B118" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C118" s="28" t="s">
+      <c r="B118" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C118" s="25" t="s">
         <v>967</v>
       </c>
-      <c r="D118" s="19"/>
+      <c r="D118" s="21"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>922</v>
       </c>
-      <c r="B119" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C119" s="28" t="s">
+      <c r="B119" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C119" s="25" t="s">
         <v>929</v>
       </c>
-      <c r="D119" s="19"/>
+      <c r="D119" s="21"/>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>766</v>
       </c>
-      <c r="B120" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C120" s="26" t="s">
+      <c r="B120" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C120" s="23" t="s">
         <v>786</v>
       </c>
-      <c r="D120" s="19" t="s">
+      <c r="D120" s="21" t="s">
         <v>767</v>
       </c>
     </row>
@@ -9883,13 +10469,13 @@
       <c r="A121" t="s">
         <v>784</v>
       </c>
-      <c r="B121" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C121" s="29" t="s">
+      <c r="B121" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C121" s="26" t="s">
         <v>785</v>
       </c>
-      <c r="D121" s="19" t="s">
+      <c r="D121" s="21" t="s">
         <v>824</v>
       </c>
     </row>
@@ -9897,13 +10483,13 @@
       <c r="A122" t="s">
         <v>892</v>
       </c>
-      <c r="B122" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C122" s="28" t="s">
+      <c r="B122" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C122" s="25" t="s">
         <v>952</v>
       </c>
-      <c r="D122" s="19" t="s">
+      <c r="D122" s="21" t="s">
         <v>953</v>
       </c>
     </row>
@@ -9911,13 +10497,13 @@
       <c r="A123" t="s">
         <v>797</v>
       </c>
-      <c r="B123" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C123" s="29" t="s">
+      <c r="B123" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C123" s="26" t="s">
         <v>798</v>
       </c>
-      <c r="D123" s="19" t="s">
+      <c r="D123" s="21" t="s">
         <v>823</v>
       </c>
     </row>
@@ -9925,13 +10511,13 @@
       <c r="A124" t="s">
         <v>795</v>
       </c>
-      <c r="B124" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C124" s="28" t="s">
+      <c r="B124" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C124" s="25" t="s">
         <v>796</v>
       </c>
-      <c r="D124" s="19" t="s">
+      <c r="D124" s="21" t="s">
         <v>825</v>
       </c>
     </row>
@@ -9939,10 +10525,10 @@
       <c r="A125" t="s">
         <v>753</v>
       </c>
-      <c r="B125" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C125" s="26" t="s">
+      <c r="B125" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C125" s="23" t="s">
         <v>754</v>
       </c>
       <c r="D125" s="20" t="s">
@@ -9953,61 +10539,61 @@
       <c r="A126" t="s">
         <v>893</v>
       </c>
-      <c r="B126" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C126" s="26" t="s">
+      <c r="B126" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C126" s="23" t="s">
         <v>915</v>
       </c>
-      <c r="D126" s="19"/>
+      <c r="D126" s="21"/>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>851</v>
       </c>
-      <c r="B127" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C127" s="29" t="s">
+      <c r="B127" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C127" s="26" t="s">
         <v>852</v>
       </c>
-      <c r="D127" s="19"/>
+      <c r="D127" s="21"/>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>740</v>
       </c>
-      <c r="B128" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C128" s="26" t="s">
+      <c r="B128" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C128" s="23" t="s">
         <v>741</v>
       </c>
-      <c r="D128" s="19"/>
+      <c r="D128" s="21"/>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>665</v>
       </c>
-      <c r="B129" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C129" s="26" t="s">
+      <c r="B129" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C129" s="23" t="s">
         <v>699</v>
       </c>
-      <c r="D129" s="19"/>
+      <c r="D129" s="21"/>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>686</v>
       </c>
-      <c r="B130" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C130" s="26" t="s">
+      <c r="B130" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C130" s="23" t="s">
         <v>687</v>
       </c>
-      <c r="D130" s="19" t="s">
+      <c r="D130" s="21" t="s">
         <v>688</v>
       </c>
     </row>
@@ -10015,13 +10601,13 @@
       <c r="A131" t="s">
         <v>728</v>
       </c>
-      <c r="B131" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C131" s="26" t="s">
+      <c r="B131" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C131" s="23" t="s">
         <v>729</v>
       </c>
-      <c r="D131" s="19" t="s">
+      <c r="D131" s="21" t="s">
         <v>730</v>
       </c>
     </row>
@@ -10029,13 +10615,13 @@
       <c r="A132" t="s">
         <v>894</v>
       </c>
-      <c r="B132" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C132" s="28" t="s">
+      <c r="B132" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C132" s="25" t="s">
         <v>951</v>
       </c>
-      <c r="D132" s="19" t="s">
+      <c r="D132" s="21" t="s">
         <v>954</v>
       </c>
     </row>
@@ -10043,37 +10629,37 @@
       <c r="A133" t="s">
         <v>782</v>
       </c>
-      <c r="B133" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C133" s="29" t="s">
+      <c r="B133" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C133" s="26" t="s">
         <v>783</v>
       </c>
-      <c r="D133" s="19"/>
+      <c r="D133" s="21"/>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>1228</v>
       </c>
-      <c r="B134" s="22" t="s">
+      <c r="B134" s="19" t="s">
         <v>1181</v>
       </c>
-      <c r="C134" s="28" t="s">
+      <c r="C134" s="25" t="s">
         <v>1242</v>
       </c>
-      <c r="D134" s="19"/>
+      <c r="D134" s="21"/>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>1180</v>
       </c>
-      <c r="B135" s="22" t="s">
+      <c r="B135" s="19" t="s">
         <v>1181</v>
       </c>
-      <c r="C135" s="26" t="s">
+      <c r="C135" s="23" t="s">
         <v>1182</v>
       </c>
-      <c r="D135" s="19" t="s">
+      <c r="D135" s="21" t="s">
         <v>1183</v>
       </c>
     </row>
@@ -10081,13 +10667,13 @@
       <c r="A136" t="s">
         <v>1188</v>
       </c>
-      <c r="B136" s="22" t="s">
+      <c r="B136" s="19" t="s">
         <v>1181</v>
       </c>
-      <c r="C136" s="26" t="s">
+      <c r="C136" s="23" t="s">
         <v>1194</v>
       </c>
-      <c r="D136" s="19" t="s">
+      <c r="D136" s="21" t="s">
         <v>1197</v>
       </c>
     </row>
@@ -10095,37 +10681,37 @@
       <c r="A137" t="s">
         <v>1186</v>
       </c>
-      <c r="B137" s="22" t="s">
+      <c r="B137" s="19" t="s">
         <v>1181</v>
       </c>
-      <c r="C137" s="26" t="s">
+      <c r="C137" s="23" t="s">
         <v>1187</v>
       </c>
-      <c r="D137" s="19"/>
+      <c r="D137" s="21"/>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>1189</v>
       </c>
-      <c r="B138" s="22" t="s">
+      <c r="B138" s="19" t="s">
         <v>1181</v>
       </c>
-      <c r="C138" s="26" t="s">
+      <c r="C138" s="23" t="s">
         <v>1190</v>
       </c>
-      <c r="D138" s="19"/>
+      <c r="D138" s="21"/>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>1191</v>
       </c>
-      <c r="B139" s="22" t="s">
+      <c r="B139" s="19" t="s">
         <v>1181</v>
       </c>
-      <c r="C139" s="26" t="s">
+      <c r="C139" s="23" t="s">
         <v>1192</v>
       </c>
-      <c r="D139" s="19" t="s">
+      <c r="D139" s="21" t="s">
         <v>1193</v>
       </c>
     </row>
@@ -10133,13 +10719,13 @@
       <c r="A140" t="s">
         <v>1241</v>
       </c>
-      <c r="B140" s="22" t="s">
+      <c r="B140" s="19" t="s">
         <v>1181</v>
       </c>
-      <c r="C140" s="26" t="s">
+      <c r="C140" s="23" t="s">
         <v>1195</v>
       </c>
-      <c r="D140" s="19" t="s">
+      <c r="D140" s="21" t="s">
         <v>1196</v>
       </c>
     </row>
@@ -10147,13 +10733,13 @@
       <c r="A141" t="s">
         <v>1184</v>
       </c>
-      <c r="B141" s="22" t="s">
+      <c r="B141" s="19" t="s">
         <v>1181</v>
       </c>
-      <c r="C141" s="26" t="s">
+      <c r="C141" s="23" t="s">
         <v>1205</v>
       </c>
-      <c r="D141" s="19" t="s">
+      <c r="D141" s="21" t="s">
         <v>1185</v>
       </c>
     </row>
@@ -10161,37 +10747,37 @@
       <c r="A142" t="s">
         <v>925</v>
       </c>
-      <c r="B142" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C142" s="28" t="s">
+      <c r="B142" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C142" s="25" t="s">
         <v>926</v>
       </c>
-      <c r="D142" s="19"/>
+      <c r="D142" s="21"/>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>927</v>
       </c>
-      <c r="B143" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C143" s="28" t="s">
+      <c r="B143" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C143" s="25" t="s">
         <v>928</v>
       </c>
-      <c r="D143" s="19"/>
+      <c r="D143" s="21"/>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>1221</v>
       </c>
-      <c r="B144" s="22" t="s">
+      <c r="B144" s="19" t="s">
         <v>1181</v>
       </c>
-      <c r="C144" s="28" t="s">
+      <c r="C144" s="25" t="s">
         <v>1222</v>
       </c>
-      <c r="D144" s="19" t="s">
+      <c r="D144" s="21" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -10199,13 +10785,13 @@
       <c r="A145" t="s">
         <v>1224</v>
       </c>
-      <c r="B145" s="22" t="s">
+      <c r="B145" s="19" t="s">
         <v>1181</v>
       </c>
-      <c r="C145" s="28" t="s">
+      <c r="C145" s="25" t="s">
         <v>1225</v>
       </c>
-      <c r="D145" s="19" t="s">
+      <c r="D145" s="21" t="s">
         <v>1226</v>
       </c>
     </row>
@@ -10213,13 +10799,13 @@
       <c r="A146" t="s">
         <v>1227</v>
       </c>
-      <c r="B146" s="22" t="s">
+      <c r="B146" s="19" t="s">
         <v>1181</v>
       </c>
-      <c r="C146" s="26" t="s">
+      <c r="C146" s="23" t="s">
         <v>1229</v>
       </c>
-      <c r="D146" s="19" t="s">
+      <c r="D146" s="21" t="s">
         <v>1230</v>
       </c>
     </row>
@@ -10227,13 +10813,13 @@
       <c r="A147" t="s">
         <v>1215</v>
       </c>
-      <c r="B147" s="22" t="s">
+      <c r="B147" s="19" t="s">
         <v>1181</v>
       </c>
-      <c r="C147" s="26" t="s">
+      <c r="C147" s="23" t="s">
         <v>1208</v>
       </c>
-      <c r="D147" s="19" t="s">
+      <c r="D147" s="21" t="s">
         <v>1209</v>
       </c>
     </row>
@@ -10241,13 +10827,13 @@
       <c r="A148" t="s">
         <v>1216</v>
       </c>
-      <c r="B148" s="22" t="s">
+      <c r="B148" s="19" t="s">
         <v>1181</v>
       </c>
-      <c r="C148" s="26" t="s">
+      <c r="C148" s="23" t="s">
         <v>1141</v>
       </c>
-      <c r="D148" s="19" t="s">
+      <c r="D148" s="21" t="s">
         <v>1217</v>
       </c>
     </row>
@@ -10255,13 +10841,13 @@
       <c r="A149" t="s">
         <v>1218</v>
       </c>
-      <c r="B149" s="22" t="s">
+      <c r="B149" s="19" t="s">
         <v>1181</v>
       </c>
-      <c r="C149" s="26" t="s">
+      <c r="C149" s="23" t="s">
         <v>1219</v>
       </c>
-      <c r="D149" s="19" t="s">
+      <c r="D149" s="21" t="s">
         <v>1220</v>
       </c>
     </row>
@@ -10269,13 +10855,13 @@
       <c r="A150" t="s">
         <v>1249</v>
       </c>
-      <c r="B150" s="22" t="s">
+      <c r="B150" s="19" t="s">
         <v>1181</v>
       </c>
-      <c r="C150" s="26" t="s">
+      <c r="C150" s="23" t="s">
         <v>1250</v>
       </c>
-      <c r="D150" s="19" t="s">
+      <c r="D150" s="21" t="s">
         <v>1251</v>
       </c>
     </row>
@@ -10283,10 +10869,10 @@
       <c r="A151" t="s">
         <v>1252</v>
       </c>
-      <c r="B151" s="36" t="s">
+      <c r="B151" s="32" t="s">
         <v>1181</v>
       </c>
-      <c r="C151" s="28" t="s">
+      <c r="C151" s="25" t="s">
         <v>1250</v>
       </c>
       <c r="D151" s="20" t="s">
@@ -10297,61 +10883,61 @@
       <c r="A152" t="s">
         <v>1253</v>
       </c>
-      <c r="B152" s="22" t="s">
+      <c r="B152" s="19" t="s">
         <v>1181</v>
       </c>
-      <c r="C152" s="26" t="s">
+      <c r="C152" s="23" t="s">
         <v>1254</v>
       </c>
-      <c r="D152" s="19"/>
+      <c r="D152" s="21"/>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>1255</v>
       </c>
-      <c r="B153" s="22" t="s">
+      <c r="B153" s="19" t="s">
         <v>1181</v>
       </c>
-      <c r="C153" s="29" t="s">
+      <c r="C153" s="26" t="s">
         <v>1289</v>
       </c>
-      <c r="D153" s="19"/>
+      <c r="D153" s="21"/>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>1210</v>
       </c>
-      <c r="B154" s="22" t="s">
+      <c r="B154" s="19" t="s">
         <v>1181</v>
       </c>
-      <c r="C154" s="26" t="s">
+      <c r="C154" s="23" t="s">
         <v>1211</v>
       </c>
-      <c r="D154" s="19"/>
+      <c r="D154" s="21"/>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>1206</v>
       </c>
-      <c r="B155" s="22" t="s">
+      <c r="B155" s="19" t="s">
         <v>1181</v>
       </c>
-      <c r="C155" s="26" t="s">
+      <c r="C155" s="23" t="s">
         <v>1207</v>
       </c>
-      <c r="D155" s="19"/>
+      <c r="D155" s="21"/>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>1212</v>
       </c>
-      <c r="B156" s="22" t="s">
+      <c r="B156" s="19" t="s">
         <v>1181</v>
       </c>
-      <c r="C156" s="26" t="s">
+      <c r="C156" s="23" t="s">
         <v>1213</v>
       </c>
-      <c r="D156" s="19" t="s">
+      <c r="D156" s="21" t="s">
         <v>1214</v>
       </c>
     </row>
@@ -10359,25 +10945,25 @@
       <c r="A157" t="s">
         <v>1284</v>
       </c>
-      <c r="B157" s="22" t="s">
+      <c r="B157" s="19" t="s">
         <v>1181</v>
       </c>
-      <c r="C157" s="26" t="s">
+      <c r="C157" s="23" t="s">
         <v>1285</v>
       </c>
-      <c r="D157" s="19"/>
+      <c r="D157" s="21"/>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>1286</v>
       </c>
-      <c r="B158" s="22" t="s">
+      <c r="B158" s="19" t="s">
         <v>1181</v>
       </c>
-      <c r="C158" s="26" t="s">
+      <c r="C158" s="23" t="s">
         <v>1287</v>
       </c>
-      <c r="D158" s="19" t="s">
+      <c r="D158" s="21" t="s">
         <v>1288</v>
       </c>
     </row>
@@ -10385,13 +10971,13 @@
       <c r="A159" t="s">
         <v>1233</v>
       </c>
-      <c r="B159" s="22" t="s">
+      <c r="B159" s="19" t="s">
         <v>1181</v>
       </c>
-      <c r="C159" s="26" t="s">
+      <c r="C159" s="23" t="s">
         <v>1234</v>
       </c>
-      <c r="D159" s="19" t="s">
+      <c r="D159" s="21" t="s">
         <v>1235</v>
       </c>
     </row>
@@ -10399,13 +10985,13 @@
       <c r="A160" t="s">
         <v>1243</v>
       </c>
-      <c r="B160" s="22" t="s">
+      <c r="B160" s="19" t="s">
         <v>1181</v>
       </c>
-      <c r="C160" s="26" t="s">
+      <c r="C160" s="23" t="s">
         <v>1244</v>
       </c>
-      <c r="D160" s="19" t="s">
+      <c r="D160" s="21" t="s">
         <v>1245</v>
       </c>
     </row>
@@ -10413,13 +10999,13 @@
       <c r="A161" t="s">
         <v>1246</v>
       </c>
-      <c r="B161" s="22" t="s">
+      <c r="B161" s="19" t="s">
         <v>1181</v>
       </c>
-      <c r="C161" s="26" t="s">
+      <c r="C161" s="23" t="s">
         <v>1247</v>
       </c>
-      <c r="D161" s="19" t="s">
+      <c r="D161" s="21" t="s">
         <v>1248</v>
       </c>
     </row>
@@ -10427,13 +11013,13 @@
       <c r="A162" t="s">
         <v>1203</v>
       </c>
-      <c r="B162" s="22" t="s">
+      <c r="B162" s="19" t="s">
         <v>1181</v>
       </c>
-      <c r="C162" s="26" t="s">
+      <c r="C162" s="23" t="s">
         <v>1201</v>
       </c>
-      <c r="D162" s="19" t="s">
+      <c r="D162" s="21" t="s">
         <v>1202</v>
       </c>
     </row>
@@ -10441,13 +11027,13 @@
       <c r="A163" t="s">
         <v>1236</v>
       </c>
-      <c r="B163" s="36" t="s">
+      <c r="B163" s="32" t="s">
         <v>1181</v>
       </c>
-      <c r="C163" s="26" t="s">
+      <c r="C163" s="23" t="s">
         <v>1237</v>
       </c>
-      <c r="D163" s="19" t="s">
+      <c r="D163" s="21" t="s">
         <v>1238</v>
       </c>
     </row>
@@ -10455,10 +11041,10 @@
       <c r="A164" t="s">
         <v>1281</v>
       </c>
-      <c r="B164" s="36" t="s">
+      <c r="B164" s="32" t="s">
         <v>1181</v>
       </c>
-      <c r="C164" s="26" t="s">
+      <c r="C164" s="23" t="s">
         <v>1282</v>
       </c>
       <c r="D164" s="20" t="s">
@@ -10469,10 +11055,10 @@
       <c r="A165" t="s">
         <v>1278</v>
       </c>
-      <c r="B165" s="36" t="s">
+      <c r="B165" s="32" t="s">
         <v>1181</v>
       </c>
-      <c r="C165" s="26" t="s">
+      <c r="C165" s="23" t="s">
         <v>1279</v>
       </c>
       <c r="D165" s="20" t="s">
@@ -10483,13 +11069,13 @@
       <c r="A166" t="s">
         <v>1275</v>
       </c>
-      <c r="B166" s="36" t="s">
+      <c r="B166" s="32" t="s">
         <v>1181</v>
       </c>
-      <c r="C166" s="26" t="s">
+      <c r="C166" s="23" t="s">
         <v>1277</v>
       </c>
-      <c r="D166" s="19" t="s">
+      <c r="D166" s="21" t="s">
         <v>1276</v>
       </c>
     </row>
@@ -10497,25 +11083,25 @@
       <c r="A167" t="s">
         <v>1200</v>
       </c>
-      <c r="B167" s="36" t="s">
+      <c r="B167" s="32" t="s">
         <v>1181</v>
       </c>
-      <c r="C167" s="26" t="s">
+      <c r="C167" s="23" t="s">
         <v>1204</v>
       </c>
-      <c r="D167" s="19"/>
+      <c r="D167" s="21"/>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>1231</v>
       </c>
-      <c r="B168" s="22" t="s">
+      <c r="B168" s="19" t="s">
         <v>1181</v>
       </c>
-      <c r="C168" s="26" t="s">
+      <c r="C168" s="23" t="s">
         <v>1259</v>
       </c>
-      <c r="D168" s="19" t="s">
+      <c r="D168" s="21" t="s">
         <v>1232</v>
       </c>
     </row>
@@ -10523,13 +11109,13 @@
       <c r="A169" t="s">
         <v>1257</v>
       </c>
-      <c r="B169" s="22" t="s">
+      <c r="B169" s="19" t="s">
         <v>1181</v>
       </c>
-      <c r="C169" s="26" t="s">
+      <c r="C169" s="23" t="s">
         <v>1258</v>
       </c>
-      <c r="D169" s="19" t="s">
+      <c r="D169" s="21" t="s">
         <v>1260</v>
       </c>
     </row>
@@ -10537,10 +11123,10 @@
       <c r="A170" t="s">
         <v>1261</v>
       </c>
-      <c r="B170" s="36" t="s">
+      <c r="B170" s="32" t="s">
         <v>1181</v>
       </c>
-      <c r="C170" s="26" t="s">
+      <c r="C170" s="23" t="s">
         <v>1262</v>
       </c>
       <c r="D170" s="20" t="s">
@@ -10551,25 +11137,25 @@
       <c r="A171" t="s">
         <v>1116</v>
       </c>
-      <c r="B171" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C171" s="28" t="s">
+      <c r="B171" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C171" s="25" t="s">
         <v>1119</v>
       </c>
-      <c r="D171" s="19"/>
+      <c r="D171" s="21"/>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>800</v>
       </c>
-      <c r="B172" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C172" s="29" t="s">
+      <c r="B172" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C172" s="26" t="s">
         <v>801</v>
       </c>
-      <c r="D172" s="19" t="s">
+      <c r="D172" s="21" t="s">
         <v>819</v>
       </c>
     </row>
@@ -10577,13 +11163,13 @@
       <c r="A173" t="s">
         <v>799</v>
       </c>
-      <c r="B173" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C173" s="26" t="s">
+      <c r="B173" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C173" s="23" t="s">
         <v>734</v>
       </c>
-      <c r="D173" s="21" t="s">
+      <c r="D173" s="37" t="s">
         <v>735</v>
       </c>
     </row>
@@ -10591,13 +11177,13 @@
       <c r="A174" t="s">
         <v>821</v>
       </c>
-      <c r="B174" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C174" s="26" t="s">
+      <c r="B174" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C174" s="23" t="s">
         <v>822</v>
       </c>
-      <c r="D174" s="19" t="s">
+      <c r="D174" s="21" t="s">
         <v>820</v>
       </c>
     </row>
@@ -10605,193 +11191,193 @@
       <c r="A175" t="s">
         <v>993</v>
       </c>
-      <c r="B175" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C175" s="28" t="s">
+      <c r="B175" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C175" s="25" t="s">
         <v>994</v>
       </c>
-      <c r="D175" s="19"/>
+      <c r="D175" s="21"/>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>1115</v>
       </c>
-      <c r="B176" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C176" s="28" t="s">
+      <c r="B176" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C176" s="25" t="s">
         <v>1122</v>
       </c>
-      <c r="D176" s="19"/>
+      <c r="D176" s="21"/>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>1198</v>
       </c>
-      <c r="B177" s="22" t="s">
+      <c r="B177" s="19" t="s">
         <v>1181</v>
       </c>
-      <c r="C177" s="28" t="s">
+      <c r="C177" s="25" t="s">
         <v>1199</v>
       </c>
-      <c r="D177" s="19"/>
+      <c r="D177" s="21"/>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>1302</v>
       </c>
-      <c r="B178" s="22" t="s">
+      <c r="B178" s="19" t="s">
         <v>1303</v>
       </c>
-      <c r="C178" s="28" t="s">
+      <c r="C178" s="25" t="s">
         <v>1304</v>
       </c>
-      <c r="D178" s="19"/>
+      <c r="D178" s="21"/>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>1305</v>
       </c>
-      <c r="B179" s="22" t="s">
+      <c r="B179" s="19" t="s">
         <v>1303</v>
       </c>
-      <c r="C179" s="28" t="s">
+      <c r="C179" s="25" t="s">
         <v>1306</v>
       </c>
-      <c r="D179" s="19"/>
+      <c r="D179" s="21"/>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>1307</v>
       </c>
-      <c r="B180" s="22" t="s">
+      <c r="B180" s="19" t="s">
         <v>1303</v>
       </c>
-      <c r="C180" s="28" t="s">
+      <c r="C180" s="25" t="s">
         <v>1308</v>
       </c>
-      <c r="D180" s="19"/>
+      <c r="D180" s="21"/>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>1360</v>
       </c>
-      <c r="B181" s="22" t="s">
+      <c r="B181" s="19" t="s">
         <v>1303</v>
       </c>
-      <c r="C181" s="26" t="s">
+      <c r="C181" s="23" t="s">
         <v>1361</v>
       </c>
-      <c r="D181" s="19"/>
+      <c r="D181" s="21"/>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>1356</v>
       </c>
-      <c r="B182" s="22" t="s">
+      <c r="B182" s="19" t="s">
         <v>1303</v>
       </c>
-      <c r="C182" s="26" t="s">
+      <c r="C182" s="23" t="s">
         <v>1357</v>
       </c>
-      <c r="D182" s="19"/>
+      <c r="D182" s="21"/>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>1359</v>
       </c>
-      <c r="B183" s="22" t="s">
+      <c r="B183" s="19" t="s">
         <v>1303</v>
       </c>
-      <c r="C183" s="26" t="s">
+      <c r="C183" s="23" t="s">
         <v>1362</v>
       </c>
-      <c r="D183" s="19"/>
+      <c r="D183" s="21"/>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>1363</v>
       </c>
-      <c r="B184" s="22" t="s">
+      <c r="B184" s="19" t="s">
         <v>1303</v>
       </c>
-      <c r="C184" s="26" t="s">
+      <c r="C184" s="23" t="s">
         <v>1364</v>
       </c>
-      <c r="D184" s="19"/>
+      <c r="D184" s="21"/>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>1365</v>
       </c>
-      <c r="B185" s="22" t="s">
+      <c r="B185" s="19" t="s">
         <v>1303</v>
       </c>
-      <c r="C185" s="29" t="s">
+      <c r="C185" s="26" t="s">
         <v>1366</v>
       </c>
-      <c r="D185" s="19"/>
+      <c r="D185" s="21"/>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>1379</v>
       </c>
-      <c r="B186" s="22" t="s">
+      <c r="B186" s="19" t="s">
         <v>1303</v>
       </c>
-      <c r="C186" s="29" t="s">
+      <c r="C186" s="26" t="s">
         <v>1380</v>
       </c>
-      <c r="D186" s="19"/>
+      <c r="D186" s="21"/>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>1381</v>
       </c>
-      <c r="B187" s="22" t="s">
+      <c r="B187" s="19" t="s">
         <v>1303</v>
       </c>
-      <c r="C187" s="29" t="s">
+      <c r="C187" s="26" t="s">
         <v>1382</v>
       </c>
-      <c r="D187" s="19"/>
+      <c r="D187" s="21"/>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>1369</v>
       </c>
-      <c r="B188" s="22" t="s">
+      <c r="B188" s="19" t="s">
         <v>1303</v>
       </c>
-      <c r="C188" s="26" t="s">
+      <c r="C188" s="23" t="s">
         <v>1370</v>
       </c>
-      <c r="D188" s="19"/>
+      <c r="D188" s="21"/>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>1377</v>
       </c>
-      <c r="B189" s="22" t="s">
+      <c r="B189" s="19" t="s">
         <v>1303</v>
       </c>
-      <c r="C189" s="26" t="s">
+      <c r="C189" s="23" t="s">
         <v>1378</v>
       </c>
-      <c r="D189" s="19"/>
+      <c r="D189" s="21"/>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>1386</v>
       </c>
-      <c r="B190" s="22" t="s">
+      <c r="B190" s="19" t="s">
         <v>1303</v>
       </c>
-      <c r="C190" s="26" t="s">
+      <c r="C190" s="23" t="s">
         <v>1387</v>
       </c>
-      <c r="D190" s="19" t="s">
+      <c r="D190" s="21" t="s">
         <v>1388</v>
       </c>
     </row>
@@ -10799,13 +11385,13 @@
       <c r="A191" t="s">
         <v>1389</v>
       </c>
-      <c r="B191" s="22" t="s">
+      <c r="B191" s="19" t="s">
         <v>1303</v>
       </c>
-      <c r="C191" s="26" t="s">
+      <c r="C191" s="23" t="s">
         <v>1390</v>
       </c>
-      <c r="D191" s="19" t="s">
+      <c r="D191" s="21" t="s">
         <v>1391</v>
       </c>
     </row>
@@ -10813,13 +11399,13 @@
       <c r="A192" t="s">
         <v>1314</v>
       </c>
-      <c r="B192" s="36" t="s">
+      <c r="B192" s="32" t="s">
         <v>1303</v>
       </c>
-      <c r="C192" s="26" t="s">
+      <c r="C192" s="23" t="s">
         <v>1315</v>
       </c>
-      <c r="D192" s="21" t="s">
+      <c r="D192" s="37" t="s">
         <v>1392</v>
       </c>
     </row>
@@ -10827,13 +11413,13 @@
       <c r="A193" t="s">
         <v>1321</v>
       </c>
-      <c r="B193" s="35" t="s">
+      <c r="B193" s="31" t="s">
         <v>1303</v>
       </c>
-      <c r="C193" s="26" t="s">
+      <c r="C193" s="23" t="s">
         <v>1322</v>
       </c>
-      <c r="D193" s="19"/>
+      <c r="D193" s="21"/>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
@@ -10842,10 +11428,10 @@
       <c r="B194" t="s">
         <v>1303</v>
       </c>
-      <c r="C194" s="26" t="s">
+      <c r="C194" s="23" t="s">
         <v>1317</v>
       </c>
-      <c r="D194" s="19" t="s">
+      <c r="D194" s="21" t="s">
         <v>1318</v>
       </c>
     </row>
@@ -10856,10 +11442,10 @@
       <c r="B195" t="s">
         <v>1303</v>
       </c>
-      <c r="C195" s="26" t="s">
+      <c r="C195" s="23" t="s">
         <v>1394</v>
       </c>
-      <c r="D195" s="19" t="s">
+      <c r="D195" s="21" t="s">
         <v>1395</v>
       </c>
     </row>
@@ -10870,10 +11456,10 @@
       <c r="B196" t="s">
         <v>1303</v>
       </c>
-      <c r="C196" s="26" t="s">
+      <c r="C196" s="23" t="s">
         <v>1397</v>
       </c>
-      <c r="D196" s="19" t="s">
+      <c r="D196" s="21" t="s">
         <v>1398</v>
       </c>
     </row>
@@ -10884,22 +11470,22 @@
       <c r="B197" t="s">
         <v>1303</v>
       </c>
-      <c r="C197" s="26" t="s">
+      <c r="C197" s="23" t="s">
         <v>1320</v>
       </c>
-      <c r="D197" s="19"/>
+      <c r="D197" s="21"/>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>1309</v>
       </c>
-      <c r="B198" s="22" t="s">
+      <c r="B198" s="19" t="s">
         <v>1303</v>
       </c>
-      <c r="C198" s="26" t="s">
+      <c r="C198" s="23" t="s">
         <v>1310</v>
       </c>
-      <c r="D198" s="19" t="s">
+      <c r="D198" s="21" t="s">
         <v>1311</v>
       </c>
     </row>
@@ -10907,37 +11493,37 @@
       <c r="A199" t="s">
         <v>1312</v>
       </c>
-      <c r="B199" s="22" t="s">
+      <c r="B199" s="19" t="s">
         <v>1303</v>
       </c>
-      <c r="C199" s="26" t="s">
+      <c r="C199" s="23" t="s">
         <v>1313</v>
       </c>
-      <c r="D199" s="19"/>
+      <c r="D199" s="21"/>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>1343</v>
       </c>
-      <c r="B200" s="22" t="s">
+      <c r="B200" s="19" t="s">
         <v>1303</v>
       </c>
-      <c r="C200" s="29" t="s">
+      <c r="C200" s="26" t="s">
         <v>1347</v>
       </c>
-      <c r="D200" s="19"/>
+      <c r="D200" s="21"/>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>1383</v>
       </c>
-      <c r="B201" s="22" t="s">
+      <c r="B201" s="19" t="s">
         <v>1303</v>
       </c>
-      <c r="C201" s="26" t="s">
+      <c r="C201" s="23" t="s">
         <v>1384</v>
       </c>
-      <c r="D201" s="19" t="s">
+      <c r="D201" s="21" t="s">
         <v>1385</v>
       </c>
     </row>
@@ -10945,25 +11531,25 @@
       <c r="A202" t="s">
         <v>1367</v>
       </c>
-      <c r="B202" s="22" t="s">
+      <c r="B202" s="19" t="s">
         <v>1303</v>
       </c>
-      <c r="C202" s="26" t="s">
+      <c r="C202" s="23" t="s">
         <v>1368</v>
       </c>
-      <c r="D202" s="19"/>
+      <c r="D202" s="21"/>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>1338</v>
       </c>
-      <c r="B203" s="22" t="s">
+      <c r="B203" s="19" t="s">
         <v>1303</v>
       </c>
-      <c r="C203" s="26" t="s">
+      <c r="C203" s="23" t="s">
         <v>1339</v>
       </c>
-      <c r="D203" s="19" t="s">
+      <c r="D203" s="21" t="s">
         <v>1340</v>
       </c>
     </row>
@@ -10971,25 +11557,25 @@
       <c r="A204" t="s">
         <v>1341</v>
       </c>
-      <c r="B204" s="22" t="s">
+      <c r="B204" s="19" t="s">
         <v>1303</v>
       </c>
-      <c r="C204" s="26" t="s">
+      <c r="C204" s="23" t="s">
         <v>1342</v>
       </c>
-      <c r="D204" s="19"/>
+      <c r="D204" s="21"/>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>1323</v>
       </c>
-      <c r="B205" s="22" t="s">
+      <c r="B205" s="19" t="s">
         <v>1303</v>
       </c>
-      <c r="C205" s="26" t="s">
+      <c r="C205" s="23" t="s">
         <v>1326</v>
       </c>
-      <c r="D205" s="19" t="s">
+      <c r="D205" s="21" t="s">
         <v>1328</v>
       </c>
     </row>
@@ -10997,13 +11583,13 @@
       <c r="A206" t="s">
         <v>1324</v>
       </c>
-      <c r="B206" s="22" t="s">
+      <c r="B206" s="19" t="s">
         <v>1303</v>
       </c>
-      <c r="C206" s="26" t="s">
+      <c r="C206" s="23" t="s">
         <v>1325</v>
       </c>
-      <c r="D206" s="19" t="s">
+      <c r="D206" s="21" t="s">
         <v>1327</v>
       </c>
     </row>
@@ -11011,13 +11597,13 @@
       <c r="A207" t="s">
         <v>1400</v>
       </c>
-      <c r="B207" s="22" t="s">
+      <c r="B207" s="19" t="s">
         <v>1303</v>
       </c>
-      <c r="C207" s="26" t="s">
+      <c r="C207" s="23" t="s">
         <v>1401</v>
       </c>
-      <c r="D207" s="19" t="s">
+      <c r="D207" s="21" t="s">
         <v>1402</v>
       </c>
     </row>
@@ -11025,13 +11611,13 @@
       <c r="A208" t="s">
         <v>1332</v>
       </c>
-      <c r="B208" s="22" t="s">
+      <c r="B208" s="19" t="s">
         <v>1303</v>
       </c>
-      <c r="C208" s="26" t="s">
+      <c r="C208" s="23" t="s">
         <v>1334</v>
       </c>
-      <c r="D208" s="19" t="s">
+      <c r="D208" s="21" t="s">
         <v>1333</v>
       </c>
     </row>
@@ -11039,13 +11625,13 @@
       <c r="A209" t="s">
         <v>1329</v>
       </c>
-      <c r="B209" s="22" t="s">
+      <c r="B209" s="19" t="s">
         <v>1303</v>
       </c>
-      <c r="C209" s="26" t="s">
+      <c r="C209" s="23" t="s">
         <v>1330</v>
       </c>
-      <c r="D209" s="19" t="s">
+      <c r="D209" s="21" t="s">
         <v>1331</v>
       </c>
     </row>
@@ -11053,34 +11639,34 @@
       <c r="A210" t="s">
         <v>968</v>
       </c>
-      <c r="B210" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C210" s="28" t="s">
+      <c r="B210" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C210" s="25" t="s">
         <v>969</v>
       </c>
-      <c r="D210" s="19"/>
+      <c r="D210" s="21"/>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>970</v>
       </c>
-      <c r="B211" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C211" s="28" t="s">
+      <c r="B211" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C211" s="25" t="s">
         <v>971</v>
       </c>
-      <c r="D211" s="19"/>
+      <c r="D211" s="21"/>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>1351</v>
       </c>
-      <c r="B212" s="36" t="s">
+      <c r="B212" s="32" t="s">
         <v>1303</v>
       </c>
-      <c r="C212" s="28" t="s">
+      <c r="C212" s="25" t="s">
         <v>1355</v>
       </c>
       <c r="D212" s="20" t="s">
@@ -11091,10 +11677,10 @@
       <c r="A213" t="s">
         <v>1352</v>
       </c>
-      <c r="B213" s="36" t="s">
+      <c r="B213" s="32" t="s">
         <v>1303</v>
       </c>
-      <c r="C213" s="28" t="s">
+      <c r="C213" s="25" t="s">
         <v>1354</v>
       </c>
       <c r="D213" s="20" t="s">
@@ -11105,13 +11691,13 @@
       <c r="A214" t="s">
         <v>1353</v>
       </c>
-      <c r="B214" s="36" t="s">
+      <c r="B214" s="32" t="s">
         <v>1303</v>
       </c>
-      <c r="C214" s="26" t="s">
+      <c r="C214" s="23" t="s">
         <v>1399</v>
       </c>
-      <c r="D214" s="19" t="s">
+      <c r="D214" s="21" t="s">
         <v>1388</v>
       </c>
     </row>
@@ -11119,22 +11705,22 @@
       <c r="A215" t="s">
         <v>1348</v>
       </c>
-      <c r="B215" s="36" t="s">
+      <c r="B215" s="32" t="s">
         <v>1303</v>
       </c>
-      <c r="C215" s="28" t="s">
+      <c r="C215" s="25" t="s">
         <v>1349</v>
       </c>
-      <c r="D215" s="19"/>
+      <c r="D215" s="21"/>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>1350</v>
       </c>
-      <c r="B216" s="36" t="s">
+      <c r="B216" s="32" t="s">
         <v>1303</v>
       </c>
-      <c r="C216" s="34" t="s">
+      <c r="C216" s="30" t="s">
         <v>1344</v>
       </c>
       <c r="D216" s="20" t="s">
@@ -11145,13 +11731,13 @@
       <c r="A217" t="s">
         <v>901</v>
       </c>
-      <c r="B217" s="36" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C217" s="26" t="s">
+      <c r="B217" s="32" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C217" s="23" t="s">
         <v>902</v>
       </c>
-      <c r="D217" s="19" t="s">
+      <c r="D217" s="21" t="s">
         <v>903</v>
       </c>
     </row>
@@ -11159,58 +11745,58 @@
       <c r="A218" t="s">
         <v>897</v>
       </c>
-      <c r="B218" s="36" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C218" s="26" t="s">
+      <c r="B218" s="32" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C218" s="23" t="s">
         <v>898</v>
       </c>
-      <c r="D218" s="19"/>
+      <c r="D218" s="21"/>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>991</v>
       </c>
-      <c r="B219" s="36" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C219" s="28" t="s">
+      <c r="B219" s="32" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C219" s="25" t="s">
         <v>992</v>
       </c>
-      <c r="D219" s="19"/>
+      <c r="D219" s="21"/>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>1022</v>
       </c>
-      <c r="B220" s="36" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C220" s="28" t="s">
+      <c r="B220" s="32" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C220" s="25" t="s">
         <v>1112</v>
       </c>
-      <c r="D220" s="19"/>
+      <c r="D220" s="21"/>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>972</v>
       </c>
-      <c r="B221" s="36" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C221" s="28" t="s">
+      <c r="B221" s="32" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C221" s="25" t="s">
         <v>973</v>
       </c>
-      <c r="D221" s="19"/>
+      <c r="D221" s="21"/>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>1345</v>
       </c>
-      <c r="B222" s="36" t="s">
+      <c r="B222" s="32" t="s">
         <v>1303</v>
       </c>
-      <c r="C222" s="26" t="s">
+      <c r="C222" s="23" t="s">
         <v>1344</v>
       </c>
       <c r="D222" s="20" t="s">
@@ -11221,13 +11807,13 @@
       <c r="A223" t="s">
         <v>1335</v>
       </c>
-      <c r="B223" s="22" t="s">
+      <c r="B223" s="19" t="s">
         <v>1303</v>
       </c>
-      <c r="C223" s="28" t="s">
+      <c r="C223" s="25" t="s">
         <v>1336</v>
       </c>
-      <c r="D223" s="19" t="s">
+      <c r="D223" s="21" t="s">
         <v>1337</v>
       </c>
     </row>
@@ -11235,13 +11821,13 @@
       <c r="A224" t="s">
         <v>1271</v>
       </c>
-      <c r="B224" s="22" t="s">
+      <c r="B224" s="19" t="s">
         <v>1181</v>
       </c>
-      <c r="C224" s="28" t="s">
+      <c r="C224" s="25" t="s">
         <v>1272</v>
       </c>
-      <c r="D224" s="19" t="s">
+      <c r="D224" s="21" t="s">
         <v>1273</v>
       </c>
     </row>
@@ -11249,13 +11835,13 @@
       <c r="A225" t="s">
         <v>1268</v>
       </c>
-      <c r="B225" s="22" t="s">
+      <c r="B225" s="19" t="s">
         <v>1181</v>
       </c>
-      <c r="C225" s="28" t="s">
+      <c r="C225" s="25" t="s">
         <v>1269</v>
       </c>
-      <c r="D225" s="19" t="s">
+      <c r="D225" s="21" t="s">
         <v>1270</v>
       </c>
     </row>
@@ -11263,13 +11849,13 @@
       <c r="A226" t="s">
         <v>1156</v>
       </c>
-      <c r="B226" s="22" t="s">
+      <c r="B226" s="19" t="s">
         <v>1124</v>
       </c>
-      <c r="C226" s="28" t="s">
+      <c r="C226" s="25" t="s">
         <v>1157</v>
       </c>
-      <c r="D226" s="24" t="s">
+      <c r="D226" s="21" t="s">
         <v>1158</v>
       </c>
     </row>
@@ -11277,25 +11863,25 @@
       <c r="A227" t="s">
         <v>1162</v>
       </c>
-      <c r="B227" s="22" t="s">
+      <c r="B227" s="19" t="s">
         <v>1124</v>
       </c>
-      <c r="C227" s="28" t="s">
+      <c r="C227" s="25" t="s">
         <v>1163</v>
       </c>
-      <c r="D227" s="24"/>
+      <c r="D227" s="21"/>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>1164</v>
       </c>
-      <c r="B228" s="22" t="s">
+      <c r="B228" s="19" t="s">
         <v>1124</v>
       </c>
-      <c r="C228" s="28" t="s">
+      <c r="C228" s="25" t="s">
         <v>1165</v>
       </c>
-      <c r="D228" s="24" t="s">
+      <c r="D228" s="21" t="s">
         <v>1166</v>
       </c>
     </row>
@@ -11303,49 +11889,49 @@
       <c r="A229" t="s">
         <v>1167</v>
       </c>
-      <c r="B229" s="22" t="s">
+      <c r="B229" s="19" t="s">
         <v>1124</v>
       </c>
-      <c r="C229" s="28" t="s">
+      <c r="C229" s="25" t="s">
         <v>1168</v>
       </c>
-      <c r="D229" s="24"/>
+      <c r="D229" s="21"/>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>1171</v>
       </c>
-      <c r="B230" s="22" t="s">
+      <c r="B230" s="19" t="s">
         <v>1124</v>
       </c>
-      <c r="C230" s="28" t="s">
+      <c r="C230" s="25" t="s">
         <v>1172</v>
       </c>
-      <c r="D230" s="24"/>
+      <c r="D230" s="21"/>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>1173</v>
       </c>
-      <c r="B231" s="22" t="s">
+      <c r="B231" s="19" t="s">
         <v>1124</v>
       </c>
-      <c r="C231" s="28" t="s">
+      <c r="C231" s="25" t="s">
         <v>1174</v>
       </c>
-      <c r="D231" s="24"/>
+      <c r="D231" s="21"/>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>1175</v>
       </c>
-      <c r="B232" s="22" t="s">
+      <c r="B232" s="19" t="s">
         <v>1124</v>
       </c>
-      <c r="C232" s="28" t="s">
+      <c r="C232" s="25" t="s">
         <v>1176</v>
       </c>
-      <c r="D232" s="24" t="s">
+      <c r="D232" s="21" t="s">
         <v>1177</v>
       </c>
     </row>
@@ -11353,207 +11939,209 @@
       <c r="A233" t="s">
         <v>1291</v>
       </c>
-      <c r="B233" s="22" t="s">
+      <c r="B233" s="19" t="s">
         <v>1124</v>
       </c>
-      <c r="C233" s="28" t="s">
+      <c r="C233" s="25" t="s">
         <v>1292</v>
       </c>
-      <c r="D233" s="24"/>
+      <c r="D233" s="21"/>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>1301</v>
       </c>
-      <c r="B234" s="22" t="s">
+      <c r="B234" s="19" t="s">
         <v>1124</v>
       </c>
-      <c r="C234" s="28" t="s">
+      <c r="C234" s="25" t="s">
         <v>1299</v>
       </c>
-      <c r="D234" s="24"/>
+      <c r="D234" s="21"/>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>1298</v>
       </c>
-      <c r="B235" s="22" t="s">
+      <c r="B235" s="19" t="s">
         <v>1124</v>
       </c>
-      <c r="C235" s="28" t="s">
+      <c r="C235" s="25" t="s">
         <v>1300</v>
       </c>
-      <c r="D235" s="24"/>
+      <c r="D235" s="21"/>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>1552</v>
-      </c>
-      <c r="B236" s="22" t="s">
+        <v>1553</v>
+      </c>
+      <c r="B236" s="19" t="s">
         <v>1124</v>
       </c>
-      <c r="C236" s="26" t="s">
-        <v>1554</v>
-      </c>
-      <c r="D236" s="19" t="s">
+      <c r="C236" s="23" t="s">
         <v>1555</v>
+      </c>
+      <c r="D236" s="21" t="s">
+        <v>1556</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>1553</v>
-      </c>
-      <c r="B237" s="22" t="s">
+        <v>1554</v>
+      </c>
+      <c r="B237" s="19" t="s">
         <v>1124</v>
       </c>
-      <c r="C237" s="26" t="s">
-        <v>1556</v>
-      </c>
-      <c r="D237" s="19" t="s">
+      <c r="C237" s="23" t="s">
         <v>1557</v>
+      </c>
+      <c r="D237" s="21" t="s">
+        <v>1558</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>1541</v>
-      </c>
-      <c r="B238" s="22" t="s">
+        <v>1542</v>
+      </c>
+      <c r="B238" s="19" t="s">
         <v>1124</v>
       </c>
-      <c r="C238" s="26" t="s">
-        <v>1542</v>
-      </c>
-      <c r="D238" s="19"/>
+      <c r="C238" s="23" t="s">
+        <v>1543</v>
+      </c>
+      <c r="D238" s="21"/>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>1559</v>
-      </c>
-      <c r="B239" s="22" t="s">
+        <v>1560</v>
+      </c>
+      <c r="B239" s="19" t="s">
         <v>1124</v>
       </c>
-      <c r="C239" s="26" t="s">
-        <v>1560</v>
-      </c>
-      <c r="D239" s="19"/>
+      <c r="C239" s="23" t="s">
+        <v>1561</v>
+      </c>
+      <c r="D239" s="21"/>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>1571</v>
-      </c>
-      <c r="B240" s="22" t="s">
         <v>1572</v>
       </c>
+      <c r="B240" s="19" t="s">
+        <v>1573</v>
+      </c>
       <c r="C240" s="14" t="s">
-        <v>1573</v>
-      </c>
-      <c r="D240" s="19" t="s">
         <v>1574</v>
+      </c>
+      <c r="D240" s="21" t="s">
+        <v>1575</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>1558</v>
-      </c>
-      <c r="B241" s="22" t="s">
+        <v>1559</v>
+      </c>
+      <c r="B241" s="19" t="s">
         <v>1124</v>
       </c>
       <c r="C241" s="17" t="s">
-        <v>1533</v>
-      </c>
-      <c r="D241" s="19"/>
+        <v>1534</v>
+      </c>
+      <c r="D241" s="21" t="s">
+        <v>1715</v>
+      </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>1159</v>
       </c>
-      <c r="B242" s="22" t="s">
+      <c r="B242" s="19" t="s">
         <v>1124</v>
       </c>
-      <c r="C242" s="26" t="s">
+      <c r="C242" s="23" t="s">
         <v>1160</v>
       </c>
-      <c r="D242" s="19" t="s">
+      <c r="D242" s="21" t="s">
         <v>1161</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>1565</v>
-      </c>
-      <c r="B243" s="22" t="s">
+        <v>1566</v>
+      </c>
+      <c r="B243" s="19" t="s">
         <v>1124</v>
       </c>
-      <c r="C243" s="26" t="s">
-        <v>1566</v>
-      </c>
-      <c r="D243" s="19" t="s">
+      <c r="C243" s="23" t="s">
         <v>1567</v>
+      </c>
+      <c r="D243" s="21" t="s">
+        <v>1568</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>1543</v>
-      </c>
-      <c r="B244" s="22" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B244" s="19" t="s">
         <v>1124</v>
       </c>
-      <c r="C244" s="26" t="s">
-        <v>1544</v>
-      </c>
-      <c r="D244" s="19" t="s">
+      <c r="C244" s="23" t="s">
         <v>1545</v>
+      </c>
+      <c r="D244" s="21" t="s">
+        <v>1546</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>1577</v>
-      </c>
-      <c r="B245" s="22" t="s">
+        <v>1578</v>
+      </c>
+      <c r="B245" s="19" t="s">
         <v>1124</v>
       </c>
       <c r="C245" s="14" t="s">
-        <v>1575</v>
-      </c>
-      <c r="D245" s="19"/>
+        <v>1576</v>
+      </c>
+      <c r="D245" s="21"/>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>1568</v>
-      </c>
-      <c r="B246" s="22" t="s">
+        <v>1569</v>
+      </c>
+      <c r="B246" s="19" t="s">
         <v>1124</v>
       </c>
-      <c r="C246" s="29" t="s">
-        <v>1569</v>
-      </c>
-      <c r="D246" s="19" t="s">
+      <c r="C246" s="26" t="s">
         <v>1570</v>
+      </c>
+      <c r="D246" s="21" t="s">
+        <v>1571</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>1293</v>
       </c>
-      <c r="B247" s="22" t="s">
+      <c r="B247" s="19" t="s">
         <v>1124</v>
       </c>
-      <c r="C247" s="26" t="s">
+      <c r="C247" s="23" t="s">
         <v>1294</v>
       </c>
-      <c r="D247" s="19"/>
+      <c r="D247" s="21"/>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>1143</v>
       </c>
-      <c r="B248" s="22" t="s">
+      <c r="B248" s="19" t="s">
         <v>1124</v>
       </c>
-      <c r="C248" s="26" t="s">
-        <v>1564</v>
-      </c>
-      <c r="D248" s="19" t="s">
+      <c r="C248" s="23" t="s">
+        <v>1565</v>
+      </c>
+      <c r="D248" s="21" t="s">
         <v>1144</v>
       </c>
     </row>
@@ -11561,63 +12149,63 @@
       <c r="A249" t="s">
         <v>1140</v>
       </c>
-      <c r="B249" s="22" t="s">
+      <c r="B249" s="19" t="s">
         <v>1124</v>
       </c>
-      <c r="C249" s="26" t="s">
-        <v>1563</v>
-      </c>
-      <c r="D249" s="19" t="s">
+      <c r="C249" s="23" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D249" s="21" t="s">
         <v>1142</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>1561</v>
-      </c>
-      <c r="B250" s="22" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B250" s="19" t="s">
         <v>1124</v>
       </c>
-      <c r="C250" s="26" t="s">
-        <v>1562</v>
-      </c>
-      <c r="D250" s="19"/>
+      <c r="C250" s="23" t="s">
+        <v>1563</v>
+      </c>
+      <c r="D250" s="21"/>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>1138</v>
       </c>
-      <c r="B251" s="22" t="s">
+      <c r="B251" s="19" t="s">
         <v>1124</v>
       </c>
-      <c r="C251" s="26" t="s">
+      <c r="C251" s="23" t="s">
         <v>1139</v>
       </c>
-      <c r="D251" s="19"/>
+      <c r="D251" s="21"/>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>1148</v>
       </c>
-      <c r="B252" s="22" t="s">
+      <c r="B252" s="19" t="s">
         <v>1124</v>
       </c>
-      <c r="C252" s="26" t="s">
+      <c r="C252" s="23" t="s">
         <v>1149</v>
       </c>
-      <c r="D252" s="19"/>
+      <c r="D252" s="21"/>
     </row>
     <row r="253" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>1431</v>
       </c>
-      <c r="B253" s="22" t="s">
+      <c r="B253" s="19" t="s">
         <v>1124</v>
       </c>
-      <c r="C253" s="26" t="s">
+      <c r="C253" s="23" t="s">
         <v>1432</v>
       </c>
-      <c r="D253" s="24" t="s">
+      <c r="D253" s="21" t="s">
         <v>1433</v>
       </c>
     </row>
@@ -11625,73 +12213,73 @@
       <c r="A254" t="s">
         <v>1128</v>
       </c>
-      <c r="B254" s="22" t="s">
+      <c r="B254" s="19" t="s">
         <v>1124</v>
       </c>
-      <c r="C254" s="26" t="s">
+      <c r="C254" s="23" t="s">
         <v>1129</v>
       </c>
-      <c r="D254" s="19"/>
+      <c r="D254" s="21"/>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>1123</v>
       </c>
-      <c r="B255" s="22" t="s">
+      <c r="B255" s="19" t="s">
         <v>1124</v>
       </c>
-      <c r="C255" s="26" t="s">
+      <c r="C255" s="23" t="s">
         <v>1125</v>
       </c>
-      <c r="D255" s="19"/>
+      <c r="D255" s="21"/>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>1126</v>
       </c>
-      <c r="B256" s="22" t="s">
+      <c r="B256" s="19" t="s">
         <v>1124</v>
       </c>
-      <c r="C256" s="26" t="s">
+      <c r="C256" s="23" t="s">
         <v>1127</v>
       </c>
-      <c r="D256" s="19"/>
+      <c r="D256" s="21"/>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>1132</v>
       </c>
-      <c r="B257" s="22" t="s">
+      <c r="B257" s="19" t="s">
         <v>1124</v>
       </c>
-      <c r="C257" s="26" t="s">
+      <c r="C257" s="23" t="s">
         <v>1133</v>
       </c>
-      <c r="D257" s="19"/>
+      <c r="D257" s="21"/>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>1130</v>
       </c>
-      <c r="B258" s="22" t="s">
+      <c r="B258" s="19" t="s">
         <v>1124</v>
       </c>
-      <c r="C258" s="26" t="s">
+      <c r="C258" s="23" t="s">
         <v>1131</v>
       </c>
-      <c r="D258" s="19"/>
+      <c r="D258" s="21"/>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>1412</v>
       </c>
-      <c r="B259" s="22" t="s">
+      <c r="B259" s="19" t="s">
         <v>1124</v>
       </c>
-      <c r="C259" s="26" t="s">
+      <c r="C259" s="23" t="s">
         <v>1413</v>
       </c>
-      <c r="D259" s="19" t="s">
+      <c r="D259" s="21" t="s">
         <v>1415</v>
       </c>
     </row>
@@ -11699,13 +12287,13 @@
       <c r="A260" t="s">
         <v>1410</v>
       </c>
-      <c r="B260" s="22" t="s">
+      <c r="B260" s="19" t="s">
         <v>1124</v>
       </c>
-      <c r="C260" s="26" t="s">
+      <c r="C260" s="23" t="s">
         <v>1414</v>
       </c>
-      <c r="D260" s="19" t="s">
+      <c r="D260" s="21" t="s">
         <v>1411</v>
       </c>
     </row>
@@ -11713,13 +12301,13 @@
       <c r="A261" t="s">
         <v>1153</v>
       </c>
-      <c r="B261" s="22" t="s">
+      <c r="B261" s="19" t="s">
         <v>1124</v>
       </c>
-      <c r="C261" s="26" t="s">
+      <c r="C261" s="23" t="s">
         <v>1154</v>
       </c>
-      <c r="D261" s="19" t="s">
+      <c r="D261" s="21" t="s">
         <v>1155</v>
       </c>
     </row>
@@ -11727,13 +12315,13 @@
       <c r="A262" t="s">
         <v>1150</v>
       </c>
-      <c r="B262" s="22" t="s">
+      <c r="B262" s="19" t="s">
         <v>1124</v>
       </c>
-      <c r="C262" s="26" t="s">
+      <c r="C262" s="23" t="s">
         <v>1151</v>
       </c>
-      <c r="D262" s="19" t="s">
+      <c r="D262" s="21" t="s">
         <v>1152</v>
       </c>
     </row>
@@ -11741,13 +12329,13 @@
       <c r="A263" t="s">
         <v>1428</v>
       </c>
-      <c r="B263" s="22" t="s">
+      <c r="B263" s="19" t="s">
         <v>1124</v>
       </c>
-      <c r="C263" s="26" t="s">
+      <c r="C263" s="23" t="s">
         <v>1429</v>
       </c>
-      <c r="D263" s="19" t="s">
+      <c r="D263" s="21" t="s">
         <v>1430</v>
       </c>
     </row>
@@ -11755,13 +12343,13 @@
       <c r="A264" t="s">
         <v>1422</v>
       </c>
-      <c r="B264" s="22" t="s">
+      <c r="B264" s="19" t="s">
         <v>1124</v>
       </c>
-      <c r="C264" s="26" t="s">
+      <c r="C264" s="23" t="s">
         <v>1423</v>
       </c>
-      <c r="D264" s="19" t="s">
+      <c r="D264" s="21" t="s">
         <v>1424</v>
       </c>
     </row>
@@ -11769,13 +12357,13 @@
       <c r="A265" t="s">
         <v>1419</v>
       </c>
-      <c r="B265" s="22" t="s">
+      <c r="B265" s="19" t="s">
         <v>1124</v>
       </c>
-      <c r="C265" s="26" t="s">
+      <c r="C265" s="23" t="s">
         <v>1420</v>
       </c>
-      <c r="D265" s="19" t="s">
+      <c r="D265" s="21" t="s">
         <v>1421</v>
       </c>
     </row>
@@ -11783,13 +12371,13 @@
       <c r="A266" t="s">
         <v>1416</v>
       </c>
-      <c r="B266" s="22" t="s">
+      <c r="B266" s="19" t="s">
         <v>1124</v>
       </c>
-      <c r="C266" s="26" t="s">
+      <c r="C266" s="23" t="s">
         <v>1417</v>
       </c>
-      <c r="D266" s="19" t="s">
+      <c r="D266" s="21" t="s">
         <v>1418</v>
       </c>
     </row>
@@ -11797,48 +12385,48 @@
       <c r="A267" t="s">
         <v>1134</v>
       </c>
-      <c r="B267" s="22" t="s">
+      <c r="B267" s="19" t="s">
         <v>1124</v>
       </c>
-      <c r="C267" s="26" t="s">
+      <c r="C267" s="23" t="s">
         <v>1135</v>
       </c>
-      <c r="D267" s="19"/>
+      <c r="D267" s="21"/>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>1136</v>
       </c>
-      <c r="B268" s="22" t="s">
+      <c r="B268" s="19" t="s">
         <v>1124</v>
       </c>
-      <c r="C268" s="26" t="s">
+      <c r="C268" s="23" t="s">
         <v>1137</v>
       </c>
-      <c r="D268" s="19"/>
+      <c r="D268" s="21"/>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>1578</v>
-      </c>
-      <c r="B269" s="22" t="s">
+        <v>1579</v>
+      </c>
+      <c r="B269" s="19" t="s">
         <v>1124</v>
       </c>
-      <c r="C269" s="38" t="s">
-        <v>1579</v>
-      </c>
-      <c r="D269" s="19" t="s">
+      <c r="C269" s="32" t="s">
         <v>1580</v>
+      </c>
+      <c r="D269" s="21" t="s">
+        <v>1714</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>1178</v>
       </c>
-      <c r="B270" s="33" t="s">
+      <c r="B270" s="29" t="s">
         <v>1124</v>
       </c>
-      <c r="C270" s="26" t="s">
+      <c r="C270" s="23" t="s">
         <v>1179</v>
       </c>
       <c r="D270" s="20" t="s">
@@ -11847,96 +12435,107 @@
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>1549</v>
-      </c>
-      <c r="B271" s="22" t="s">
+        <v>1550</v>
+      </c>
+      <c r="B271" s="19" t="s">
         <v>1124</v>
       </c>
-      <c r="C271" s="26" t="s">
-        <v>1550</v>
-      </c>
-      <c r="D271" s="19" t="s">
+      <c r="C271" s="23" t="s">
         <v>1551</v>
+      </c>
+      <c r="D271" s="21" t="s">
+        <v>1552</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>1425</v>
       </c>
-      <c r="B272" s="22" t="s">
+      <c r="B272" s="19" t="s">
         <v>1124</v>
       </c>
-      <c r="C272" s="29" t="s">
+      <c r="C272" s="26" t="s">
         <v>1426</v>
       </c>
-      <c r="D272" s="19" t="s">
-        <v>1576</v>
+      <c r="D272" s="21" t="s">
+        <v>1577</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>1546</v>
-      </c>
-      <c r="B273" s="22" t="s">
+        <v>1547</v>
+      </c>
+      <c r="B273" s="19" t="s">
         <v>1124</v>
       </c>
-      <c r="C273" s="26" t="s">
-        <v>1547</v>
-      </c>
-      <c r="D273" s="19" t="s">
+      <c r="C273" s="23" t="s">
         <v>1548</v>
+      </c>
+      <c r="D273" s="21" t="s">
+        <v>1549</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>1408</v>
       </c>
-      <c r="B274" s="22" t="s">
+      <c r="B274" s="19" t="s">
         <v>1124</v>
       </c>
-      <c r="C274" s="26" t="s">
+      <c r="C274" s="23" t="s">
         <v>1409</v>
       </c>
-      <c r="D274" s="19"/>
+      <c r="D274" s="21"/>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>1589</v>
       </c>
-      <c r="B275" s="22" t="s">
+      <c r="B275" s="19" t="s">
         <v>1435</v>
       </c>
-      <c r="C275" s="26" t="s">
+      <c r="C275" s="23" t="s">
         <v>1590</v>
       </c>
-      <c r="D275" s="19"/>
+      <c r="D275" s="21"/>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D276" s="19"/>
+      <c r="A276" t="s">
+        <v>1659</v>
+      </c>
+      <c r="B276" s="19" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C276" s="34" t="s">
+        <v>1660</v>
+      </c>
+      <c r="D276" s="21" t="s">
+        <v>1661</v>
+      </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>1448</v>
       </c>
-      <c r="B277" s="22" t="s">
+      <c r="B277" s="19" t="s">
         <v>1435</v>
       </c>
-      <c r="C277" s="26" t="s">
+      <c r="C277" s="23" t="s">
         <v>1449</v>
       </c>
-      <c r="D277" s="19"/>
+      <c r="D277" s="21"/>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>1445</v>
       </c>
-      <c r="B278" s="22" t="s">
+      <c r="B278" s="19" t="s">
         <v>1435</v>
       </c>
-      <c r="C278" s="26" t="s">
+      <c r="C278" s="23" t="s">
         <v>1446</v>
       </c>
-      <c r="D278" s="19" t="s">
+      <c r="D278" s="21" t="s">
         <v>1447</v>
       </c>
     </row>
@@ -11944,1360 +12543,2453 @@
       <c r="A279" t="s">
         <v>1472</v>
       </c>
-      <c r="B279" s="22" t="s">
+      <c r="B279" s="19" t="s">
         <v>1435</v>
       </c>
-      <c r="C279" s="26" t="s">
+      <c r="C279" s="23" t="s">
         <v>1473</v>
       </c>
-      <c r="D279" s="19"/>
+      <c r="D279" s="21"/>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>1476</v>
       </c>
-      <c r="B280" s="22" t="s">
+      <c r="B280" s="19" t="s">
         <v>1435</v>
       </c>
-      <c r="C280" s="26" t="s">
+      <c r="C280" s="23" t="s">
         <v>1477</v>
       </c>
-      <c r="D280" s="19"/>
+      <c r="D280" s="21"/>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>1478</v>
       </c>
-      <c r="B281" s="22" t="s">
+      <c r="B281" s="19" t="s">
         <v>1435</v>
       </c>
-      <c r="C281" s="26" t="s">
+      <c r="C281" s="23" t="s">
+        <v>1480</v>
+      </c>
+      <c r="D281" s="21"/>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
         <v>1479</v>
       </c>
-      <c r="D281" s="19"/>
-    </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D282" s="19"/>
+      <c r="B282" s="19" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C282" s="23" t="s">
+        <v>1616</v>
+      </c>
+      <c r="D282" s="21" t="s">
+        <v>1617</v>
+      </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
+        <v>1618</v>
+      </c>
+      <c r="B283" s="19" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C283" s="23" t="s">
+        <v>1619</v>
+      </c>
+      <c r="D283" s="21" t="s">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
         <v>1597</v>
       </c>
-      <c r="B283" s="22" t="s">
+      <c r="B284" s="19" t="s">
         <v>1435</v>
       </c>
-      <c r="C283" s="28" t="s">
+      <c r="C284" s="25" t="s">
         <v>1598</v>
       </c>
-      <c r="D283" s="19" t="s">
+      <c r="D284" s="21" t="s">
         <v>1599</v>
       </c>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D284" s="19"/>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>1591</v>
-      </c>
-      <c r="B285" s="22" t="s">
+        <v>1621</v>
+      </c>
+      <c r="B285" s="19" t="s">
         <v>1435</v>
       </c>
-      <c r="C285" s="26" t="s">
-        <v>1592</v>
-      </c>
-      <c r="D285" s="19" t="s">
-        <v>1593</v>
+      <c r="C285" s="35" t="s">
+        <v>1622</v>
+      </c>
+      <c r="D285" s="21" t="s">
+        <v>1623</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>1614</v>
-      </c>
-      <c r="B286" s="22" t="s">
+        <v>1591</v>
+      </c>
+      <c r="B286" s="19" t="s">
         <v>1435</v>
       </c>
-      <c r="C286" s="26" t="s">
-        <v>1615</v>
-      </c>
-      <c r="D286" s="19"/>
+      <c r="C286" s="23" t="s">
+        <v>1592</v>
+      </c>
+      <c r="D286" s="21" t="s">
+        <v>1593</v>
+      </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>1434</v>
-      </c>
-      <c r="B287" s="22" t="s">
+        <v>1614</v>
+      </c>
+      <c r="B287" s="19" t="s">
         <v>1435</v>
       </c>
-      <c r="C287" s="26" t="s">
-        <v>1436</v>
-      </c>
-      <c r="D287" s="19"/>
+      <c r="C287" s="23" t="s">
+        <v>1615</v>
+      </c>
+      <c r="D287" s="21"/>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>1450</v>
-      </c>
-      <c r="B288" s="22" t="s">
+        <v>1434</v>
+      </c>
+      <c r="B288" s="19" t="s">
         <v>1435</v>
       </c>
-      <c r="C288" s="26" t="s">
-        <v>1451</v>
-      </c>
-      <c r="D288" s="19"/>
+      <c r="C288" s="23" t="s">
+        <v>1436</v>
+      </c>
+      <c r="D288" s="21"/>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>1603</v>
-      </c>
-      <c r="B289" s="22" t="s">
+        <v>1450</v>
+      </c>
+      <c r="B289" s="19" t="s">
         <v>1435</v>
       </c>
-      <c r="C289" s="26" t="s">
-        <v>1604</v>
-      </c>
-      <c r="D289" s="19"/>
+      <c r="C289" s="23" t="s">
+        <v>1451</v>
+      </c>
+      <c r="D289" s="21"/>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
+        <v>1603</v>
+      </c>
+      <c r="B290" s="19" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C290" s="23" t="s">
+        <v>1604</v>
+      </c>
+      <c r="D290" s="21"/>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
         <v>1468</v>
       </c>
-      <c r="B290" s="33" t="s">
+      <c r="B291" s="29" t="s">
         <v>1435</v>
       </c>
-      <c r="C290" s="26" t="s">
+      <c r="C291" s="23" t="s">
         <v>1605</v>
       </c>
-      <c r="D290" s="20" t="s">
+      <c r="D291" s="20" t="s">
         <v>1469</v>
       </c>
-    </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D291" s="19"/>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>1460</v>
-      </c>
-      <c r="B292" s="22" t="s">
+        <v>1624</v>
+      </c>
+      <c r="B292" s="19" t="s">
         <v>1435</v>
       </c>
-      <c r="C292" s="26" t="s">
-        <v>1461</v>
-      </c>
-      <c r="D292" s="19" t="s">
-        <v>1462</v>
+      <c r="C292" s="23" t="s">
+        <v>1625</v>
+      </c>
+      <c r="D292" s="21" t="s">
+        <v>1626</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>1458</v>
-      </c>
-      <c r="B293" s="22" t="s">
+        <v>1460</v>
+      </c>
+      <c r="B293" s="19" t="s">
         <v>1435</v>
       </c>
-      <c r="C293" s="26" t="s">
-        <v>1459</v>
-      </c>
-      <c r="D293" s="19"/>
+      <c r="C293" s="23" t="s">
+        <v>1461</v>
+      </c>
+      <c r="D293" s="21" t="s">
+        <v>1462</v>
+      </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B294" s="19" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C294" s="23" t="s">
+        <v>1459</v>
+      </c>
+      <c r="D294" s="21"/>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
         <v>1443</v>
       </c>
-      <c r="B294" s="22" t="s">
+      <c r="B295" s="19" t="s">
         <v>1435</v>
       </c>
-      <c r="C294" s="32" t="s">
+      <c r="C295" s="34" t="s">
         <v>1444</v>
       </c>
-      <c r="D294" s="19"/>
-    </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D295" s="19"/>
+      <c r="D295" s="21" t="s">
+        <v>1662</v>
+      </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>1452</v>
-      </c>
-      <c r="B296" s="22" t="s">
+        <v>1657</v>
+      </c>
+      <c r="B296" s="19" t="s">
         <v>1435</v>
       </c>
-      <c r="C296" s="26" t="s">
-        <v>1453</v>
-      </c>
-      <c r="D296" s="19"/>
+      <c r="C296" s="34" t="s">
+        <v>1658</v>
+      </c>
+      <c r="D296" s="21" t="s">
+        <v>1719</v>
+      </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>1463</v>
-      </c>
-      <c r="B297" s="22" t="s">
+        <v>1452</v>
+      </c>
+      <c r="B297" s="19" t="s">
         <v>1435</v>
       </c>
-      <c r="C297" s="26" t="s">
-        <v>1464</v>
-      </c>
-      <c r="D297" s="19" t="s">
-        <v>1465</v>
-      </c>
+      <c r="C297" s="23" t="s">
+        <v>1453</v>
+      </c>
+      <c r="D297" s="21"/>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>1466</v>
-      </c>
-      <c r="B298" s="22" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B298" s="19" t="s">
         <v>1435</v>
       </c>
-      <c r="C298" s="29" t="s">
-        <v>1587</v>
-      </c>
-      <c r="D298" s="19"/>
+      <c r="C298" s="23" t="s">
+        <v>1464</v>
+      </c>
+      <c r="D298" s="21" t="s">
+        <v>1465</v>
+      </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>1467</v>
-      </c>
-      <c r="B299" s="37" t="s">
+        <v>1466</v>
+      </c>
+      <c r="B299" s="19" t="s">
         <v>1435</v>
       </c>
-      <c r="C299" s="32" t="s">
-        <v>1588</v>
-      </c>
-      <c r="D299" s="19"/>
+      <c r="C299" s="34" t="s">
+        <v>1587</v>
+      </c>
+      <c r="D299" s="21" t="s">
+        <v>1662</v>
+      </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>1456</v>
-      </c>
-      <c r="B300" s="22" t="s">
+        <v>1467</v>
+      </c>
+      <c r="B300" s="33" t="s">
         <v>1435</v>
       </c>
       <c r="C300" s="26" t="s">
-        <v>1457</v>
-      </c>
-      <c r="D300" s="19"/>
+        <v>1588</v>
+      </c>
+      <c r="D300" s="21"/>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>1439</v>
-      </c>
-      <c r="B301" s="22" t="s">
+        <v>1456</v>
+      </c>
+      <c r="B301" s="19" t="s">
         <v>1435</v>
       </c>
-      <c r="C301" s="26" t="s">
-        <v>1440</v>
-      </c>
-      <c r="D301" s="19"/>
+      <c r="C301" s="23" t="s">
+        <v>1457</v>
+      </c>
+      <c r="D301" s="21"/>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>1454</v>
-      </c>
-      <c r="B302" s="22" t="s">
+        <v>1439</v>
+      </c>
+      <c r="B302" s="19" t="s">
         <v>1435</v>
       </c>
-      <c r="C302" s="26" t="s">
-        <v>1455</v>
-      </c>
-      <c r="D302" s="19"/>
+      <c r="C302" s="23" t="s">
+        <v>1440</v>
+      </c>
+      <c r="D302" s="21"/>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B303" s="19" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C303" s="23" t="s">
+        <v>1455</v>
+      </c>
+      <c r="D303" s="21"/>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
         <v>1474</v>
       </c>
-      <c r="B303" s="22" t="s">
+      <c r="B304" s="19" t="s">
         <v>1435</v>
       </c>
-      <c r="C303" s="26" t="s">
+      <c r="C304" s="23" t="s">
         <v>1475</v>
       </c>
-      <c r="D303" s="19"/>
-    </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D304" s="19"/>
+      <c r="D304" s="21"/>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>1606</v>
-      </c>
-      <c r="B305" s="22" t="s">
+        <v>1655</v>
+      </c>
+      <c r="B305" s="19" t="s">
         <v>1435</v>
       </c>
       <c r="C305" s="26" t="s">
-        <v>1607</v>
-      </c>
-      <c r="D305" s="19" t="s">
-        <v>1608</v>
-      </c>
-    </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D306" s="19"/>
+        <v>1708</v>
+      </c>
+      <c r="D305" s="21" t="s">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>1656</v>
+      </c>
+      <c r="B306" s="19" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C306" s="34" t="s">
+        <v>1707</v>
+      </c>
+      <c r="D306" s="21" t="s">
+        <v>1718</v>
+      </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>1594</v>
-      </c>
-      <c r="B307" s="22" t="s">
+        <v>1606</v>
+      </c>
+      <c r="B307" s="19" t="s">
         <v>1435</v>
       </c>
-      <c r="C307" s="26" t="s">
-        <v>1595</v>
-      </c>
-      <c r="D307" s="19" t="s">
-        <v>1596</v>
+      <c r="C307" s="23" t="s">
+        <v>1607</v>
+      </c>
+      <c r="D307" s="21" t="s">
+        <v>1608</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D308" s="19"/>
+      <c r="A308" t="s">
+        <v>1630</v>
+      </c>
+      <c r="B308" s="19" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C308" s="23" t="s">
+        <v>1631</v>
+      </c>
+      <c r="D308" s="21"/>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>1609</v>
-      </c>
-      <c r="B309" s="22" t="s">
+        <v>1594</v>
+      </c>
+      <c r="B309" s="19" t="s">
         <v>1435</v>
       </c>
-      <c r="C309" s="26" t="s">
-        <v>1610</v>
-      </c>
-      <c r="D309" s="19"/>
+      <c r="C309" s="23" t="s">
+        <v>1595</v>
+      </c>
+      <c r="D309" s="21" t="s">
+        <v>1596</v>
+      </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D310" s="19"/>
-    </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>1653</v>
+      </c>
+      <c r="B310" s="29" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C310" s="26" t="s">
+        <v>1706</v>
+      </c>
+      <c r="D310" s="20" t="s">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>1441</v>
-      </c>
-      <c r="B311" s="22" t="s">
+        <v>1654</v>
+      </c>
+      <c r="B311" s="29" t="s">
         <v>1435</v>
       </c>
       <c r="C311" s="26" t="s">
-        <v>1442</v>
-      </c>
-      <c r="D311" s="19"/>
+        <v>1705</v>
+      </c>
+      <c r="D311" s="20" t="s">
+        <v>1712</v>
+      </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>1485</v>
-      </c>
-      <c r="B312" s="22" t="s">
-        <v>1483</v>
-      </c>
-      <c r="C312" s="29" t="s">
-        <v>1536</v>
-      </c>
-      <c r="D312" s="19"/>
-    </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1609</v>
+      </c>
+      <c r="B312" s="19" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C312" s="23" t="s">
+        <v>1610</v>
+      </c>
+      <c r="D312" s="21"/>
+    </row>
+    <row r="313" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>1534</v>
-      </c>
-      <c r="B313" s="22" t="s">
-        <v>1483</v>
-      </c>
-      <c r="C313" s="29" t="s">
-        <v>1486</v>
-      </c>
-      <c r="D313" s="19"/>
+        <v>1651</v>
+      </c>
+      <c r="B313" s="29" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C313" s="26" t="s">
+        <v>1704</v>
+      </c>
+      <c r="D313" s="20" t="s">
+        <v>1713</v>
+      </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>1535</v>
-      </c>
-      <c r="B314" s="22" t="s">
-        <v>1483</v>
-      </c>
-      <c r="C314" s="29" t="s">
-        <v>1540</v>
-      </c>
-      <c r="D314" s="19" t="s">
-        <v>1537</v>
+        <v>1652</v>
+      </c>
+      <c r="B314" s="29" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C314" s="26" t="s">
+        <v>1703</v>
+      </c>
+      <c r="D314" s="20" t="s">
+        <v>1711</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>1487</v>
-      </c>
-      <c r="B315" s="22" t="s">
-        <v>1483</v>
-      </c>
-      <c r="C315" s="26" t="s">
-        <v>1488</v>
-      </c>
-      <c r="D315" s="19"/>
+        <v>1441</v>
+      </c>
+      <c r="B315" s="19" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C315" s="23" t="s">
+        <v>1442</v>
+      </c>
+      <c r="D315" s="21"/>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>1511</v>
-      </c>
-      <c r="B316" s="22" t="s">
-        <v>1483</v>
+        <v>1486</v>
+      </c>
+      <c r="B316" s="19" t="s">
+        <v>1484</v>
       </c>
       <c r="C316" s="26" t="s">
-        <v>1512</v>
-      </c>
-      <c r="D316" s="19" t="s">
-        <v>1513</v>
-      </c>
+        <v>1537</v>
+      </c>
+      <c r="D316" s="21"/>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>1494</v>
-      </c>
-      <c r="B317" s="22" t="s">
-        <v>1483</v>
+        <v>1535</v>
+      </c>
+      <c r="B317" s="19" t="s">
+        <v>1484</v>
       </c>
       <c r="C317" s="26" t="s">
-        <v>1495</v>
-      </c>
-      <c r="D317" s="19" t="s">
-        <v>1496</v>
-      </c>
+        <v>1487</v>
+      </c>
+      <c r="D317" s="21"/>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>1518</v>
-      </c>
-      <c r="B318" s="22" t="s">
-        <v>1483</v>
+        <v>1536</v>
+      </c>
+      <c r="B318" s="19" t="s">
+        <v>1484</v>
       </c>
       <c r="C318" s="26" t="s">
-        <v>1519</v>
-      </c>
-      <c r="D318" s="19" t="s">
-        <v>1520</v>
+        <v>1541</v>
+      </c>
+      <c r="D318" s="21" t="s">
+        <v>1538</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>1522</v>
-      </c>
-      <c r="B319" s="22" t="s">
-        <v>1483</v>
-      </c>
-      <c r="C319" s="29" t="s">
-        <v>1523</v>
-      </c>
-      <c r="D319" s="19" t="s">
-        <v>1538</v>
-      </c>
+        <v>1488</v>
+      </c>
+      <c r="B319" s="19" t="s">
+        <v>1484</v>
+      </c>
+      <c r="C319" s="23" t="s">
+        <v>1489</v>
+      </c>
+      <c r="D319" s="21"/>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>1505</v>
-      </c>
-      <c r="B320" s="22" t="s">
-        <v>1483</v>
-      </c>
-      <c r="C320" s="26" t="s">
-        <v>1506</v>
-      </c>
-      <c r="D320" s="19" t="s">
-        <v>1507</v>
+        <v>1512</v>
+      </c>
+      <c r="B320" s="19" t="s">
+        <v>1484</v>
+      </c>
+      <c r="C320" s="23" t="s">
+        <v>1513</v>
+      </c>
+      <c r="D320" s="21" t="s">
+        <v>1514</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>1502</v>
-      </c>
-      <c r="B321" s="22" t="s">
-        <v>1483</v>
-      </c>
-      <c r="C321" s="26" t="s">
-        <v>1503</v>
-      </c>
-      <c r="D321" s="19" t="s">
-        <v>1504</v>
+        <v>1495</v>
+      </c>
+      <c r="B321" s="19" t="s">
+        <v>1484</v>
+      </c>
+      <c r="C321" s="23" t="s">
+        <v>1496</v>
+      </c>
+      <c r="D321" s="21" t="s">
+        <v>1497</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>1492</v>
-      </c>
-      <c r="B322" s="22" t="s">
-        <v>1483</v>
-      </c>
-      <c r="C322" s="26" t="s">
-        <v>1490</v>
-      </c>
-      <c r="D322" s="24" t="s">
-        <v>1493</v>
+        <v>1519</v>
+      </c>
+      <c r="B322" s="19" t="s">
+        <v>1484</v>
+      </c>
+      <c r="C322" s="23" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D322" s="21" t="s">
+        <v>1521</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>1489</v>
-      </c>
-      <c r="B323" s="22" t="s">
-        <v>1483</v>
+        <v>1523</v>
+      </c>
+      <c r="B323" s="19" t="s">
+        <v>1484</v>
       </c>
       <c r="C323" s="26" t="s">
-        <v>1490</v>
-      </c>
-      <c r="D323" s="24" t="s">
-        <v>1491</v>
+        <v>1524</v>
+      </c>
+      <c r="D323" s="21" t="s">
+        <v>1539</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>1517</v>
-      </c>
-      <c r="B324" s="22" t="s">
-        <v>1483</v>
-      </c>
-      <c r="C324" s="26" t="s">
-        <v>1521</v>
-      </c>
-      <c r="D324" s="24"/>
+        <v>1506</v>
+      </c>
+      <c r="B324" s="19" t="s">
+        <v>1484</v>
+      </c>
+      <c r="C324" s="23" t="s">
+        <v>1507</v>
+      </c>
+      <c r="D324" s="21" t="s">
+        <v>1508</v>
+      </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>1499</v>
-      </c>
-      <c r="B325" s="22" t="s">
-        <v>1483</v>
-      </c>
-      <c r="C325" s="26" t="s">
-        <v>1500</v>
-      </c>
-      <c r="D325" s="24" t="s">
-        <v>1501</v>
+        <v>1503</v>
+      </c>
+      <c r="B325" s="19" t="s">
+        <v>1484</v>
+      </c>
+      <c r="C325" s="23" t="s">
+        <v>1504</v>
+      </c>
+      <c r="D325" s="21" t="s">
+        <v>1505</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>1508</v>
-      </c>
-      <c r="B326" s="22" t="s">
-        <v>1483</v>
-      </c>
-      <c r="C326" s="26" t="s">
-        <v>1509</v>
-      </c>
-      <c r="D326" s="19" t="s">
-        <v>1510</v>
+        <v>1493</v>
+      </c>
+      <c r="B326" s="19" t="s">
+        <v>1484</v>
+      </c>
+      <c r="C326" s="23" t="s">
+        <v>1491</v>
+      </c>
+      <c r="D326" s="21" t="s">
+        <v>1494</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>1514</v>
-      </c>
-      <c r="B327" s="22" t="s">
-        <v>1483</v>
-      </c>
-      <c r="C327" s="26" t="s">
-        <v>1515</v>
-      </c>
-      <c r="D327" s="19" t="s">
-        <v>1516</v>
+        <v>1490</v>
+      </c>
+      <c r="B327" s="19" t="s">
+        <v>1484</v>
+      </c>
+      <c r="C327" s="23" t="s">
+        <v>1491</v>
+      </c>
+      <c r="D327" s="21" t="s">
+        <v>1492</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>1497</v>
-      </c>
-      <c r="B328" s="22" t="s">
-        <v>1483</v>
-      </c>
-      <c r="C328" s="26" t="s">
-        <v>1498</v>
-      </c>
-      <c r="D328" s="19"/>
+        <v>1518</v>
+      </c>
+      <c r="B328" s="19" t="s">
+        <v>1484</v>
+      </c>
+      <c r="C328" s="23" t="s">
+        <v>1522</v>
+      </c>
+      <c r="D328" s="21"/>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D329" s="19"/>
+      <c r="A329" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B329" s="19" t="s">
+        <v>1484</v>
+      </c>
+      <c r="C329" s="23" t="s">
+        <v>1501</v>
+      </c>
+      <c r="D329" s="21" t="s">
+        <v>1502</v>
+      </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>1524</v>
-      </c>
-      <c r="B330" s="22" t="s">
-        <v>1483</v>
-      </c>
-      <c r="C330" s="26" t="s">
-        <v>1525</v>
-      </c>
-      <c r="D330" s="19" t="s">
-        <v>1526</v>
+        <v>1509</v>
+      </c>
+      <c r="B330" s="19" t="s">
+        <v>1484</v>
+      </c>
+      <c r="C330" s="23" t="s">
+        <v>1510</v>
+      </c>
+      <c r="D330" s="21" t="s">
+        <v>1511</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>1527</v>
-      </c>
-      <c r="B331" s="22" t="s">
-        <v>1483</v>
-      </c>
-      <c r="C331" s="26" t="s">
-        <v>1528</v>
-      </c>
-      <c r="D331" s="19"/>
+        <v>1515</v>
+      </c>
+      <c r="B331" s="19" t="s">
+        <v>1484</v>
+      </c>
+      <c r="C331" s="23" t="s">
+        <v>1516</v>
+      </c>
+      <c r="D331" s="21" t="s">
+        <v>1517</v>
+      </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>1529</v>
-      </c>
-      <c r="B332" s="22" t="s">
-        <v>1483</v>
-      </c>
-      <c r="C332" s="26" t="s">
-        <v>1530</v>
-      </c>
-      <c r="D332" s="19" t="s">
-        <v>1531</v>
-      </c>
+        <v>1498</v>
+      </c>
+      <c r="B332" s="19" t="s">
+        <v>1484</v>
+      </c>
+      <c r="C332" s="23" t="s">
+        <v>1499</v>
+      </c>
+      <c r="D332" s="21"/>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>1146</v>
-      </c>
-      <c r="B333" s="22" t="s">
-        <v>1124</v>
-      </c>
-      <c r="C333" s="26" t="s">
-        <v>1147</v>
-      </c>
-      <c r="D333" s="19"/>
+        <v>1638</v>
+      </c>
+      <c r="B333" s="19" t="s">
+        <v>1484</v>
+      </c>
+      <c r="C333" s="19" t="s">
+        <v>1650</v>
+      </c>
+      <c r="D333" s="21"/>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>946</v>
-      </c>
-      <c r="B334" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C334" s="28" t="s">
-        <v>947</v>
-      </c>
-      <c r="D334" s="19"/>
+        <v>1639</v>
+      </c>
+      <c r="B334" s="19" t="s">
+        <v>1484</v>
+      </c>
+      <c r="C334" s="23" t="s">
+        <v>1649</v>
+      </c>
+      <c r="D334" s="21"/>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C335" s="28"/>
-      <c r="D335" s="19"/>
+      <c r="A335" t="s">
+        <v>1525</v>
+      </c>
+      <c r="B335" s="19" t="s">
+        <v>1484</v>
+      </c>
+      <c r="C335" s="23" t="s">
+        <v>1526</v>
+      </c>
+      <c r="D335" s="21" t="s">
+        <v>1527</v>
+      </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
+        <v>1528</v>
+      </c>
+      <c r="B336" s="19" t="s">
+        <v>1484</v>
+      </c>
+      <c r="C336" s="23" t="s">
+        <v>1529</v>
+      </c>
+      <c r="D336" s="21"/>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>1530</v>
+      </c>
+      <c r="B337" s="19" t="s">
+        <v>1484</v>
+      </c>
+      <c r="C337" s="23" t="s">
+        <v>1531</v>
+      </c>
+      <c r="D337" s="21" t="s">
         <v>1532</v>
       </c>
-      <c r="B336" s="22" t="s">
-        <v>1483</v>
-      </c>
-      <c r="C336" s="17" t="s">
-        <v>1533</v>
-      </c>
-      <c r="D336" s="19"/>
-    </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D337" s="19"/>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>983</v>
-      </c>
-      <c r="B338" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C338" s="28" t="s">
-        <v>984</v>
-      </c>
-      <c r="D338" s="19"/>
+        <v>1146</v>
+      </c>
+      <c r="B338" s="19" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C338" s="23" t="s">
+        <v>1147</v>
+      </c>
+      <c r="D338" s="21"/>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D339" s="19"/>
+      <c r="A339" t="s">
+        <v>946</v>
+      </c>
+      <c r="B339" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C339" s="25" t="s">
+        <v>947</v>
+      </c>
+      <c r="D339" s="21"/>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>1437</v>
-      </c>
-      <c r="B340" s="22" t="s">
-        <v>1435</v>
-      </c>
-      <c r="C340" s="26" t="s">
-        <v>1438</v>
-      </c>
-      <c r="D340" s="19"/>
+        <v>1640</v>
+      </c>
+      <c r="C340" s="23" t="s">
+        <v>1637</v>
+      </c>
+      <c r="D340" s="21"/>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D341" s="19"/>
+      <c r="A341" t="s">
+        <v>1533</v>
+      </c>
+      <c r="B341" s="19" t="s">
+        <v>1484</v>
+      </c>
+      <c r="C341" s="17" t="s">
+        <v>1534</v>
+      </c>
+      <c r="D341" s="21" t="s">
+        <v>1716</v>
+      </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>948</v>
-      </c>
-      <c r="B342" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C342" s="28" t="s">
-        <v>949</v>
-      </c>
-      <c r="D342" s="19" t="s">
-        <v>1107</v>
-      </c>
+        <v>1641</v>
+      </c>
+      <c r="C342" s="23" t="s">
+        <v>1637</v>
+      </c>
+      <c r="D342" s="21"/>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>725</v>
-      </c>
-      <c r="B343" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C343" s="26" t="s">
-        <v>726</v>
-      </c>
-      <c r="D343" s="19" t="s">
-        <v>727</v>
-      </c>
+        <v>1642</v>
+      </c>
+      <c r="C343" s="23" t="s">
+        <v>1637</v>
+      </c>
+      <c r="D343" s="21"/>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>1611</v>
-      </c>
-      <c r="B344" s="22" t="s">
-        <v>1435</v>
-      </c>
-      <c r="C344" s="26" t="s">
-        <v>1612</v>
-      </c>
-      <c r="D344" s="19" t="s">
-        <v>1613</v>
-      </c>
+        <v>1643</v>
+      </c>
+      <c r="C344" s="23" t="s">
+        <v>1637</v>
+      </c>
+      <c r="D344" s="21"/>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>1600</v>
-      </c>
-      <c r="B345" s="33" t="s">
-        <v>1435</v>
-      </c>
-      <c r="C345" s="26" t="s">
-        <v>1601</v>
-      </c>
-      <c r="D345" s="20" t="s">
-        <v>1602</v>
-      </c>
+        <v>1644</v>
+      </c>
+      <c r="C345" s="23" t="s">
+        <v>1637</v>
+      </c>
+      <c r="D345" s="21"/>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>1295</v>
-      </c>
-      <c r="B346" s="22" t="s">
-        <v>1124</v>
-      </c>
-      <c r="C346" s="26" t="s">
-        <v>1296</v>
-      </c>
-      <c r="D346" s="19" t="s">
-        <v>1297</v>
-      </c>
+        <v>1645</v>
+      </c>
+      <c r="C346" s="23" t="s">
+        <v>1637</v>
+      </c>
+      <c r="D346" s="21"/>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>1406</v>
-      </c>
-      <c r="B347" s="22" t="s">
-        <v>1124</v>
-      </c>
-      <c r="C347" s="26" t="s">
-        <v>1294</v>
-      </c>
-      <c r="D347" s="19" t="s">
-        <v>1407</v>
-      </c>
+        <v>1646</v>
+      </c>
+      <c r="C347" s="23" t="s">
+        <v>1637</v>
+      </c>
+      <c r="D347" s="21"/>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>944</v>
-      </c>
-      <c r="B348" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C348" s="28" t="s">
-        <v>945</v>
-      </c>
-      <c r="D348" s="19" t="s">
-        <v>1108</v>
-      </c>
+        <v>1647</v>
+      </c>
+      <c r="C348" s="23" t="s">
+        <v>1637</v>
+      </c>
+      <c r="D348" s="21"/>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D349" s="19"/>
+      <c r="A349" t="s">
+        <v>1648</v>
+      </c>
+      <c r="C349" s="23" t="s">
+        <v>1637</v>
+      </c>
+      <c r="D349" s="21"/>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>955</v>
-      </c>
-      <c r="B350" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C350" s="28" t="s">
-        <v>723</v>
-      </c>
-      <c r="D350" s="19" t="s">
-        <v>956</v>
-      </c>
+        <v>983</v>
+      </c>
+      <c r="B350" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C350" s="25" t="s">
+        <v>984</v>
+      </c>
+      <c r="D350" s="21"/>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D351" s="19"/>
+      <c r="A351" t="s">
+        <v>1634</v>
+      </c>
+      <c r="C351" s="23" t="s">
+        <v>1637</v>
+      </c>
+      <c r="D351" s="21"/>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>941</v>
-      </c>
-      <c r="B352" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C352" s="28" t="s">
-        <v>942</v>
-      </c>
-      <c r="D352" s="20" t="s">
-        <v>943</v>
-      </c>
+        <v>1635</v>
+      </c>
+      <c r="C352" s="23" t="s">
+        <v>1637</v>
+      </c>
+      <c r="D352" s="21"/>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>939</v>
-      </c>
-      <c r="B353" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C353" s="28" t="s">
-        <v>940</v>
-      </c>
-      <c r="D353" s="19" t="s">
-        <v>1109</v>
-      </c>
+        <v>1636</v>
+      </c>
+      <c r="C353" s="23" t="s">
+        <v>1637</v>
+      </c>
+      <c r="D353" s="21"/>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D354" s="19"/>
+      <c r="A354" t="s">
+        <v>1632</v>
+      </c>
+      <c r="B354" s="19" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C354" s="23" t="s">
+        <v>1633</v>
+      </c>
+      <c r="D354" s="21"/>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>1539</v>
-      </c>
-      <c r="B355" s="22" t="s">
-        <v>1483</v>
-      </c>
-      <c r="C355" s="17" t="s">
-        <v>1533</v>
-      </c>
-      <c r="D355" s="19"/>
+        <v>1437</v>
+      </c>
+      <c r="B355" s="19" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C355" s="23" t="s">
+        <v>1438</v>
+      </c>
+      <c r="D355" s="21"/>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D356" s="19"/>
+      <c r="A356" t="s">
+        <v>1627</v>
+      </c>
+      <c r="B356" s="32" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C356" s="23" t="s">
+        <v>1628</v>
+      </c>
+      <c r="D356" s="20" t="s">
+        <v>1629</v>
+      </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>1019</v>
-      </c>
-      <c r="B357" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C357" s="28" t="s">
-        <v>1020</v>
-      </c>
-      <c r="D357" s="19"/>
+        <v>948</v>
+      </c>
+      <c r="B357" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C357" s="25" t="s">
+        <v>949</v>
+      </c>
+      <c r="D357" s="21" t="s">
+        <v>1107</v>
+      </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>1017</v>
-      </c>
-      <c r="B358" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C358" s="28" t="s">
-        <v>1018</v>
-      </c>
-      <c r="D358" s="19"/>
+        <v>725</v>
+      </c>
+      <c r="B358" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C358" s="23" t="s">
+        <v>726</v>
+      </c>
+      <c r="D358" s="21" t="s">
+        <v>727</v>
+      </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>1016</v>
-      </c>
-      <c r="B359" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C359" s="28" t="s">
-        <v>1103</v>
-      </c>
-      <c r="D359" s="19"/>
+        <v>1611</v>
+      </c>
+      <c r="B359" s="19" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C359" s="23" t="s">
+        <v>1612</v>
+      </c>
+      <c r="D359" s="21" t="s">
+        <v>1613</v>
+      </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>1014</v>
-      </c>
-      <c r="B360" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C360" s="28" t="s">
-        <v>1015</v>
-      </c>
-      <c r="D360" s="19"/>
+        <v>1600</v>
+      </c>
+      <c r="B360" s="29" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C360" s="23" t="s">
+        <v>1601</v>
+      </c>
+      <c r="D360" s="20" t="s">
+        <v>1602</v>
+      </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>1012</v>
-      </c>
-      <c r="B361" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C361" s="28" t="s">
-        <v>1013</v>
-      </c>
-      <c r="D361" s="19"/>
+        <v>1295</v>
+      </c>
+      <c r="B361" s="19" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C361" s="23" t="s">
+        <v>1296</v>
+      </c>
+      <c r="D361" s="21" t="s">
+        <v>1297</v>
+      </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>1102</v>
-      </c>
-      <c r="B362" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C362" s="28" t="s">
-        <v>1011</v>
-      </c>
-      <c r="D362" s="19"/>
+        <v>1406</v>
+      </c>
+      <c r="B362" s="19" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C362" s="23" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D362" s="21" t="s">
+        <v>1407</v>
+      </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>1009</v>
-      </c>
-      <c r="B363" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C363" s="28" t="s">
-        <v>1010</v>
-      </c>
-      <c r="D363" s="19" t="s">
-        <v>1105</v>
+        <v>944</v>
+      </c>
+      <c r="B363" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C363" s="25" t="s">
+        <v>945</v>
+      </c>
+      <c r="D363" s="21" t="s">
+        <v>1108</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>1007</v>
-      </c>
-      <c r="B364" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C364" s="28" t="s">
-        <v>1008</v>
-      </c>
-      <c r="D364" s="19"/>
-    </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1663</v>
+      </c>
+      <c r="B364" s="19" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C364" s="26" t="s">
+        <v>1699</v>
+      </c>
+      <c r="D364" s="21" t="s">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>1005</v>
-      </c>
-      <c r="B365" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C365" s="28" t="s">
-        <v>1006</v>
-      </c>
-      <c r="D365" s="19"/>
+        <v>1664</v>
+      </c>
+      <c r="B365" s="19" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C365" s="26" t="s">
+        <v>1701</v>
+      </c>
+      <c r="D365" s="21" t="s">
+        <v>1702</v>
+      </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>989</v>
-      </c>
-      <c r="B366" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C366" s="28" t="s">
-        <v>990</v>
-      </c>
-      <c r="D366" s="19"/>
+        <v>955</v>
+      </c>
+      <c r="B366" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C366" s="25" t="s">
+        <v>723</v>
+      </c>
+      <c r="D366" s="21" t="s">
+        <v>956</v>
+      </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D367" s="19"/>
+      <c r="A367" t="s">
+        <v>1665</v>
+      </c>
+      <c r="C367" s="23" t="s">
+        <v>1637</v>
+      </c>
+      <c r="D367" s="21"/>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>697</v>
-      </c>
-      <c r="B368" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C368" s="26" t="s">
-        <v>698</v>
-      </c>
-      <c r="D368" s="19"/>
+        <v>1666</v>
+      </c>
+      <c r="C368" s="23" t="s">
+        <v>1637</v>
+      </c>
+      <c r="D368" s="21"/>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D369" s="19"/>
+      <c r="A369" t="s">
+        <v>1667</v>
+      </c>
+      <c r="C369" s="23" t="s">
+        <v>1637</v>
+      </c>
+      <c r="D369" s="21"/>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>974</v>
-      </c>
-      <c r="B370" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C370" s="28" t="s">
-        <v>1004</v>
-      </c>
-      <c r="D370" s="19"/>
+        <v>941</v>
+      </c>
+      <c r="B370" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C370" s="25" t="s">
+        <v>942</v>
+      </c>
+      <c r="D370" s="20" t="s">
+        <v>943</v>
+      </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>1002</v>
-      </c>
-      <c r="B371" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C371" s="28" t="s">
-        <v>1003</v>
-      </c>
-      <c r="D371" s="19"/>
+        <v>939</v>
+      </c>
+      <c r="B371" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C371" s="25" t="s">
+        <v>940</v>
+      </c>
+      <c r="D371" s="21" t="s">
+        <v>1109</v>
+      </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C372" s="28"/>
-      <c r="D372" s="19"/>
+      <c r="A372" t="s">
+        <v>1668</v>
+      </c>
+      <c r="C372" s="23" t="s">
+        <v>1637</v>
+      </c>
+      <c r="D372" s="21"/>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>1470</v>
-      </c>
-      <c r="B373" s="22" t="s">
-        <v>1435</v>
-      </c>
-      <c r="C373" s="26" t="s">
-        <v>1471</v>
-      </c>
-      <c r="D373" s="19"/>
-    </row>
-    <row r="374" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>1669</v>
+      </c>
+      <c r="C373" s="23" t="s">
+        <v>1637</v>
+      </c>
+      <c r="D373" s="21"/>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>1110</v>
-      </c>
-      <c r="B374" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C374" s="31" t="s">
-        <v>1111</v>
-      </c>
-      <c r="D374" s="23" t="s">
-        <v>1121</v>
-      </c>
+        <v>1670</v>
+      </c>
+      <c r="C374" s="23" t="s">
+        <v>1637</v>
+      </c>
+      <c r="D374" s="21"/>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D375" s="19"/>
+      <c r="A375" t="s">
+        <v>1671</v>
+      </c>
+      <c r="C375" s="23" t="s">
+        <v>1637</v>
+      </c>
+      <c r="D375" s="21"/>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>981</v>
-      </c>
-      <c r="B376" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C376" s="28" t="s">
-        <v>982</v>
-      </c>
-      <c r="D376" s="19"/>
+        <v>1672</v>
+      </c>
+      <c r="C376" s="23" t="s">
+        <v>1637</v>
+      </c>
+      <c r="D376" s="21"/>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>979</v>
-      </c>
-      <c r="B377" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C377" s="28" t="s">
-        <v>980</v>
-      </c>
-      <c r="D377" s="19"/>
+        <v>1540</v>
+      </c>
+      <c r="B377" s="19" t="s">
+        <v>1484</v>
+      </c>
+      <c r="C377" s="17" t="s">
+        <v>1534</v>
+      </c>
+      <c r="D377" s="21" t="s">
+        <v>1717</v>
+      </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>975</v>
-      </c>
-      <c r="B378" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C378" s="28" t="s">
-        <v>976</v>
-      </c>
-      <c r="D378" s="19"/>
+        <v>1673</v>
+      </c>
+      <c r="C378" s="23" t="s">
+        <v>1637</v>
+      </c>
+      <c r="D378" s="21"/>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>813</v>
-      </c>
-      <c r="B379" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C379" s="26" t="s">
-        <v>814</v>
-      </c>
-      <c r="D379" s="19"/>
+        <v>1674</v>
+      </c>
+      <c r="C379" s="23" t="s">
+        <v>1637</v>
+      </c>
+      <c r="D379" s="21"/>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>811</v>
-      </c>
-      <c r="B380" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C380" s="26" t="s">
-        <v>812</v>
-      </c>
-      <c r="D380" s="19"/>
+        <v>1675</v>
+      </c>
+      <c r="C380" s="23" t="s">
+        <v>1637</v>
+      </c>
+      <c r="D380" s="21"/>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>1403</v>
-      </c>
-      <c r="B381" s="22" t="s">
-        <v>1181</v>
-      </c>
-      <c r="C381" s="26" t="s">
-        <v>1266</v>
-      </c>
-      <c r="D381" s="19" t="s">
-        <v>1267</v>
-      </c>
+        <v>1676</v>
+      </c>
+      <c r="C381" s="23" t="s">
+        <v>1637</v>
+      </c>
+      <c r="D381" s="21"/>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>1404</v>
-      </c>
-      <c r="B382" s="22" t="s">
-        <v>1124</v>
-      </c>
-      <c r="C382" s="29" t="s">
-        <v>1405</v>
-      </c>
-      <c r="D382" s="19"/>
+        <v>1677</v>
+      </c>
+      <c r="B382" s="19" t="s">
+        <v>1686</v>
+      </c>
+      <c r="C382" s="23" t="s">
+        <v>1734</v>
+      </c>
+      <c r="D382" s="21" t="s">
+        <v>1733</v>
+      </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>850</v>
-      </c>
-      <c r="B383" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C383" s="29" t="s">
-        <v>853</v>
-      </c>
-      <c r="D383" s="19" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="384" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>1678</v>
+      </c>
+      <c r="B383" s="19" t="s">
+        <v>1686</v>
+      </c>
+      <c r="D383" s="21"/>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>1263</v>
-      </c>
-      <c r="B384" s="36" t="s">
-        <v>1181</v>
-      </c>
-      <c r="C384" s="29" t="s">
-        <v>1264</v>
-      </c>
-      <c r="D384" s="23" t="s">
-        <v>1265</v>
+        <v>1679</v>
+      </c>
+      <c r="B384" s="29" t="s">
+        <v>1686</v>
+      </c>
+      <c r="C384" s="23" t="s">
+        <v>1770</v>
+      </c>
+      <c r="D384" s="20" t="s">
+        <v>1773</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C385" s="29"/>
-      <c r="D385" s="19"/>
+      <c r="A385" t="s">
+        <v>1680</v>
+      </c>
+      <c r="B385" s="29" t="s">
+        <v>1686</v>
+      </c>
+      <c r="C385" s="23" t="s">
+        <v>1771</v>
+      </c>
+      <c r="D385" s="20" t="s">
+        <v>1772</v>
+      </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>987</v>
-      </c>
-      <c r="B386" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C386" s="28" t="s">
-        <v>988</v>
-      </c>
-      <c r="D386" s="19"/>
+        <v>1681</v>
+      </c>
+      <c r="B386" s="19" t="s">
+        <v>1686</v>
+      </c>
+      <c r="D386" s="21"/>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>977</v>
-      </c>
-      <c r="B387" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C387" s="28" t="s">
-        <v>978</v>
-      </c>
-      <c r="D387" s="19"/>
+        <v>1682</v>
+      </c>
+      <c r="B387" s="19" t="s">
+        <v>1686</v>
+      </c>
+      <c r="C387" s="23" t="s">
+        <v>1805</v>
+      </c>
+      <c r="D387" s="21" t="s">
+        <v>1806</v>
+      </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D388" s="19"/>
+      <c r="A388" t="s">
+        <v>1683</v>
+      </c>
+      <c r="C388" s="23" t="s">
+        <v>1637</v>
+      </c>
+      <c r="D388" s="21"/>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>666</v>
-      </c>
-      <c r="B389" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C389" s="26" t="s">
-        <v>667</v>
+        <v>1684</v>
+      </c>
+      <c r="C389" s="23" t="s">
+        <v>1637</v>
       </c>
       <c r="D389" s="21"/>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>1256</v>
-      </c>
-      <c r="B390" s="22" t="s">
-        <v>1181</v>
-      </c>
-      <c r="C390" s="26" t="s">
-        <v>1242</v>
+        <v>1685</v>
+      </c>
+      <c r="C390" s="23" t="s">
+        <v>1637</v>
       </c>
       <c r="D390" s="21"/>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>1375</v>
-      </c>
-      <c r="B391" s="22" t="s">
-        <v>1303</v>
-      </c>
-      <c r="C391" s="29" t="s">
-        <v>1376</v>
-      </c>
-      <c r="D391" s="19"/>
+        <v>1019</v>
+      </c>
+      <c r="B391" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C391" s="25" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D391" s="21"/>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>1581</v>
-      </c>
-      <c r="B392" s="22" t="s">
-        <v>1124</v>
-      </c>
-      <c r="C392" s="32" t="s">
-        <v>1583</v>
-      </c>
-      <c r="D392" s="19"/>
+        <v>1017</v>
+      </c>
+      <c r="B392" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C392" s="25" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D392" s="21"/>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>1582</v>
-      </c>
-      <c r="B393" s="22" t="s">
-        <v>1435</v>
-      </c>
-      <c r="C393" s="32" t="s">
-        <v>1586</v>
-      </c>
-      <c r="D393" s="19"/>
+        <v>1016</v>
+      </c>
+      <c r="B393" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C393" s="25" t="s">
+        <v>1103</v>
+      </c>
+      <c r="D393" s="21"/>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>1584</v>
-      </c>
-      <c r="B394" s="22" t="s">
-        <v>1483</v>
-      </c>
-      <c r="C394" s="29" t="s">
-        <v>1585</v>
-      </c>
-      <c r="D394" s="19"/>
+        <v>1014</v>
+      </c>
+      <c r="B394" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C394" s="25" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D394" s="21"/>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D395" s="19"/>
+      <c r="A395" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B395" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C395" s="25" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D395" s="21"/>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>684</v>
-      </c>
-      <c r="B396" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C396" s="29" t="s">
-        <v>685</v>
-      </c>
-      <c r="D396" s="19"/>
+        <v>1102</v>
+      </c>
+      <c r="B396" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C396" s="25" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D396" s="21"/>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>1239</v>
-      </c>
-      <c r="B397" s="22" t="s">
-        <v>1181</v>
-      </c>
-      <c r="C397" s="29" t="s">
-        <v>1240</v>
-      </c>
-      <c r="D397" s="19"/>
+        <v>1009</v>
+      </c>
+      <c r="B397" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C397" s="25" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D397" s="21" t="s">
+        <v>1105</v>
+      </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>1373</v>
-      </c>
-      <c r="B398" s="22" t="s">
-        <v>1303</v>
-      </c>
-      <c r="C398" s="29" t="s">
-        <v>1374</v>
-      </c>
-      <c r="D398" s="19"/>
+        <v>1690</v>
+      </c>
+      <c r="C398" s="23" t="s">
+        <v>1637</v>
+      </c>
+      <c r="D398" s="21"/>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>1169</v>
-      </c>
-      <c r="B399" s="22" t="s">
-        <v>1124</v>
-      </c>
-      <c r="C399" s="29" t="s">
-        <v>1170</v>
-      </c>
-      <c r="D399" s="19"/>
+        <v>1691</v>
+      </c>
+      <c r="C399" s="23" t="s">
+        <v>1637</v>
+      </c>
+      <c r="D399" s="21"/>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>1480</v>
-      </c>
-      <c r="B400" s="22" t="s">
-        <v>1435</v>
-      </c>
-      <c r="C400" s="29" t="s">
-        <v>1481</v>
-      </c>
-      <c r="D400" s="19"/>
+        <v>1692</v>
+      </c>
+      <c r="C400" s="23" t="s">
+        <v>1637</v>
+      </c>
+      <c r="D400" s="21"/>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
+        <v>1693</v>
+      </c>
+      <c r="C401" s="23" t="s">
+        <v>1637</v>
+      </c>
+      <c r="D401" s="21"/>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A402" t="s">
+        <v>1694</v>
+      </c>
+      <c r="C402" s="23" t="s">
+        <v>1637</v>
+      </c>
+      <c r="D402" s="21"/>
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A403" t="s">
+        <v>1695</v>
+      </c>
+      <c r="C403" s="23" t="s">
+        <v>1637</v>
+      </c>
+      <c r="D403" s="21"/>
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A404" t="s">
+        <v>1696</v>
+      </c>
+      <c r="C404" s="23" t="s">
+        <v>1637</v>
+      </c>
+      <c r="D404" s="21"/>
+    </row>
+    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A405" t="s">
+        <v>1697</v>
+      </c>
+      <c r="C405" s="23" t="s">
+        <v>1637</v>
+      </c>
+      <c r="D405" s="21"/>
+    </row>
+    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A406" t="s">
+        <v>1698</v>
+      </c>
+      <c r="C406" s="23" t="s">
+        <v>1637</v>
+      </c>
+      <c r="D406" s="21"/>
+    </row>
+    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A407" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B407" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C407" s="25" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D407" s="21"/>
+    </row>
+    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A408" t="s">
+        <v>1687</v>
+      </c>
+      <c r="C408" s="23" t="s">
+        <v>1637</v>
+      </c>
+      <c r="D408" s="21"/>
+    </row>
+    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A409" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B409" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C409" s="25" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D409" s="21"/>
+    </row>
+    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A410" t="s">
+        <v>989</v>
+      </c>
+      <c r="B410" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C410" s="25" t="s">
+        <v>990</v>
+      </c>
+      <c r="D410" s="21"/>
+    </row>
+    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A411" t="s">
+        <v>1688</v>
+      </c>
+      <c r="C411" s="23" t="s">
+        <v>1637</v>
+      </c>
+      <c r="D411" s="21"/>
+    </row>
+    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A412" t="s">
+        <v>1689</v>
+      </c>
+      <c r="C412" s="23" t="s">
+        <v>1637</v>
+      </c>
+      <c r="D412" s="21"/>
+    </row>
+    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A413" t="s">
+        <v>697</v>
+      </c>
+      <c r="B413" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C413" s="23" t="s">
+        <v>698</v>
+      </c>
+      <c r="D413" s="21"/>
+    </row>
+    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D414" s="21"/>
+    </row>
+    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A415" t="s">
+        <v>974</v>
+      </c>
+      <c r="B415" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C415" s="25" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D415" s="21"/>
+    </row>
+    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A416" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B416" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C416" s="25" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D416" s="21"/>
+    </row>
+    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C417" s="25"/>
+      <c r="D417" s="21"/>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A418" t="s">
+        <v>1470</v>
+      </c>
+      <c r="B418" s="19" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C418" s="23" t="s">
+        <v>1471</v>
+      </c>
+      <c r="D418" s="21"/>
+    </row>
+    <row r="419" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A419" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B419" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C419" s="28" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D419" s="20" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D420" s="21"/>
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A421" t="s">
+        <v>981</v>
+      </c>
+      <c r="B421" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C421" s="25" t="s">
+        <v>982</v>
+      </c>
+      <c r="D421" s="21"/>
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A422" t="s">
+        <v>979</v>
+      </c>
+      <c r="B422" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C422" s="25" t="s">
+        <v>980</v>
+      </c>
+      <c r="D422" s="21"/>
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A423" t="s">
+        <v>975</v>
+      </c>
+      <c r="B423" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C423" s="25" t="s">
+        <v>976</v>
+      </c>
+      <c r="D423" s="21"/>
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A424" t="s">
+        <v>813</v>
+      </c>
+      <c r="B424" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C424" s="23" t="s">
+        <v>814</v>
+      </c>
+      <c r="D424" s="21"/>
+    </row>
+    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A425" t="s">
+        <v>811</v>
+      </c>
+      <c r="B425" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C425" s="23" t="s">
+        <v>812</v>
+      </c>
+      <c r="D425" s="21"/>
+    </row>
+    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A426" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B426" s="19" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C426" s="23" t="s">
+        <v>1266</v>
+      </c>
+      <c r="D426" s="21" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A427" t="s">
+        <v>1404</v>
+      </c>
+      <c r="B427" s="19" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C427" s="26" t="s">
+        <v>1405</v>
+      </c>
+      <c r="D427" s="21"/>
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A428" t="s">
+        <v>850</v>
+      </c>
+      <c r="B428" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C428" s="26" t="s">
+        <v>853</v>
+      </c>
+      <c r="D428" s="21" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A429" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B429" s="32" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C429" s="26" t="s">
+        <v>1264</v>
+      </c>
+      <c r="D429" s="20" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C430" s="26"/>
+      <c r="D430" s="21"/>
+    </row>
+    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A431" t="s">
+        <v>987</v>
+      </c>
+      <c r="B431" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C431" s="25" t="s">
+        <v>988</v>
+      </c>
+      <c r="D431" s="21"/>
+    </row>
+    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A432" t="s">
+        <v>977</v>
+      </c>
+      <c r="B432" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C432" s="25" t="s">
+        <v>978</v>
+      </c>
+      <c r="D432" s="21"/>
+    </row>
+    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D433" s="21"/>
+    </row>
+    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A434" t="s">
+        <v>1728</v>
+      </c>
+      <c r="B434" s="19" t="s">
+        <v>1686</v>
+      </c>
+      <c r="C434" s="23" t="s">
+        <v>1729</v>
+      </c>
+      <c r="D434" s="21"/>
+    </row>
+    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D435" s="21"/>
+    </row>
+    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A436" t="s">
+        <v>1782</v>
+      </c>
+      <c r="B436" s="19" t="s">
+        <v>1686</v>
+      </c>
+      <c r="C436" s="23" t="s">
+        <v>1783</v>
+      </c>
+      <c r="D436" s="21" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D437" s="21"/>
+    </row>
+    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A438" t="s">
+        <v>1788</v>
+      </c>
+      <c r="B438" s="19" t="s">
+        <v>1686</v>
+      </c>
+      <c r="C438" s="23" t="s">
+        <v>1789</v>
+      </c>
+      <c r="D438" s="21" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A439" t="s">
+        <v>1780</v>
+      </c>
+      <c r="B439" s="19" t="s">
+        <v>1686</v>
+      </c>
+      <c r="C439" s="23" t="s">
+        <v>1781</v>
+      </c>
+      <c r="D439" s="21"/>
+    </row>
+    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D440" s="21"/>
+    </row>
+    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A441" t="s">
+        <v>1748</v>
+      </c>
+      <c r="B441" s="19" t="s">
+        <v>1686</v>
+      </c>
+      <c r="C441" s="23" t="s">
+        <v>1749</v>
+      </c>
+      <c r="D441" s="21"/>
+    </row>
+    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D442" s="21"/>
+    </row>
+    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A443" t="s">
+        <v>1730</v>
+      </c>
+      <c r="B443" s="19" t="s">
+        <v>1686</v>
+      </c>
+      <c r="C443" s="26" t="s">
+        <v>1731</v>
+      </c>
+      <c r="D443" s="21" t="s">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C444" s="26"/>
+      <c r="D444" s="21"/>
+    </row>
+    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A445" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B445" s="19" t="s">
+        <v>1686</v>
+      </c>
+      <c r="C445" s="26" t="s">
+        <v>1804</v>
+      </c>
+      <c r="D445" s="21"/>
+    </row>
+    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A446" t="s">
+        <v>1726</v>
+      </c>
+      <c r="B446" s="19" t="s">
+        <v>1686</v>
+      </c>
+      <c r="C446" s="23" t="s">
+        <v>1727</v>
+      </c>
+      <c r="D446" s="21"/>
+    </row>
+    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A447" t="s">
+        <v>1799</v>
+      </c>
+      <c r="B447" s="19" t="s">
+        <v>1686</v>
+      </c>
+      <c r="C447" s="23" t="s">
+        <v>1801</v>
+      </c>
+      <c r="D447" s="21"/>
+    </row>
+    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A448" t="s">
+        <v>1800</v>
+      </c>
+      <c r="B448" s="19" t="s">
+        <v>1686</v>
+      </c>
+      <c r="C448" s="23" t="s">
+        <v>1802</v>
+      </c>
+      <c r="D448" s="21"/>
+    </row>
+    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D449" s="21"/>
+    </row>
+    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A450" t="s">
+        <v>1724</v>
+      </c>
+      <c r="B450" s="19" t="s">
+        <v>1686</v>
+      </c>
+      <c r="C450" s="23" t="s">
+        <v>1725</v>
+      </c>
+      <c r="D450" s="21"/>
+    </row>
+    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D451" s="21"/>
+    </row>
+    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A452" t="s">
+        <v>1722</v>
+      </c>
+      <c r="B452" s="19" t="s">
+        <v>1686</v>
+      </c>
+      <c r="C452" s="23" t="s">
+        <v>1723</v>
+      </c>
+      <c r="D452" s="21"/>
+    </row>
+    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A453" t="s">
+        <v>1720</v>
+      </c>
+      <c r="B453" s="19" t="s">
+        <v>1686</v>
+      </c>
+      <c r="C453" s="23" t="s">
+        <v>1721</v>
+      </c>
+      <c r="D453" s="21"/>
+    </row>
+    <row r="454" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D454" s="21"/>
+    </row>
+    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A455" t="s">
+        <v>1774</v>
+      </c>
+      <c r="B455" s="19" t="s">
+        <v>1686</v>
+      </c>
+      <c r="C455" s="23" t="s">
+        <v>1775</v>
+      </c>
+      <c r="D455" s="21" t="s">
+        <v>1776</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A456" t="s">
+        <v>1777</v>
+      </c>
+      <c r="B456" s="29" t="s">
+        <v>1686</v>
+      </c>
+      <c r="C456" s="23" t="s">
+        <v>1778</v>
+      </c>
+      <c r="D456" s="20" t="s">
+        <v>1779</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A457" t="s">
+        <v>1760</v>
+      </c>
+      <c r="B457" s="19" t="s">
+        <v>1686</v>
+      </c>
+      <c r="C457" s="23" t="s">
+        <v>1761</v>
+      </c>
+      <c r="D457" s="21" t="s">
+        <v>1762</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A458" t="s">
+        <v>1764</v>
+      </c>
+      <c r="B458" s="19" t="s">
+        <v>1686</v>
+      </c>
+      <c r="C458" s="23" t="s">
+        <v>1765</v>
+      </c>
+      <c r="D458" s="21" t="s">
+        <v>1766</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D459" s="21"/>
+    </row>
+    <row r="460" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A460" t="s">
+        <v>1735</v>
+      </c>
+      <c r="B460" s="19" t="s">
+        <v>1686</v>
+      </c>
+      <c r="C460" s="23" t="s">
+        <v>1736</v>
+      </c>
+      <c r="D460" s="21" t="s">
+        <v>1763</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A461" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B461" s="19" t="s">
+        <v>1686</v>
+      </c>
+      <c r="C461" s="23" t="s">
+        <v>1792</v>
+      </c>
+      <c r="D461" s="21" t="s">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A462" t="s">
+        <v>1794</v>
+      </c>
+      <c r="B462" s="19" t="s">
+        <v>1686</v>
+      </c>
+      <c r="C462" s="23" t="s">
+        <v>1795</v>
+      </c>
+      <c r="D462" s="21"/>
+    </row>
+    <row r="463" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D463" s="21"/>
+    </row>
+    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A464" t="s">
+        <v>1796</v>
+      </c>
+      <c r="B464" s="19" t="s">
+        <v>1686</v>
+      </c>
+      <c r="C464" s="23" t="s">
+        <v>1797</v>
+      </c>
+      <c r="D464" s="21" t="s">
+        <v>1798</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D465" s="21"/>
+    </row>
+    <row r="466" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A466" t="s">
+        <v>1750</v>
+      </c>
+      <c r="B466" s="19" t="s">
+        <v>1686</v>
+      </c>
+      <c r="C466" s="23" t="s">
+        <v>1751</v>
+      </c>
+      <c r="D466" s="21"/>
+    </row>
+    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D467" s="21"/>
+    </row>
+    <row r="468" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A468" t="s">
+        <v>1785</v>
+      </c>
+      <c r="B468" s="19" t="s">
+        <v>1686</v>
+      </c>
+      <c r="C468" s="23" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D468" s="21" t="s">
+        <v>1787</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D469" s="21"/>
+    </row>
+    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A470" t="s">
+        <v>1737</v>
+      </c>
+      <c r="B470" s="19" t="s">
+        <v>1686</v>
+      </c>
+      <c r="C470" s="23" t="s">
+        <v>1738</v>
+      </c>
+      <c r="D470" s="21" t="s">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D471" s="21"/>
+    </row>
+    <row r="472" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A472" t="s">
+        <v>1752</v>
+      </c>
+      <c r="B472" s="29" t="s">
+        <v>1686</v>
+      </c>
+      <c r="C472" s="23" t="s">
+        <v>1753</v>
+      </c>
+      <c r="D472" s="20" t="s">
+        <v>1754</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B473"/>
+      <c r="D473" s="21"/>
+    </row>
+    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A474" t="s">
+        <v>1755</v>
+      </c>
+      <c r="B474" s="19" t="s">
+        <v>1686</v>
+      </c>
+      <c r="C474" s="23" t="s">
+        <v>1756</v>
+      </c>
+      <c r="D474" s="21" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D475" s="21"/>
+    </row>
+    <row r="476" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A476" t="s">
+        <v>1740</v>
+      </c>
+      <c r="B476" s="19" t="s">
+        <v>1686</v>
+      </c>
+      <c r="C476" s="23" t="s">
+        <v>1741</v>
+      </c>
+      <c r="D476" s="21" t="s">
+        <v>1742</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D477" s="21"/>
+    </row>
+    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A478" t="s">
+        <v>1743</v>
+      </c>
+      <c r="B478" s="19" t="s">
+        <v>1686</v>
+      </c>
+      <c r="C478" s="23" t="s">
+        <v>1744</v>
+      </c>
+      <c r="D478" s="21" t="s">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D479" s="21"/>
+    </row>
+    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A480" t="s">
+        <v>1746</v>
+      </c>
+      <c r="B480" s="19" t="s">
+        <v>1686</v>
+      </c>
+      <c r="C480" s="23" t="s">
+        <v>1747</v>
+      </c>
+      <c r="D480" s="21"/>
+    </row>
+    <row r="481" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D481" s="21"/>
+    </row>
+    <row r="482" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A482" t="s">
+        <v>1758</v>
+      </c>
+      <c r="B482" s="19" t="s">
+        <v>1686</v>
+      </c>
+      <c r="C482" s="23" t="s">
+        <v>1759</v>
+      </c>
+      <c r="D482" s="21"/>
+    </row>
+    <row r="483" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D483" s="21"/>
+    </row>
+    <row r="484" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A484" t="s">
+        <v>666</v>
+      </c>
+      <c r="B484" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C484" s="23" t="s">
+        <v>667</v>
+      </c>
+      <c r="D484" s="37"/>
+    </row>
+    <row r="485" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A485" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B485" s="19" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C485" s="23" t="s">
+        <v>1242</v>
+      </c>
+      <c r="D485" s="37"/>
+    </row>
+    <row r="486" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A486" t="s">
+        <v>1375</v>
+      </c>
+      <c r="B486" s="19" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C486" s="26" t="s">
+        <v>1376</v>
+      </c>
+      <c r="D486" s="21"/>
+    </row>
+    <row r="487" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A487" t="s">
+        <v>1581</v>
+      </c>
+      <c r="B487" s="19" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C487" s="26" t="s">
+        <v>1583</v>
+      </c>
+      <c r="D487" s="21"/>
+    </row>
+    <row r="488" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A488" t="s">
+        <v>1582</v>
+      </c>
+      <c r="B488" s="19" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C488" s="26" t="s">
+        <v>1586</v>
+      </c>
+      <c r="D488" s="21"/>
+    </row>
+    <row r="489" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A489" t="s">
+        <v>1584</v>
+      </c>
+      <c r="B489" s="19" t="s">
+        <v>1484</v>
+      </c>
+      <c r="C489" s="26" t="s">
+        <v>1585</v>
+      </c>
+      <c r="D489" s="21"/>
+    </row>
+    <row r="490" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D490" s="21"/>
+    </row>
+    <row r="491" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A491" t="s">
+        <v>1767</v>
+      </c>
+      <c r="B491" s="29" t="s">
+        <v>1686</v>
+      </c>
+      <c r="C491" s="39" t="s">
+        <v>1768</v>
+      </c>
+      <c r="D491" s="20" t="s">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D492" s="21"/>
+    </row>
+    <row r="493" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A493" t="s">
+        <v>684</v>
+      </c>
+      <c r="B493" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C493" s="26" t="s">
+        <v>685</v>
+      </c>
+      <c r="D493" s="21"/>
+    </row>
+    <row r="494" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A494" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B494" s="19" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C494" s="26" t="s">
+        <v>1240</v>
+      </c>
+      <c r="D494" s="21"/>
+    </row>
+    <row r="495" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A495" t="s">
+        <v>1373</v>
+      </c>
+      <c r="B495" s="19" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C495" s="26" t="s">
+        <v>1374</v>
+      </c>
+      <c r="D495" s="21"/>
+    </row>
+    <row r="496" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A496" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B496" s="19" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C496" s="26" t="s">
+        <v>1170</v>
+      </c>
+      <c r="D496" s="21"/>
+    </row>
+    <row r="497" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A497" t="s">
+        <v>1481</v>
+      </c>
+      <c r="B497" s="19" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C497" s="26" t="s">
         <v>1482</v>
       </c>
-      <c r="B401" s="22" t="s">
+      <c r="D497" s="21"/>
+    </row>
+    <row r="498" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A498" t="s">
         <v>1483</v>
       </c>
-      <c r="C401" s="29" t="s">
+      <c r="B498" s="19" t="s">
         <v>1484</v>
       </c>
-      <c r="D401" s="19"/>
-    </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D402" s="19"/>
-    </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D403" s="19"/>
-    </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D404" s="19"/>
-    </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D405" s="19"/>
-    </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D406" s="19"/>
-    </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D407" s="19"/>
-    </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D408" s="19"/>
-    </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D409" s="19"/>
+      <c r="C498" s="26" t="s">
+        <v>1485</v>
+      </c>
+      <c r="D498" s="21"/>
+    </row>
+    <row r="499" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D499" s="21"/>
+    </row>
+    <row r="500" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D500" s="21"/>
+    </row>
+    <row r="501" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D501" s="21"/>
+    </row>
+    <row r="502" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D502" s="21"/>
+    </row>
+    <row r="503" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D503" s="21"/>
+    </row>
+    <row r="504" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D504" s="21"/>
+    </row>
+    <row r="505" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D505" s="21"/>
+    </row>
+    <row r="506" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D506" s="21"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D1"/>

--- a/COREd WitE model list.xlsx
+++ b/COREd WitE model list.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet name="Air units" sheetId="1" r:id="rId1"/>
     <sheet name="Land units" sheetId="2" r:id="rId2"/>
+    <sheet name="Leaders" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Land units'!$A$1:$D$1</definedName>
@@ -18,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2294" uniqueCount="1807">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2641" uniqueCount="2125">
   <si>
     <t>A0039</t>
   </si>
@@ -5451,6 +5452,960 @@
   </si>
   <si>
     <t>БТ-7м</t>
+  </si>
+  <si>
+    <t>GP0726</t>
+  </si>
+  <si>
+    <t>SU-57</t>
+  </si>
+  <si>
+    <t>СУ-57</t>
+  </si>
+  <si>
+    <t>GP0663-GP0725 ** vacant **</t>
+  </si>
+  <si>
+    <t>GP0763</t>
+  </si>
+  <si>
+    <t>ZIS-30</t>
+  </si>
+  <si>
+    <t>ЗиС-30</t>
+  </si>
+  <si>
+    <t>Same image GP0761 is used for Valentine IX</t>
+  </si>
+  <si>
+    <t>GP0758</t>
+  </si>
+  <si>
+    <t>KV-2</t>
+  </si>
+  <si>
+    <t>Танк КВ-2</t>
+  </si>
+  <si>
+    <t>Т-26 образца 1933</t>
+  </si>
+  <si>
+    <t>T-26 model 1933</t>
+  </si>
+  <si>
+    <t>GP0753</t>
+  </si>
+  <si>
+    <t>T-28 model 1940</t>
+  </si>
+  <si>
+    <t>t-28 танк. Would suggest renaming it to model 1938, as of the 1940 model only 12 were made, and imagery of those are scarce (unless this is a referral to the slapped-on armor on the T-28C/E model)</t>
+  </si>
+  <si>
+    <t>GP0736</t>
+  </si>
+  <si>
+    <t>BT-7 artillery</t>
+  </si>
+  <si>
+    <t>БТ-7А</t>
+  </si>
+  <si>
+    <t>GP0827</t>
+  </si>
+  <si>
+    <t>152mm howitzer D1</t>
+  </si>
+  <si>
+    <t>152-мм гаубица образца 1943 года (Д-1)</t>
+  </si>
+  <si>
+    <t>GP0809</t>
+  </si>
+  <si>
+    <t>152mm howitzer M-10</t>
+  </si>
+  <si>
+    <t>152-мм гаубица образца 1938 года (M-10)</t>
+  </si>
+  <si>
+    <t>GP0782</t>
+  </si>
+  <si>
+    <t>57mm anti-tank gun (Sov)</t>
+  </si>
+  <si>
+    <t>ЗиС-2</t>
+  </si>
+  <si>
+    <t>LD0001</t>
+  </si>
+  <si>
+    <t>LD0002</t>
+  </si>
+  <si>
+    <t>LD0003</t>
+  </si>
+  <si>
+    <t>LD0004</t>
+  </si>
+  <si>
+    <t>LD0005</t>
+  </si>
+  <si>
+    <t>LD0006</t>
+  </si>
+  <si>
+    <t>LD0007</t>
+  </si>
+  <si>
+    <t>LD0008</t>
+  </si>
+  <si>
+    <t>LD0009</t>
+  </si>
+  <si>
+    <t>LD0010</t>
+  </si>
+  <si>
+    <t>LD0011</t>
+  </si>
+  <si>
+    <t>LD0012</t>
+  </si>
+  <si>
+    <t>LD0013</t>
+  </si>
+  <si>
+    <t>LD0014</t>
+  </si>
+  <si>
+    <t>LD0015</t>
+  </si>
+  <si>
+    <t>LD0016</t>
+  </si>
+  <si>
+    <t>LD0017</t>
+  </si>
+  <si>
+    <t>LD0018</t>
+  </si>
+  <si>
+    <t>LD0019</t>
+  </si>
+  <si>
+    <t>LD0020</t>
+  </si>
+  <si>
+    <t>LD0021</t>
+  </si>
+  <si>
+    <t>LD0022</t>
+  </si>
+  <si>
+    <t>LD0023</t>
+  </si>
+  <si>
+    <t>LD0024</t>
+  </si>
+  <si>
+    <t>LD0025</t>
+  </si>
+  <si>
+    <t>LD0026</t>
+  </si>
+  <si>
+    <t>LD0027</t>
+  </si>
+  <si>
+    <t>LD0028</t>
+  </si>
+  <si>
+    <t>LD0029</t>
+  </si>
+  <si>
+    <t>LD0030</t>
+  </si>
+  <si>
+    <t>LD0031</t>
+  </si>
+  <si>
+    <t>LD0032</t>
+  </si>
+  <si>
+    <t>LD0033</t>
+  </si>
+  <si>
+    <t>LD0034</t>
+  </si>
+  <si>
+    <t>LD0035</t>
+  </si>
+  <si>
+    <t>LD0036</t>
+  </si>
+  <si>
+    <t>LD0037</t>
+  </si>
+  <si>
+    <t>LD0038</t>
+  </si>
+  <si>
+    <t>LD0039</t>
+  </si>
+  <si>
+    <t>LD0040</t>
+  </si>
+  <si>
+    <t>LD0041</t>
+  </si>
+  <si>
+    <t>LD0042</t>
+  </si>
+  <si>
+    <t>LD0043</t>
+  </si>
+  <si>
+    <t>LD0044</t>
+  </si>
+  <si>
+    <t>LD0045</t>
+  </si>
+  <si>
+    <t>LD0046</t>
+  </si>
+  <si>
+    <t>LD0047</t>
+  </si>
+  <si>
+    <t>LD0048</t>
+  </si>
+  <si>
+    <t>LD0049</t>
+  </si>
+  <si>
+    <t>LD0050</t>
+  </si>
+  <si>
+    <t>LD0051</t>
+  </si>
+  <si>
+    <t>LD0052</t>
+  </si>
+  <si>
+    <t>LD0053</t>
+  </si>
+  <si>
+    <t>LD0054</t>
+  </si>
+  <si>
+    <t>LD0055</t>
+  </si>
+  <si>
+    <t>LD0056</t>
+  </si>
+  <si>
+    <t>LD0057</t>
+  </si>
+  <si>
+    <t>LD0058</t>
+  </si>
+  <si>
+    <t>LD0059</t>
+  </si>
+  <si>
+    <t>LD0060</t>
+  </si>
+  <si>
+    <t>LD0061</t>
+  </si>
+  <si>
+    <t>LD0062</t>
+  </si>
+  <si>
+    <t>LD0063</t>
+  </si>
+  <si>
+    <t>LD0064</t>
+  </si>
+  <si>
+    <t>LD0065</t>
+  </si>
+  <si>
+    <t>LD0066</t>
+  </si>
+  <si>
+    <t>LD0067</t>
+  </si>
+  <si>
+    <t>LD0068</t>
+  </si>
+  <si>
+    <t>LD0069</t>
+  </si>
+  <si>
+    <t>LD0070</t>
+  </si>
+  <si>
+    <t>LD0071</t>
+  </si>
+  <si>
+    <t>LD0072</t>
+  </si>
+  <si>
+    <t>LD0073</t>
+  </si>
+  <si>
+    <t>LD0074</t>
+  </si>
+  <si>
+    <t>LD0075</t>
+  </si>
+  <si>
+    <t>LD0076</t>
+  </si>
+  <si>
+    <t>LD0077</t>
+  </si>
+  <si>
+    <t>LD0078</t>
+  </si>
+  <si>
+    <t>LD0079</t>
+  </si>
+  <si>
+    <t>LD0080</t>
+  </si>
+  <si>
+    <t>LD0081</t>
+  </si>
+  <si>
+    <t>LD0082</t>
+  </si>
+  <si>
+    <t>LD0083</t>
+  </si>
+  <si>
+    <t>LD0084</t>
+  </si>
+  <si>
+    <t>LD0085</t>
+  </si>
+  <si>
+    <t>LD0086</t>
+  </si>
+  <si>
+    <t>LD0087</t>
+  </si>
+  <si>
+    <t>LD0088</t>
+  </si>
+  <si>
+    <t>LD0089</t>
+  </si>
+  <si>
+    <t>LD0090</t>
+  </si>
+  <si>
+    <t>LD0091</t>
+  </si>
+  <si>
+    <t>LD0092</t>
+  </si>
+  <si>
+    <t>LD0093</t>
+  </si>
+  <si>
+    <t>LD0094</t>
+  </si>
+  <si>
+    <t>Allmendiger, Karl</t>
+  </si>
+  <si>
+    <t>de Angelis, Maximilian</t>
+  </si>
+  <si>
+    <t>Auleb, Helge</t>
+  </si>
+  <si>
+    <t>Balck, Hermann</t>
+  </si>
+  <si>
+    <t>Behlendorff, Hans</t>
+  </si>
+  <si>
+    <t>Abraham</t>
+  </si>
+  <si>
+    <t>Bieler, Bruno</t>
+  </si>
+  <si>
+    <t>von Böckmann, Herbert</t>
+  </si>
+  <si>
+    <t>Brandenberger, Erich</t>
+  </si>
+  <si>
+    <t>Bader, Paul</t>
+  </si>
+  <si>
+    <t>Bülowius, Alfred</t>
+  </si>
+  <si>
+    <t>LD0095</t>
+  </si>
+  <si>
+    <t>LD0096</t>
+  </si>
+  <si>
+    <t>LD0097</t>
+  </si>
+  <si>
+    <t>LD0098</t>
+  </si>
+  <si>
+    <t>LD0099</t>
+  </si>
+  <si>
+    <t>LD0100</t>
+  </si>
+  <si>
+    <t>LD0101</t>
+  </si>
+  <si>
+    <t>LD0102</t>
+  </si>
+  <si>
+    <t>LD0103</t>
+  </si>
+  <si>
+    <t>LD0104</t>
+  </si>
+  <si>
+    <t>LD0105</t>
+  </si>
+  <si>
+    <t>LD0106</t>
+  </si>
+  <si>
+    <t>LD0107</t>
+  </si>
+  <si>
+    <t>LD0108</t>
+  </si>
+  <si>
+    <t>LD0109</t>
+  </si>
+  <si>
+    <t>LD0110</t>
+  </si>
+  <si>
+    <t>LD0111</t>
+  </si>
+  <si>
+    <t>LD0112</t>
+  </si>
+  <si>
+    <t>LD0113</t>
+  </si>
+  <si>
+    <t>LD0114</t>
+  </si>
+  <si>
+    <t>LD0115</t>
+  </si>
+  <si>
+    <t>LD0116</t>
+  </si>
+  <si>
+    <t>LD0117</t>
+  </si>
+  <si>
+    <t>LD0118</t>
+  </si>
+  <si>
+    <t>LD0119</t>
+  </si>
+  <si>
+    <t>LD0120</t>
+  </si>
+  <si>
+    <t>LD0121</t>
+  </si>
+  <si>
+    <t>LD0122</t>
+  </si>
+  <si>
+    <t>LD0123</t>
+  </si>
+  <si>
+    <t>LD0124</t>
+  </si>
+  <si>
+    <t>LD0125</t>
+  </si>
+  <si>
+    <t>LD0126</t>
+  </si>
+  <si>
+    <t>LD0127</t>
+  </si>
+  <si>
+    <t>LD0128</t>
+  </si>
+  <si>
+    <t>LD0129</t>
+  </si>
+  <si>
+    <t>LD0130</t>
+  </si>
+  <si>
+    <t>LD0131</t>
+  </si>
+  <si>
+    <t>LD0132</t>
+  </si>
+  <si>
+    <t>LD0133</t>
+  </si>
+  <si>
+    <t>LD0134</t>
+  </si>
+  <si>
+    <t>LD0135</t>
+  </si>
+  <si>
+    <t>LD0136</t>
+  </si>
+  <si>
+    <t>LD0137</t>
+  </si>
+  <si>
+    <t>LD0138</t>
+  </si>
+  <si>
+    <t>LD0139</t>
+  </si>
+  <si>
+    <t>LD0140</t>
+  </si>
+  <si>
+    <t>LD0141</t>
+  </si>
+  <si>
+    <t>LD0142</t>
+  </si>
+  <si>
+    <t>LD0143</t>
+  </si>
+  <si>
+    <t>LD0144</t>
+  </si>
+  <si>
+    <t>LD0145</t>
+  </si>
+  <si>
+    <t>LD0146</t>
+  </si>
+  <si>
+    <t>LD0147</t>
+  </si>
+  <si>
+    <t>LD0148</t>
+  </si>
+  <si>
+    <t>LD0149</t>
+  </si>
+  <si>
+    <t>LD0150</t>
+  </si>
+  <si>
+    <t>LD0151</t>
+  </si>
+  <si>
+    <t>LD0152</t>
+  </si>
+  <si>
+    <t>LD0153</t>
+  </si>
+  <si>
+    <t>LD0154</t>
+  </si>
+  <si>
+    <t>LD0155</t>
+  </si>
+  <si>
+    <t>LD0156</t>
+  </si>
+  <si>
+    <t>LD0157</t>
+  </si>
+  <si>
+    <t>LD0158</t>
+  </si>
+  <si>
+    <t>LD0159</t>
+  </si>
+  <si>
+    <t>LD0160</t>
+  </si>
+  <si>
+    <t>LD0161</t>
+  </si>
+  <si>
+    <t>LD0162</t>
+  </si>
+  <si>
+    <t>LD0163</t>
+  </si>
+  <si>
+    <t>LD0164</t>
+  </si>
+  <si>
+    <t>LD0165</t>
+  </si>
+  <si>
+    <t>LD0166</t>
+  </si>
+  <si>
+    <t>LD0167</t>
+  </si>
+  <si>
+    <t>LD0168</t>
+  </si>
+  <si>
+    <t>LD0169</t>
+  </si>
+  <si>
+    <t>LD0170</t>
+  </si>
+  <si>
+    <t>LD0171</t>
+  </si>
+  <si>
+    <t>LD0172</t>
+  </si>
+  <si>
+    <t>LD0173</t>
+  </si>
+  <si>
+    <t>LD0174</t>
+  </si>
+  <si>
+    <t>LD0175</t>
+  </si>
+  <si>
+    <t>LD0176</t>
+  </si>
+  <si>
+    <t>LD0177</t>
+  </si>
+  <si>
+    <t>LD0178</t>
+  </si>
+  <si>
+    <t>LD0179</t>
+  </si>
+  <si>
+    <t>LD0180</t>
+  </si>
+  <si>
+    <t>LD0181</t>
+  </si>
+  <si>
+    <t>LD0182</t>
+  </si>
+  <si>
+    <t>LD0183</t>
+  </si>
+  <si>
+    <t>LD0184</t>
+  </si>
+  <si>
+    <t>LD0185</t>
+  </si>
+  <si>
+    <t>LD0186</t>
+  </si>
+  <si>
+    <t>LD0187</t>
+  </si>
+  <si>
+    <t>LD0188</t>
+  </si>
+  <si>
+    <t>LD0189</t>
+  </si>
+  <si>
+    <t>LD0190</t>
+  </si>
+  <si>
+    <t>LD0191</t>
+  </si>
+  <si>
+    <t>LD0192</t>
+  </si>
+  <si>
+    <t>LD0193</t>
+  </si>
+  <si>
+    <t>LD0194</t>
+  </si>
+  <si>
+    <t>LD0195</t>
+  </si>
+  <si>
+    <t>LD0196</t>
+  </si>
+  <si>
+    <t>LD0197</t>
+  </si>
+  <si>
+    <t>LD0198</t>
+  </si>
+  <si>
+    <t>LD0199</t>
+  </si>
+  <si>
+    <t>LD0200</t>
+  </si>
+  <si>
+    <t>LD0201</t>
+  </si>
+  <si>
+    <t>LD0202</t>
+  </si>
+  <si>
+    <t>LD0203</t>
+  </si>
+  <si>
+    <t>LD0204</t>
+  </si>
+  <si>
+    <t>LD0205</t>
+  </si>
+  <si>
+    <t>LD0206</t>
+  </si>
+  <si>
+    <t>LD0207</t>
+  </si>
+  <si>
+    <t>LD0208</t>
+  </si>
+  <si>
+    <t>LD0209</t>
+  </si>
+  <si>
+    <t>LD0210</t>
+  </si>
+  <si>
+    <t>LD0211</t>
+  </si>
+  <si>
+    <t>LD0212</t>
+  </si>
+  <si>
+    <t>LD0213</t>
+  </si>
+  <si>
+    <t>LD0214</t>
+  </si>
+  <si>
+    <t>LD0215</t>
+  </si>
+  <si>
+    <t>LD0216</t>
+  </si>
+  <si>
+    <t>LD0217</t>
+  </si>
+  <si>
+    <t>LD0218</t>
+  </si>
+  <si>
+    <t>LD0219</t>
+  </si>
+  <si>
+    <t>LD0220</t>
+  </si>
+  <si>
+    <t>LD0221</t>
+  </si>
+  <si>
+    <t>LD0222</t>
+  </si>
+  <si>
+    <t>LD0223</t>
+  </si>
+  <si>
+    <t>LD0224</t>
+  </si>
+  <si>
+    <t>LD0225</t>
+  </si>
+  <si>
+    <t>LD0226</t>
+  </si>
+  <si>
+    <t>LD0227</t>
+  </si>
+  <si>
+    <t>LD0228</t>
+  </si>
+  <si>
+    <t>LD0229</t>
+  </si>
+  <si>
+    <t>LD0230</t>
+  </si>
+  <si>
+    <t>LD0231</t>
+  </si>
+  <si>
+    <t>LD0232</t>
+  </si>
+  <si>
+    <t>Mattenklott, Franz</t>
+  </si>
+  <si>
+    <t>GP0750</t>
+  </si>
+  <si>
+    <t>KV-1S</t>
+  </si>
+  <si>
+    <t>КВ-1с</t>
+  </si>
+  <si>
+    <t>GP0755</t>
+  </si>
+  <si>
+    <t>KV-1 model 1940</t>
+  </si>
+  <si>
+    <t>GP0737</t>
+  </si>
+  <si>
+    <t>T-26 model 1937</t>
+  </si>
+  <si>
+    <t>Should be model 1938 or 1939 I presume (i.e. new turret etc). The 1939 model had the extra searchlights removed the 1938 model introduced, which would fit best IMHO</t>
+  </si>
+  <si>
+    <t>GP0731</t>
+  </si>
+  <si>
+    <t>SU-76M</t>
+  </si>
+  <si>
+    <t>GP0783</t>
+  </si>
+  <si>
+    <t>76mm anti-tank gun (Sov)</t>
+  </si>
+  <si>
+    <t>GP0785</t>
+  </si>
+  <si>
+    <t>76mm field gun F-22 (Sov)</t>
+  </si>
+  <si>
+    <t>Ф-22 1936</t>
+  </si>
+  <si>
+    <t>GP0786</t>
+  </si>
+  <si>
+    <t>122mm howitzer (Sov)</t>
+  </si>
+  <si>
+    <t>M-30</t>
+  </si>
+  <si>
+    <t>GP0788</t>
+  </si>
+  <si>
+    <t>82mm mortar (Sov)</t>
+  </si>
+  <si>
+    <t>БМ-41</t>
+  </si>
+  <si>
+    <t>GP0808</t>
+  </si>
+  <si>
+    <t>152mm gun-howitzer (Sov)</t>
+  </si>
+  <si>
+    <t>Гаубица-пушка МЛ-20 обр. 37 г.</t>
+  </si>
+  <si>
+    <t>GP0807</t>
+  </si>
+  <si>
+    <t>107mm field gun (Sov)</t>
+  </si>
+  <si>
+    <t>М-60  107-мм  дивизионная пушка обр. 1940 г. Would like a shot showing more of the gun itself, but footage is extremely rare due to the low number built</t>
+  </si>
+  <si>
+    <t>GP0825</t>
+  </si>
+  <si>
+    <t>BM-31-12 rocket launcher</t>
+  </si>
+  <si>
+    <t>БМ-31-12</t>
+  </si>
+  <si>
+    <t>GP0748</t>
+  </si>
+  <si>
+    <t>OT-34</t>
+  </si>
+  <si>
+    <t>GP0751</t>
+  </si>
+  <si>
+    <t>M4A2 Sherman (Sov)</t>
+  </si>
+  <si>
+    <t>GP0752</t>
+  </si>
+  <si>
+    <t>M4A2(76)W Sherman (Sov)</t>
+  </si>
+  <si>
+    <t>T-28 model 1932</t>
+  </si>
+  <si>
+    <t>GP0826</t>
+  </si>
+  <si>
+    <t>T-50</t>
+  </si>
+  <si>
+    <t>GP0790</t>
+  </si>
+  <si>
+    <t>GP0791</t>
+  </si>
+  <si>
+    <t>7.62mm machine-gun (Sov)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Максим </t>
+  </si>
+  <si>
+    <t>СГ-43</t>
+  </si>
+  <si>
+    <t>GP0804</t>
+  </si>
+  <si>
+    <t>ПТРД</t>
   </si>
 </sst>
 </file>
@@ -5587,7 +6542,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -5640,6 +6595,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5947,10 +6906,10 @@
   <dimension ref="A1:C310"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B278" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B248" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B309" sqref="B309"/>
+      <selection pane="bottomRight" activeCell="C258" sqref="C258"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8938,13 +9897,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D506"/>
+  <dimension ref="A1:D532"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B359" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B476" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C369" sqref="C369"/>
+      <selection pane="bottomRight" activeCell="C483" sqref="C483"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13822,7 +14781,12 @@
       <c r="B383" s="19" t="s">
         <v>1686</v>
       </c>
-      <c r="D383" s="21"/>
+      <c r="C383" s="23" t="s">
+        <v>1819</v>
+      </c>
+      <c r="D383" s="21" t="s">
+        <v>1818</v>
+      </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
@@ -13859,6 +14823,9 @@
       <c r="B386" s="19" t="s">
         <v>1686</v>
       </c>
+      <c r="C386" s="23" t="s">
+        <v>2115</v>
+      </c>
       <c r="D386" s="21"/>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.25">
@@ -14362,234 +15329,266 @@
       <c r="D434" s="21"/>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A435" s="2" t="s">
+        <v>1810</v>
+      </c>
       <c r="D435" s="21"/>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>1782</v>
+        <v>1807</v>
       </c>
       <c r="B436" s="19" t="s">
         <v>1686</v>
       </c>
       <c r="C436" s="23" t="s">
+        <v>1808</v>
+      </c>
+      <c r="D436" s="21" t="s">
+        <v>1809</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A437" t="s">
+        <v>1782</v>
+      </c>
+      <c r="B437" s="19" t="s">
+        <v>1686</v>
+      </c>
+      <c r="C437" s="23" t="s">
         <v>1783</v>
       </c>
-      <c r="D436" s="21" t="s">
+      <c r="D437" s="21" t="s">
         <v>1784</v>
       </c>
     </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D437" s="21"/>
-    </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A438" t="s">
-        <v>1788</v>
-      </c>
-      <c r="B438" s="19" t="s">
-        <v>1686</v>
-      </c>
-      <c r="C438" s="23" t="s">
-        <v>1789</v>
-      </c>
-      <c r="D438" s="21" t="s">
-        <v>1790</v>
-      </c>
+      <c r="D438" s="21"/>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>1780</v>
+        <v>1788</v>
       </c>
       <c r="B439" s="19" t="s">
         <v>1686</v>
       </c>
       <c r="C439" s="23" t="s">
+        <v>1789</v>
+      </c>
+      <c r="D439" s="21" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A440" t="s">
+        <v>1780</v>
+      </c>
+      <c r="B440" s="19" t="s">
+        <v>1686</v>
+      </c>
+      <c r="C440" s="23" t="s">
         <v>1781</v>
       </c>
-      <c r="D439" s="21"/>
-    </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D440" s="21"/>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>1748</v>
+        <v>2087</v>
       </c>
       <c r="B441" s="19" t="s">
         <v>1686</v>
       </c>
       <c r="C441" s="23" t="s">
+        <v>2088</v>
+      </c>
+      <c r="D441" s="21"/>
+    </row>
+    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A442" t="s">
+        <v>1748</v>
+      </c>
+      <c r="B442" s="19" t="s">
+        <v>1686</v>
+      </c>
+      <c r="C442" s="23" t="s">
         <v>1749</v>
       </c>
-      <c r="D441" s="21"/>
-    </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D442" s="21"/>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A443" t="s">
-        <v>1730</v>
-      </c>
-      <c r="B443" s="19" t="s">
+      <c r="D443" s="21"/>
+    </row>
+    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A444" t="s">
+        <v>1823</v>
+      </c>
+      <c r="B444" s="19" t="s">
         <v>1686</v>
       </c>
-      <c r="C443" s="26" t="s">
-        <v>1731</v>
-      </c>
-      <c r="D443" s="21" t="s">
-        <v>1732</v>
-      </c>
-    </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C444" s="26"/>
-      <c r="D444" s="21"/>
+      <c r="C444" s="23" t="s">
+        <v>1824</v>
+      </c>
+      <c r="D444" s="21" t="s">
+        <v>1825</v>
+      </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>1803</v>
-      </c>
-      <c r="B445" s="19" t="s">
+        <v>2084</v>
+      </c>
+      <c r="B445" s="29" t="s">
         <v>1686</v>
       </c>
-      <c r="C445" s="26" t="s">
-        <v>1804</v>
-      </c>
-      <c r="D445" s="21"/>
+      <c r="C445" s="23" t="s">
+        <v>2085</v>
+      </c>
+      <c r="D445" s="20" t="s">
+        <v>2086</v>
+      </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>1726</v>
+        <v>1730</v>
       </c>
       <c r="B446" s="19" t="s">
         <v>1686</v>
       </c>
-      <c r="C446" s="23" t="s">
-        <v>1727</v>
-      </c>
-      <c r="D446" s="21"/>
+      <c r="C446" s="26" t="s">
+        <v>1731</v>
+      </c>
+      <c r="D446" s="21" t="s">
+        <v>1732</v>
+      </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A447" t="s">
-        <v>1799</v>
-      </c>
-      <c r="B447" s="19" t="s">
-        <v>1686</v>
-      </c>
-      <c r="C447" s="23" t="s">
-        <v>1801</v>
-      </c>
+      <c r="C447" s="26"/>
       <c r="D447" s="21"/>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
-        <v>1800</v>
+        <v>1803</v>
       </c>
       <c r="B448" s="19" t="s">
         <v>1686</v>
       </c>
-      <c r="C448" s="23" t="s">
-        <v>1802</v>
+      <c r="C448" s="26" t="s">
+        <v>1804</v>
       </c>
       <c r="D448" s="21"/>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A449" t="s">
+        <v>1726</v>
+      </c>
+      <c r="B449" s="19" t="s">
+        <v>1686</v>
+      </c>
+      <c r="C449" s="23" t="s">
+        <v>1727</v>
+      </c>
       <c r="D449" s="21"/>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
-        <v>1724</v>
+        <v>1799</v>
       </c>
       <c r="B450" s="19" t="s">
         <v>1686</v>
       </c>
       <c r="C450" s="23" t="s">
-        <v>1725</v>
+        <v>1801</v>
       </c>
       <c r="D450" s="21"/>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A451" t="s">
+        <v>1800</v>
+      </c>
+      <c r="B451" s="19" t="s">
+        <v>1686</v>
+      </c>
+      <c r="C451" s="23" t="s">
+        <v>1802</v>
+      </c>
       <c r="D451" s="21"/>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A452" t="s">
-        <v>1722</v>
-      </c>
-      <c r="B452" s="19" t="s">
-        <v>1686</v>
-      </c>
-      <c r="C452" s="23" t="s">
-        <v>1723</v>
-      </c>
       <c r="D452" s="21"/>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
-        <v>1720</v>
+        <v>2109</v>
       </c>
       <c r="B453" s="19" t="s">
         <v>1686</v>
       </c>
       <c r="C453" s="23" t="s">
-        <v>1721</v>
+        <v>2110</v>
       </c>
       <c r="D453" s="21"/>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A454" t="s">
+        <v>1724</v>
+      </c>
+      <c r="B454" s="19" t="s">
+        <v>1686</v>
+      </c>
+      <c r="C454" s="23" t="s">
+        <v>1725</v>
+      </c>
       <c r="D454" s="21"/>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
-        <v>1774</v>
+        <v>2079</v>
       </c>
       <c r="B455" s="19" t="s">
         <v>1686</v>
       </c>
       <c r="C455" s="23" t="s">
-        <v>1775</v>
+        <v>2080</v>
       </c>
       <c r="D455" s="21" t="s">
-        <v>1776</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
-        <v>1777</v>
-      </c>
-      <c r="B456" s="29" t="s">
+        <v>2111</v>
+      </c>
+      <c r="B456" s="19" t="s">
         <v>1686</v>
       </c>
       <c r="C456" s="23" t="s">
-        <v>1778</v>
-      </c>
-      <c r="D456" s="20" t="s">
-        <v>1779</v>
-      </c>
+        <v>2112</v>
+      </c>
+      <c r="D456" s="21"/>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
-        <v>1760</v>
+        <v>2113</v>
       </c>
       <c r="B457" s="19" t="s">
         <v>1686</v>
       </c>
       <c r="C457" s="23" t="s">
-        <v>1761</v>
-      </c>
-      <c r="D457" s="21" t="s">
-        <v>1762</v>
-      </c>
+        <v>2114</v>
+      </c>
+      <c r="D457" s="21"/>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
-        <v>1764</v>
-      </c>
-      <c r="B458" s="19" t="s">
+        <v>1820</v>
+      </c>
+      <c r="B458" s="29" t="s">
         <v>1686</v>
       </c>
       <c r="C458" s="23" t="s">
-        <v>1765</v>
-      </c>
-      <c r="D458" s="21" t="s">
-        <v>1766</v>
+        <v>1821</v>
+      </c>
+      <c r="D458" s="20" t="s">
+        <v>1822</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.25">
@@ -14597,403 +15596,1942 @@
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
-        <v>1735</v>
+        <v>2082</v>
       </c>
       <c r="B460" s="19" t="s">
         <v>1686</v>
       </c>
       <c r="C460" s="23" t="s">
-        <v>1736</v>
-      </c>
-      <c r="D460" s="21" t="s">
-        <v>1763</v>
-      </c>
+        <v>2083</v>
+      </c>
+      <c r="D460" s="21"/>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A461" t="s">
-        <v>1791</v>
-      </c>
-      <c r="B461" s="19" t="s">
-        <v>1686</v>
-      </c>
-      <c r="C461" s="23" t="s">
-        <v>1792</v>
-      </c>
-      <c r="D461" s="21" t="s">
-        <v>1793</v>
-      </c>
+      <c r="D461" s="21"/>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
-        <v>1794</v>
+        <v>1815</v>
       </c>
       <c r="B462" s="19" t="s">
         <v>1686</v>
       </c>
       <c r="C462" s="23" t="s">
-        <v>1795</v>
-      </c>
-      <c r="D462" s="21"/>
+        <v>1816</v>
+      </c>
+      <c r="D462" s="21" t="s">
+        <v>1817</v>
+      </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D463" s="21"/>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
-        <v>1796</v>
-      </c>
-      <c r="B464" s="19" t="s">
+        <v>1722</v>
+      </c>
+      <c r="B464" s="29" t="s">
         <v>1686</v>
       </c>
       <c r="C464" s="23" t="s">
-        <v>1797</v>
-      </c>
-      <c r="D464" s="21" t="s">
-        <v>1798</v>
+        <v>1723</v>
+      </c>
+      <c r="D464" s="20" t="s">
+        <v>1814</v>
       </c>
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A465" t="s">
+        <v>1720</v>
+      </c>
+      <c r="B465" s="19" t="s">
+        <v>1686</v>
+      </c>
+      <c r="C465" s="23" t="s">
+        <v>1721</v>
+      </c>
       <c r="D465" s="21"/>
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A466" t="s">
-        <v>1750</v>
-      </c>
-      <c r="B466" s="19" t="s">
+      <c r="D466" s="21"/>
+    </row>
+    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A467" t="s">
+        <v>1811</v>
+      </c>
+      <c r="B467" s="19" t="s">
         <v>1686</v>
       </c>
-      <c r="C466" s="23" t="s">
-        <v>1751</v>
-      </c>
-      <c r="D466" s="21"/>
-    </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D467" s="21"/>
+      <c r="C467" s="23" t="s">
+        <v>1812</v>
+      </c>
+      <c r="D467" s="21" t="s">
+        <v>1813</v>
+      </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A468" t="s">
-        <v>1785</v>
-      </c>
-      <c r="B468" s="19" t="s">
+      <c r="D468" s="21"/>
+    </row>
+    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A469" t="s">
+        <v>1774</v>
+      </c>
+      <c r="B469" s="19" t="s">
         <v>1686</v>
       </c>
-      <c r="C468" s="23" t="s">
-        <v>1786</v>
-      </c>
-      <c r="D468" s="21" t="s">
-        <v>1787</v>
-      </c>
-    </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D469" s="21"/>
+      <c r="C469" s="23" t="s">
+        <v>1775</v>
+      </c>
+      <c r="D469" s="21" t="s">
+        <v>1776</v>
+      </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
-        <v>1737</v>
-      </c>
-      <c r="B470" s="19" t="s">
+        <v>1777</v>
+      </c>
+      <c r="B470" s="29" t="s">
         <v>1686</v>
       </c>
       <c r="C470" s="23" t="s">
-        <v>1738</v>
-      </c>
-      <c r="D470" s="21" t="s">
-        <v>1739</v>
+        <v>1778</v>
+      </c>
+      <c r="D470" s="20" t="s">
+        <v>1779</v>
       </c>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D471" s="21"/>
+      <c r="A471" t="s">
+        <v>1760</v>
+      </c>
+      <c r="B471" s="19" t="s">
+        <v>1686</v>
+      </c>
+      <c r="C471" s="23" t="s">
+        <v>1761</v>
+      </c>
+      <c r="D471" s="21" t="s">
+        <v>1762</v>
+      </c>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
-        <v>1752</v>
-      </c>
-      <c r="B472" s="29" t="s">
+        <v>1764</v>
+      </c>
+      <c r="B472" s="19" t="s">
         <v>1686</v>
       </c>
       <c r="C472" s="23" t="s">
-        <v>1753</v>
-      </c>
-      <c r="D472" s="20" t="s">
-        <v>1754</v>
+        <v>1765</v>
+      </c>
+      <c r="D472" s="21" t="s">
+        <v>1766</v>
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B473"/>
       <c r="D473" s="21"/>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
-        <v>1755</v>
+        <v>1735</v>
       </c>
       <c r="B474" s="19" t="s">
         <v>1686</v>
       </c>
       <c r="C474" s="23" t="s">
-        <v>1756</v>
+        <v>1736</v>
       </c>
       <c r="D474" s="21" t="s">
-        <v>1757</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D475" s="21"/>
+      <c r="A475" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B475" s="19" t="s">
+        <v>1686</v>
+      </c>
+      <c r="C475" s="23" t="s">
+        <v>1792</v>
+      </c>
+      <c r="D475" s="21" t="s">
+        <v>1793</v>
+      </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
-        <v>1740</v>
+        <v>1794</v>
       </c>
       <c r="B476" s="19" t="s">
         <v>1686</v>
       </c>
       <c r="C476" s="23" t="s">
-        <v>1741</v>
-      </c>
-      <c r="D476" s="21" t="s">
-        <v>1742</v>
-      </c>
+        <v>1795</v>
+      </c>
+      <c r="D476" s="21"/>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D477" s="21"/>
+      <c r="A477" t="s">
+        <v>1832</v>
+      </c>
+      <c r="B477" s="19" t="s">
+        <v>1686</v>
+      </c>
+      <c r="C477" s="23" t="s">
+        <v>1833</v>
+      </c>
+      <c r="D477" s="21" t="s">
+        <v>1834</v>
+      </c>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
-        <v>1743</v>
+        <v>2089</v>
       </c>
       <c r="B478" s="19" t="s">
         <v>1686</v>
       </c>
       <c r="C478" s="23" t="s">
-        <v>1744</v>
+        <v>2090</v>
       </c>
       <c r="D478" s="21" t="s">
-        <v>1745</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D479" s="21"/>
+      <c r="A479" t="s">
+        <v>1796</v>
+      </c>
+      <c r="B479" s="19" t="s">
+        <v>1686</v>
+      </c>
+      <c r="C479" s="23" t="s">
+        <v>1797</v>
+      </c>
+      <c r="D479" s="21" t="s">
+        <v>1798</v>
+      </c>
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
-        <v>1746</v>
+        <v>2091</v>
       </c>
       <c r="B480" s="19" t="s">
         <v>1686</v>
       </c>
       <c r="C480" s="23" t="s">
-        <v>1747</v>
-      </c>
-      <c r="D480" s="21"/>
+        <v>2092</v>
+      </c>
+      <c r="D480" s="21" t="s">
+        <v>2093</v>
+      </c>
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D481" s="21"/>
+      <c r="A481" t="s">
+        <v>2094</v>
+      </c>
+      <c r="B481" s="19" t="s">
+        <v>1686</v>
+      </c>
+      <c r="C481" s="23" t="s">
+        <v>2095</v>
+      </c>
+      <c r="D481" s="21" t="s">
+        <v>2096</v>
+      </c>
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
-        <v>1758</v>
+        <v>1750</v>
       </c>
       <c r="B482" s="19" t="s">
         <v>1686</v>
       </c>
       <c r="C482" s="23" t="s">
-        <v>1759</v>
+        <v>1751</v>
       </c>
       <c r="D482" s="21"/>
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D483" s="21"/>
+      <c r="A483" t="s">
+        <v>2097</v>
+      </c>
+      <c r="B483" s="19" t="s">
+        <v>1686</v>
+      </c>
+      <c r="C483" s="23" t="s">
+        <v>2098</v>
+      </c>
+      <c r="D483" s="21" t="s">
+        <v>2099</v>
+      </c>
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
-        <v>666</v>
+        <v>1785</v>
       </c>
       <c r="B484" s="19" t="s">
-        <v>1114</v>
+        <v>1686</v>
       </c>
       <c r="C484" s="23" t="s">
-        <v>667</v>
-      </c>
-      <c r="D484" s="37"/>
+        <v>1786</v>
+      </c>
+      <c r="D484" s="21" t="s">
+        <v>1787</v>
+      </c>
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
-        <v>1256</v>
+        <v>2118</v>
       </c>
       <c r="B485" s="19" t="s">
-        <v>1181</v>
+        <v>1686</v>
       </c>
       <c r="C485" s="23" t="s">
-        <v>1242</v>
-      </c>
-      <c r="D485" s="37"/>
+        <v>2120</v>
+      </c>
+      <c r="D485" s="21" t="s">
+        <v>2121</v>
+      </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
-        <v>1375</v>
+        <v>2119</v>
       </c>
       <c r="B486" s="19" t="s">
-        <v>1303</v>
-      </c>
-      <c r="C486" s="26" t="s">
-        <v>1376</v>
-      </c>
-      <c r="D486" s="21"/>
+        <v>1686</v>
+      </c>
+      <c r="C486" s="23" t="s">
+        <v>2120</v>
+      </c>
+      <c r="D486" s="21" t="s">
+        <v>2122</v>
+      </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
-        <v>1581</v>
+        <v>1737</v>
       </c>
       <c r="B487" s="19" t="s">
-        <v>1124</v>
-      </c>
-      <c r="C487" s="26" t="s">
-        <v>1583</v>
-      </c>
-      <c r="D487" s="21"/>
+        <v>1686</v>
+      </c>
+      <c r="C487" s="23" t="s">
+        <v>1738</v>
+      </c>
+      <c r="D487" s="21" t="s">
+        <v>1739</v>
+      </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A488" t="s">
-        <v>1582</v>
-      </c>
-      <c r="B488" s="19" t="s">
-        <v>1435</v>
-      </c>
-      <c r="C488" s="26" t="s">
-        <v>1586</v>
-      </c>
       <c r="D488" s="21"/>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
-        <v>1584</v>
+        <v>2123</v>
       </c>
       <c r="B489" s="19" t="s">
-        <v>1484</v>
-      </c>
-      <c r="C489" s="26" t="s">
-        <v>1585</v>
-      </c>
-      <c r="D489" s="21"/>
+        <v>1686</v>
+      </c>
+      <c r="C489" s="23" t="s">
+        <v>1154</v>
+      </c>
+      <c r="D489" s="21" t="s">
+        <v>2124</v>
+      </c>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D490" s="21"/>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
-        <v>1767</v>
+        <v>1752</v>
       </c>
       <c r="B491" s="29" t="s">
         <v>1686</v>
       </c>
-      <c r="C491" s="39" t="s">
-        <v>1768</v>
+      <c r="C491" s="23" t="s">
+        <v>1753</v>
       </c>
       <c r="D491" s="20" t="s">
-        <v>1769</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D492" s="21"/>
+      <c r="A492" t="s">
+        <v>2103</v>
+      </c>
+      <c r="B492" s="19" t="s">
+        <v>1686</v>
+      </c>
+      <c r="C492" s="23" t="s">
+        <v>2104</v>
+      </c>
+      <c r="D492" s="41" t="s">
+        <v>2105</v>
+      </c>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
-        <v>684</v>
+        <v>2100</v>
       </c>
       <c r="B493" s="19" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C493" s="26" t="s">
-        <v>685</v>
-      </c>
-      <c r="D493" s="21"/>
+        <v>1686</v>
+      </c>
+      <c r="C493" s="23" t="s">
+        <v>2101</v>
+      </c>
+      <c r="D493" s="21" t="s">
+        <v>2102</v>
+      </c>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
-        <v>1239</v>
+        <v>1829</v>
       </c>
       <c r="B494" s="19" t="s">
-        <v>1181</v>
-      </c>
-      <c r="C494" s="26" t="s">
-        <v>1240</v>
-      </c>
-      <c r="D494" s="21"/>
+        <v>1686</v>
+      </c>
+      <c r="C494" s="23" t="s">
+        <v>1830</v>
+      </c>
+      <c r="D494" s="21" t="s">
+        <v>1831</v>
+      </c>
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A495" t="s">
-        <v>1373</v>
-      </c>
-      <c r="B495" s="19" t="s">
-        <v>1303</v>
-      </c>
-      <c r="C495" s="26" t="s">
-        <v>1374</v>
-      </c>
+      <c r="B495"/>
       <c r="D495" s="21"/>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
-        <v>1169</v>
+        <v>1755</v>
       </c>
       <c r="B496" s="19" t="s">
-        <v>1124</v>
-      </c>
-      <c r="C496" s="26" t="s">
-        <v>1170</v>
-      </c>
-      <c r="D496" s="21"/>
+        <v>1686</v>
+      </c>
+      <c r="C496" s="23" t="s">
+        <v>1756</v>
+      </c>
+      <c r="D496" s="21" t="s">
+        <v>1757</v>
+      </c>
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A497" t="s">
-        <v>1481</v>
-      </c>
-      <c r="B497" s="19" t="s">
-        <v>1435</v>
-      </c>
-      <c r="C497" s="26" t="s">
-        <v>1482</v>
-      </c>
       <c r="D497" s="21"/>
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
-        <v>1483</v>
+        <v>1740</v>
       </c>
       <c r="B498" s="19" t="s">
-        <v>1484</v>
-      </c>
-      <c r="C498" s="26" t="s">
-        <v>1485</v>
-      </c>
-      <c r="D498" s="21"/>
+        <v>1686</v>
+      </c>
+      <c r="C498" s="23" t="s">
+        <v>1741</v>
+      </c>
+      <c r="D498" s="21" t="s">
+        <v>1742</v>
+      </c>
     </row>
     <row r="499" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D499" s="21"/>
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D500" s="21"/>
+      <c r="A500" t="s">
+        <v>1743</v>
+      </c>
+      <c r="B500" s="19" t="s">
+        <v>1686</v>
+      </c>
+      <c r="C500" s="23" t="s">
+        <v>1744</v>
+      </c>
+      <c r="D500" s="21" t="s">
+        <v>1745</v>
+      </c>
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D501" s="21"/>
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D502" s="21"/>
+      <c r="A502" t="s">
+        <v>2106</v>
+      </c>
+      <c r="B502" s="19" t="s">
+        <v>1686</v>
+      </c>
+      <c r="C502" s="23" t="s">
+        <v>2107</v>
+      </c>
+      <c r="D502" s="21" t="s">
+        <v>2108</v>
+      </c>
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A503" t="s">
+        <v>2116</v>
+      </c>
+      <c r="B503" s="19" t="s">
+        <v>1686</v>
+      </c>
+      <c r="C503" s="23" t="s">
+        <v>2117</v>
+      </c>
       <c r="D503" s="21"/>
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D504" s="21"/>
+      <c r="A504" t="s">
+        <v>1826</v>
+      </c>
+      <c r="B504" s="19" t="s">
+        <v>1686</v>
+      </c>
+      <c r="C504" s="23" t="s">
+        <v>1827</v>
+      </c>
+      <c r="D504" s="21" t="s">
+        <v>1828</v>
+      </c>
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D505" s="21"/>
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A506" t="s">
+        <v>1746</v>
+      </c>
+      <c r="B506" s="19" t="s">
+        <v>1686</v>
+      </c>
+      <c r="C506" s="23" t="s">
+        <v>1747</v>
+      </c>
       <c r="D506" s="21"/>
+    </row>
+    <row r="507" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D507" s="21"/>
+    </row>
+    <row r="508" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A508" t="s">
+        <v>1758</v>
+      </c>
+      <c r="B508" s="19" t="s">
+        <v>1686</v>
+      </c>
+      <c r="C508" s="23" t="s">
+        <v>1759</v>
+      </c>
+      <c r="D508" s="21"/>
+    </row>
+    <row r="509" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D509" s="21"/>
+    </row>
+    <row r="510" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A510" t="s">
+        <v>666</v>
+      </c>
+      <c r="B510" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C510" s="23" t="s">
+        <v>667</v>
+      </c>
+      <c r="D510" s="37"/>
+    </row>
+    <row r="511" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A511" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B511" s="19" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C511" s="23" t="s">
+        <v>1242</v>
+      </c>
+      <c r="D511" s="37"/>
+    </row>
+    <row r="512" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A512" t="s">
+        <v>1375</v>
+      </c>
+      <c r="B512" s="19" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C512" s="26" t="s">
+        <v>1376</v>
+      </c>
+      <c r="D512" s="21"/>
+    </row>
+    <row r="513" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A513" t="s">
+        <v>1581</v>
+      </c>
+      <c r="B513" s="19" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C513" s="26" t="s">
+        <v>1583</v>
+      </c>
+      <c r="D513" s="21"/>
+    </row>
+    <row r="514" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A514" t="s">
+        <v>1582</v>
+      </c>
+      <c r="B514" s="19" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C514" s="26" t="s">
+        <v>1586</v>
+      </c>
+      <c r="D514" s="21"/>
+    </row>
+    <row r="515" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A515" t="s">
+        <v>1584</v>
+      </c>
+      <c r="B515" s="19" t="s">
+        <v>1484</v>
+      </c>
+      <c r="C515" s="26" t="s">
+        <v>1585</v>
+      </c>
+      <c r="D515" s="21"/>
+    </row>
+    <row r="516" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D516" s="21"/>
+    </row>
+    <row r="517" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A517" t="s">
+        <v>1767</v>
+      </c>
+      <c r="B517" s="29" t="s">
+        <v>1686</v>
+      </c>
+      <c r="C517" s="39" t="s">
+        <v>1768</v>
+      </c>
+      <c r="D517" s="20" t="s">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D518" s="21"/>
+    </row>
+    <row r="519" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A519" t="s">
+        <v>684</v>
+      </c>
+      <c r="B519" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C519" s="26" t="s">
+        <v>685</v>
+      </c>
+      <c r="D519" s="21"/>
+    </row>
+    <row r="520" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A520" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B520" s="19" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C520" s="26" t="s">
+        <v>1240</v>
+      </c>
+      <c r="D520" s="21"/>
+    </row>
+    <row r="521" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A521" t="s">
+        <v>1373</v>
+      </c>
+      <c r="B521" s="19" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C521" s="26" t="s">
+        <v>1374</v>
+      </c>
+      <c r="D521" s="21"/>
+    </row>
+    <row r="522" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A522" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B522" s="19" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C522" s="26" t="s">
+        <v>1170</v>
+      </c>
+      <c r="D522" s="21"/>
+    </row>
+    <row r="523" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A523" t="s">
+        <v>1481</v>
+      </c>
+      <c r="B523" s="19" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C523" s="26" t="s">
+        <v>1482</v>
+      </c>
+      <c r="D523" s="21"/>
+    </row>
+    <row r="524" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A524" t="s">
+        <v>1483</v>
+      </c>
+      <c r="B524" s="19" t="s">
+        <v>1484</v>
+      </c>
+      <c r="C524" s="26" t="s">
+        <v>1485</v>
+      </c>
+      <c r="D524" s="21"/>
+    </row>
+    <row r="525" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D525" s="21"/>
+    </row>
+    <row r="526" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D526" s="21"/>
+    </row>
+    <row r="527" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D527" s="21"/>
+    </row>
+    <row r="528" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D528" s="21"/>
+    </row>
+    <row r="529" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D529" s="21"/>
+    </row>
+    <row r="530" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D530" s="21"/>
+    </row>
+    <row r="531" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D531" s="21"/>
+    </row>
+    <row r="532" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D532" s="21"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B232"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B127" sqref="B127"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="76.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1835</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1836</v>
+      </c>
+      <c r="B2" s="40" t="s">
+        <v>1934</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1837</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1929</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1838</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1930</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1839</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1931</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1840</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1938</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1841</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1932</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1842</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1933</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1843</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1844</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>1845</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1935</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>1846</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1847</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>1848</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1936</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>1849</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>1851</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>1853</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1939</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>1854</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>1857</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>1858</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>1861</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>1863</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>1864</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>1865</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>1871</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>1872</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>1873</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>1874</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>1878</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>1879</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>1882</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>1883</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>1884</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>1885</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>1886</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>1887</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>1888</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>1889</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>1891</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>1895</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>1897</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>1898</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>1899</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>1902</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>1903</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>1906</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>1907</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>1908</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>1909</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>1911</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>1912</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>1913</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>1915</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>1916</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>1917</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>1918</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>1921</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>1922</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>1923</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>1924</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>1926</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>1927</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>1942</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>1943</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>1946</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>1947</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>1948</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>1949</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>1951</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>1952</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>1966</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>1967</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>1971</v>
+      </c>
+      <c r="B126" t="s">
+        <v>2078</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>1973</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>1981</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>1989</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>2032</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>2039</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>2042</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>2043</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>2044</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>2046</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>2047</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>2051</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>2052</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>2053</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>2054</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>2055</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>2057</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>2058</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>2061</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>2062</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>2063</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>2065</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>2066</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>2068</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>2071</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>2072</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>2073</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>2074</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>2075</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>2076</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>2077</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/COREd WitE model list.xlsx
+++ b/COREd WitE model list.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2641" uniqueCount="2125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2776" uniqueCount="2221">
   <si>
     <t>A0039</t>
   </si>
@@ -5271,9 +5271,6 @@
     <t>войск нквд ссср</t>
   </si>
   <si>
-    <t>GP0831</t>
-  </si>
-  <si>
     <t>Motorcycle squad (Sov)</t>
   </si>
   <si>
@@ -6406,6 +6403,297 @@
   </si>
   <si>
     <t>ПТРД</t>
+  </si>
+  <si>
+    <t>GP0823</t>
+  </si>
+  <si>
+    <t>280mm siege mortar (Sov)</t>
+  </si>
+  <si>
+    <t>GP0822</t>
+  </si>
+  <si>
+    <t>203mm howitzer (Sov)</t>
+  </si>
+  <si>
+    <t>203-мм гаубица образца 1931 года (Б-4). Vanilla's image doesn't look like a B-4, as far as I'm able to tell with all that blurring</t>
+  </si>
+  <si>
+    <t>280-мм мортира образца 1939 года (Бр-5)</t>
+  </si>
+  <si>
+    <t>GP0824</t>
+  </si>
+  <si>
+    <t>122mm Field Gun (Sov)</t>
+  </si>
+  <si>
+    <t>122-мм пушка - А-19 образца 1931-1937 гг.</t>
+  </si>
+  <si>
+    <t>GP0820</t>
+  </si>
+  <si>
+    <t>100mm anti-tank gun (Sov)</t>
+  </si>
+  <si>
+    <t>100-мм БС-3</t>
+  </si>
+  <si>
+    <t>GP0813</t>
+  </si>
+  <si>
+    <t>GP0818</t>
+  </si>
+  <si>
+    <t>152mm Field Gun (Sov)</t>
+  </si>
+  <si>
+    <t>152-мм пушка образца 1935 года (Бр-2). Vanilla image looks nothing like a BR-2</t>
+  </si>
+  <si>
+    <t>GP0817</t>
+  </si>
+  <si>
+    <t>76mm anti-tank gun F-22 (Sov)</t>
+  </si>
+  <si>
+    <t>GP0812</t>
+  </si>
+  <si>
+    <t>85mm anti-tank gun (Sov)</t>
+  </si>
+  <si>
+    <t>Image looks nothing like a 52-K in anti-tank role</t>
+  </si>
+  <si>
+    <t>GP0777</t>
+  </si>
+  <si>
+    <t>Naval Rifle Squad</t>
+  </si>
+  <si>
+    <t>GP0778</t>
+  </si>
+  <si>
+    <t>Naval Rifle Squad (-)</t>
+  </si>
+  <si>
+    <t>Note the machine gun - the main difference in arms with the Naval Rifle Squad(-)</t>
+  </si>
+  <si>
+    <t>GP0795</t>
+  </si>
+  <si>
+    <t>Rifle Squad 1942 (Sov)</t>
+  </si>
+  <si>
+    <t>GP0793</t>
+  </si>
+  <si>
+    <t>Rifle Squad 1941 (Sov)</t>
+  </si>
+  <si>
+    <t>GP0794</t>
+  </si>
+  <si>
+    <t>Rifle Squad (-) (Sov)</t>
+  </si>
+  <si>
+    <t>GP0728</t>
+  </si>
+  <si>
+    <t>OT-34-85 Model 1944</t>
+  </si>
+  <si>
+    <t>Would love to get my hands on a shot of the tank actually sprewing flames, but this will have to do so far. Note the nacelle in the slot the machinegun</t>
+  </si>
+  <si>
+    <t>GP0766</t>
+  </si>
+  <si>
+    <t>SU-85</t>
+  </si>
+  <si>
+    <t>GP0767</t>
+  </si>
+  <si>
+    <t>SU-100</t>
+  </si>
+  <si>
+    <t>Су-100</t>
+  </si>
+  <si>
+    <t>Су-85. Same image GP0766 is used for the SU-85M</t>
+  </si>
+  <si>
+    <t>GP0764</t>
+  </si>
+  <si>
+    <t>IS-1</t>
+  </si>
+  <si>
+    <t>ИС-1</t>
+  </si>
+  <si>
+    <t>GP0757</t>
+  </si>
+  <si>
+    <t>KV-85</t>
+  </si>
+  <si>
+    <t>GP0747</t>
+  </si>
+  <si>
+    <t>T-34-85</t>
+  </si>
+  <si>
+    <t>GP0740</t>
+  </si>
+  <si>
+    <t>T-60</t>
+  </si>
+  <si>
+    <t>I doubt the Vanilla pic is showing a T-60, to be honest</t>
+  </si>
+  <si>
+    <t>GP0739</t>
+  </si>
+  <si>
+    <t>T-40</t>
+  </si>
+  <si>
+    <t>GP0733</t>
+  </si>
+  <si>
+    <t>Labor squad (Sov)</t>
+  </si>
+  <si>
+    <t>GP0815</t>
+  </si>
+  <si>
+    <t>Submachine gun squad (+) (Sov)</t>
+  </si>
+  <si>
+    <t>GP0768</t>
+  </si>
+  <si>
+    <t>SU-122</t>
+  </si>
+  <si>
+    <t>Су-122</t>
+  </si>
+  <si>
+    <t>GP0769</t>
+  </si>
+  <si>
+    <t>ISU-122</t>
+  </si>
+  <si>
+    <t>ИСУ-122</t>
+  </si>
+  <si>
+    <t>GP0770</t>
+  </si>
+  <si>
+    <t>SU-152</t>
+  </si>
+  <si>
+    <t>СУ-152</t>
+  </si>
+  <si>
+    <t>GP0776</t>
+  </si>
+  <si>
+    <t>Reconnaissance squad (Sov)</t>
+  </si>
+  <si>
+    <t>GP0759</t>
+  </si>
+  <si>
+    <t>GP0760</t>
+  </si>
+  <si>
+    <t>IS-2</t>
+  </si>
+  <si>
+    <t>IS-3</t>
+  </si>
+  <si>
+    <t>GP0756</t>
+  </si>
+  <si>
+    <t>KV-1 model 1941</t>
+  </si>
+  <si>
+    <t>GP0754</t>
+  </si>
+  <si>
+    <t>T-35 model 1935</t>
+  </si>
+  <si>
+    <t>GP0771</t>
+  </si>
+  <si>
+    <t>ISU-152</t>
+  </si>
+  <si>
+    <t>ИСУ-152</t>
+  </si>
+  <si>
+    <t>Т-34 образца 1942</t>
+  </si>
+  <si>
+    <t>GP0746</t>
+  </si>
+  <si>
+    <t>T-34 M1942</t>
+  </si>
+  <si>
+    <t>GP0745</t>
+  </si>
+  <si>
+    <t>T-34 M1941</t>
+  </si>
+  <si>
+    <t>GP0734</t>
+  </si>
+  <si>
+    <t>GP0735</t>
+  </si>
+  <si>
+    <t>BT-5 model 1934</t>
+  </si>
+  <si>
+    <t>БТ-5</t>
+  </si>
+  <si>
+    <t>BT-7 model 1937</t>
+  </si>
+  <si>
+    <t>GP0765</t>
+  </si>
+  <si>
+    <t>SU-76</t>
+  </si>
+  <si>
+    <t>This represents the early SU-76 model with completely enclosed compartment. Vanilla displays the open-hatched SU-76M (granted, imagery of the early SU-76 is scarce, but still...)</t>
+  </si>
+  <si>
+    <t>GP0848</t>
+  </si>
+  <si>
+    <t>Image depicts a M17 Multiple Gun Motor Carriage</t>
+  </si>
+  <si>
+    <t>GP0803</t>
+  </si>
+  <si>
+    <t>Cavalry Squad 1943 (Sov)</t>
+  </si>
+  <si>
+    <t>Note the submachine guns</t>
   </si>
 </sst>
 </file>
@@ -9897,13 +10185,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D532"/>
+  <dimension ref="A1:D559"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B476" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B502" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C483" sqref="C483"/>
+      <selection pane="bottomRight" activeCell="D508" sqref="D508"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14782,10 +15070,10 @@
         <v>1686</v>
       </c>
       <c r="C383" s="23" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="D383" s="21" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.25">
@@ -14796,10 +15084,10 @@
         <v>1686</v>
       </c>
       <c r="C384" s="23" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D384" s="20" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.25">
@@ -14810,10 +15098,10 @@
         <v>1686</v>
       </c>
       <c r="C385" s="23" t="s">
+        <v>1770</v>
+      </c>
+      <c r="D385" s="20" t="s">
         <v>1771</v>
-      </c>
-      <c r="D385" s="20" t="s">
-        <v>1772</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.25">
@@ -14824,7 +15112,7 @@
         <v>1686</v>
       </c>
       <c r="C386" s="23" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="D386" s="21"/>
     </row>
@@ -14836,10 +15124,10 @@
         <v>1686</v>
       </c>
       <c r="C387" s="23" t="s">
+        <v>1804</v>
+      </c>
+      <c r="D387" s="21" t="s">
         <v>1805</v>
-      </c>
-      <c r="D387" s="21" t="s">
-        <v>1806</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.25">
@@ -15330,990 +15618,1454 @@
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A435" s="2" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="D435" s="21"/>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="B436" s="19" t="s">
         <v>1686</v>
       </c>
       <c r="C436" s="23" t="s">
+        <v>1807</v>
+      </c>
+      <c r="D436" s="21" t="s">
         <v>1808</v>
-      </c>
-      <c r="D436" s="21" t="s">
-        <v>1809</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="B437" s="19" t="s">
         <v>1686</v>
       </c>
       <c r="C437" s="23" t="s">
+        <v>1782</v>
+      </c>
+      <c r="D437" s="21" t="s">
         <v>1783</v>
       </c>
-      <c r="D437" s="21" t="s">
-        <v>1784</v>
-      </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D438" s="21"/>
+      <c r="A438" t="s">
+        <v>2156</v>
+      </c>
+      <c r="B438" s="19" t="s">
+        <v>1686</v>
+      </c>
+      <c r="C438" s="23" t="s">
+        <v>2157</v>
+      </c>
+      <c r="D438" s="41" t="s">
+        <v>2158</v>
+      </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="B439" s="19" t="s">
         <v>1686</v>
       </c>
       <c r="C439" s="23" t="s">
+        <v>1788</v>
+      </c>
+      <c r="D439" s="21" t="s">
         <v>1789</v>
-      </c>
-      <c r="D439" s="21" t="s">
-        <v>1790</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="B440" s="19" t="s">
         <v>1686</v>
       </c>
       <c r="C440" s="23" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="D440" s="21"/>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="B441" s="19" t="s">
         <v>1686</v>
       </c>
       <c r="C441" s="23" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
       <c r="D441" s="21"/>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="B442" s="19" t="s">
         <v>1686</v>
       </c>
       <c r="C442" s="23" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="D442" s="21"/>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A443" t="s">
+        <v>2177</v>
+      </c>
+      <c r="B443" s="19" t="s">
+        <v>1686</v>
+      </c>
+      <c r="C443" s="23" t="s">
+        <v>2178</v>
+      </c>
       <c r="D443" s="21"/>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>1823</v>
+        <v>2208</v>
       </c>
       <c r="B444" s="19" t="s">
         <v>1686</v>
       </c>
       <c r="C444" s="23" t="s">
-        <v>1824</v>
+        <v>2210</v>
       </c>
       <c r="D444" s="21" t="s">
-        <v>1825</v>
+        <v>2211</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>2084</v>
-      </c>
-      <c r="B445" s="29" t="s">
+        <v>2209</v>
+      </c>
+      <c r="B445" s="19" t="s">
         <v>1686</v>
       </c>
       <c r="C445" s="23" t="s">
-        <v>2085</v>
-      </c>
-      <c r="D445" s="20" t="s">
-        <v>2086</v>
-      </c>
+        <v>2212</v>
+      </c>
+      <c r="D445" s="21"/>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>1730</v>
+        <v>1822</v>
       </c>
       <c r="B446" s="19" t="s">
         <v>1686</v>
       </c>
-      <c r="C446" s="26" t="s">
-        <v>1731</v>
+      <c r="C446" s="23" t="s">
+        <v>1823</v>
       </c>
       <c r="D446" s="21" t="s">
-        <v>1732</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C447" s="26"/>
-      <c r="D447" s="21"/>
+      <c r="A447" t="s">
+        <v>2083</v>
+      </c>
+      <c r="B447" s="29" t="s">
+        <v>1686</v>
+      </c>
+      <c r="C447" s="23" t="s">
+        <v>2084</v>
+      </c>
+      <c r="D447" s="20" t="s">
+        <v>2085</v>
+      </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
-        <v>1803</v>
+        <v>1730</v>
       </c>
       <c r="B448" s="19" t="s">
         <v>1686</v>
       </c>
       <c r="C448" s="26" t="s">
-        <v>1804</v>
-      </c>
-      <c r="D448" s="21"/>
+        <v>1731</v>
+      </c>
+      <c r="D448" s="21" t="s">
+        <v>1732</v>
+      </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
-        <v>1726</v>
+        <v>2175</v>
       </c>
       <c r="B449" s="19" t="s">
         <v>1686</v>
       </c>
-      <c r="C449" s="23" t="s">
-        <v>1727</v>
+      <c r="C449" s="26" t="s">
+        <v>2176</v>
       </c>
       <c r="D449" s="21"/>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
-        <v>1799</v>
-      </c>
-      <c r="B450" s="19" t="s">
+        <v>2172</v>
+      </c>
+      <c r="B450" s="29" t="s">
         <v>1686</v>
       </c>
-      <c r="C450" s="23" t="s">
-        <v>1801</v>
-      </c>
-      <c r="D450" s="21"/>
+      <c r="C450" s="26" t="s">
+        <v>2173</v>
+      </c>
+      <c r="D450" s="20" t="s">
+        <v>2174</v>
+      </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
-        <v>1800</v>
+        <v>1802</v>
       </c>
       <c r="B451" s="19" t="s">
         <v>1686</v>
       </c>
-      <c r="C451" s="23" t="s">
-        <v>1802</v>
+      <c r="C451" s="26" t="s">
+        <v>1803</v>
       </c>
       <c r="D451" s="21"/>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A452" t="s">
+        <v>1726</v>
+      </c>
+      <c r="B452" s="19" t="s">
+        <v>1686</v>
+      </c>
+      <c r="C452" s="23" t="s">
+        <v>1727</v>
+      </c>
       <c r="D452" s="21"/>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
-        <v>2109</v>
+        <v>1798</v>
       </c>
       <c r="B453" s="19" t="s">
         <v>1686</v>
       </c>
       <c r="C453" s="23" t="s">
-        <v>2110</v>
+        <v>1800</v>
       </c>
       <c r="D453" s="21"/>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
-        <v>1724</v>
+        <v>1799</v>
       </c>
       <c r="B454" s="19" t="s">
         <v>1686</v>
       </c>
       <c r="C454" s="23" t="s">
-        <v>1725</v>
+        <v>1801</v>
       </c>
       <c r="D454" s="21"/>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
-        <v>2079</v>
+        <v>2206</v>
       </c>
       <c r="B455" s="19" t="s">
         <v>1686</v>
       </c>
       <c r="C455" s="23" t="s">
-        <v>2080</v>
-      </c>
-      <c r="D455" s="21" t="s">
-        <v>2081</v>
-      </c>
+        <v>2207</v>
+      </c>
+      <c r="D455" s="21"/>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
-        <v>2111</v>
+        <v>2204</v>
       </c>
       <c r="B456" s="19" t="s">
         <v>1686</v>
       </c>
       <c r="C456" s="23" t="s">
-        <v>2112</v>
-      </c>
-      <c r="D456" s="21"/>
+        <v>2205</v>
+      </c>
+      <c r="D456" s="21" t="s">
+        <v>2203</v>
+      </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
-        <v>2113</v>
+        <v>2170</v>
       </c>
       <c r="B457" s="19" t="s">
         <v>1686</v>
       </c>
       <c r="C457" s="23" t="s">
-        <v>2114</v>
+        <v>2171</v>
       </c>
       <c r="D457" s="21"/>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
-        <v>1820</v>
-      </c>
-      <c r="B458" s="29" t="s">
+        <v>2108</v>
+      </c>
+      <c r="B458" s="19" t="s">
         <v>1686</v>
       </c>
       <c r="C458" s="23" t="s">
-        <v>1821</v>
-      </c>
-      <c r="D458" s="20" t="s">
-        <v>1822</v>
-      </c>
+        <v>2109</v>
+      </c>
+      <c r="D458" s="21"/>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A459" t="s">
+        <v>1724</v>
+      </c>
+      <c r="B459" s="19" t="s">
+        <v>1686</v>
+      </c>
+      <c r="C459" s="23" t="s">
+        <v>1725</v>
+      </c>
       <c r="D459" s="21"/>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
-        <v>2082</v>
+        <v>2078</v>
       </c>
       <c r="B460" s="19" t="s">
         <v>1686</v>
       </c>
       <c r="C460" s="23" t="s">
-        <v>2083</v>
-      </c>
-      <c r="D460" s="21"/>
+        <v>2079</v>
+      </c>
+      <c r="D460" s="21" t="s">
+        <v>2080</v>
+      </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A461" t="s">
+        <v>2110</v>
+      </c>
+      <c r="B461" s="19" t="s">
+        <v>1686</v>
+      </c>
+      <c r="C461" s="23" t="s">
+        <v>2111</v>
+      </c>
       <c r="D461" s="21"/>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
-        <v>1815</v>
+        <v>2112</v>
       </c>
       <c r="B462" s="19" t="s">
         <v>1686</v>
       </c>
       <c r="C462" s="23" t="s">
-        <v>1816</v>
-      </c>
-      <c r="D462" s="21" t="s">
-        <v>1817</v>
-      </c>
+        <v>2113</v>
+      </c>
+      <c r="D462" s="21"/>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D463" s="21"/>
+      <c r="A463" t="s">
+        <v>1819</v>
+      </c>
+      <c r="B463" s="29" t="s">
+        <v>1686</v>
+      </c>
+      <c r="C463" s="23" t="s">
+        <v>1820</v>
+      </c>
+      <c r="D463" s="20" t="s">
+        <v>1821</v>
+      </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
-        <v>1722</v>
-      </c>
-      <c r="B464" s="29" t="s">
+        <v>2198</v>
+      </c>
+      <c r="B464" s="19" t="s">
         <v>1686</v>
       </c>
       <c r="C464" s="23" t="s">
-        <v>1723</v>
-      </c>
-      <c r="D464" s="20" t="s">
-        <v>1814</v>
-      </c>
+        <v>2199</v>
+      </c>
+      <c r="D464" s="21"/>
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
-        <v>1720</v>
+        <v>2081</v>
       </c>
       <c r="B465" s="19" t="s">
         <v>1686</v>
       </c>
       <c r="C465" s="23" t="s">
-        <v>1721</v>
+        <v>2082</v>
       </c>
       <c r="D465" s="21"/>
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A466" t="s">
+        <v>2196</v>
+      </c>
+      <c r="B466" s="19" t="s">
+        <v>1686</v>
+      </c>
+      <c r="C466" s="23" t="s">
+        <v>2197</v>
+      </c>
       <c r="D466" s="21"/>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
-        <v>1811</v>
+        <v>2168</v>
       </c>
       <c r="B467" s="19" t="s">
         <v>1686</v>
       </c>
       <c r="C467" s="23" t="s">
-        <v>1812</v>
-      </c>
-      <c r="D467" s="21" t="s">
-        <v>1813</v>
-      </c>
+        <v>2169</v>
+      </c>
+      <c r="D467" s="21"/>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D468" s="21"/>
+      <c r="A468" t="s">
+        <v>1814</v>
+      </c>
+      <c r="B468" s="19" t="s">
+        <v>1686</v>
+      </c>
+      <c r="C468" s="23" t="s">
+        <v>1815</v>
+      </c>
+      <c r="D468" s="21" t="s">
+        <v>1816</v>
+      </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
-        <v>1774</v>
+        <v>2192</v>
       </c>
       <c r="B469" s="19" t="s">
         <v>1686</v>
       </c>
       <c r="C469" s="23" t="s">
-        <v>1775</v>
-      </c>
-      <c r="D469" s="21" t="s">
-        <v>1776</v>
-      </c>
+        <v>2194</v>
+      </c>
+      <c r="D469" s="21"/>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
-        <v>1777</v>
-      </c>
-      <c r="B470" s="29" t="s">
+        <v>2193</v>
+      </c>
+      <c r="B470" s="19" t="s">
         <v>1686</v>
       </c>
       <c r="C470" s="23" t="s">
-        <v>1778</v>
-      </c>
-      <c r="D470" s="20" t="s">
-        <v>1779</v>
-      </c>
+        <v>2195</v>
+      </c>
+      <c r="D470" s="21"/>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
-        <v>1760</v>
-      </c>
-      <c r="B471" s="19" t="s">
+        <v>1722</v>
+      </c>
+      <c r="B471" s="29" t="s">
         <v>1686</v>
       </c>
       <c r="C471" s="23" t="s">
-        <v>1761</v>
-      </c>
-      <c r="D471" s="21" t="s">
-        <v>1762</v>
+        <v>1723</v>
+      </c>
+      <c r="D471" s="20" t="s">
+        <v>1813</v>
       </c>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
-        <v>1764</v>
+        <v>1720</v>
       </c>
       <c r="B472" s="19" t="s">
         <v>1686</v>
       </c>
       <c r="C472" s="23" t="s">
-        <v>1765</v>
-      </c>
-      <c r="D472" s="21" t="s">
-        <v>1766</v>
-      </c>
+        <v>1721</v>
+      </c>
+      <c r="D472" s="21"/>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D473" s="21"/>
+      <c r="A473" t="s">
+        <v>1810</v>
+      </c>
+      <c r="B473" s="19" t="s">
+        <v>1686</v>
+      </c>
+      <c r="C473" s="23" t="s">
+        <v>2166</v>
+      </c>
+      <c r="D473" s="21" t="s">
+        <v>2167</v>
+      </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
-        <v>1735</v>
+        <v>2165</v>
       </c>
       <c r="B474" s="19" t="s">
         <v>1686</v>
       </c>
       <c r="C474" s="23" t="s">
-        <v>1736</v>
+        <v>1811</v>
       </c>
       <c r="D474" s="21" t="s">
-        <v>1763</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
-        <v>1791</v>
+        <v>2213</v>
       </c>
       <c r="B475" s="19" t="s">
         <v>1686</v>
       </c>
       <c r="C475" s="23" t="s">
-        <v>1792</v>
-      </c>
-      <c r="D475" s="21" t="s">
-        <v>1793</v>
+        <v>2214</v>
+      </c>
+      <c r="D475" s="20" t="s">
+        <v>2215</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
-        <v>1794</v>
-      </c>
-      <c r="B476" s="19" t="s">
+        <v>2159</v>
+      </c>
+      <c r="B476" s="29" t="s">
         <v>1686</v>
       </c>
       <c r="C476" s="23" t="s">
-        <v>1795</v>
-      </c>
-      <c r="D476" s="21"/>
+        <v>2160</v>
+      </c>
+      <c r="D476" s="20" t="s">
+        <v>2164</v>
+      </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
-        <v>1832</v>
+        <v>2161</v>
       </c>
       <c r="B477" s="19" t="s">
         <v>1686</v>
       </c>
       <c r="C477" s="23" t="s">
-        <v>1833</v>
+        <v>2162</v>
       </c>
       <c r="D477" s="21" t="s">
-        <v>1834</v>
+        <v>2163</v>
       </c>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
-        <v>2089</v>
+        <v>2181</v>
       </c>
       <c r="B478" s="19" t="s">
         <v>1686</v>
       </c>
       <c r="C478" s="23" t="s">
-        <v>2090</v>
+        <v>2182</v>
       </c>
       <c r="D478" s="21" t="s">
-        <v>1784</v>
+        <v>2183</v>
       </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
-        <v>1796</v>
+        <v>2184</v>
       </c>
       <c r="B479" s="19" t="s">
         <v>1686</v>
       </c>
       <c r="C479" s="23" t="s">
-        <v>1797</v>
+        <v>2185</v>
       </c>
       <c r="D479" s="21" t="s">
-        <v>1798</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
-        <v>2091</v>
+        <v>2187</v>
       </c>
       <c r="B480" s="19" t="s">
         <v>1686</v>
       </c>
       <c r="C480" s="23" t="s">
-        <v>2092</v>
+        <v>2188</v>
       </c>
       <c r="D480" s="21" t="s">
-        <v>2093</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
-        <v>2094</v>
+        <v>2200</v>
       </c>
       <c r="B481" s="19" t="s">
         <v>1686</v>
       </c>
       <c r="C481" s="23" t="s">
-        <v>2095</v>
+        <v>2201</v>
       </c>
       <c r="D481" s="21" t="s">
-        <v>2096</v>
+        <v>2202</v>
       </c>
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
-        <v>1750</v>
+        <v>1773</v>
       </c>
       <c r="B482" s="19" t="s">
         <v>1686</v>
       </c>
       <c r="C482" s="23" t="s">
-        <v>1751</v>
-      </c>
-      <c r="D482" s="21"/>
+        <v>1774</v>
+      </c>
+      <c r="D482" s="21" t="s">
+        <v>1775</v>
+      </c>
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
-        <v>2097</v>
-      </c>
-      <c r="B483" s="19" t="s">
+        <v>1776</v>
+      </c>
+      <c r="B483" s="29" t="s">
         <v>1686</v>
       </c>
       <c r="C483" s="23" t="s">
-        <v>2098</v>
-      </c>
-      <c r="D483" s="21" t="s">
-        <v>2099</v>
+        <v>1777</v>
+      </c>
+      <c r="D483" s="20" t="s">
+        <v>1778</v>
       </c>
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
-        <v>1785</v>
+        <v>1759</v>
       </c>
       <c r="B484" s="19" t="s">
         <v>1686</v>
       </c>
       <c r="C484" s="23" t="s">
-        <v>1786</v>
+        <v>1760</v>
       </c>
       <c r="D484" s="21" t="s">
-        <v>1787</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
-        <v>2118</v>
+        <v>1763</v>
       </c>
       <c r="B485" s="19" t="s">
         <v>1686</v>
       </c>
       <c r="C485" s="23" t="s">
-        <v>2120</v>
+        <v>1764</v>
       </c>
       <c r="D485" s="21" t="s">
-        <v>2121</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
-        <v>2119</v>
+        <v>2190</v>
       </c>
       <c r="B486" s="19" t="s">
         <v>1686</v>
       </c>
       <c r="C486" s="23" t="s">
-        <v>2120</v>
-      </c>
-      <c r="D486" s="21" t="s">
-        <v>2122</v>
-      </c>
+        <v>2191</v>
+      </c>
+      <c r="D486" s="21"/>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
-        <v>1737</v>
+        <v>2145</v>
       </c>
       <c r="B487" s="19" t="s">
         <v>1686</v>
       </c>
       <c r="C487" s="23" t="s">
-        <v>1738</v>
+        <v>2146</v>
       </c>
       <c r="D487" s="21" t="s">
-        <v>1739</v>
+        <v>2149</v>
       </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A488" t="s">
+        <v>2147</v>
+      </c>
+      <c r="B488" s="19" t="s">
+        <v>1686</v>
+      </c>
+      <c r="C488" s="23" t="s">
+        <v>2148</v>
+      </c>
       <c r="D488" s="21"/>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
-        <v>2123</v>
+        <v>1735</v>
       </c>
       <c r="B489" s="19" t="s">
         <v>1686</v>
       </c>
       <c r="C489" s="23" t="s">
-        <v>1154</v>
+        <v>1736</v>
       </c>
       <c r="D489" s="21" t="s">
-        <v>2124</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D490" s="21"/>
+      <c r="A490" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B490" s="19" t="s">
+        <v>1686</v>
+      </c>
+      <c r="C490" s="23" t="s">
+        <v>1791</v>
+      </c>
+      <c r="D490" s="21" t="s">
+        <v>1792</v>
+      </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
-        <v>1752</v>
-      </c>
-      <c r="B491" s="29" t="s">
+        <v>1793</v>
+      </c>
+      <c r="B491" s="19" t="s">
         <v>1686</v>
       </c>
       <c r="C491" s="23" t="s">
-        <v>1753</v>
-      </c>
-      <c r="D491" s="20" t="s">
-        <v>1754</v>
-      </c>
+        <v>1794</v>
+      </c>
+      <c r="D491" s="21"/>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
-        <v>2103</v>
+        <v>1831</v>
       </c>
       <c r="B492" s="19" t="s">
         <v>1686</v>
       </c>
       <c r="C492" s="23" t="s">
-        <v>2104</v>
-      </c>
-      <c r="D492" s="41" t="s">
-        <v>2105</v>
+        <v>1832</v>
+      </c>
+      <c r="D492" s="21" t="s">
+        <v>1833</v>
       </c>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
-        <v>2100</v>
+        <v>2088</v>
       </c>
       <c r="B493" s="19" t="s">
         <v>1686</v>
       </c>
       <c r="C493" s="23" t="s">
-        <v>2101</v>
+        <v>2089</v>
       </c>
       <c r="D493" s="21" t="s">
-        <v>2102</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
-        <v>1829</v>
+        <v>1795</v>
       </c>
       <c r="B494" s="19" t="s">
         <v>1686</v>
       </c>
       <c r="C494" s="23" t="s">
-        <v>1830</v>
+        <v>1796</v>
       </c>
       <c r="D494" s="21" t="s">
-        <v>1831</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B495"/>
-      <c r="D495" s="21"/>
+      <c r="A495" t="s">
+        <v>2090</v>
+      </c>
+      <c r="B495" s="19" t="s">
+        <v>1686</v>
+      </c>
+      <c r="C495" s="26" t="s">
+        <v>2091</v>
+      </c>
+      <c r="D495" s="21" t="s">
+        <v>2092</v>
+      </c>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
-        <v>1755</v>
+        <v>2093</v>
       </c>
       <c r="B496" s="19" t="s">
         <v>1686</v>
       </c>
       <c r="C496" s="23" t="s">
-        <v>1756</v>
+        <v>2094</v>
       </c>
       <c r="D496" s="21" t="s">
-        <v>1757</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A497" t="s">
+        <v>1749</v>
+      </c>
+      <c r="B497" s="19" t="s">
+        <v>1686</v>
+      </c>
+      <c r="C497" s="23" t="s">
+        <v>1750</v>
+      </c>
       <c r="D497" s="21"/>
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
-        <v>1740</v>
+        <v>2096</v>
       </c>
       <c r="B498" s="19" t="s">
         <v>1686</v>
       </c>
       <c r="C498" s="23" t="s">
-        <v>1741</v>
+        <v>2097</v>
       </c>
       <c r="D498" s="21" t="s">
-        <v>1742</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="499" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D499" s="21"/>
+      <c r="A499" t="s">
+        <v>1784</v>
+      </c>
+      <c r="B499" s="19" t="s">
+        <v>1686</v>
+      </c>
+      <c r="C499" s="23" t="s">
+        <v>1785</v>
+      </c>
+      <c r="D499" s="21" t="s">
+        <v>1786</v>
+      </c>
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
-        <v>1743</v>
+        <v>2117</v>
       </c>
       <c r="B500" s="19" t="s">
         <v>1686</v>
       </c>
       <c r="C500" s="23" t="s">
-        <v>1744</v>
+        <v>2119</v>
       </c>
       <c r="D500" s="21" t="s">
-        <v>1745</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D501" s="21"/>
+      <c r="A501" t="s">
+        <v>2118</v>
+      </c>
+      <c r="B501" s="19" t="s">
+        <v>1686</v>
+      </c>
+      <c r="C501" s="23" t="s">
+        <v>2119</v>
+      </c>
+      <c r="D501" s="21" t="s">
+        <v>2121</v>
+      </c>
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
-        <v>2106</v>
+        <v>1737</v>
       </c>
       <c r="B502" s="19" t="s">
         <v>1686</v>
       </c>
       <c r="C502" s="23" t="s">
-        <v>2107</v>
+        <v>1738</v>
       </c>
       <c r="D502" s="21" t="s">
-        <v>2108</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
-        <v>2116</v>
+        <v>2152</v>
       </c>
       <c r="B503" s="19" t="s">
         <v>1686</v>
       </c>
       <c r="C503" s="23" t="s">
-        <v>2117</v>
+        <v>2153</v>
       </c>
       <c r="D503" s="21"/>
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
-        <v>1826</v>
+        <v>2154</v>
       </c>
       <c r="B504" s="19" t="s">
         <v>1686</v>
       </c>
       <c r="C504" s="23" t="s">
-        <v>1827</v>
-      </c>
-      <c r="D504" s="21" t="s">
-        <v>1828</v>
-      </c>
+        <v>2155</v>
+      </c>
+      <c r="D504" s="21"/>
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A505" t="s">
+        <v>2150</v>
+      </c>
+      <c r="B505" s="19" t="s">
+        <v>1686</v>
+      </c>
+      <c r="C505" s="23" t="s">
+        <v>2151</v>
+      </c>
       <c r="D505" s="21"/>
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A506" t="s">
-        <v>1746</v>
-      </c>
-      <c r="B506" s="19" t="s">
+      <c r="D506" s="21"/>
+    </row>
+    <row r="507" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A507" t="s">
+        <v>2218</v>
+      </c>
+      <c r="B507" s="19" t="s">
         <v>1686</v>
       </c>
-      <c r="C506" s="23" t="s">
-        <v>1747</v>
-      </c>
-      <c r="D506" s="21"/>
-    </row>
-    <row r="507" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D507" s="21"/>
+      <c r="C507" s="23" t="s">
+        <v>2219</v>
+      </c>
+      <c r="D507" s="21" t="s">
+        <v>2220</v>
+      </c>
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
-        <v>1758</v>
+        <v>2122</v>
       </c>
       <c r="B508" s="19" t="s">
         <v>1686</v>
       </c>
       <c r="C508" s="23" t="s">
-        <v>1759</v>
-      </c>
-      <c r="D508" s="21"/>
+        <v>1154</v>
+      </c>
+      <c r="D508" s="21" t="s">
+        <v>2123</v>
+      </c>
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D509" s="21"/>
     </row>
     <row r="510" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
-        <v>666</v>
-      </c>
-      <c r="B510" s="19" t="s">
-        <v>1114</v>
+        <v>1751</v>
+      </c>
+      <c r="B510" s="29" t="s">
+        <v>1686</v>
       </c>
       <c r="C510" s="23" t="s">
-        <v>667</v>
-      </c>
-      <c r="D510" s="37"/>
+        <v>1752</v>
+      </c>
+      <c r="D510" s="20" t="s">
+        <v>1753</v>
+      </c>
     </row>
     <row r="511" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
-        <v>1256</v>
+        <v>2102</v>
       </c>
       <c r="B511" s="19" t="s">
-        <v>1181</v>
+        <v>1686</v>
       </c>
       <c r="C511" s="23" t="s">
-        <v>1242</v>
-      </c>
-      <c r="D511" s="37"/>
+        <v>2103</v>
+      </c>
+      <c r="D511" s="41" t="s">
+        <v>2104</v>
+      </c>
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
-        <v>1375</v>
+        <v>2099</v>
       </c>
       <c r="B512" s="19" t="s">
-        <v>1303</v>
-      </c>
-      <c r="C512" s="26" t="s">
-        <v>1376</v>
-      </c>
-      <c r="D512" s="21"/>
+        <v>1686</v>
+      </c>
+      <c r="C512" s="23" t="s">
+        <v>2100</v>
+      </c>
+      <c r="D512" s="21" t="s">
+        <v>2101</v>
+      </c>
     </row>
     <row r="513" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
-        <v>1581</v>
+        <v>1828</v>
       </c>
       <c r="B513" s="19" t="s">
-        <v>1124</v>
-      </c>
-      <c r="C513" s="26" t="s">
-        <v>1583</v>
-      </c>
-      <c r="D513" s="21"/>
+        <v>1686</v>
+      </c>
+      <c r="C513" s="23" t="s">
+        <v>1829</v>
+      </c>
+      <c r="D513" s="21" t="s">
+        <v>1830</v>
+      </c>
     </row>
     <row r="514" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A514" t="s">
-        <v>1582</v>
-      </c>
-      <c r="B514" s="19" t="s">
-        <v>1435</v>
-      </c>
-      <c r="C514" s="26" t="s">
-        <v>1586</v>
-      </c>
+      <c r="B514"/>
       <c r="D514" s="21"/>
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
-        <v>1584</v>
+        <v>1754</v>
       </c>
       <c r="B515" s="19" t="s">
-        <v>1484</v>
-      </c>
-      <c r="C515" s="26" t="s">
-        <v>1585</v>
-      </c>
-      <c r="D515" s="21"/>
+        <v>1686</v>
+      </c>
+      <c r="C515" s="23" t="s">
+        <v>1755</v>
+      </c>
+      <c r="D515" s="21" t="s">
+        <v>1756</v>
+      </c>
     </row>
     <row r="516" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D516" s="21"/>
+      <c r="A516" t="s">
+        <v>2142</v>
+      </c>
+      <c r="B516" s="29" t="s">
+        <v>1686</v>
+      </c>
+      <c r="C516" s="23" t="s">
+        <v>2143</v>
+      </c>
+      <c r="D516" s="20" t="s">
+        <v>2144</v>
+      </c>
     </row>
     <row r="517" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
-        <v>1767</v>
-      </c>
-      <c r="B517" s="29" t="s">
+        <v>2136</v>
+      </c>
+      <c r="B517" s="19" t="s">
         <v>1686</v>
       </c>
-      <c r="C517" s="39" t="s">
-        <v>1768</v>
-      </c>
-      <c r="D517" s="20" t="s">
-        <v>1769</v>
-      </c>
+      <c r="C517" s="23" t="s">
+        <v>1746</v>
+      </c>
+      <c r="D517" s="21"/>
     </row>
     <row r="518" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D518" s="21"/>
+      <c r="A518" t="s">
+        <v>1740</v>
+      </c>
+      <c r="B518" s="19" t="s">
+        <v>1686</v>
+      </c>
+      <c r="C518" s="23" t="s">
+        <v>1741</v>
+      </c>
+      <c r="D518" s="21" t="s">
+        <v>1742</v>
+      </c>
     </row>
     <row r="519" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
-        <v>684</v>
+        <v>2179</v>
       </c>
       <c r="B519" s="19" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C519" s="26" t="s">
-        <v>685</v>
+        <v>1686</v>
+      </c>
+      <c r="C519" s="23" t="s">
+        <v>2180</v>
       </c>
       <c r="D519" s="21"/>
     </row>
     <row r="520" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A520" t="s">
-        <v>1239</v>
-      </c>
-      <c r="B520" s="19" t="s">
-        <v>1181</v>
-      </c>
-      <c r="C520" s="26" t="s">
-        <v>1240</v>
-      </c>
       <c r="D520" s="21"/>
     </row>
     <row r="521" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
-        <v>1373</v>
+        <v>2140</v>
       </c>
       <c r="B521" s="19" t="s">
-        <v>1303</v>
-      </c>
-      <c r="C521" s="26" t="s">
-        <v>1374</v>
+        <v>1686</v>
+      </c>
+      <c r="C521" s="23" t="s">
+        <v>2141</v>
       </c>
       <c r="D521" s="21"/>
     </row>
     <row r="522" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
-        <v>1169</v>
-      </c>
-      <c r="B522" s="19" t="s">
-        <v>1124</v>
-      </c>
-      <c r="C522" s="26" t="s">
-        <v>1170</v>
-      </c>
-      <c r="D522" s="21"/>
+        <v>2137</v>
+      </c>
+      <c r="B522" s="29" t="s">
+        <v>1686</v>
+      </c>
+      <c r="C522" s="23" t="s">
+        <v>2138</v>
+      </c>
+      <c r="D522" s="20" t="s">
+        <v>2139</v>
+      </c>
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A523" t="s">
-        <v>1481</v>
-      </c>
-      <c r="B523" s="19" t="s">
-        <v>1435</v>
-      </c>
-      <c r="C523" s="26" t="s">
-        <v>1482</v>
-      </c>
       <c r="D523" s="21"/>
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
+        <v>2133</v>
+      </c>
+      <c r="B524" s="19" t="s">
+        <v>1686</v>
+      </c>
+      <c r="C524" s="23" t="s">
+        <v>2134</v>
+      </c>
+      <c r="D524" s="21" t="s">
+        <v>2135</v>
+      </c>
+    </row>
+    <row r="525" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A525" t="s">
+        <v>1743</v>
+      </c>
+      <c r="B525" s="19" t="s">
+        <v>1686</v>
+      </c>
+      <c r="C525" s="23" t="s">
+        <v>1744</v>
+      </c>
+      <c r="D525" s="21" t="s">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="526" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A526" t="s">
+        <v>2126</v>
+      </c>
+      <c r="B526" s="29" t="s">
+        <v>1686</v>
+      </c>
+      <c r="C526" s="23" t="s">
+        <v>2127</v>
+      </c>
+      <c r="D526" s="20" t="s">
+        <v>2128</v>
+      </c>
+    </row>
+    <row r="527" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A527" t="s">
+        <v>2124</v>
+      </c>
+      <c r="B527" s="19" t="s">
+        <v>1686</v>
+      </c>
+      <c r="C527" s="23" t="s">
+        <v>2125</v>
+      </c>
+      <c r="D527" s="21" t="s">
+        <v>2129</v>
+      </c>
+    </row>
+    <row r="528" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A528" t="s">
+        <v>2130</v>
+      </c>
+      <c r="B528" s="19" t="s">
+        <v>1686</v>
+      </c>
+      <c r="C528" s="23" t="s">
+        <v>2131</v>
+      </c>
+      <c r="D528" s="21" t="s">
+        <v>2132</v>
+      </c>
+    </row>
+    <row r="529" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A529" t="s">
+        <v>2105</v>
+      </c>
+      <c r="B529" s="19" t="s">
+        <v>1686</v>
+      </c>
+      <c r="C529" s="23" t="s">
+        <v>2106</v>
+      </c>
+      <c r="D529" s="21" t="s">
+        <v>2107</v>
+      </c>
+    </row>
+    <row r="530" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A530" t="s">
+        <v>2115</v>
+      </c>
+      <c r="B530" s="19" t="s">
+        <v>1686</v>
+      </c>
+      <c r="C530" s="23" t="s">
+        <v>2116</v>
+      </c>
+      <c r="D530" s="21"/>
+    </row>
+    <row r="531" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A531" t="s">
+        <v>1825</v>
+      </c>
+      <c r="B531" s="19" t="s">
+        <v>1686</v>
+      </c>
+      <c r="C531" s="23" t="s">
+        <v>1826</v>
+      </c>
+      <c r="D531" s="21" t="s">
+        <v>1827</v>
+      </c>
+    </row>
+    <row r="532" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D532" s="21"/>
+    </row>
+    <row r="533" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A533" t="s">
+        <v>1757</v>
+      </c>
+      <c r="B533" s="19" t="s">
+        <v>1686</v>
+      </c>
+      <c r="C533" s="23" t="s">
+        <v>1758</v>
+      </c>
+      <c r="D533" s="21"/>
+    </row>
+    <row r="534" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D534" s="21"/>
+    </row>
+    <row r="535" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A535" t="s">
+        <v>2216</v>
+      </c>
+      <c r="B535" s="19" t="s">
+        <v>1686</v>
+      </c>
+      <c r="C535" s="17" t="s">
+        <v>1534</v>
+      </c>
+      <c r="D535" s="21" t="s">
+        <v>2217</v>
+      </c>
+    </row>
+    <row r="536" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D536" s="21"/>
+    </row>
+    <row r="537" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A537" t="s">
+        <v>666</v>
+      </c>
+      <c r="B537" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C537" s="23" t="s">
+        <v>667</v>
+      </c>
+      <c r="D537" s="37"/>
+    </row>
+    <row r="538" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A538" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B538" s="19" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C538" s="23" t="s">
+        <v>1242</v>
+      </c>
+      <c r="D538" s="37"/>
+    </row>
+    <row r="539" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A539" t="s">
+        <v>1375</v>
+      </c>
+      <c r="B539" s="19" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C539" s="26" t="s">
+        <v>1376</v>
+      </c>
+      <c r="D539" s="21"/>
+    </row>
+    <row r="540" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A540" t="s">
+        <v>1581</v>
+      </c>
+      <c r="B540" s="19" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C540" s="26" t="s">
+        <v>1583</v>
+      </c>
+      <c r="D540" s="21"/>
+    </row>
+    <row r="541" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A541" t="s">
+        <v>1582</v>
+      </c>
+      <c r="B541" s="19" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C541" s="26" t="s">
+        <v>1586</v>
+      </c>
+      <c r="D541" s="21"/>
+    </row>
+    <row r="542" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A542" t="s">
+        <v>1584</v>
+      </c>
+      <c r="B542" s="19" t="s">
+        <v>1484</v>
+      </c>
+      <c r="C542" s="26" t="s">
+        <v>1585</v>
+      </c>
+      <c r="D542" s="21"/>
+    </row>
+    <row r="543" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D543" s="21"/>
+    </row>
+    <row r="544" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A544" t="s">
+        <v>1766</v>
+      </c>
+      <c r="B544" s="29" t="s">
+        <v>1686</v>
+      </c>
+      <c r="C544" s="39" t="s">
+        <v>1767</v>
+      </c>
+      <c r="D544" s="20" t="s">
+        <v>1768</v>
+      </c>
+    </row>
+    <row r="545" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D545" s="21"/>
+    </row>
+    <row r="546" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A546" t="s">
+        <v>684</v>
+      </c>
+      <c r="B546" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C546" s="26" t="s">
+        <v>685</v>
+      </c>
+      <c r="D546" s="21"/>
+    </row>
+    <row r="547" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A547" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B547" s="19" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C547" s="26" t="s">
+        <v>1240</v>
+      </c>
+      <c r="D547" s="21"/>
+    </row>
+    <row r="548" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A548" t="s">
+        <v>1373</v>
+      </c>
+      <c r="B548" s="19" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C548" s="26" t="s">
+        <v>1374</v>
+      </c>
+      <c r="D548" s="21"/>
+    </row>
+    <row r="549" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A549" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B549" s="19" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C549" s="26" t="s">
+        <v>1170</v>
+      </c>
+      <c r="D549" s="21"/>
+    </row>
+    <row r="550" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A550" t="s">
+        <v>1481</v>
+      </c>
+      <c r="B550" s="19" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C550" s="26" t="s">
+        <v>1482</v>
+      </c>
+      <c r="D550" s="21"/>
+    </row>
+    <row r="551" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A551" t="s">
         <v>1483</v>
       </c>
-      <c r="B524" s="19" t="s">
+      <c r="B551" s="19" t="s">
         <v>1484</v>
       </c>
-      <c r="C524" s="26" t="s">
+      <c r="C551" s="26" t="s">
         <v>1485</v>
       </c>
-      <c r="D524" s="21"/>
-    </row>
-    <row r="525" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D525" s="21"/>
-    </row>
-    <row r="526" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D526" s="21"/>
-    </row>
-    <row r="527" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D527" s="21"/>
-    </row>
-    <row r="528" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D528" s="21"/>
-    </row>
-    <row r="529" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D529" s="21"/>
-    </row>
-    <row r="530" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D530" s="21"/>
-    </row>
-    <row r="531" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D531" s="21"/>
-    </row>
-    <row r="532" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D532" s="21"/>
+      <c r="D551" s="21"/>
+    </row>
+    <row r="552" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D552" s="21"/>
+    </row>
+    <row r="553" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D553" s="21"/>
+    </row>
+    <row r="554" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D554" s="21"/>
+    </row>
+    <row r="555" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D555" s="21"/>
+    </row>
+    <row r="556" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D556" s="21"/>
+    </row>
+    <row r="557" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D557" s="21"/>
+    </row>
+    <row r="558" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D558" s="21"/>
+    </row>
+    <row r="559" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D559" s="21"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D1"/>
@@ -16337,1198 +17089,1198 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="B2" s="40" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="B3" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="B4" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="B5" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="B6" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="B7" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="B8" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="B11" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="B14" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="B17" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="B19" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="B126" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
     </row>
   </sheetData>

--- a/COREd WitE model list.xlsx
+++ b/COREd WitE model list.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2776" uniqueCount="2221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2814" uniqueCount="2248">
   <si>
     <t>A0039</t>
   </si>
@@ -4314,9 +4314,6 @@
     <t>45mm anti-tank gun (Rom)</t>
   </si>
   <si>
-    <t>Schneider Mle 1936. Image is also used for 149mm gun</t>
-  </si>
-  <si>
     <t>GP0262</t>
   </si>
   <si>
@@ -6694,6 +6691,90 @@
   </si>
   <si>
     <t>Note the submachine guns</t>
+  </si>
+  <si>
+    <t>GP0796</t>
+  </si>
+  <si>
+    <t>Rifle Squad (+) (Sov)</t>
+  </si>
+  <si>
+    <t>GP0797</t>
+  </si>
+  <si>
+    <t>Rifle Squad 1943 (Sov)</t>
+  </si>
+  <si>
+    <t>GP0805</t>
+  </si>
+  <si>
+    <t>50mm mortar (Sov)</t>
+  </si>
+  <si>
+    <t>GP0810</t>
+  </si>
+  <si>
+    <t>BM-13-16 rocket launcher</t>
+  </si>
+  <si>
+    <t>M-30-4 rocket launcher</t>
+  </si>
+  <si>
+    <t>GP0816</t>
+  </si>
+  <si>
+    <t>GP0819</t>
+  </si>
+  <si>
+    <t>160mm mortar (Sov)</t>
+  </si>
+  <si>
+    <t>GP0801</t>
+  </si>
+  <si>
+    <t>Cavalry Squad  (Sov)</t>
+  </si>
+  <si>
+    <t>GP0802</t>
+  </si>
+  <si>
+    <t>Cavalry Squad 1941 (Sov)</t>
+  </si>
+  <si>
+    <t>GP0798</t>
+  </si>
+  <si>
+    <t>Submachine gun squad (Sov)</t>
+  </si>
+  <si>
+    <t>GP0799</t>
+  </si>
+  <si>
+    <t>GP0800</t>
+  </si>
+  <si>
+    <t>ЗиС-3. Battery 76-mm divisional gun ZIS-3, 1942. 30th Guards Motorised Brigade Unechskoy, 10th Guards Ural Volunteer Tank Corps.</t>
+  </si>
+  <si>
+    <t>GP1601</t>
+  </si>
+  <si>
+    <t>Air Support (Sov)</t>
+  </si>
+  <si>
+    <t>Preliminary air support image, in preparation of bugfix. Slot is unused according to WitW graphics line-up</t>
+  </si>
+  <si>
+    <t>Штурмовая инженерно-сапёрная бригада</t>
+  </si>
+  <si>
+    <t>Sapper Squad 1939</t>
+  </si>
+  <si>
+    <t>Sapper Squad 1941</t>
+  </si>
+  <si>
+    <t>Schneider Mle 1936. Image is also used for 149mm howitzer</t>
   </si>
 </sst>
 </file>
@@ -6830,7 +6911,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -6882,11 +6963,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -10185,13 +10267,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D559"/>
+  <dimension ref="A1:D565"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B502" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B260" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D508" sqref="D508"/>
+      <selection pane="bottomRight" activeCell="D271" sqref="D271"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13220,82 +13302,82 @@
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="B236" s="19" t="s">
         <v>1124</v>
       </c>
       <c r="C236" s="23" t="s">
+        <v>1554</v>
+      </c>
+      <c r="D236" s="21" t="s">
         <v>1555</v>
-      </c>
-      <c r="D236" s="21" t="s">
-        <v>1556</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="B237" s="19" t="s">
         <v>1124</v>
       </c>
       <c r="C237" s="23" t="s">
+        <v>1556</v>
+      </c>
+      <c r="D237" s="21" t="s">
         <v>1557</v>
-      </c>
-      <c r="D237" s="21" t="s">
-        <v>1558</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="B238" s="19" t="s">
         <v>1124</v>
       </c>
       <c r="C238" s="23" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="D238" s="21"/>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="B239" s="19" t="s">
         <v>1124</v>
       </c>
       <c r="C239" s="23" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="D239" s="21"/>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
+        <v>1571</v>
+      </c>
+      <c r="B240" s="19" t="s">
         <v>1572</v>
       </c>
-      <c r="B240" s="19" t="s">
+      <c r="C240" s="14" t="s">
         <v>1573</v>
       </c>
-      <c r="C240" s="14" t="s">
+      <c r="D240" s="21" t="s">
         <v>1574</v>
-      </c>
-      <c r="D240" s="21" t="s">
-        <v>1575</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="B241" s="19" t="s">
         <v>1124</v>
       </c>
       <c r="C241" s="17" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="D241" s="21" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
@@ -13314,56 +13396,56 @@
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="B243" s="19" t="s">
         <v>1124</v>
       </c>
       <c r="C243" s="23" t="s">
+        <v>1566</v>
+      </c>
+      <c r="D243" s="21" t="s">
         <v>1567</v>
-      </c>
-      <c r="D243" s="21" t="s">
-        <v>1568</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="B244" s="19" t="s">
         <v>1124</v>
       </c>
       <c r="C244" s="23" t="s">
+        <v>1544</v>
+      </c>
+      <c r="D244" s="21" t="s">
         <v>1545</v>
-      </c>
-      <c r="D244" s="21" t="s">
-        <v>1546</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="B245" s="19" t="s">
         <v>1124</v>
       </c>
       <c r="C245" s="14" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="D245" s="21"/>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="B246" s="19" t="s">
         <v>1124</v>
       </c>
       <c r="C246" s="26" t="s">
+        <v>1569</v>
+      </c>
+      <c r="D246" s="21" t="s">
         <v>1570</v>
-      </c>
-      <c r="D246" s="21" t="s">
-        <v>1571</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
@@ -13386,7 +13468,7 @@
         <v>1124</v>
       </c>
       <c r="C248" s="23" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="D248" s="21" t="s">
         <v>1144</v>
@@ -13400,7 +13482,7 @@
         <v>1124</v>
       </c>
       <c r="C249" s="23" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="D249" s="21" t="s">
         <v>1142</v>
@@ -13408,13 +13490,13 @@
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="B250" s="19" t="s">
         <v>1124</v>
       </c>
       <c r="C250" s="23" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="D250" s="21"/>
     </row>
@@ -13444,16 +13526,16 @@
     </row>
     <row r="253" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="B253" s="19" t="s">
         <v>1124</v>
       </c>
       <c r="C253" s="23" t="s">
+        <v>1431</v>
+      </c>
+      <c r="D253" s="21" t="s">
         <v>1432</v>
-      </c>
-      <c r="D253" s="21" t="s">
-        <v>1433</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
@@ -13574,16 +13656,16 @@
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="B263" s="19" t="s">
         <v>1124</v>
       </c>
       <c r="C263" s="23" t="s">
+        <v>1428</v>
+      </c>
+      <c r="D263" s="21" t="s">
         <v>1429</v>
-      </c>
-      <c r="D263" s="21" t="s">
-        <v>1430</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
@@ -13654,16 +13736,16 @@
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="B269" s="19" t="s">
         <v>1124</v>
       </c>
       <c r="C269" s="32" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="D269" s="21" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
@@ -13677,21 +13759,21 @@
         <v>1179</v>
       </c>
       <c r="D270" s="20" t="s">
-        <v>1427</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="B271" s="19" t="s">
         <v>1124</v>
       </c>
       <c r="C271" s="23" t="s">
+        <v>1550</v>
+      </c>
+      <c r="D271" s="21" t="s">
         <v>1551</v>
-      </c>
-      <c r="D271" s="21" t="s">
-        <v>1552</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
@@ -13705,21 +13787,21 @@
         <v>1426</v>
       </c>
       <c r="D272" s="21" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="B273" s="19" t="s">
         <v>1124</v>
       </c>
       <c r="C273" s="23" t="s">
+        <v>1547</v>
+      </c>
+      <c r="D273" s="21" t="s">
         <v>1548</v>
-      </c>
-      <c r="D273" s="21" t="s">
-        <v>1549</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
@@ -13736,830 +13818,830 @@
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
+        <v>1588</v>
+      </c>
+      <c r="B275" s="19" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C275" s="23" t="s">
         <v>1589</v>
-      </c>
-      <c r="B275" s="19" t="s">
-        <v>1435</v>
-      </c>
-      <c r="C275" s="23" t="s">
-        <v>1590</v>
       </c>
       <c r="D275" s="21"/>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
+        <v>1658</v>
+      </c>
+      <c r="B276" s="19" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C276" s="34" t="s">
         <v>1659</v>
       </c>
-      <c r="B276" s="19" t="s">
-        <v>1435</v>
-      </c>
-      <c r="C276" s="34" t="s">
+      <c r="D276" s="21" t="s">
         <v>1660</v>
-      </c>
-      <c r="D276" s="21" t="s">
-        <v>1661</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
+        <v>1447</v>
+      </c>
+      <c r="B277" s="19" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C277" s="23" t="s">
         <v>1448</v>
-      </c>
-      <c r="B277" s="19" t="s">
-        <v>1435</v>
-      </c>
-      <c r="C277" s="23" t="s">
-        <v>1449</v>
       </c>
       <c r="D277" s="21"/>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B278" s="19" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C278" s="23" t="s">
         <v>1445</v>
       </c>
-      <c r="B278" s="19" t="s">
-        <v>1435</v>
-      </c>
-      <c r="C278" s="23" t="s">
+      <c r="D278" s="21" t="s">
         <v>1446</v>
-      </c>
-      <c r="D278" s="21" t="s">
-        <v>1447</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
+        <v>1471</v>
+      </c>
+      <c r="B279" s="19" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C279" s="23" t="s">
         <v>1472</v>
-      </c>
-      <c r="B279" s="19" t="s">
-        <v>1435</v>
-      </c>
-      <c r="C279" s="23" t="s">
-        <v>1473</v>
       </c>
       <c r="D279" s="21"/>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B280" s="19" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C280" s="23" t="s">
         <v>1476</v>
-      </c>
-      <c r="B280" s="19" t="s">
-        <v>1435</v>
-      </c>
-      <c r="C280" s="23" t="s">
-        <v>1477</v>
       </c>
       <c r="D280" s="21"/>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="B281" s="19" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="C281" s="23" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="D281" s="21"/>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="B282" s="19" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="C282" s="23" t="s">
+        <v>1615</v>
+      </c>
+      <c r="D282" s="21" t="s">
         <v>1616</v>
-      </c>
-      <c r="D282" s="21" t="s">
-        <v>1617</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
+        <v>1617</v>
+      </c>
+      <c r="B283" s="19" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C283" s="23" t="s">
         <v>1618</v>
       </c>
-      <c r="B283" s="19" t="s">
-        <v>1435</v>
-      </c>
-      <c r="C283" s="23" t="s">
+      <c r="D283" s="21" t="s">
         <v>1619</v>
-      </c>
-      <c r="D283" s="21" t="s">
-        <v>1620</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
+        <v>1596</v>
+      </c>
+      <c r="B284" s="19" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C284" s="25" t="s">
         <v>1597</v>
       </c>
-      <c r="B284" s="19" t="s">
-        <v>1435</v>
-      </c>
-      <c r="C284" s="25" t="s">
+      <c r="D284" s="21" t="s">
         <v>1598</v>
-      </c>
-      <c r="D284" s="21" t="s">
-        <v>1599</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
+        <v>1620</v>
+      </c>
+      <c r="B285" s="19" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C285" s="35" t="s">
         <v>1621</v>
       </c>
-      <c r="B285" s="19" t="s">
-        <v>1435</v>
-      </c>
-      <c r="C285" s="35" t="s">
+      <c r="D285" s="21" t="s">
         <v>1622</v>
-      </c>
-      <c r="D285" s="21" t="s">
-        <v>1623</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
+        <v>1590</v>
+      </c>
+      <c r="B286" s="19" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C286" s="23" t="s">
         <v>1591</v>
       </c>
-      <c r="B286" s="19" t="s">
-        <v>1435</v>
-      </c>
-      <c r="C286" s="23" t="s">
+      <c r="D286" s="21" t="s">
         <v>1592</v>
-      </c>
-      <c r="D286" s="21" t="s">
-        <v>1593</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
+        <v>1613</v>
+      </c>
+      <c r="B287" s="19" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C287" s="23" t="s">
         <v>1614</v>
-      </c>
-      <c r="B287" s="19" t="s">
-        <v>1435</v>
-      </c>
-      <c r="C287" s="23" t="s">
-        <v>1615</v>
       </c>
       <c r="D287" s="21"/>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B288" s="19" t="s">
         <v>1434</v>
       </c>
-      <c r="B288" s="19" t="s">
+      <c r="C288" s="23" t="s">
         <v>1435</v>
-      </c>
-      <c r="C288" s="23" t="s">
-        <v>1436</v>
       </c>
       <c r="D288" s="21"/>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
+        <v>1449</v>
+      </c>
+      <c r="B289" s="19" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C289" s="23" t="s">
         <v>1450</v>
-      </c>
-      <c r="B289" s="19" t="s">
-        <v>1435</v>
-      </c>
-      <c r="C289" s="23" t="s">
-        <v>1451</v>
       </c>
       <c r="D289" s="21"/>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
+        <v>1602</v>
+      </c>
+      <c r="B290" s="19" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C290" s="23" t="s">
         <v>1603</v>
-      </c>
-      <c r="B290" s="19" t="s">
-        <v>1435</v>
-      </c>
-      <c r="C290" s="23" t="s">
-        <v>1604</v>
       </c>
       <c r="D290" s="21"/>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
+        <v>1467</v>
+      </c>
+      <c r="B291" s="29" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C291" s="23" t="s">
+        <v>1604</v>
+      </c>
+      <c r="D291" s="20" t="s">
         <v>1468</v>
-      </c>
-      <c r="B291" s="29" t="s">
-        <v>1435</v>
-      </c>
-      <c r="C291" s="23" t="s">
-        <v>1605</v>
-      </c>
-      <c r="D291" s="20" t="s">
-        <v>1469</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
+        <v>1623</v>
+      </c>
+      <c r="B292" s="19" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C292" s="23" t="s">
         <v>1624</v>
       </c>
-      <c r="B292" s="19" t="s">
-        <v>1435</v>
-      </c>
-      <c r="C292" s="23" t="s">
+      <c r="D292" s="21" t="s">
         <v>1625</v>
-      </c>
-      <c r="D292" s="21" t="s">
-        <v>1626</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B293" s="19" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C293" s="23" t="s">
         <v>1460</v>
       </c>
-      <c r="B293" s="19" t="s">
-        <v>1435</v>
-      </c>
-      <c r="C293" s="23" t="s">
+      <c r="D293" s="21" t="s">
         <v>1461</v>
-      </c>
-      <c r="D293" s="21" t="s">
-        <v>1462</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
+        <v>1457</v>
+      </c>
+      <c r="B294" s="19" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C294" s="23" t="s">
         <v>1458</v>
-      </c>
-      <c r="B294" s="19" t="s">
-        <v>1435</v>
-      </c>
-      <c r="C294" s="23" t="s">
-        <v>1459</v>
       </c>
       <c r="D294" s="21"/>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
+        <v>1442</v>
+      </c>
+      <c r="B295" s="19" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C295" s="34" t="s">
         <v>1443</v>
       </c>
-      <c r="B295" s="19" t="s">
-        <v>1435</v>
-      </c>
-      <c r="C295" s="34" t="s">
-        <v>1444</v>
-      </c>
       <c r="D295" s="21" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
+        <v>1656</v>
+      </c>
+      <c r="B296" s="19" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C296" s="34" t="s">
         <v>1657</v>
       </c>
-      <c r="B296" s="19" t="s">
-        <v>1435</v>
-      </c>
-      <c r="C296" s="34" t="s">
-        <v>1658</v>
-      </c>
       <c r="D296" s="21" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
+        <v>1451</v>
+      </c>
+      <c r="B297" s="19" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C297" s="23" t="s">
         <v>1452</v>
-      </c>
-      <c r="B297" s="19" t="s">
-        <v>1435</v>
-      </c>
-      <c r="C297" s="23" t="s">
-        <v>1453</v>
       </c>
       <c r="D297" s="21"/>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B298" s="19" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C298" s="23" t="s">
         <v>1463</v>
       </c>
-      <c r="B298" s="19" t="s">
-        <v>1435</v>
-      </c>
-      <c r="C298" s="23" t="s">
+      <c r="D298" s="21" t="s">
         <v>1464</v>
-      </c>
-      <c r="D298" s="21" t="s">
-        <v>1465</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="B299" s="19" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="C299" s="34" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="D299" s="21" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="B300" s="33" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="C300" s="26" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="D300" s="21"/>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
+        <v>1455</v>
+      </c>
+      <c r="B301" s="19" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C301" s="23" t="s">
         <v>1456</v>
-      </c>
-      <c r="B301" s="19" t="s">
-        <v>1435</v>
-      </c>
-      <c r="C301" s="23" t="s">
-        <v>1457</v>
       </c>
       <c r="D301" s="21"/>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
+        <v>1438</v>
+      </c>
+      <c r="B302" s="19" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C302" s="23" t="s">
         <v>1439</v>
-      </c>
-      <c r="B302" s="19" t="s">
-        <v>1435</v>
-      </c>
-      <c r="C302" s="23" t="s">
-        <v>1440</v>
       </c>
       <c r="D302" s="21"/>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
+        <v>1453</v>
+      </c>
+      <c r="B303" s="19" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C303" s="23" t="s">
         <v>1454</v>
-      </c>
-      <c r="B303" s="19" t="s">
-        <v>1435</v>
-      </c>
-      <c r="C303" s="23" t="s">
-        <v>1455</v>
       </c>
       <c r="D303" s="21"/>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B304" s="19" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C304" s="23" t="s">
         <v>1474</v>
-      </c>
-      <c r="B304" s="19" t="s">
-        <v>1435</v>
-      </c>
-      <c r="C304" s="23" t="s">
-        <v>1475</v>
       </c>
       <c r="D304" s="21"/>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="B305" s="19" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="C305" s="26" t="s">
+        <v>1707</v>
+      </c>
+      <c r="D305" s="21" t="s">
         <v>1708</v>
-      </c>
-      <c r="D305" s="21" t="s">
-        <v>1709</v>
       </c>
     </row>
     <row r="306" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="B306" s="19" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="C306" s="34" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="D306" s="21" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
+        <v>1605</v>
+      </c>
+      <c r="B307" s="19" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C307" s="23" t="s">
         <v>1606</v>
       </c>
-      <c r="B307" s="19" t="s">
-        <v>1435</v>
-      </c>
-      <c r="C307" s="23" t="s">
+      <c r="D307" s="21" t="s">
         <v>1607</v>
-      </c>
-      <c r="D307" s="21" t="s">
-        <v>1608</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
+        <v>1629</v>
+      </c>
+      <c r="B308" s="19" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C308" s="23" t="s">
         <v>1630</v>
-      </c>
-      <c r="B308" s="19" t="s">
-        <v>1435</v>
-      </c>
-      <c r="C308" s="23" t="s">
-        <v>1631</v>
       </c>
       <c r="D308" s="21"/>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
+        <v>1593</v>
+      </c>
+      <c r="B309" s="19" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C309" s="23" t="s">
         <v>1594</v>
       </c>
-      <c r="B309" s="19" t="s">
-        <v>1435</v>
-      </c>
-      <c r="C309" s="23" t="s">
+      <c r="D309" s="21" t="s">
         <v>1595</v>
-      </c>
-      <c r="D309" s="21" t="s">
-        <v>1596</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="B310" s="29" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="C310" s="26" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="D310" s="20" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="311" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="B311" s="29" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="C311" s="26" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="D311" s="20" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
+        <v>1608</v>
+      </c>
+      <c r="B312" s="19" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C312" s="23" t="s">
         <v>1609</v>
-      </c>
-      <c r="B312" s="19" t="s">
-        <v>1435</v>
-      </c>
-      <c r="C312" s="23" t="s">
-        <v>1610</v>
       </c>
       <c r="D312" s="21"/>
     </row>
     <row r="313" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="B313" s="29" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="C313" s="26" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="D313" s="20" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="B314" s="29" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="C314" s="26" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="D314" s="20" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
+        <v>1440</v>
+      </c>
+      <c r="B315" s="19" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C315" s="23" t="s">
         <v>1441</v>
-      </c>
-      <c r="B315" s="19" t="s">
-        <v>1435</v>
-      </c>
-      <c r="C315" s="23" t="s">
-        <v>1442</v>
       </c>
       <c r="D315" s="21"/>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="B316" s="19" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="C316" s="26" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="D316" s="21"/>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="B317" s="19" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="C317" s="26" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="D317" s="21"/>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="B318" s="19" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="C318" s="26" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="D318" s="21" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
+        <v>1487</v>
+      </c>
+      <c r="B319" s="19" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C319" s="23" t="s">
         <v>1488</v>
-      </c>
-      <c r="B319" s="19" t="s">
-        <v>1484</v>
-      </c>
-      <c r="C319" s="23" t="s">
-        <v>1489</v>
       </c>
       <c r="D319" s="21"/>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
+        <v>1511</v>
+      </c>
+      <c r="B320" s="19" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C320" s="23" t="s">
         <v>1512</v>
       </c>
-      <c r="B320" s="19" t="s">
-        <v>1484</v>
-      </c>
-      <c r="C320" s="23" t="s">
+      <c r="D320" s="21" t="s">
         <v>1513</v>
-      </c>
-      <c r="D320" s="21" t="s">
-        <v>1514</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
+        <v>1494</v>
+      </c>
+      <c r="B321" s="19" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C321" s="23" t="s">
         <v>1495</v>
       </c>
-      <c r="B321" s="19" t="s">
-        <v>1484</v>
-      </c>
-      <c r="C321" s="23" t="s">
+      <c r="D321" s="21" t="s">
         <v>1496</v>
-      </c>
-      <c r="D321" s="21" t="s">
-        <v>1497</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
+        <v>1518</v>
+      </c>
+      <c r="B322" s="19" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C322" s="23" t="s">
         <v>1519</v>
       </c>
-      <c r="B322" s="19" t="s">
-        <v>1484</v>
-      </c>
-      <c r="C322" s="23" t="s">
+      <c r="D322" s="21" t="s">
         <v>1520</v>
-      </c>
-      <c r="D322" s="21" t="s">
-        <v>1521</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
+        <v>1522</v>
+      </c>
+      <c r="B323" s="19" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C323" s="26" t="s">
         <v>1523</v>
       </c>
-      <c r="B323" s="19" t="s">
-        <v>1484</v>
-      </c>
-      <c r="C323" s="26" t="s">
-        <v>1524</v>
-      </c>
       <c r="D323" s="21" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
+        <v>1505</v>
+      </c>
+      <c r="B324" s="19" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C324" s="23" t="s">
         <v>1506</v>
       </c>
-      <c r="B324" s="19" t="s">
-        <v>1484</v>
-      </c>
-      <c r="C324" s="23" t="s">
+      <c r="D324" s="21" t="s">
         <v>1507</v>
-      </c>
-      <c r="D324" s="21" t="s">
-        <v>1508</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
+        <v>1502</v>
+      </c>
+      <c r="B325" s="19" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C325" s="23" t="s">
         <v>1503</v>
       </c>
-      <c r="B325" s="19" t="s">
-        <v>1484</v>
-      </c>
-      <c r="C325" s="23" t="s">
+      <c r="D325" s="21" t="s">
         <v>1504</v>
-      </c>
-      <c r="D325" s="21" t="s">
-        <v>1505</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
+        <v>1492</v>
+      </c>
+      <c r="B326" s="19" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C326" s="23" t="s">
+        <v>1490</v>
+      </c>
+      <c r="D326" s="21" t="s">
         <v>1493</v>
-      </c>
-      <c r="B326" s="19" t="s">
-        <v>1484</v>
-      </c>
-      <c r="C326" s="23" t="s">
-        <v>1491</v>
-      </c>
-      <c r="D326" s="21" t="s">
-        <v>1494</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
+        <v>1489</v>
+      </c>
+      <c r="B327" s="19" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C327" s="23" t="s">
         <v>1490</v>
       </c>
-      <c r="B327" s="19" t="s">
-        <v>1484</v>
-      </c>
-      <c r="C327" s="23" t="s">
+      <c r="D327" s="21" t="s">
         <v>1491</v>
-      </c>
-      <c r="D327" s="21" t="s">
-        <v>1492</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="B328" s="19" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="C328" s="23" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="D328" s="21"/>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
+        <v>1499</v>
+      </c>
+      <c r="B329" s="19" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C329" s="23" t="s">
         <v>1500</v>
       </c>
-      <c r="B329" s="19" t="s">
-        <v>1484</v>
-      </c>
-      <c r="C329" s="23" t="s">
+      <c r="D329" s="21" t="s">
         <v>1501</v>
-      </c>
-      <c r="D329" s="21" t="s">
-        <v>1502</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
+        <v>1508</v>
+      </c>
+      <c r="B330" s="19" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C330" s="23" t="s">
         <v>1509</v>
       </c>
-      <c r="B330" s="19" t="s">
-        <v>1484</v>
-      </c>
-      <c r="C330" s="23" t="s">
+      <c r="D330" s="21" t="s">
         <v>1510</v>
-      </c>
-      <c r="D330" s="21" t="s">
-        <v>1511</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
+        <v>1514</v>
+      </c>
+      <c r="B331" s="19" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C331" s="23" t="s">
         <v>1515</v>
       </c>
-      <c r="B331" s="19" t="s">
-        <v>1484</v>
-      </c>
-      <c r="C331" s="23" t="s">
+      <c r="D331" s="21" t="s">
         <v>1516</v>
-      </c>
-      <c r="D331" s="21" t="s">
-        <v>1517</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
+        <v>1497</v>
+      </c>
+      <c r="B332" s="19" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C332" s="23" t="s">
         <v>1498</v>
-      </c>
-      <c r="B332" s="19" t="s">
-        <v>1484</v>
-      </c>
-      <c r="C332" s="23" t="s">
-        <v>1499</v>
       </c>
       <c r="D332" s="21"/>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="B333" s="19" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="C333" s="19" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="D333" s="21"/>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="B334" s="19" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="C334" s="23" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="D334" s="21"/>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B335" s="19" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C335" s="23" t="s">
         <v>1525</v>
       </c>
-      <c r="B335" s="19" t="s">
-        <v>1484</v>
-      </c>
-      <c r="C335" s="23" t="s">
+      <c r="D335" s="21" t="s">
         <v>1526</v>
-      </c>
-      <c r="D335" s="21" t="s">
-        <v>1527</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
+        <v>1527</v>
+      </c>
+      <c r="B336" s="19" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C336" s="23" t="s">
         <v>1528</v>
-      </c>
-      <c r="B336" s="19" t="s">
-        <v>1484</v>
-      </c>
-      <c r="C336" s="23" t="s">
-        <v>1529</v>
       </c>
       <c r="D336" s="21"/>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
+        <v>1529</v>
+      </c>
+      <c r="B337" s="19" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C337" s="23" t="s">
         <v>1530</v>
       </c>
-      <c r="B337" s="19" t="s">
-        <v>1484</v>
-      </c>
-      <c r="C337" s="23" t="s">
+      <c r="D337" s="21" t="s">
         <v>1531</v>
-      </c>
-      <c r="D337" s="21" t="s">
-        <v>1532</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
@@ -14588,96 +14670,96 @@
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="C340" s="23" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="D340" s="21"/>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
+        <v>1532</v>
+      </c>
+      <c r="B341" s="19" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C341" s="17" t="s">
         <v>1533</v>
       </c>
-      <c r="B341" s="19" t="s">
-        <v>1484</v>
-      </c>
-      <c r="C341" s="17" t="s">
-        <v>1534</v>
-      </c>
       <c r="D341" s="21" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="C342" s="23" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="D342" s="21"/>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="C343" s="23" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="D343" s="21"/>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="C344" s="23" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="D344" s="21"/>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="C345" s="23" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="D345" s="21"/>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="C346" s="23" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="D346" s="21"/>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="C347" s="23" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="D347" s="21"/>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="C348" s="23" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="D348" s="21"/>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="C349" s="23" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="D349" s="21"/>
     </row>
@@ -14695,67 +14777,67 @@
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="C351" s="23" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="D351" s="21"/>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="C352" s="23" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="D352" s="21"/>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C353" s="23" t="s">
         <v>1636</v>
-      </c>
-      <c r="C353" s="23" t="s">
-        <v>1637</v>
       </c>
       <c r="D353" s="21"/>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
+        <v>1631</v>
+      </c>
+      <c r="B354" s="19" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C354" s="23" t="s">
         <v>1632</v>
-      </c>
-      <c r="B354" s="19" t="s">
-        <v>1435</v>
-      </c>
-      <c r="C354" s="23" t="s">
-        <v>1633</v>
       </c>
       <c r="D354" s="21"/>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
+        <v>1436</v>
+      </c>
+      <c r="B355" s="19" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C355" s="23" t="s">
         <v>1437</v>
-      </c>
-      <c r="B355" s="19" t="s">
-        <v>1435</v>
-      </c>
-      <c r="C355" s="23" t="s">
-        <v>1438</v>
       </c>
       <c r="D355" s="21"/>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
+        <v>1626</v>
+      </c>
+      <c r="B356" s="32" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C356" s="23" t="s">
         <v>1627</v>
       </c>
-      <c r="B356" s="32" t="s">
-        <v>1435</v>
-      </c>
-      <c r="C356" s="23" t="s">
+      <c r="D356" s="20" t="s">
         <v>1628</v>
-      </c>
-      <c r="D356" s="20" t="s">
-        <v>1629</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
@@ -14788,30 +14870,30 @@
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
+        <v>1610</v>
+      </c>
+      <c r="B359" s="19" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C359" s="23" t="s">
         <v>1611</v>
       </c>
-      <c r="B359" s="19" t="s">
-        <v>1435</v>
-      </c>
-      <c r="C359" s="23" t="s">
+      <c r="D359" s="21" t="s">
         <v>1612</v>
-      </c>
-      <c r="D359" s="21" t="s">
-        <v>1613</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
+        <v>1599</v>
+      </c>
+      <c r="B360" s="29" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C360" s="23" t="s">
         <v>1600</v>
       </c>
-      <c r="B360" s="29" t="s">
-        <v>1435</v>
-      </c>
-      <c r="C360" s="23" t="s">
+      <c r="D360" s="20" t="s">
         <v>1601</v>
-      </c>
-      <c r="D360" s="20" t="s">
-        <v>1602</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
@@ -14858,30 +14940,30 @@
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="B364" s="19" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="C364" s="26" t="s">
+        <v>1698</v>
+      </c>
+      <c r="D364" s="21" t="s">
         <v>1699</v>
-      </c>
-      <c r="D364" s="21" t="s">
-        <v>1700</v>
       </c>
     </row>
     <row r="365" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="B365" s="19" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="C365" s="26" t="s">
+        <v>1700</v>
+      </c>
+      <c r="D365" s="21" t="s">
         <v>1701</v>
-      </c>
-      <c r="D365" s="21" t="s">
-        <v>1702</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
@@ -14900,28 +14982,28 @@
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="C367" s="23" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="D367" s="21"/>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="C368" s="23" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="D368" s="21"/>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="C369" s="23" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="D369" s="21"/>
     </row>
@@ -14955,205 +15037,205 @@
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="C372" s="23" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="D372" s="21"/>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="C373" s="23" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="D373" s="21"/>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="C374" s="23" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="D374" s="21"/>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="C375" s="23" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="D375" s="21"/>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="C376" s="23" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="D376" s="21"/>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="B377" s="19" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="C377" s="17" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="D377" s="21" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="C378" s="23" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="D378" s="21"/>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="C379" s="23" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="D379" s="21"/>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="C380" s="23" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="D380" s="21"/>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="C381" s="23" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="D381" s="21"/>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="B382" s="19" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="C382" s="23" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="D382" s="21" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="B383" s="19" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="C383" s="23" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="D383" s="21" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="B384" s="29" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="C384" s="23" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="D384" s="20" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="B385" s="29" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="C385" s="23" t="s">
+        <v>1769</v>
+      </c>
+      <c r="D385" s="20" t="s">
         <v>1770</v>
-      </c>
-      <c r="D385" s="20" t="s">
-        <v>1771</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="B386" s="19" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="C386" s="23" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="D386" s="21"/>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="B387" s="19" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="C387" s="23" t="s">
+        <v>1803</v>
+      </c>
+      <c r="D387" s="21" t="s">
         <v>1804</v>
-      </c>
-      <c r="D387" s="21" t="s">
-        <v>1805</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="C388" s="23" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="D388" s="21"/>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="C389" s="23" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="D389" s="21"/>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="C390" s="23" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="D390" s="21"/>
     </row>
@@ -15245,82 +15327,82 @@
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="C398" s="23" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="D398" s="21"/>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="C399" s="23" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="D399" s="21"/>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="C400" s="23" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="D400" s="21"/>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="C401" s="23" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="D401" s="21"/>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="C402" s="23" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="D402" s="21"/>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="C403" s="23" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="D403" s="21"/>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="C404" s="23" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="D404" s="21"/>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="C405" s="23" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="D405" s="21"/>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="C406" s="23" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="D406" s="21"/>
     </row>
@@ -15338,10 +15420,10 @@
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="C408" s="23" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="D408" s="21"/>
     </row>
@@ -15371,19 +15453,19 @@
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="C411" s="23" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="D411" s="21"/>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="C412" s="23" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="D412" s="21"/>
     </row>
@@ -15432,13 +15514,13 @@
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
+        <v>1469</v>
+      </c>
+      <c r="B418" s="19" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C418" s="23" t="s">
         <v>1470</v>
-      </c>
-      <c r="B418" s="19" t="s">
-        <v>1435</v>
-      </c>
-      <c r="C418" s="23" t="s">
-        <v>1471</v>
       </c>
       <c r="D418" s="21"/>
     </row>
@@ -15606,1466 +15688,1595 @@
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
+        <v>1727</v>
+      </c>
+      <c r="B434" s="19" t="s">
+        <v>1685</v>
+      </c>
+      <c r="C434" s="23" t="s">
         <v>1728</v>
-      </c>
-      <c r="B434" s="19" t="s">
-        <v>1686</v>
-      </c>
-      <c r="C434" s="23" t="s">
-        <v>1729</v>
       </c>
       <c r="D434" s="21"/>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A435" s="2" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="D435" s="21"/>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
+        <v>1805</v>
+      </c>
+      <c r="B436" s="19" t="s">
+        <v>1685</v>
+      </c>
+      <c r="C436" s="23" t="s">
         <v>1806</v>
       </c>
-      <c r="B436" s="19" t="s">
-        <v>1686</v>
-      </c>
-      <c r="C436" s="23" t="s">
+      <c r="D436" s="21" t="s">
         <v>1807</v>
-      </c>
-      <c r="D436" s="21" t="s">
-        <v>1808</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
+        <v>1780</v>
+      </c>
+      <c r="B437" s="19" t="s">
+        <v>1685</v>
+      </c>
+      <c r="C437" s="26" t="s">
         <v>1781</v>
       </c>
-      <c r="B437" s="19" t="s">
-        <v>1686</v>
-      </c>
-      <c r="C437" s="23" t="s">
-        <v>1782</v>
-      </c>
       <c r="D437" s="21" t="s">
-        <v>1783</v>
+        <v>2240</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
+        <v>2155</v>
+      </c>
+      <c r="B438" s="19" t="s">
+        <v>1685</v>
+      </c>
+      <c r="C438" s="23" t="s">
         <v>2156</v>
       </c>
-      <c r="B438" s="19" t="s">
-        <v>1686</v>
-      </c>
-      <c r="C438" s="23" t="s">
+      <c r="D438" s="40" t="s">
         <v>2157</v>
-      </c>
-      <c r="D438" s="41" t="s">
-        <v>2158</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
+        <v>1786</v>
+      </c>
+      <c r="B439" s="19" t="s">
+        <v>1685</v>
+      </c>
+      <c r="C439" s="23" t="s">
         <v>1787</v>
       </c>
-      <c r="B439" s="19" t="s">
-        <v>1686</v>
-      </c>
-      <c r="C439" s="23" t="s">
+      <c r="D439" s="21" t="s">
         <v>1788</v>
-      </c>
-      <c r="D439" s="21" t="s">
-        <v>1789</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B440" s="19" t="s">
+        <v>1685</v>
+      </c>
+      <c r="C440" s="23" t="s">
         <v>1779</v>
-      </c>
-      <c r="B440" s="19" t="s">
-        <v>1686</v>
-      </c>
-      <c r="C440" s="23" t="s">
-        <v>1780</v>
       </c>
       <c r="D440" s="21"/>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
+        <v>2085</v>
+      </c>
+      <c r="B441" s="19" t="s">
+        <v>1685</v>
+      </c>
+      <c r="C441" s="23" t="s">
         <v>2086</v>
-      </c>
-      <c r="B441" s="19" t="s">
-        <v>1686</v>
-      </c>
-      <c r="C441" s="23" t="s">
-        <v>2087</v>
       </c>
       <c r="D441" s="21"/>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
+        <v>1746</v>
+      </c>
+      <c r="B442" s="19" t="s">
+        <v>1685</v>
+      </c>
+      <c r="C442" s="23" t="s">
         <v>1747</v>
-      </c>
-      <c r="B442" s="19" t="s">
-        <v>1686</v>
-      </c>
-      <c r="C442" s="23" t="s">
-        <v>1748</v>
       </c>
       <c r="D442" s="21"/>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
+        <v>2176</v>
+      </c>
+      <c r="B443" s="19" t="s">
+        <v>1685</v>
+      </c>
+      <c r="C443" s="23" t="s">
         <v>2177</v>
-      </c>
-      <c r="B443" s="19" t="s">
-        <v>1686</v>
-      </c>
-      <c r="C443" s="23" t="s">
-        <v>2178</v>
       </c>
       <c r="D443" s="21"/>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>2208</v>
+        <v>2207</v>
       </c>
       <c r="B444" s="19" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="C444" s="23" t="s">
+        <v>2209</v>
+      </c>
+      <c r="D444" s="21" t="s">
         <v>2210</v>
-      </c>
-      <c r="D444" s="21" t="s">
-        <v>2211</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>2209</v>
+        <v>2208</v>
       </c>
       <c r="B445" s="19" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="C445" s="23" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="D445" s="21"/>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
+        <v>1821</v>
+      </c>
+      <c r="B446" s="19" t="s">
+        <v>1685</v>
+      </c>
+      <c r="C446" s="23" t="s">
         <v>1822</v>
       </c>
-      <c r="B446" s="19" t="s">
-        <v>1686</v>
-      </c>
-      <c r="C446" s="23" t="s">
+      <c r="D446" s="21" t="s">
         <v>1823</v>
-      </c>
-      <c r="D446" s="21" t="s">
-        <v>1824</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
+        <v>2082</v>
+      </c>
+      <c r="B447" s="29" t="s">
+        <v>1685</v>
+      </c>
+      <c r="C447" s="23" t="s">
         <v>2083</v>
       </c>
-      <c r="B447" s="29" t="s">
-        <v>1686</v>
-      </c>
-      <c r="C447" s="23" t="s">
+      <c r="D447" s="20" t="s">
         <v>2084</v>
-      </c>
-      <c r="D447" s="20" t="s">
-        <v>2085</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
+        <v>1729</v>
+      </c>
+      <c r="B448" s="19" t="s">
+        <v>1685</v>
+      </c>
+      <c r="C448" s="26" t="s">
         <v>1730</v>
       </c>
-      <c r="B448" s="19" t="s">
-        <v>1686</v>
-      </c>
-      <c r="C448" s="26" t="s">
+      <c r="D448" s="21" t="s">
         <v>1731</v>
-      </c>
-      <c r="D448" s="21" t="s">
-        <v>1732</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
+        <v>2174</v>
+      </c>
+      <c r="B449" s="19" t="s">
+        <v>1685</v>
+      </c>
+      <c r="C449" s="26" t="s">
         <v>2175</v>
-      </c>
-      <c r="B449" s="19" t="s">
-        <v>1686</v>
-      </c>
-      <c r="C449" s="26" t="s">
-        <v>2176</v>
       </c>
       <c r="D449" s="21"/>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
+        <v>2171</v>
+      </c>
+      <c r="B450" s="29" t="s">
+        <v>1685</v>
+      </c>
+      <c r="C450" s="26" t="s">
         <v>2172</v>
       </c>
-      <c r="B450" s="29" t="s">
-        <v>1686</v>
-      </c>
-      <c r="C450" s="26" t="s">
+      <c r="D450" s="20" t="s">
         <v>2173</v>
-      </c>
-      <c r="D450" s="20" t="s">
-        <v>2174</v>
       </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
+        <v>1801</v>
+      </c>
+      <c r="B451" s="19" t="s">
+        <v>1685</v>
+      </c>
+      <c r="C451" s="26" t="s">
         <v>1802</v>
-      </c>
-      <c r="B451" s="19" t="s">
-        <v>1686</v>
-      </c>
-      <c r="C451" s="26" t="s">
-        <v>1803</v>
       </c>
       <c r="D451" s="21"/>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
+        <v>1725</v>
+      </c>
+      <c r="B452" s="19" t="s">
+        <v>1685</v>
+      </c>
+      <c r="C452" s="23" t="s">
         <v>1726</v>
-      </c>
-      <c r="B452" s="19" t="s">
-        <v>1686</v>
-      </c>
-      <c r="C452" s="23" t="s">
-        <v>1727</v>
       </c>
       <c r="D452" s="21"/>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="B453" s="19" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="C453" s="23" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="D453" s="21"/>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="B454" s="19" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="C454" s="23" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="D454" s="21"/>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
+        <v>2205</v>
+      </c>
+      <c r="B455" s="19" t="s">
+        <v>1685</v>
+      </c>
+      <c r="C455" s="23" t="s">
         <v>2206</v>
-      </c>
-      <c r="B455" s="19" t="s">
-        <v>1686</v>
-      </c>
-      <c r="C455" s="23" t="s">
-        <v>2207</v>
       </c>
       <c r="D455" s="21"/>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
+        <v>2203</v>
+      </c>
+      <c r="B456" s="19" t="s">
+        <v>1685</v>
+      </c>
+      <c r="C456" s="23" t="s">
         <v>2204</v>
       </c>
-      <c r="B456" s="19" t="s">
-        <v>1686</v>
-      </c>
-      <c r="C456" s="23" t="s">
-        <v>2205</v>
-      </c>
       <c r="D456" s="21" t="s">
-        <v>2203</v>
+        <v>2202</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
+        <v>2169</v>
+      </c>
+      <c r="B457" s="19" t="s">
+        <v>1685</v>
+      </c>
+      <c r="C457" s="23" t="s">
         <v>2170</v>
-      </c>
-      <c r="B457" s="19" t="s">
-        <v>1686</v>
-      </c>
-      <c r="C457" s="23" t="s">
-        <v>2171</v>
       </c>
       <c r="D457" s="21"/>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
+        <v>2107</v>
+      </c>
+      <c r="B458" s="19" t="s">
+        <v>1685</v>
+      </c>
+      <c r="C458" s="23" t="s">
         <v>2108</v>
-      </c>
-      <c r="B458" s="19" t="s">
-        <v>1686</v>
-      </c>
-      <c r="C458" s="23" t="s">
-        <v>2109</v>
       </c>
       <c r="D458" s="21"/>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
+        <v>1723</v>
+      </c>
+      <c r="B459" s="19" t="s">
+        <v>1685</v>
+      </c>
+      <c r="C459" s="23" t="s">
         <v>1724</v>
-      </c>
-      <c r="B459" s="19" t="s">
-        <v>1686</v>
-      </c>
-      <c r="C459" s="23" t="s">
-        <v>1725</v>
       </c>
       <c r="D459" s="21"/>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
+        <v>2077</v>
+      </c>
+      <c r="B460" s="19" t="s">
+        <v>1685</v>
+      </c>
+      <c r="C460" s="23" t="s">
         <v>2078</v>
       </c>
-      <c r="B460" s="19" t="s">
-        <v>1686</v>
-      </c>
-      <c r="C460" s="23" t="s">
+      <c r="D460" s="21" t="s">
         <v>2079</v>
-      </c>
-      <c r="D460" s="21" t="s">
-        <v>2080</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
+        <v>2109</v>
+      </c>
+      <c r="B461" s="19" t="s">
+        <v>1685</v>
+      </c>
+      <c r="C461" s="23" t="s">
         <v>2110</v>
-      </c>
-      <c r="B461" s="19" t="s">
-        <v>1686</v>
-      </c>
-      <c r="C461" s="23" t="s">
-        <v>2111</v>
       </c>
       <c r="D461" s="21"/>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
+        <v>2111</v>
+      </c>
+      <c r="B462" s="19" t="s">
+        <v>1685</v>
+      </c>
+      <c r="C462" s="23" t="s">
         <v>2112</v>
-      </c>
-      <c r="B462" s="19" t="s">
-        <v>1686</v>
-      </c>
-      <c r="C462" s="23" t="s">
-        <v>2113</v>
       </c>
       <c r="D462" s="21"/>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
+        <v>1818</v>
+      </c>
+      <c r="B463" s="29" t="s">
+        <v>1685</v>
+      </c>
+      <c r="C463" s="23" t="s">
         <v>1819</v>
       </c>
-      <c r="B463" s="29" t="s">
-        <v>1686</v>
-      </c>
-      <c r="C463" s="23" t="s">
+      <c r="D463" s="20" t="s">
         <v>1820</v>
-      </c>
-      <c r="D463" s="20" t="s">
-        <v>1821</v>
       </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
+        <v>2197</v>
+      </c>
+      <c r="B464" s="19" t="s">
+        <v>1685</v>
+      </c>
+      <c r="C464" s="23" t="s">
         <v>2198</v>
-      </c>
-      <c r="B464" s="19" t="s">
-        <v>1686</v>
-      </c>
-      <c r="C464" s="23" t="s">
-        <v>2199</v>
       </c>
       <c r="D464" s="21"/>
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
+        <v>2080</v>
+      </c>
+      <c r="B465" s="19" t="s">
+        <v>1685</v>
+      </c>
+      <c r="C465" s="23" t="s">
         <v>2081</v>
-      </c>
-      <c r="B465" s="19" t="s">
-        <v>1686</v>
-      </c>
-      <c r="C465" s="23" t="s">
-        <v>2082</v>
       </c>
       <c r="D465" s="21"/>
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
+        <v>2195</v>
+      </c>
+      <c r="B466" s="19" t="s">
+        <v>1685</v>
+      </c>
+      <c r="C466" s="23" t="s">
         <v>2196</v>
-      </c>
-      <c r="B466" s="19" t="s">
-        <v>1686</v>
-      </c>
-      <c r="C466" s="23" t="s">
-        <v>2197</v>
       </c>
       <c r="D466" s="21"/>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
+        <v>2167</v>
+      </c>
+      <c r="B467" s="19" t="s">
+        <v>1685</v>
+      </c>
+      <c r="C467" s="23" t="s">
         <v>2168</v>
-      </c>
-      <c r="B467" s="19" t="s">
-        <v>1686</v>
-      </c>
-      <c r="C467" s="23" t="s">
-        <v>2169</v>
       </c>
       <c r="D467" s="21"/>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
+        <v>1813</v>
+      </c>
+      <c r="B468" s="19" t="s">
+        <v>1685</v>
+      </c>
+      <c r="C468" s="23" t="s">
         <v>1814</v>
       </c>
-      <c r="B468" s="19" t="s">
-        <v>1686</v>
-      </c>
-      <c r="C468" s="23" t="s">
+      <c r="D468" s="21" t="s">
         <v>1815</v>
-      </c>
-      <c r="D468" s="21" t="s">
-        <v>1816</v>
       </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
-        <v>2192</v>
+        <v>2191</v>
       </c>
       <c r="B469" s="19" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="C469" s="23" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
       <c r="D469" s="21"/>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
-        <v>2193</v>
+        <v>2192</v>
       </c>
       <c r="B470" s="19" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="C470" s="23" t="s">
-        <v>2195</v>
+        <v>2194</v>
       </c>
       <c r="D470" s="21"/>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
+        <v>1721</v>
+      </c>
+      <c r="B471" s="29" t="s">
+        <v>1685</v>
+      </c>
+      <c r="C471" s="23" t="s">
         <v>1722</v>
       </c>
-      <c r="B471" s="29" t="s">
-        <v>1686</v>
-      </c>
-      <c r="C471" s="23" t="s">
-        <v>1723</v>
-      </c>
       <c r="D471" s="20" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
+        <v>1719</v>
+      </c>
+      <c r="B472" s="19" t="s">
+        <v>1685</v>
+      </c>
+      <c r="C472" s="23" t="s">
         <v>1720</v>
-      </c>
-      <c r="B472" s="19" t="s">
-        <v>1686</v>
-      </c>
-      <c r="C472" s="23" t="s">
-        <v>1721</v>
       </c>
       <c r="D472" s="21"/>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="B473" s="19" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="C473" s="23" t="s">
+        <v>2165</v>
+      </c>
+      <c r="D473" s="21" t="s">
         <v>2166</v>
-      </c>
-      <c r="D473" s="21" t="s">
-        <v>2167</v>
       </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
-        <v>2165</v>
+        <v>2164</v>
       </c>
       <c r="B474" s="19" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="C474" s="23" t="s">
+        <v>1810</v>
+      </c>
+      <c r="D474" s="21" t="s">
         <v>1811</v>
-      </c>
-      <c r="D474" s="21" t="s">
-        <v>1812</v>
       </c>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
+        <v>2212</v>
+      </c>
+      <c r="B475" s="19" t="s">
+        <v>1685</v>
+      </c>
+      <c r="C475" s="23" t="s">
         <v>2213</v>
       </c>
-      <c r="B475" s="19" t="s">
-        <v>1686</v>
-      </c>
-      <c r="C475" s="23" t="s">
+      <c r="D475" s="20" t="s">
         <v>2214</v>
-      </c>
-      <c r="D475" s="20" t="s">
-        <v>2215</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
+        <v>2158</v>
+      </c>
+      <c r="B476" s="29" t="s">
+        <v>1685</v>
+      </c>
+      <c r="C476" s="23" t="s">
         <v>2159</v>
       </c>
-      <c r="B476" s="29" t="s">
-        <v>1686</v>
-      </c>
-      <c r="C476" s="23" t="s">
-        <v>2160</v>
-      </c>
       <c r="D476" s="20" t="s">
-        <v>2164</v>
+        <v>2163</v>
       </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
+        <v>2160</v>
+      </c>
+      <c r="B477" s="19" t="s">
+        <v>1685</v>
+      </c>
+      <c r="C477" s="23" t="s">
         <v>2161</v>
       </c>
-      <c r="B477" s="19" t="s">
-        <v>1686</v>
-      </c>
-      <c r="C477" s="23" t="s">
+      <c r="D477" s="21" t="s">
         <v>2162</v>
-      </c>
-      <c r="D477" s="21" t="s">
-        <v>2163</v>
       </c>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
+        <v>2180</v>
+      </c>
+      <c r="B478" s="19" t="s">
+        <v>1685</v>
+      </c>
+      <c r="C478" s="23" t="s">
         <v>2181</v>
       </c>
-      <c r="B478" s="19" t="s">
-        <v>1686</v>
-      </c>
-      <c r="C478" s="23" t="s">
+      <c r="D478" s="21" t="s">
         <v>2182</v>
-      </c>
-      <c r="D478" s="21" t="s">
-        <v>2183</v>
       </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
+        <v>2183</v>
+      </c>
+      <c r="B479" s="19" t="s">
+        <v>1685</v>
+      </c>
+      <c r="C479" s="23" t="s">
         <v>2184</v>
       </c>
-      <c r="B479" s="19" t="s">
-        <v>1686</v>
-      </c>
-      <c r="C479" s="23" t="s">
+      <c r="D479" s="21" t="s">
         <v>2185</v>
-      </c>
-      <c r="D479" s="21" t="s">
-        <v>2186</v>
       </c>
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
+        <v>2186</v>
+      </c>
+      <c r="B480" s="19" t="s">
+        <v>1685</v>
+      </c>
+      <c r="C480" s="23" t="s">
         <v>2187</v>
       </c>
-      <c r="B480" s="19" t="s">
-        <v>1686</v>
-      </c>
-      <c r="C480" s="23" t="s">
+      <c r="D480" s="21" t="s">
         <v>2188</v>
-      </c>
-      <c r="D480" s="21" t="s">
-        <v>2189</v>
       </c>
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
+        <v>2199</v>
+      </c>
+      <c r="B481" s="19" t="s">
+        <v>1685</v>
+      </c>
+      <c r="C481" s="23" t="s">
         <v>2200</v>
       </c>
-      <c r="B481" s="19" t="s">
-        <v>1686</v>
-      </c>
-      <c r="C481" s="23" t="s">
+      <c r="D481" s="21" t="s">
         <v>2201</v>
-      </c>
-      <c r="D481" s="21" t="s">
-        <v>2202</v>
       </c>
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
+        <v>1772</v>
+      </c>
+      <c r="B482" s="19" t="s">
+        <v>1685</v>
+      </c>
+      <c r="C482" s="23" t="s">
         <v>1773</v>
       </c>
-      <c r="B482" s="19" t="s">
-        <v>1686</v>
-      </c>
-      <c r="C482" s="23" t="s">
+      <c r="D482" s="21" t="s">
         <v>1774</v>
-      </c>
-      <c r="D482" s="21" t="s">
-        <v>1775</v>
       </c>
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
+        <v>1775</v>
+      </c>
+      <c r="B483" s="29" t="s">
+        <v>1685</v>
+      </c>
+      <c r="C483" s="23" t="s">
         <v>1776</v>
       </c>
-      <c r="B483" s="29" t="s">
-        <v>1686</v>
-      </c>
-      <c r="C483" s="23" t="s">
+      <c r="D483" s="20" t="s">
         <v>1777</v>
-      </c>
-      <c r="D483" s="20" t="s">
-        <v>1778</v>
       </c>
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
+        <v>1758</v>
+      </c>
+      <c r="B484" s="19" t="s">
+        <v>1685</v>
+      </c>
+      <c r="C484" s="23" t="s">
         <v>1759</v>
       </c>
-      <c r="B484" s="19" t="s">
-        <v>1686</v>
-      </c>
-      <c r="C484" s="23" t="s">
+      <c r="D484" s="21" t="s">
         <v>1760</v>
-      </c>
-      <c r="D484" s="21" t="s">
-        <v>1761</v>
       </c>
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
+        <v>1762</v>
+      </c>
+      <c r="B485" s="19" t="s">
+        <v>1685</v>
+      </c>
+      <c r="C485" s="23" t="s">
         <v>1763</v>
       </c>
-      <c r="B485" s="19" t="s">
-        <v>1686</v>
-      </c>
-      <c r="C485" s="23" t="s">
+      <c r="D485" s="21" t="s">
         <v>1764</v>
-      </c>
-      <c r="D485" s="21" t="s">
-        <v>1765</v>
       </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
+        <v>2189</v>
+      </c>
+      <c r="B486" s="19" t="s">
+        <v>1685</v>
+      </c>
+      <c r="C486" s="23" t="s">
         <v>2190</v>
-      </c>
-      <c r="B486" s="19" t="s">
-        <v>1686</v>
-      </c>
-      <c r="C486" s="23" t="s">
-        <v>2191</v>
       </c>
       <c r="D486" s="21"/>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
+        <v>2144</v>
+      </c>
+      <c r="B487" s="19" t="s">
+        <v>1685</v>
+      </c>
+      <c r="C487" s="23" t="s">
         <v>2145</v>
       </c>
-      <c r="B487" s="19" t="s">
-        <v>1686</v>
-      </c>
-      <c r="C487" s="23" t="s">
-        <v>2146</v>
-      </c>
       <c r="D487" s="21" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
+        <v>2146</v>
+      </c>
+      <c r="B488" s="19" t="s">
+        <v>1685</v>
+      </c>
+      <c r="C488" s="23" t="s">
         <v>2147</v>
-      </c>
-      <c r="B488" s="19" t="s">
-        <v>1686</v>
-      </c>
-      <c r="C488" s="23" t="s">
-        <v>2148</v>
       </c>
       <c r="D488" s="21"/>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
+        <v>1734</v>
+      </c>
+      <c r="B489" s="19" t="s">
+        <v>1685</v>
+      </c>
+      <c r="C489" s="23" t="s">
         <v>1735</v>
       </c>
-      <c r="B489" s="19" t="s">
-        <v>1686</v>
-      </c>
-      <c r="C489" s="23" t="s">
-        <v>1736</v>
-      </c>
       <c r="D489" s="21" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
+        <v>1789</v>
+      </c>
+      <c r="B490" s="19" t="s">
+        <v>1685</v>
+      </c>
+      <c r="C490" s="23" t="s">
         <v>1790</v>
       </c>
-      <c r="B490" s="19" t="s">
-        <v>1686</v>
-      </c>
-      <c r="C490" s="23" t="s">
+      <c r="D490" s="21" t="s">
         <v>1791</v>
-      </c>
-      <c r="D490" s="21" t="s">
-        <v>1792</v>
       </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
+        <v>1792</v>
+      </c>
+      <c r="B491" s="19" t="s">
+        <v>1685</v>
+      </c>
+      <c r="C491" s="23" t="s">
         <v>1793</v>
-      </c>
-      <c r="B491" s="19" t="s">
-        <v>1686</v>
-      </c>
-      <c r="C491" s="23" t="s">
-        <v>1794</v>
       </c>
       <c r="D491" s="21"/>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
+        <v>1830</v>
+      </c>
+      <c r="B492" s="19" t="s">
+        <v>1685</v>
+      </c>
+      <c r="C492" s="23" t="s">
         <v>1831</v>
       </c>
-      <c r="B492" s="19" t="s">
-        <v>1686</v>
-      </c>
-      <c r="C492" s="23" t="s">
+      <c r="D492" s="21" t="s">
         <v>1832</v>
-      </c>
-      <c r="D492" s="21" t="s">
-        <v>1833</v>
       </c>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
+        <v>2087</v>
+      </c>
+      <c r="B493" s="19" t="s">
+        <v>1685</v>
+      </c>
+      <c r="C493" s="23" t="s">
         <v>2088</v>
       </c>
-      <c r="B493" s="19" t="s">
-        <v>1686</v>
-      </c>
-      <c r="C493" s="23" t="s">
-        <v>2089</v>
-      </c>
       <c r="D493" s="21" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
+        <v>1794</v>
+      </c>
+      <c r="B494" s="19" t="s">
+        <v>1685</v>
+      </c>
+      <c r="C494" s="23" t="s">
         <v>1795</v>
       </c>
-      <c r="B494" s="19" t="s">
-        <v>1686</v>
-      </c>
-      <c r="C494" s="23" t="s">
+      <c r="D494" s="21" t="s">
         <v>1796</v>
-      </c>
-      <c r="D494" s="21" t="s">
-        <v>1797</v>
       </c>
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
+        <v>2089</v>
+      </c>
+      <c r="B495" s="19" t="s">
+        <v>1685</v>
+      </c>
+      <c r="C495" s="26" t="s">
         <v>2090</v>
       </c>
-      <c r="B495" s="19" t="s">
-        <v>1686</v>
-      </c>
-      <c r="C495" s="26" t="s">
+      <c r="D495" s="21" t="s">
         <v>2091</v>
-      </c>
-      <c r="D495" s="21" t="s">
-        <v>2092</v>
       </c>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
+        <v>2092</v>
+      </c>
+      <c r="B496" s="19" t="s">
+        <v>1685</v>
+      </c>
+      <c r="C496" s="23" t="s">
         <v>2093</v>
       </c>
-      <c r="B496" s="19" t="s">
-        <v>1686</v>
-      </c>
-      <c r="C496" s="23" t="s">
+      <c r="D496" s="21" t="s">
         <v>2094</v>
-      </c>
-      <c r="D496" s="21" t="s">
-        <v>2095</v>
       </c>
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
+        <v>1748</v>
+      </c>
+      <c r="B497" s="19" t="s">
+        <v>1685</v>
+      </c>
+      <c r="C497" s="23" t="s">
         <v>1749</v>
-      </c>
-      <c r="B497" s="19" t="s">
-        <v>1686</v>
-      </c>
-      <c r="C497" s="23" t="s">
-        <v>1750</v>
       </c>
       <c r="D497" s="21"/>
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
+        <v>2095</v>
+      </c>
+      <c r="B498" s="19" t="s">
+        <v>1685</v>
+      </c>
+      <c r="C498" s="23" t="s">
         <v>2096</v>
       </c>
-      <c r="B498" s="19" t="s">
-        <v>1686</v>
-      </c>
-      <c r="C498" s="23" t="s">
+      <c r="D498" s="21" t="s">
         <v>2097</v>
-      </c>
-      <c r="D498" s="21" t="s">
-        <v>2098</v>
       </c>
     </row>
     <row r="499" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
+        <v>1783</v>
+      </c>
+      <c r="B499" s="19" t="s">
+        <v>1685</v>
+      </c>
+      <c r="C499" s="23" t="s">
         <v>1784</v>
       </c>
-      <c r="B499" s="19" t="s">
-        <v>1686</v>
-      </c>
-      <c r="C499" s="23" t="s">
+      <c r="D499" s="21" t="s">
         <v>1785</v>
-      </c>
-      <c r="D499" s="21" t="s">
-        <v>1786</v>
       </c>
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
       <c r="B500" s="19" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="C500" s="23" t="s">
+        <v>2118</v>
+      </c>
+      <c r="D500" s="21" t="s">
         <v>2119</v>
-      </c>
-      <c r="D500" s="21" t="s">
-        <v>2120</v>
       </c>
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
+        <v>2117</v>
+      </c>
+      <c r="B501" s="19" t="s">
+        <v>1685</v>
+      </c>
+      <c r="C501" s="23" t="s">
         <v>2118</v>
       </c>
-      <c r="B501" s="19" t="s">
-        <v>1686</v>
-      </c>
-      <c r="C501" s="23" t="s">
-        <v>2119</v>
-      </c>
       <c r="D501" s="21" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
+        <v>1736</v>
+      </c>
+      <c r="B502" s="19" t="s">
+        <v>1685</v>
+      </c>
+      <c r="C502" s="23" t="s">
         <v>1737</v>
       </c>
-      <c r="B502" s="19" t="s">
-        <v>1686</v>
-      </c>
-      <c r="C502" s="23" t="s">
+      <c r="D502" s="21" t="s">
         <v>1738</v>
-      </c>
-      <c r="D502" s="21" t="s">
-        <v>1739</v>
       </c>
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
+        <v>2151</v>
+      </c>
+      <c r="B503" s="19" t="s">
+        <v>1685</v>
+      </c>
+      <c r="C503" s="23" t="s">
         <v>2152</v>
-      </c>
-      <c r="B503" s="19" t="s">
-        <v>1686</v>
-      </c>
-      <c r="C503" s="23" t="s">
-        <v>2153</v>
       </c>
       <c r="D503" s="21"/>
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
+        <v>2153</v>
+      </c>
+      <c r="B504" s="19" t="s">
+        <v>1685</v>
+      </c>
+      <c r="C504" s="23" t="s">
         <v>2154</v>
-      </c>
-      <c r="B504" s="19" t="s">
-        <v>1686</v>
-      </c>
-      <c r="C504" s="23" t="s">
-        <v>2155</v>
       </c>
       <c r="D504" s="21"/>
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
+        <v>2149</v>
+      </c>
+      <c r="B505" s="19" t="s">
+        <v>1685</v>
+      </c>
+      <c r="C505" s="23" t="s">
         <v>2150</v>
       </c>
-      <c r="B505" s="19" t="s">
-        <v>1686</v>
-      </c>
-      <c r="C505" s="23" t="s">
-        <v>2151</v>
-      </c>
       <c r="D505" s="21"/>
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A506" t="s">
+        <v>2220</v>
+      </c>
+      <c r="B506" s="19" t="s">
+        <v>1685</v>
+      </c>
+      <c r="C506" s="23" t="s">
+        <v>2221</v>
+      </c>
       <c r="D506" s="21"/>
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
-        <v>2218</v>
+        <v>2222</v>
       </c>
       <c r="B507" s="19" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="C507" s="23" t="s">
-        <v>2219</v>
-      </c>
-      <c r="D507" s="21" t="s">
-        <v>2220</v>
-      </c>
+        <v>2223</v>
+      </c>
+      <c r="D507" s="21"/>
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
-        <v>2122</v>
+        <v>2236</v>
       </c>
       <c r="B508" s="19" t="s">
-        <v>1686</v>
-      </c>
-      <c r="C508" s="23" t="s">
-        <v>1154</v>
-      </c>
-      <c r="D508" s="21" t="s">
-        <v>2123</v>
-      </c>
+        <v>1685</v>
+      </c>
+      <c r="C508" s="27" t="s">
+        <v>2237</v>
+      </c>
+      <c r="D508" s="21"/>
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D509" s="21"/>
+      <c r="A509" t="s">
+        <v>2238</v>
+      </c>
+      <c r="B509" s="19" t="s">
+        <v>1685</v>
+      </c>
+      <c r="C509" s="23" t="s">
+        <v>2246</v>
+      </c>
+      <c r="D509" s="21" t="s">
+        <v>2244</v>
+      </c>
     </row>
     <row r="510" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
-        <v>1751</v>
-      </c>
-      <c r="B510" s="29" t="s">
-        <v>1686</v>
+        <v>2239</v>
+      </c>
+      <c r="B510" s="19" t="s">
+        <v>1685</v>
       </c>
       <c r="C510" s="23" t="s">
-        <v>1752</v>
-      </c>
-      <c r="D510" s="20" t="s">
-        <v>1753</v>
-      </c>
+        <v>2245</v>
+      </c>
+      <c r="D510" s="21"/>
     </row>
     <row r="511" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
-        <v>2102</v>
+        <v>2232</v>
       </c>
       <c r="B511" s="19" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="C511" s="23" t="s">
-        <v>2103</v>
-      </c>
-      <c r="D511" s="41" t="s">
-        <v>2104</v>
-      </c>
+        <v>2233</v>
+      </c>
+      <c r="D511" s="21"/>
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
-        <v>2099</v>
+        <v>2234</v>
       </c>
       <c r="B512" s="19" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="C512" s="23" t="s">
-        <v>2100</v>
-      </c>
-      <c r="D512" s="21" t="s">
-        <v>2101</v>
-      </c>
+        <v>2235</v>
+      </c>
+      <c r="D512" s="21"/>
     </row>
     <row r="513" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
-        <v>1828</v>
+        <v>2217</v>
       </c>
       <c r="B513" s="19" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="C513" s="23" t="s">
-        <v>1829</v>
+        <v>2218</v>
       </c>
       <c r="D513" s="21" t="s">
-        <v>1830</v>
+        <v>2219</v>
       </c>
     </row>
     <row r="514" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B514"/>
-      <c r="D514" s="21"/>
+      <c r="A514" t="s">
+        <v>2121</v>
+      </c>
+      <c r="B514" s="19" t="s">
+        <v>1685</v>
+      </c>
+      <c r="C514" s="23" t="s">
+        <v>1154</v>
+      </c>
+      <c r="D514" s="21" t="s">
+        <v>2122</v>
+      </c>
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
-        <v>1754</v>
+        <v>2224</v>
       </c>
       <c r="B515" s="19" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="C515" s="23" t="s">
-        <v>1755</v>
-      </c>
-      <c r="D515" s="21" t="s">
-        <v>1756</v>
-      </c>
+        <v>2225</v>
+      </c>
+      <c r="D515" s="21"/>
     </row>
     <row r="516" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
-        <v>2142</v>
+        <v>1750</v>
       </c>
       <c r="B516" s="29" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="C516" s="23" t="s">
-        <v>2143</v>
+        <v>1751</v>
       </c>
       <c r="D516" s="20" t="s">
-        <v>2144</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="517" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
-        <v>2136</v>
+        <v>2101</v>
       </c>
       <c r="B517" s="19" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="C517" s="23" t="s">
-        <v>1746</v>
-      </c>
-      <c r="D517" s="21"/>
+        <v>2102</v>
+      </c>
+      <c r="D517" s="40" t="s">
+        <v>2103</v>
+      </c>
     </row>
     <row r="518" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
-        <v>1740</v>
+        <v>2098</v>
       </c>
       <c r="B518" s="19" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="C518" s="23" t="s">
-        <v>1741</v>
+        <v>2099</v>
       </c>
       <c r="D518" s="21" t="s">
-        <v>1742</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="519" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
-        <v>2179</v>
+        <v>1827</v>
       </c>
       <c r="B519" s="19" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="C519" s="23" t="s">
-        <v>2180</v>
-      </c>
-      <c r="D519" s="21"/>
+        <v>1828</v>
+      </c>
+      <c r="D519" s="21" t="s">
+        <v>1829</v>
+      </c>
     </row>
     <row r="520" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A520" t="s">
+        <v>2226</v>
+      </c>
+      <c r="B520" s="19" t="s">
+        <v>1685</v>
+      </c>
+      <c r="C520" s="23" t="s">
+        <v>2227</v>
+      </c>
       <c r="D520" s="21"/>
     </row>
     <row r="521" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
-        <v>2140</v>
+        <v>1753</v>
       </c>
       <c r="B521" s="19" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="C521" s="23" t="s">
-        <v>2141</v>
-      </c>
-      <c r="D521" s="21"/>
+        <v>1754</v>
+      </c>
+      <c r="D521" s="21" t="s">
+        <v>1755</v>
+      </c>
     </row>
     <row r="522" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
-        <v>2137</v>
+        <v>2141</v>
       </c>
       <c r="B522" s="29" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="C522" s="23" t="s">
-        <v>2138</v>
+        <v>2142</v>
       </c>
       <c r="D522" s="20" t="s">
-        <v>2139</v>
+        <v>2143</v>
       </c>
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A523" t="s">
+        <v>2135</v>
+      </c>
+      <c r="B523" s="19" t="s">
+        <v>1685</v>
+      </c>
+      <c r="C523" s="23" t="s">
+        <v>1745</v>
+      </c>
       <c r="D523" s="21"/>
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
-        <v>2133</v>
+        <v>1739</v>
       </c>
       <c r="B524" s="19" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="C524" s="23" t="s">
-        <v>2134</v>
+        <v>1740</v>
       </c>
       <c r="D524" s="21" t="s">
-        <v>2135</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="525" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
-        <v>1743</v>
+        <v>2178</v>
       </c>
       <c r="B525" s="19" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="C525" s="23" t="s">
-        <v>1744</v>
-      </c>
-      <c r="D525" s="21" t="s">
-        <v>1745</v>
-      </c>
+        <v>2179</v>
+      </c>
+      <c r="D525" s="21"/>
     </row>
     <row r="526" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
-        <v>2126</v>
-      </c>
-      <c r="B526" s="29" t="s">
-        <v>1686</v>
+        <v>2229</v>
+      </c>
+      <c r="B526" s="19" t="s">
+        <v>1685</v>
       </c>
       <c r="C526" s="23" t="s">
-        <v>2127</v>
-      </c>
-      <c r="D526" s="20" t="s">
-        <v>2128</v>
-      </c>
+        <v>2228</v>
+      </c>
+      <c r="D526" s="21"/>
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
-        <v>2124</v>
+        <v>2139</v>
       </c>
       <c r="B527" s="19" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="C527" s="23" t="s">
-        <v>2125</v>
-      </c>
-      <c r="D527" s="21" t="s">
-        <v>2129</v>
-      </c>
+        <v>2140</v>
+      </c>
+      <c r="D527" s="21"/>
     </row>
     <row r="528" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
-        <v>2130</v>
-      </c>
-      <c r="B528" s="19" t="s">
-        <v>1686</v>
+        <v>2136</v>
+      </c>
+      <c r="B528" s="29" t="s">
+        <v>1685</v>
       </c>
       <c r="C528" s="23" t="s">
-        <v>2131</v>
-      </c>
-      <c r="D528" s="21" t="s">
-        <v>2132</v>
+        <v>2137</v>
+      </c>
+      <c r="D528" s="20" t="s">
+        <v>2138</v>
       </c>
     </row>
     <row r="529" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
-        <v>2105</v>
+        <v>2230</v>
       </c>
       <c r="B529" s="19" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="C529" s="23" t="s">
-        <v>2106</v>
-      </c>
-      <c r="D529" s="21" t="s">
-        <v>2107</v>
-      </c>
+        <v>2231</v>
+      </c>
+      <c r="D529" s="21"/>
     </row>
     <row r="530" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
-        <v>2115</v>
+        <v>2132</v>
       </c>
       <c r="B530" s="19" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="C530" s="23" t="s">
-        <v>2116</v>
-      </c>
-      <c r="D530" s="21"/>
+        <v>2133</v>
+      </c>
+      <c r="D530" s="21" t="s">
+        <v>2134</v>
+      </c>
     </row>
     <row r="531" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
-        <v>1825</v>
+        <v>1742</v>
       </c>
       <c r="B531" s="19" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="C531" s="23" t="s">
-        <v>1826</v>
+        <v>1743</v>
       </c>
       <c r="D531" s="21" t="s">
-        <v>1827</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="532" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D532" s="21"/>
+      <c r="A532" t="s">
+        <v>2125</v>
+      </c>
+      <c r="B532" s="29" t="s">
+        <v>1685</v>
+      </c>
+      <c r="C532" s="23" t="s">
+        <v>2126</v>
+      </c>
+      <c r="D532" s="20" t="s">
+        <v>2127</v>
+      </c>
     </row>
     <row r="533" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
-        <v>1757</v>
+        <v>2123</v>
       </c>
       <c r="B533" s="19" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="C533" s="23" t="s">
-        <v>1758</v>
-      </c>
-      <c r="D533" s="21"/>
+        <v>2124</v>
+      </c>
+      <c r="D533" s="21" t="s">
+        <v>2128</v>
+      </c>
     </row>
     <row r="534" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D534" s="21"/>
+      <c r="A534" t="s">
+        <v>2129</v>
+      </c>
+      <c r="B534" s="19" t="s">
+        <v>1685</v>
+      </c>
+      <c r="C534" s="23" t="s">
+        <v>2130</v>
+      </c>
+      <c r="D534" s="21" t="s">
+        <v>2131</v>
+      </c>
     </row>
     <row r="535" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
-        <v>2216</v>
+        <v>2104</v>
       </c>
       <c r="B535" s="19" t="s">
-        <v>1686</v>
-      </c>
-      <c r="C535" s="17" t="s">
-        <v>1534</v>
+        <v>1685</v>
+      </c>
+      <c r="C535" s="23" t="s">
+        <v>2105</v>
       </c>
       <c r="D535" s="21" t="s">
-        <v>2217</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="536" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A536" t="s">
+        <v>2114</v>
+      </c>
+      <c r="B536" s="19" t="s">
+        <v>1685</v>
+      </c>
+      <c r="C536" s="23" t="s">
+        <v>2115</v>
+      </c>
       <c r="D536" s="21"/>
     </row>
     <row r="537" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
-        <v>666</v>
+        <v>1824</v>
       </c>
       <c r="B537" s="19" t="s">
-        <v>1114</v>
+        <v>1685</v>
       </c>
       <c r="C537" s="23" t="s">
-        <v>667</v>
-      </c>
-      <c r="D537" s="37"/>
+        <v>1825</v>
+      </c>
+      <c r="D537" s="21" t="s">
+        <v>1826</v>
+      </c>
     </row>
     <row r="538" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A538" t="s">
-        <v>1256</v>
-      </c>
-      <c r="B538" s="19" t="s">
-        <v>1181</v>
-      </c>
-      <c r="C538" s="23" t="s">
-        <v>1242</v>
-      </c>
-      <c r="D538" s="37"/>
+      <c r="D538" s="21"/>
     </row>
     <row r="539" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
-        <v>1375</v>
+        <v>1756</v>
       </c>
       <c r="B539" s="19" t="s">
-        <v>1303</v>
-      </c>
-      <c r="C539" s="26" t="s">
-        <v>1376</v>
+        <v>1685</v>
+      </c>
+      <c r="C539" s="23" t="s">
+        <v>1757</v>
       </c>
       <c r="D539" s="21"/>
     </row>
     <row r="540" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A540" t="s">
-        <v>1581</v>
-      </c>
-      <c r="B540" s="19" t="s">
-        <v>1124</v>
-      </c>
-      <c r="C540" s="26" t="s">
-        <v>1583</v>
-      </c>
       <c r="D540" s="21"/>
     </row>
     <row r="541" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
-        <v>1582</v>
+        <v>2215</v>
       </c>
       <c r="B541" s="19" t="s">
-        <v>1435</v>
-      </c>
-      <c r="C541" s="26" t="s">
-        <v>1586</v>
-      </c>
-      <c r="D541" s="21"/>
+        <v>1685</v>
+      </c>
+      <c r="C541" s="17" t="s">
+        <v>1533</v>
+      </c>
+      <c r="D541" s="21" t="s">
+        <v>2216</v>
+      </c>
     </row>
     <row r="542" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A542" t="s">
-        <v>1584</v>
-      </c>
-      <c r="B542" s="19" t="s">
-        <v>1484</v>
-      </c>
-      <c r="C542" s="26" t="s">
-        <v>1585</v>
-      </c>
       <c r="D542" s="21"/>
     </row>
     <row r="543" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D543" s="21"/>
+      <c r="A543" t="s">
+        <v>666</v>
+      </c>
+      <c r="B543" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C543" s="23" t="s">
+        <v>667</v>
+      </c>
+      <c r="D543" s="37"/>
     </row>
     <row r="544" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
-        <v>1766</v>
-      </c>
-      <c r="B544" s="29" t="s">
-        <v>1686</v>
-      </c>
-      <c r="C544" s="39" t="s">
-        <v>1767</v>
-      </c>
-      <c r="D544" s="20" t="s">
-        <v>1768</v>
-      </c>
+        <v>1256</v>
+      </c>
+      <c r="B544" s="19" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C544" s="23" t="s">
+        <v>1242</v>
+      </c>
+      <c r="D544" s="37"/>
     </row>
     <row r="545" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A545" t="s">
+        <v>1375</v>
+      </c>
+      <c r="B545" s="19" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C545" s="26" t="s">
+        <v>1376</v>
+      </c>
       <c r="D545" s="21"/>
     </row>
     <row r="546" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
-        <v>684</v>
+        <v>1580</v>
       </c>
       <c r="B546" s="19" t="s">
-        <v>1114</v>
+        <v>1124</v>
       </c>
       <c r="C546" s="26" t="s">
-        <v>685</v>
+        <v>1582</v>
       </c>
       <c r="D546" s="21"/>
     </row>
     <row r="547" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
-        <v>1239</v>
+        <v>1581</v>
       </c>
       <c r="B547" s="19" t="s">
-        <v>1181</v>
+        <v>1434</v>
       </c>
       <c r="C547" s="26" t="s">
-        <v>1240</v>
+        <v>1585</v>
       </c>
       <c r="D547" s="21"/>
     </row>
     <row r="548" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
-        <v>1373</v>
+        <v>1583</v>
       </c>
       <c r="B548" s="19" t="s">
-        <v>1303</v>
+        <v>1483</v>
       </c>
       <c r="C548" s="26" t="s">
-        <v>1374</v>
+        <v>1584</v>
       </c>
       <c r="D548" s="21"/>
     </row>
     <row r="549" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A549" t="s">
-        <v>1169</v>
-      </c>
-      <c r="B549" s="19" t="s">
-        <v>1124</v>
-      </c>
-      <c r="C549" s="26" t="s">
-        <v>1170</v>
-      </c>
       <c r="D549" s="21"/>
     </row>
     <row r="550" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
+        <v>1765</v>
+      </c>
+      <c r="B550" s="29" t="s">
+        <v>1685</v>
+      </c>
+      <c r="C550" s="26" t="s">
+        <v>1766</v>
+      </c>
+      <c r="D550" s="20" t="s">
+        <v>1767</v>
+      </c>
+    </row>
+    <row r="551" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D551" s="21"/>
+    </row>
+    <row r="552" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A552" t="s">
+        <v>684</v>
+      </c>
+      <c r="B552" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C552" s="26" t="s">
+        <v>685</v>
+      </c>
+      <c r="D552" s="21"/>
+    </row>
+    <row r="553" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A553" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B553" s="19" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C553" s="26" t="s">
+        <v>1240</v>
+      </c>
+      <c r="D553" s="21"/>
+    </row>
+    <row r="554" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A554" t="s">
+        <v>1373</v>
+      </c>
+      <c r="B554" s="19" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C554" s="26" t="s">
+        <v>1374</v>
+      </c>
+      <c r="D554" s="21"/>
+    </row>
+    <row r="555" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A555" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B555" s="19" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C555" s="26" t="s">
+        <v>1170</v>
+      </c>
+      <c r="D555" s="21"/>
+    </row>
+    <row r="556" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A556" t="s">
+        <v>1480</v>
+      </c>
+      <c r="B556" s="19" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C556" s="26" t="s">
         <v>1481</v>
       </c>
-      <c r="B550" s="19" t="s">
-        <v>1435</v>
-      </c>
-      <c r="C550" s="26" t="s">
+      <c r="D556" s="21"/>
+    </row>
+    <row r="557" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A557" t="s">
         <v>1482</v>
       </c>
-      <c r="D550" s="21"/>
-    </row>
-    <row r="551" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A551" t="s">
+      <c r="B557" s="19" t="s">
         <v>1483</v>
       </c>
-      <c r="B551" s="19" t="s">
+      <c r="C557" s="26" t="s">
         <v>1484</v>
       </c>
-      <c r="C551" s="26" t="s">
-        <v>1485</v>
-      </c>
-      <c r="D551" s="21"/>
-    </row>
-    <row r="552" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D552" s="21"/>
-    </row>
-    <row r="553" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D553" s="21"/>
-    </row>
-    <row r="554" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D554" s="21"/>
-    </row>
-    <row r="555" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D555" s="21"/>
-    </row>
-    <row r="556" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D556" s="21"/>
-    </row>
-    <row r="557" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D557" s="21"/>
     </row>
     <row r="558" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D558" s="21"/>
     </row>
     <row r="559" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D559" s="21"/>
+      <c r="A559" s="41" t="s">
+        <v>2241</v>
+      </c>
+      <c r="B559" s="29" t="s">
+        <v>1685</v>
+      </c>
+      <c r="C559" s="42" t="s">
+        <v>2242</v>
+      </c>
+      <c r="D559" s="21" t="s">
+        <v>2243</v>
+      </c>
+    </row>
+    <row r="560" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D560" s="21"/>
+    </row>
+    <row r="561" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D561" s="21"/>
+    </row>
+    <row r="562" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D562" s="21"/>
+    </row>
+    <row r="563" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D563" s="21"/>
+    </row>
+    <row r="564" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D564" s="21"/>
+    </row>
+    <row r="565" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D565" s="21"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D1"/>
@@ -17089,1198 +17300,1198 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1835</v>
-      </c>
-      <c r="B2" s="40" t="s">
-        <v>1933</v>
+        <v>1834</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>1932</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="B3" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="B4" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="B5" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="B6" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="B7" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="B8" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="B11" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="B14" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="B17" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="B19" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="B126" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
     </row>
   </sheetData>

--- a/COREd WitE model list.xlsx
+++ b/COREd WitE model list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7800" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7800" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Air units" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2814" uniqueCount="2248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3163" uniqueCount="2331">
   <si>
     <t>A0039</t>
   </si>
@@ -5829,9 +5829,6 @@
     <t>Behlendorff, Hans</t>
   </si>
   <si>
-    <t>Abraham</t>
-  </si>
-  <si>
     <t>Bieler, Bruno</t>
   </si>
   <si>
@@ -6775,6 +6772,258 @@
   </si>
   <si>
     <t>Schneider Mle 1936. Image is also used for 149mm howitzer</t>
+  </si>
+  <si>
+    <t>Busch, Ernst</t>
+  </si>
+  <si>
+    <t>von der Chevallerie, Kurt</t>
+  </si>
+  <si>
+    <t>Clößner,  Erich-Heinrich</t>
+  </si>
+  <si>
+    <t>Deichmann, Paul</t>
+  </si>
+  <si>
+    <t>Wrong photo</t>
+  </si>
+  <si>
+    <t>Incorrect spelling</t>
+  </si>
+  <si>
+    <t>Wrong photo - due to incorrect ID on axishistory.com, which was later corrected</t>
+  </si>
+  <si>
+    <t>Dostler, Anton</t>
+  </si>
+  <si>
+    <t>Eglseer, Karl</t>
+  </si>
+  <si>
+    <t>Wrong photo. Image depicts Thomas von Wickede.</t>
+  </si>
+  <si>
+    <t>Fahrmbacher, Wilhelm</t>
+  </si>
+  <si>
+    <t>Lemelsen, Joachim</t>
+  </si>
+  <si>
+    <t>Fehn, Gustav</t>
+  </si>
+  <si>
+    <t>Förster, Otto-Wilhelm</t>
+  </si>
+  <si>
+    <t>Wrong photo (or wrong era, at the very least) and wrong spelling</t>
+  </si>
+  <si>
+    <t>Felber, Hans Gustav</t>
+  </si>
+  <si>
+    <t>Incorrect spelling (it's Hans rather than Hans-Gustav)</t>
+  </si>
+  <si>
+    <t>von Förster, Sigismond</t>
+  </si>
+  <si>
+    <t>Fretter-Pico, Maximilian</t>
+  </si>
+  <si>
+    <t>Abraham, Erich</t>
+  </si>
+  <si>
+    <t>Berlin, Wilhelm</t>
+  </si>
+  <si>
+    <t>Beyer, Franz</t>
+  </si>
+  <si>
+    <t>Block, Johannes</t>
+  </si>
+  <si>
+    <t>Boege, Erenfried</t>
+  </si>
+  <si>
+    <t>Breith, Hermann</t>
+  </si>
+  <si>
+    <t>von Bünau, Rudolf</t>
+  </si>
+  <si>
+    <t>Buschenhagen, Erich</t>
+  </si>
+  <si>
+    <t>Busse, Theodor</t>
+  </si>
+  <si>
+    <t>Deßloch, Otto</t>
+  </si>
+  <si>
+    <t>von Falkenstein, Hans</t>
+  </si>
+  <si>
+    <t>Flörke, Hermann</t>
+  </si>
+  <si>
+    <t>Foertsch, Hermann</t>
+  </si>
+  <si>
+    <t>Frießner, Johannes</t>
+  </si>
+  <si>
+    <t>Eberbach, Heinrich</t>
+  </si>
+  <si>
+    <t>Fröhlich, Stefan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Geyr von Schweppenburg, Leo</t>
+  </si>
+  <si>
+    <t>Gollnick, Hans</t>
+  </si>
+  <si>
+    <t>Gollwitzer, Friedrich</t>
+  </si>
+  <si>
+    <t>Graeser, Fritz-Hubert</t>
+  </si>
+  <si>
+    <t>Hyphen!</t>
+  </si>
+  <si>
+    <t>Grasser, Anton</t>
+  </si>
+  <si>
+    <t>Graeßner, Walter</t>
+  </si>
+  <si>
+    <t>Guderian, Heinz</t>
+  </si>
+  <si>
+    <t>Hahm, Walther</t>
+  </si>
+  <si>
+    <t>Eibl, Karl</t>
+  </si>
+  <si>
+    <t>LD0233</t>
+  </si>
+  <si>
+    <t>LD0234</t>
+  </si>
+  <si>
+    <t>LD0235</t>
+  </si>
+  <si>
+    <t>LD0236</t>
+  </si>
+  <si>
+    <t>LD0237</t>
+  </si>
+  <si>
+    <t>LD0238</t>
+  </si>
+  <si>
+    <t>LD0239</t>
+  </si>
+  <si>
+    <t>LD0240</t>
+  </si>
+  <si>
+    <t>LD0241</t>
+  </si>
+  <si>
+    <t>LD0242</t>
+  </si>
+  <si>
+    <t>LD0243</t>
+  </si>
+  <si>
+    <t>LD0244</t>
+  </si>
+  <si>
+    <t>LD0245</t>
+  </si>
+  <si>
+    <t>LD0246</t>
+  </si>
+  <si>
+    <t>LD0247</t>
+  </si>
+  <si>
+    <t>LD0248</t>
+  </si>
+  <si>
+    <t>LD0249</t>
+  </si>
+  <si>
+    <t>LD0250</t>
+  </si>
+  <si>
+    <t>LD0251</t>
+  </si>
+  <si>
+    <t>LD0252</t>
+  </si>
+  <si>
+    <t>LD0253</t>
+  </si>
+  <si>
+    <t>LD0254</t>
+  </si>
+  <si>
+    <t>LD0255</t>
+  </si>
+  <si>
+    <t>LD0256</t>
+  </si>
+  <si>
+    <t>LD0257</t>
+  </si>
+  <si>
+    <t>LD0258</t>
+  </si>
+  <si>
+    <t>LD0259</t>
+  </si>
+  <si>
+    <t>LD0260</t>
+  </si>
+  <si>
+    <t>LD0261</t>
+  </si>
+  <si>
+    <t>LD0262</t>
+  </si>
+  <si>
+    <t>LD0263</t>
+  </si>
+  <si>
+    <t>LD0264</t>
+  </si>
+  <si>
+    <t>LD0265</t>
+  </si>
+  <si>
+    <t>LD0266</t>
+  </si>
+  <si>
+    <t>LD0267</t>
+  </si>
+  <si>
+    <t>Heim, Ferdinand</t>
+  </si>
+  <si>
+    <t>Geyer, Hermann</t>
+  </si>
+  <si>
+    <t>Haenicke, Siegfried</t>
+  </si>
+  <si>
+    <t>Halder, Franz</t>
   </si>
 </sst>
 </file>
@@ -6911,7 +7160,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -6947,7 +7196,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -6963,12 +7211,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -10269,11 +10517,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D565"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B260" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D271" sqref="D271"/>
+      <selection pane="bottomRight" sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10281,7 +10529,7 @@
     <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="19" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="44.875" style="23" customWidth="1"/>
-    <col min="4" max="4" width="170.875" style="38" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="170.875" style="37" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -10294,7 +10542,7 @@
       <c r="C1" s="22" t="s">
         <v>659</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="35" t="s">
         <v>60</v>
       </c>
     </row>
@@ -11620,7 +11868,7 @@
       <c r="C107" s="23" t="s">
         <v>716</v>
       </c>
-      <c r="D107" s="37" t="s">
+      <c r="D107" s="36" t="s">
         <v>1117</v>
       </c>
     </row>
@@ -11754,7 +12002,7 @@
       <c r="C117" s="23" t="s">
         <v>924</v>
       </c>
-      <c r="D117" s="37"/>
+      <c r="D117" s="36"/>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
@@ -12198,7 +12446,7 @@
       <c r="A151" t="s">
         <v>1252</v>
       </c>
-      <c r="B151" s="32" t="s">
+      <c r="B151" s="31" t="s">
         <v>1181</v>
       </c>
       <c r="C151" s="25" t="s">
@@ -12356,7 +12604,7 @@
       <c r="A163" t="s">
         <v>1236</v>
       </c>
-      <c r="B163" s="32" t="s">
+      <c r="B163" s="31" t="s">
         <v>1181</v>
       </c>
       <c r="C163" s="23" t="s">
@@ -12370,7 +12618,7 @@
       <c r="A164" t="s">
         <v>1281</v>
       </c>
-      <c r="B164" s="32" t="s">
+      <c r="B164" s="31" t="s">
         <v>1181</v>
       </c>
       <c r="C164" s="23" t="s">
@@ -12384,7 +12632,7 @@
       <c r="A165" t="s">
         <v>1278</v>
       </c>
-      <c r="B165" s="32" t="s">
+      <c r="B165" s="31" t="s">
         <v>1181</v>
       </c>
       <c r="C165" s="23" t="s">
@@ -12398,7 +12646,7 @@
       <c r="A166" t="s">
         <v>1275</v>
       </c>
-      <c r="B166" s="32" t="s">
+      <c r="B166" s="31" t="s">
         <v>1181</v>
       </c>
       <c r="C166" s="23" t="s">
@@ -12412,7 +12660,7 @@
       <c r="A167" t="s">
         <v>1200</v>
       </c>
-      <c r="B167" s="32" t="s">
+      <c r="B167" s="31" t="s">
         <v>1181</v>
       </c>
       <c r="C167" s="23" t="s">
@@ -12452,7 +12700,7 @@
       <c r="A170" t="s">
         <v>1261</v>
       </c>
-      <c r="B170" s="32" t="s">
+      <c r="B170" s="31" t="s">
         <v>1181</v>
       </c>
       <c r="C170" s="23" t="s">
@@ -12498,7 +12746,7 @@
       <c r="C173" s="23" t="s">
         <v>734</v>
       </c>
-      <c r="D173" s="37" t="s">
+      <c r="D173" s="36" t="s">
         <v>735</v>
       </c>
     </row>
@@ -12728,13 +12976,13 @@
       <c r="A192" t="s">
         <v>1314</v>
       </c>
-      <c r="B192" s="32" t="s">
+      <c r="B192" s="31" t="s">
         <v>1303</v>
       </c>
       <c r="C192" s="23" t="s">
         <v>1315</v>
       </c>
-      <c r="D192" s="37" t="s">
+      <c r="D192" s="36" t="s">
         <v>1392</v>
       </c>
     </row>
@@ -12742,7 +12990,7 @@
       <c r="A193" t="s">
         <v>1321</v>
       </c>
-      <c r="B193" s="31" t="s">
+      <c r="B193" s="30" t="s">
         <v>1303</v>
       </c>
       <c r="C193" s="23" t="s">
@@ -12992,7 +13240,7 @@
       <c r="A212" t="s">
         <v>1351</v>
       </c>
-      <c r="B212" s="32" t="s">
+      <c r="B212" s="31" t="s">
         <v>1303</v>
       </c>
       <c r="C212" s="25" t="s">
@@ -13006,7 +13254,7 @@
       <c r="A213" t="s">
         <v>1352</v>
       </c>
-      <c r="B213" s="32" t="s">
+      <c r="B213" s="31" t="s">
         <v>1303</v>
       </c>
       <c r="C213" s="25" t="s">
@@ -13020,7 +13268,7 @@
       <c r="A214" t="s">
         <v>1353</v>
       </c>
-      <c r="B214" s="32" t="s">
+      <c r="B214" s="31" t="s">
         <v>1303</v>
       </c>
       <c r="C214" s="23" t="s">
@@ -13034,7 +13282,7 @@
       <c r="A215" t="s">
         <v>1348</v>
       </c>
-      <c r="B215" s="32" t="s">
+      <c r="B215" s="31" t="s">
         <v>1303</v>
       </c>
       <c r="C215" s="25" t="s">
@@ -13046,10 +13294,10 @@
       <c r="A216" t="s">
         <v>1350</v>
       </c>
-      <c r="B216" s="32" t="s">
+      <c r="B216" s="31" t="s">
         <v>1303</v>
       </c>
-      <c r="C216" s="30" t="s">
+      <c r="C216" s="29" t="s">
         <v>1344</v>
       </c>
       <c r="D216" s="20" t="s">
@@ -13060,7 +13308,7 @@
       <c r="A217" t="s">
         <v>901</v>
       </c>
-      <c r="B217" s="32" t="s">
+      <c r="B217" s="31" t="s">
         <v>1114</v>
       </c>
       <c r="C217" s="23" t="s">
@@ -13074,7 +13322,7 @@
       <c r="A218" t="s">
         <v>897</v>
       </c>
-      <c r="B218" s="32" t="s">
+      <c r="B218" s="31" t="s">
         <v>1114</v>
       </c>
       <c r="C218" s="23" t="s">
@@ -13086,7 +13334,7 @@
       <c r="A219" t="s">
         <v>991</v>
       </c>
-      <c r="B219" s="32" t="s">
+      <c r="B219" s="31" t="s">
         <v>1114</v>
       </c>
       <c r="C219" s="25" t="s">
@@ -13098,7 +13346,7 @@
       <c r="A220" t="s">
         <v>1022</v>
       </c>
-      <c r="B220" s="32" t="s">
+      <c r="B220" s="31" t="s">
         <v>1114</v>
       </c>
       <c r="C220" s="25" t="s">
@@ -13110,7 +13358,7 @@
       <c r="A221" t="s">
         <v>972</v>
       </c>
-      <c r="B221" s="32" t="s">
+      <c r="B221" s="31" t="s">
         <v>1114</v>
       </c>
       <c r="C221" s="25" t="s">
@@ -13122,7 +13370,7 @@
       <c r="A222" t="s">
         <v>1345</v>
       </c>
-      <c r="B222" s="32" t="s">
+      <c r="B222" s="31" t="s">
         <v>1303</v>
       </c>
       <c r="C222" s="23" t="s">
@@ -13741,7 +13989,7 @@
       <c r="B269" s="19" t="s">
         <v>1124</v>
       </c>
-      <c r="C269" s="32" t="s">
+      <c r="C269" s="31" t="s">
         <v>1579</v>
       </c>
       <c r="D269" s="21" t="s">
@@ -13752,14 +14000,14 @@
       <c r="A270" t="s">
         <v>1178</v>
       </c>
-      <c r="B270" s="29" t="s">
+      <c r="B270" s="31" t="s">
         <v>1124</v>
       </c>
       <c r="C270" s="23" t="s">
         <v>1179</v>
       </c>
       <c r="D270" s="20" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
@@ -13835,7 +14083,7 @@
       <c r="B276" s="19" t="s">
         <v>1434</v>
       </c>
-      <c r="C276" s="34" t="s">
+      <c r="C276" s="33" t="s">
         <v>1659</v>
       </c>
       <c r="D276" s="21" t="s">
@@ -13953,7 +14201,7 @@
       <c r="B285" s="19" t="s">
         <v>1434</v>
       </c>
-      <c r="C285" s="35" t="s">
+      <c r="C285" s="34" t="s">
         <v>1621</v>
       </c>
       <c r="D285" s="21" t="s">
@@ -14026,7 +14274,7 @@
       <c r="A291" t="s">
         <v>1467</v>
       </c>
-      <c r="B291" s="29" t="s">
+      <c r="B291" s="31" t="s">
         <v>1434</v>
       </c>
       <c r="C291" s="23" t="s">
@@ -14083,7 +14331,7 @@
       <c r="B295" s="19" t="s">
         <v>1434</v>
       </c>
-      <c r="C295" s="34" t="s">
+      <c r="C295" s="33" t="s">
         <v>1443</v>
       </c>
       <c r="D295" s="21" t="s">
@@ -14097,7 +14345,7 @@
       <c r="B296" s="19" t="s">
         <v>1434</v>
       </c>
-      <c r="C296" s="34" t="s">
+      <c r="C296" s="33" t="s">
         <v>1657</v>
       </c>
       <c r="D296" s="21" t="s">
@@ -14137,7 +14385,7 @@
       <c r="B299" s="19" t="s">
         <v>1434</v>
       </c>
-      <c r="C299" s="34" t="s">
+      <c r="C299" s="33" t="s">
         <v>1586</v>
       </c>
       <c r="D299" s="21" t="s">
@@ -14148,7 +14396,7 @@
       <c r="A300" t="s">
         <v>1466</v>
       </c>
-      <c r="B300" s="33" t="s">
+      <c r="B300" s="32" t="s">
         <v>1434</v>
       </c>
       <c r="C300" s="26" t="s">
@@ -14225,7 +14473,7 @@
       <c r="B306" s="19" t="s">
         <v>1434</v>
       </c>
-      <c r="C306" s="34" t="s">
+      <c r="C306" s="33" t="s">
         <v>1706</v>
       </c>
       <c r="D306" s="21" t="s">
@@ -14276,7 +14524,7 @@
       <c r="A310" t="s">
         <v>1652</v>
       </c>
-      <c r="B310" s="29" t="s">
+      <c r="B310" s="31" t="s">
         <v>1434</v>
       </c>
       <c r="C310" s="26" t="s">
@@ -14290,7 +14538,7 @@
       <c r="A311" t="s">
         <v>1653</v>
       </c>
-      <c r="B311" s="29" t="s">
+      <c r="B311" s="31" t="s">
         <v>1434</v>
       </c>
       <c r="C311" s="26" t="s">
@@ -14304,7 +14552,7 @@
       <c r="A312" t="s">
         <v>1608</v>
       </c>
-      <c r="B312" s="19" t="s">
+      <c r="B312" s="31" t="s">
         <v>1434</v>
       </c>
       <c r="C312" s="23" t="s">
@@ -14316,7 +14564,7 @@
       <c r="A313" t="s">
         <v>1650</v>
       </c>
-      <c r="B313" s="29" t="s">
+      <c r="B313" s="31" t="s">
         <v>1434</v>
       </c>
       <c r="C313" s="26" t="s">
@@ -14330,7 +14578,7 @@
       <c r="A314" t="s">
         <v>1651</v>
       </c>
-      <c r="B314" s="29" t="s">
+      <c r="B314" s="31" t="s">
         <v>1434</v>
       </c>
       <c r="C314" s="26" t="s">
@@ -14830,7 +15078,7 @@
       <c r="A356" t="s">
         <v>1626</v>
       </c>
-      <c r="B356" s="32" t="s">
+      <c r="B356" s="31" t="s">
         <v>1434</v>
       </c>
       <c r="C356" s="23" t="s">
@@ -14886,7 +15134,7 @@
       <c r="A360" t="s">
         <v>1599</v>
       </c>
-      <c r="B360" s="29" t="s">
+      <c r="B360" s="31" t="s">
         <v>1434</v>
       </c>
       <c r="C360" s="23" t="s">
@@ -15162,7 +15410,7 @@
       <c r="A384" t="s">
         <v>1678</v>
       </c>
-      <c r="B384" s="29" t="s">
+      <c r="B384" s="31" t="s">
         <v>1685</v>
       </c>
       <c r="C384" s="23" t="s">
@@ -15176,7 +15424,7 @@
       <c r="A385" t="s">
         <v>1679</v>
       </c>
-      <c r="B385" s="29" t="s">
+      <c r="B385" s="31" t="s">
         <v>1685</v>
       </c>
       <c r="C385" s="23" t="s">
@@ -15194,7 +15442,7 @@
         <v>1685</v>
       </c>
       <c r="C386" s="23" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="D386" s="21"/>
     </row>
@@ -15645,7 +15893,7 @@
       <c r="A429" t="s">
         <v>1263</v>
       </c>
-      <c r="B429" s="32" t="s">
+      <c r="B429" s="31" t="s">
         <v>1181</v>
       </c>
       <c r="C429" s="26" t="s">
@@ -15729,21 +15977,21 @@
         <v>1781</v>
       </c>
       <c r="D437" s="21" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>2155</v>
+        <v>2154</v>
       </c>
       <c r="B438" s="19" t="s">
         <v>1685</v>
       </c>
       <c r="C438" s="23" t="s">
+        <v>2155</v>
+      </c>
+      <c r="D438" s="38" t="s">
         <v>2156</v>
-      </c>
-      <c r="D438" s="40" t="s">
-        <v>2157</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.25">
@@ -15774,13 +16022,13 @@
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
       <c r="B441" s="19" t="s">
         <v>1685</v>
       </c>
       <c r="C441" s="23" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="D441" s="21"/>
     </row>
@@ -15798,39 +16046,39 @@
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>2176</v>
+        <v>2175</v>
       </c>
       <c r="B443" s="19" t="s">
         <v>1685</v>
       </c>
       <c r="C443" s="23" t="s">
-        <v>2177</v>
+        <v>2176</v>
       </c>
       <c r="D443" s="21"/>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>2207</v>
+        <v>2206</v>
       </c>
       <c r="B444" s="19" t="s">
         <v>1685</v>
       </c>
       <c r="C444" s="23" t="s">
+        <v>2208</v>
+      </c>
+      <c r="D444" s="21" t="s">
         <v>2209</v>
-      </c>
-      <c r="D444" s="21" t="s">
-        <v>2210</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>2208</v>
+        <v>2207</v>
       </c>
       <c r="B445" s="19" t="s">
         <v>1685</v>
       </c>
       <c r="C445" s="23" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="D445" s="21"/>
     </row>
@@ -15850,16 +16098,16 @@
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
+        <v>2081</v>
+      </c>
+      <c r="B447" s="31" t="s">
+        <v>1685</v>
+      </c>
+      <c r="C447" s="23" t="s">
         <v>2082</v>
       </c>
-      <c r="B447" s="29" t="s">
-        <v>1685</v>
-      </c>
-      <c r="C447" s="23" t="s">
+      <c r="D447" s="20" t="s">
         <v>2083</v>
-      </c>
-      <c r="D447" s="20" t="s">
-        <v>2084</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.25">
@@ -15878,28 +16126,28 @@
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
-        <v>2174</v>
+        <v>2173</v>
       </c>
       <c r="B449" s="19" t="s">
         <v>1685</v>
       </c>
       <c r="C449" s="26" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
       <c r="D449" s="21"/>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
+        <v>2170</v>
+      </c>
+      <c r="B450" s="31" t="s">
+        <v>1685</v>
+      </c>
+      <c r="C450" s="26" t="s">
         <v>2171</v>
       </c>
-      <c r="B450" s="29" t="s">
-        <v>1685</v>
-      </c>
-      <c r="C450" s="26" t="s">
+      <c r="D450" s="20" t="s">
         <v>2172</v>
-      </c>
-      <c r="D450" s="20" t="s">
-        <v>2173</v>
       </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.25">
@@ -15952,51 +16200,51 @@
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
       <c r="B455" s="19" t="s">
         <v>1685</v>
       </c>
       <c r="C455" s="23" t="s">
-        <v>2206</v>
+        <v>2205</v>
       </c>
       <c r="D455" s="21"/>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
-        <v>2203</v>
+        <v>2202</v>
       </c>
       <c r="B456" s="19" t="s">
         <v>1685</v>
       </c>
       <c r="C456" s="23" t="s">
-        <v>2204</v>
+        <v>2203</v>
       </c>
       <c r="D456" s="21" t="s">
-        <v>2202</v>
+        <v>2201</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
-        <v>2169</v>
+        <v>2168</v>
       </c>
       <c r="B457" s="19" t="s">
         <v>1685</v>
       </c>
       <c r="C457" s="23" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
       <c r="D457" s="21"/>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
       <c r="B458" s="19" t="s">
         <v>1685</v>
       </c>
       <c r="C458" s="23" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
       <c r="D458" s="21"/>
     </row>
@@ -16014,39 +16262,39 @@
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
       <c r="B460" s="19" t="s">
         <v>1685</v>
       </c>
       <c r="C460" s="23" t="s">
+        <v>2077</v>
+      </c>
+      <c r="D460" s="21" t="s">
         <v>2078</v>
-      </c>
-      <c r="D460" s="21" t="s">
-        <v>2079</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="B461" s="19" t="s">
         <v>1685</v>
       </c>
       <c r="C461" s="23" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="D461" s="21"/>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="B462" s="19" t="s">
         <v>1685</v>
       </c>
       <c r="C462" s="23" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="D462" s="21"/>
     </row>
@@ -16054,7 +16302,7 @@
       <c r="A463" t="s">
         <v>1818</v>
       </c>
-      <c r="B463" s="29" t="s">
+      <c r="B463" s="31" t="s">
         <v>1685</v>
       </c>
       <c r="C463" s="23" t="s">
@@ -16066,49 +16314,49 @@
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
-        <v>2197</v>
+        <v>2196</v>
       </c>
       <c r="B464" s="19" t="s">
         <v>1685</v>
       </c>
       <c r="C464" s="23" t="s">
-        <v>2198</v>
+        <v>2197</v>
       </c>
       <c r="D464" s="21"/>
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
       <c r="B465" s="19" t="s">
         <v>1685</v>
       </c>
       <c r="C465" s="23" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
       <c r="D465" s="21"/>
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
-        <v>2195</v>
+        <v>2194</v>
       </c>
       <c r="B466" s="19" t="s">
         <v>1685</v>
       </c>
       <c r="C466" s="23" t="s">
-        <v>2196</v>
+        <v>2195</v>
       </c>
       <c r="D466" s="21"/>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
       <c r="B467" s="19" t="s">
         <v>1685</v>
       </c>
       <c r="C467" s="23" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
       <c r="D467" s="21"/>
     </row>
@@ -16128,25 +16376,25 @@
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
       <c r="B469" s="19" t="s">
         <v>1685</v>
       </c>
       <c r="C469" s="23" t="s">
-        <v>2193</v>
+        <v>2192</v>
       </c>
       <c r="D469" s="21"/>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
-        <v>2192</v>
+        <v>2191</v>
       </c>
       <c r="B470" s="19" t="s">
         <v>1685</v>
       </c>
       <c r="C470" s="23" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
       <c r="D470" s="21"/>
     </row>
@@ -16154,7 +16402,7 @@
       <c r="A471" t="s">
         <v>1721</v>
       </c>
-      <c r="B471" s="29" t="s">
+      <c r="B471" s="31" t="s">
         <v>1685</v>
       </c>
       <c r="C471" s="23" t="s">
@@ -16184,15 +16432,15 @@
         <v>1685</v>
       </c>
       <c r="C473" s="23" t="s">
+        <v>2164</v>
+      </c>
+      <c r="D473" s="21" t="s">
         <v>2165</v>
-      </c>
-      <c r="D473" s="21" t="s">
-        <v>2166</v>
       </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
-        <v>2164</v>
+        <v>2163</v>
       </c>
       <c r="B474" s="19" t="s">
         <v>1685</v>
@@ -16206,100 +16454,100 @@
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="B475" s="19" t="s">
         <v>1685</v>
       </c>
       <c r="C475" s="23" t="s">
+        <v>2212</v>
+      </c>
+      <c r="D475" s="20" t="s">
         <v>2213</v>
-      </c>
-      <c r="D475" s="20" t="s">
-        <v>2214</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
+        <v>2157</v>
+      </c>
+      <c r="B476" s="31" t="s">
+        <v>1685</v>
+      </c>
+      <c r="C476" s="23" t="s">
         <v>2158</v>
       </c>
-      <c r="B476" s="29" t="s">
-        <v>1685</v>
-      </c>
-      <c r="C476" s="23" t="s">
-        <v>2159</v>
-      </c>
       <c r="D476" s="20" t="s">
-        <v>2163</v>
+        <v>2162</v>
       </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
-        <v>2160</v>
+        <v>2159</v>
       </c>
       <c r="B477" s="19" t="s">
         <v>1685</v>
       </c>
       <c r="C477" s="23" t="s">
+        <v>2160</v>
+      </c>
+      <c r="D477" s="21" t="s">
         <v>2161</v>
-      </c>
-      <c r="D477" s="21" t="s">
-        <v>2162</v>
       </c>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
       <c r="B478" s="19" t="s">
         <v>1685</v>
       </c>
       <c r="C478" s="23" t="s">
+        <v>2180</v>
+      </c>
+      <c r="D478" s="21" t="s">
         <v>2181</v>
-      </c>
-      <c r="D478" s="21" t="s">
-        <v>2182</v>
       </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
-        <v>2183</v>
+        <v>2182</v>
       </c>
       <c r="B479" s="19" t="s">
         <v>1685</v>
       </c>
       <c r="C479" s="23" t="s">
+        <v>2183</v>
+      </c>
+      <c r="D479" s="21" t="s">
         <v>2184</v>
-      </c>
-      <c r="D479" s="21" t="s">
-        <v>2185</v>
       </c>
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
-        <v>2186</v>
+        <v>2185</v>
       </c>
       <c r="B480" s="19" t="s">
         <v>1685</v>
       </c>
       <c r="C480" s="23" t="s">
+        <v>2186</v>
+      </c>
+      <c r="D480" s="21" t="s">
         <v>2187</v>
-      </c>
-      <c r="D480" s="21" t="s">
-        <v>2188</v>
       </c>
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
-        <v>2199</v>
+        <v>2198</v>
       </c>
       <c r="B481" s="19" t="s">
         <v>1685</v>
       </c>
       <c r="C481" s="23" t="s">
+        <v>2199</v>
+      </c>
+      <c r="D481" s="21" t="s">
         <v>2200</v>
-      </c>
-      <c r="D481" s="21" t="s">
-        <v>2201</v>
       </c>
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.25">
@@ -16320,7 +16568,7 @@
       <c r="A483" t="s">
         <v>1775</v>
       </c>
-      <c r="B483" s="29" t="s">
+      <c r="B483" s="31" t="s">
         <v>1685</v>
       </c>
       <c r="C483" s="23" t="s">
@@ -16360,39 +16608,39 @@
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
       <c r="B486" s="19" t="s">
         <v>1685</v>
       </c>
       <c r="C486" s="23" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
       <c r="D486" s="21"/>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
-        <v>2144</v>
+        <v>2143</v>
       </c>
       <c r="B487" s="19" t="s">
         <v>1685</v>
       </c>
       <c r="C487" s="23" t="s">
-        <v>2145</v>
+        <v>2144</v>
       </c>
       <c r="D487" s="21" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
-        <v>2146</v>
+        <v>2145</v>
       </c>
       <c r="B488" s="19" t="s">
         <v>1685</v>
       </c>
       <c r="C488" s="23" t="s">
-        <v>2147</v>
+        <v>2146</v>
       </c>
       <c r="D488" s="21"/>
     </row>
@@ -16452,13 +16700,13 @@
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="B493" s="19" t="s">
         <v>1685</v>
       </c>
       <c r="C493" s="23" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
       <c r="D493" s="21" t="s">
         <v>1782</v>
@@ -16480,30 +16728,30 @@
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
-        <v>2089</v>
+        <v>2088</v>
       </c>
       <c r="B495" s="19" t="s">
         <v>1685</v>
       </c>
       <c r="C495" s="26" t="s">
+        <v>2089</v>
+      </c>
+      <c r="D495" s="21" t="s">
         <v>2090</v>
-      </c>
-      <c r="D495" s="21" t="s">
-        <v>2091</v>
       </c>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="B496" s="19" t="s">
         <v>1685</v>
       </c>
       <c r="C496" s="23" t="s">
+        <v>2092</v>
+      </c>
+      <c r="D496" s="21" t="s">
         <v>2093</v>
-      </c>
-      <c r="D496" s="21" t="s">
-        <v>2094</v>
       </c>
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.25">
@@ -16520,16 +16768,16 @@
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
       <c r="B498" s="19" t="s">
         <v>1685</v>
       </c>
       <c r="C498" s="23" t="s">
+        <v>2095</v>
+      </c>
+      <c r="D498" s="21" t="s">
         <v>2096</v>
-      </c>
-      <c r="D498" s="21" t="s">
-        <v>2097</v>
       </c>
     </row>
     <row r="499" spans="1:4" x14ac:dyDescent="0.25">
@@ -16548,30 +16796,30 @@
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="B500" s="19" t="s">
         <v>1685</v>
       </c>
       <c r="C500" s="23" t="s">
+        <v>2117</v>
+      </c>
+      <c r="D500" s="21" t="s">
         <v>2118</v>
-      </c>
-      <c r="D500" s="21" t="s">
-        <v>2119</v>
       </c>
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
       <c r="B501" s="19" t="s">
         <v>1685</v>
       </c>
       <c r="C501" s="23" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="D501" s="21" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.25">
@@ -16590,143 +16838,143 @@
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
-        <v>2151</v>
+        <v>2150</v>
       </c>
       <c r="B503" s="19" t="s">
         <v>1685</v>
       </c>
       <c r="C503" s="23" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
       <c r="D503" s="21"/>
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
       <c r="B504" s="19" t="s">
         <v>1685</v>
       </c>
       <c r="C504" s="23" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
       <c r="D504" s="21"/>
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="B505" s="19" t="s">
         <v>1685</v>
       </c>
       <c r="C505" s="23" t="s">
-        <v>2150</v>
+        <v>2149</v>
       </c>
       <c r="D505" s="21"/>
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
       <c r="B506" s="19" t="s">
         <v>1685</v>
       </c>
       <c r="C506" s="23" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
       <c r="D506" s="21"/>
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B507" s="19" t="s">
         <v>1685</v>
       </c>
       <c r="C507" s="23" t="s">
-        <v>2223</v>
+        <v>2222</v>
       </c>
       <c r="D507" s="21"/>
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="B508" s="19" t="s">
         <v>1685</v>
       </c>
       <c r="C508" s="27" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="D508" s="21"/>
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="B509" s="19" t="s">
         <v>1685</v>
       </c>
       <c r="C509" s="23" t="s">
-        <v>2246</v>
+        <v>2245</v>
       </c>
       <c r="D509" s="21" t="s">
-        <v>2244</v>
+        <v>2243</v>
       </c>
     </row>
     <row r="510" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
-        <v>2239</v>
+        <v>2238</v>
       </c>
       <c r="B510" s="19" t="s">
         <v>1685</v>
       </c>
       <c r="C510" s="23" t="s">
-        <v>2245</v>
+        <v>2244</v>
       </c>
       <c r="D510" s="21"/>
     </row>
     <row r="511" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
       <c r="B511" s="19" t="s">
         <v>1685</v>
       </c>
       <c r="C511" s="23" t="s">
-        <v>2233</v>
+        <v>2232</v>
       </c>
       <c r="D511" s="21"/>
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
-        <v>2234</v>
+        <v>2233</v>
       </c>
       <c r="B512" s="19" t="s">
         <v>1685</v>
       </c>
       <c r="C512" s="23" t="s">
-        <v>2235</v>
+        <v>2234</v>
       </c>
       <c r="D512" s="21"/>
     </row>
     <row r="513" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
-        <v>2217</v>
+        <v>2216</v>
       </c>
       <c r="B513" s="19" t="s">
         <v>1685</v>
       </c>
       <c r="C513" s="23" t="s">
+        <v>2217</v>
+      </c>
+      <c r="D513" s="21" t="s">
         <v>2218</v>
-      </c>
-      <c r="D513" s="21" t="s">
-        <v>2219</v>
       </c>
     </row>
     <row r="514" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="B514" s="19" t="s">
         <v>1685</v>
@@ -16735,18 +16983,18 @@
         <v>1154</v>
       </c>
       <c r="D514" s="21" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
-        <v>2224</v>
+        <v>2223</v>
       </c>
       <c r="B515" s="19" t="s">
         <v>1685</v>
       </c>
       <c r="C515" s="23" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
       <c r="D515" s="21"/>
     </row>
@@ -16754,7 +17002,7 @@
       <c r="A516" t="s">
         <v>1750</v>
       </c>
-      <c r="B516" s="29" t="s">
+      <c r="B516" s="31" t="s">
         <v>1685</v>
       </c>
       <c r="C516" s="23" t="s">
@@ -16766,30 +17014,30 @@
     </row>
     <row r="517" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
       <c r="B517" s="19" t="s">
         <v>1685</v>
       </c>
       <c r="C517" s="23" t="s">
+        <v>2101</v>
+      </c>
+      <c r="D517" s="38" t="s">
         <v>2102</v>
-      </c>
-      <c r="D517" s="40" t="s">
-        <v>2103</v>
       </c>
     </row>
     <row r="518" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
-        <v>2098</v>
+        <v>2097</v>
       </c>
       <c r="B518" s="19" t="s">
         <v>1685</v>
       </c>
       <c r="C518" s="23" t="s">
+        <v>2098</v>
+      </c>
+      <c r="D518" s="21" t="s">
         <v>2099</v>
-      </c>
-      <c r="D518" s="21" t="s">
-        <v>2100</v>
       </c>
     </row>
     <row r="519" spans="1:4" x14ac:dyDescent="0.25">
@@ -16808,13 +17056,13 @@
     </row>
     <row r="520" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
-        <v>2226</v>
+        <v>2225</v>
       </c>
       <c r="B520" s="19" t="s">
         <v>1685</v>
       </c>
       <c r="C520" s="23" t="s">
-        <v>2227</v>
+        <v>2226</v>
       </c>
       <c r="D520" s="21"/>
     </row>
@@ -16834,21 +17082,21 @@
     </row>
     <row r="522" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
+        <v>2140</v>
+      </c>
+      <c r="B522" s="31" t="s">
+        <v>1685</v>
+      </c>
+      <c r="C522" s="23" t="s">
         <v>2141</v>
       </c>
-      <c r="B522" s="29" t="s">
-        <v>1685</v>
-      </c>
-      <c r="C522" s="23" t="s">
+      <c r="D522" s="20" t="s">
         <v>2142</v>
-      </c>
-      <c r="D522" s="20" t="s">
-        <v>2143</v>
       </c>
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
-        <v>2135</v>
+        <v>2134</v>
       </c>
       <c r="B523" s="19" t="s">
         <v>1685</v>
@@ -16874,78 +17122,78 @@
     </row>
     <row r="525" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
       <c r="B525" s="19" t="s">
         <v>1685</v>
       </c>
       <c r="C525" s="23" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="D525" s="21"/>
     </row>
     <row r="526" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
       <c r="B526" s="19" t="s">
         <v>1685</v>
       </c>
       <c r="C526" s="23" t="s">
-        <v>2228</v>
+        <v>2227</v>
       </c>
       <c r="D526" s="21"/>
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="B527" s="19" t="s">
         <v>1685</v>
       </c>
       <c r="C527" s="23" t="s">
-        <v>2140</v>
+        <v>2139</v>
       </c>
       <c r="D527" s="21"/>
     </row>
     <row r="528" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
+        <v>2135</v>
+      </c>
+      <c r="B528" s="31" t="s">
+        <v>1685</v>
+      </c>
+      <c r="C528" s="23" t="s">
         <v>2136</v>
       </c>
-      <c r="B528" s="29" t="s">
-        <v>1685</v>
-      </c>
-      <c r="C528" s="23" t="s">
+      <c r="D528" s="20" t="s">
         <v>2137</v>
-      </c>
-      <c r="D528" s="20" t="s">
-        <v>2138</v>
       </c>
     </row>
     <row r="529" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
-        <v>2230</v>
+        <v>2229</v>
       </c>
       <c r="B529" s="19" t="s">
         <v>1685</v>
       </c>
       <c r="C529" s="23" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
       <c r="D529" s="21"/>
     </row>
     <row r="530" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
       <c r="B530" s="19" t="s">
         <v>1685</v>
       </c>
       <c r="C530" s="23" t="s">
+        <v>2132</v>
+      </c>
+      <c r="D530" s="21" t="s">
         <v>2133</v>
-      </c>
-      <c r="D530" s="21" t="s">
-        <v>2134</v>
       </c>
     </row>
     <row r="531" spans="1:4" x14ac:dyDescent="0.25">
@@ -16964,69 +17212,69 @@
     </row>
     <row r="532" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
+        <v>2124</v>
+      </c>
+      <c r="B532" s="31" t="s">
+        <v>1685</v>
+      </c>
+      <c r="C532" s="23" t="s">
         <v>2125</v>
       </c>
-      <c r="B532" s="29" t="s">
-        <v>1685</v>
-      </c>
-      <c r="C532" s="23" t="s">
+      <c r="D532" s="20" t="s">
         <v>2126</v>
-      </c>
-      <c r="D532" s="20" t="s">
-        <v>2127</v>
       </c>
     </row>
     <row r="533" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="B533" s="19" t="s">
         <v>1685</v>
       </c>
       <c r="C533" s="23" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="D533" s="21" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
     </row>
     <row r="534" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="B534" s="19" t="s">
         <v>1685</v>
       </c>
       <c r="C534" s="23" t="s">
+        <v>2129</v>
+      </c>
+      <c r="D534" s="21" t="s">
         <v>2130</v>
-      </c>
-      <c r="D534" s="21" t="s">
-        <v>2131</v>
       </c>
     </row>
     <row r="535" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="B535" s="19" t="s">
         <v>1685</v>
       </c>
       <c r="C535" s="23" t="s">
+        <v>2104</v>
+      </c>
+      <c r="D535" s="21" t="s">
         <v>2105</v>
-      </c>
-      <c r="D535" s="21" t="s">
-        <v>2106</v>
       </c>
     </row>
     <row r="536" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="B536" s="19" t="s">
         <v>1685</v>
       </c>
       <c r="C536" s="23" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="D536" s="21"/>
     </row>
@@ -17064,7 +17312,7 @@
     </row>
     <row r="541" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
-        <v>2215</v>
+        <v>2214</v>
       </c>
       <c r="B541" s="19" t="s">
         <v>1685</v>
@@ -17073,7 +17321,7 @@
         <v>1533</v>
       </c>
       <c r="D541" s="21" t="s">
-        <v>2216</v>
+        <v>2215</v>
       </c>
     </row>
     <row r="542" spans="1:4" x14ac:dyDescent="0.25">
@@ -17089,7 +17337,7 @@
       <c r="C543" s="23" t="s">
         <v>667</v>
       </c>
-      <c r="D543" s="37"/>
+      <c r="D543" s="36"/>
     </row>
     <row r="544" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
@@ -17101,7 +17349,7 @@
       <c r="C544" s="23" t="s">
         <v>1242</v>
       </c>
-      <c r="D544" s="37"/>
+      <c r="D544" s="36"/>
     </row>
     <row r="545" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
@@ -17158,7 +17406,7 @@
       <c r="A550" t="s">
         <v>1765</v>
       </c>
-      <c r="B550" s="29" t="s">
+      <c r="B550" s="31" t="s">
         <v>1685</v>
       </c>
       <c r="C550" s="26" t="s">
@@ -17247,17 +17495,17 @@
       <c r="D558" s="21"/>
     </row>
     <row r="559" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A559" s="41" t="s">
+      <c r="A559" s="39" t="s">
+        <v>2240</v>
+      </c>
+      <c r="B559" s="31" t="s">
+        <v>1685</v>
+      </c>
+      <c r="C559" s="40" t="s">
         <v>2241</v>
       </c>
-      <c r="B559" s="29" t="s">
-        <v>1685</v>
-      </c>
-      <c r="C559" s="42" t="s">
+      <c r="D559" s="21" t="s">
         <v>2242</v>
-      </c>
-      <c r="D559" s="21" t="s">
-        <v>2243</v>
       </c>
     </row>
     <row r="560" spans="1:4" x14ac:dyDescent="0.25">
@@ -17287,1214 +17535,2333 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B232"/>
+  <dimension ref="A1:D267"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B127" sqref="B127"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="76.375" customWidth="1"/>
+    <col min="3" max="3" width="76.375" customWidth="1"/>
+    <col min="4" max="4" width="106.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1833</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1834</v>
       </c>
-      <c r="B2" s="39" t="s">
-        <v>1932</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C2" s="41" t="s">
+        <v>2266</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1835</v>
       </c>
       <c r="B3" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C3" t="s">
         <v>1927</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1836</v>
       </c>
       <c r="B4" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C4" t="s">
         <v>1928</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1837</v>
       </c>
       <c r="B5" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C5" s="39" t="s">
         <v>1929</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>2253</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1838</v>
       </c>
       <c r="B6" t="s">
-        <v>1936</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1114</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1935</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1839</v>
       </c>
       <c r="B7" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C7" t="s">
         <v>1930</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1840</v>
       </c>
       <c r="B8" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C8" t="s">
         <v>1931</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1841</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>1842</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2268</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1843</v>
       </c>
       <c r="B11" t="s">
-        <v>1933</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1114</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1932</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1844</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>1845</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2269</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>1846</v>
       </c>
       <c r="B14" t="s">
-        <v>1934</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1114</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1933</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>1847</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2270</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>1848</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>1849</v>
       </c>
       <c r="B17" t="s">
-        <v>1935</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1114</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1934</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>1850</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2271</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>1851</v>
       </c>
       <c r="B19" t="s">
-        <v>1937</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1114</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1936</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>1852</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C20" t="s">
+        <v>2272</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>1853</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C21" t="s">
+        <v>2247</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>1854</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C22" t="s">
+        <v>2273</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>1855</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C23" t="s">
+        <v>2274</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>1856</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C24" t="s">
+        <v>2248</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>1857</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C25" s="39" t="s">
+        <v>2249</v>
+      </c>
+      <c r="D25" t="s">
+        <v>2252</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>1858</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>1859</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C27" s="39" t="s">
+        <v>2250</v>
+      </c>
+      <c r="D27" t="s">
+        <v>2251</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>1860</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>1861</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>1862</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C30" t="s">
+        <v>2275</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>1863</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>1864</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C32" t="s">
+        <v>2254</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>1865</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C33" t="s">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>1866</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C34" s="39" t="s">
+        <v>2255</v>
+      </c>
+      <c r="D34" t="s">
+        <v>2256</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>1867</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C35" t="s">
+        <v>2291</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>1868</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C36" t="s">
+        <v>2257</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>1869</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C37" t="s">
+        <v>2276</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>1870</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C38" t="s">
+        <v>2259</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>1871</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C39" s="39" t="s">
+        <v>2262</v>
+      </c>
+      <c r="D39" t="s">
+        <v>2263</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>1872</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C40" t="s">
+        <v>2277</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>1873</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C41" t="s">
+        <v>2278</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>1874</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C42" t="s">
+        <v>2264</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>1875</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C43" s="39" t="s">
+        <v>2260</v>
+      </c>
+      <c r="D43" t="s">
+        <v>2261</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>1876</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C44" t="s">
+        <v>2265</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>1877</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C45" t="s">
+        <v>2279</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>1878</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C46" t="s">
+        <v>2281</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>1879</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>1880</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C48" t="s">
+        <v>2328</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>1881</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C49" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>1882</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>1883</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C51" t="s">
+        <v>2283</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>1884</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C52" t="s">
+        <v>2284</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>1885</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C53" s="39" t="s">
+        <v>2285</v>
+      </c>
+      <c r="D53" t="s">
+        <v>2286</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>1886</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C54" t="s">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>1887</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C55" t="s">
+        <v>2288</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>1888</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C56" t="s">
+        <v>2289</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>1889</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>1890</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C58" t="s">
+        <v>2329</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>1891</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>1892</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C60" t="s">
+        <v>2290</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>1893</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C61" t="s">
+        <v>2330</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>1894</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>1895</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>1896</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>1897</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>1898</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>1899</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>1900</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>1901</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>1902</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>1903</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>1904</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>1905</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>1906</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>1907</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>1908</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>1909</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>1910</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>1911</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>1912</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>1913</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>1914</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>1915</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>1916</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>1917</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>1918</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>1919</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>1920</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>1921</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>1922</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>1923</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>1924</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>1925</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>1926</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B94" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
+        <v>1937</v>
+      </c>
+      <c r="B95" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
         <v>1938</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+      <c r="B96" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
         <v>1939</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+      <c r="B97" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
         <v>1940</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+      <c r="B98" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
         <v>1941</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+      <c r="B99" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
         <v>1942</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
+      <c r="B100" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
         <v>1943</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
+      <c r="B101" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
         <v>1944</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
+      <c r="B102" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
         <v>1945</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+      <c r="B103" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
         <v>1946</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
+      <c r="B104" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
         <v>1947</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
+      <c r="B105" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
         <v>1948</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
+      <c r="B106" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
         <v>1949</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
+      <c r="B107" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
         <v>1950</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
+      <c r="B108" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
         <v>1951</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
+      <c r="B109" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
         <v>1952</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
+      <c r="B110" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
         <v>1953</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
+      <c r="B111" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
         <v>1954</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
+      <c r="B112" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
         <v>1955</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
+      <c r="B113" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
         <v>1956</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
+      <c r="B114" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
         <v>1957</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
+      <c r="B115" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
         <v>1958</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
+      <c r="B116" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
         <v>1959</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
+      <c r="B117" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C117" t="s">
+        <v>2258</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
         <v>1960</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
+      <c r="B118" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
         <v>1961</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
+      <c r="B119" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
         <v>1962</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
+      <c r="B120" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
         <v>1963</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
+      <c r="B121" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
         <v>1964</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
+      <c r="B122" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
         <v>1965</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
+      <c r="B123" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
         <v>1966</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
+      <c r="B124" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
         <v>1967</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
+      <c r="B125" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
         <v>1968</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
+      <c r="B126" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C126" t="s">
+        <v>2075</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
         <v>1969</v>
       </c>
-      <c r="B126" t="s">
-        <v>2076</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
+      <c r="B127" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
         <v>1970</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
+      <c r="B128" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
         <v>1971</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
+      <c r="B129" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
         <v>1972</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
+      <c r="B130" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
         <v>1973</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
+      <c r="B131" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
         <v>1974</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
+      <c r="B132" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
         <v>1975</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
+      <c r="B133" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
         <v>1976</v>
       </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
+      <c r="B134" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
         <v>1977</v>
       </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
+      <c r="B135" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
         <v>1978</v>
       </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
+      <c r="B136" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
         <v>1979</v>
       </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
+      <c r="B137" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
         <v>1980</v>
       </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
+      <c r="B138" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
         <v>1981</v>
       </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
+      <c r="B139" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
         <v>1982</v>
       </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
+      <c r="B140" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
         <v>1983</v>
       </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
+      <c r="B141" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
         <v>1984</v>
       </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
+      <c r="B142" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
         <v>1985</v>
       </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
+      <c r="B143" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
         <v>1986</v>
       </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
+      <c r="B144" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
         <v>1987</v>
       </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
+      <c r="B145" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
         <v>1988</v>
       </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
+      <c r="B146" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
         <v>1989</v>
       </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
+      <c r="B147" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
         <v>1990</v>
       </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
+      <c r="B148" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
         <v>1991</v>
       </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
+      <c r="B149" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
         <v>1992</v>
       </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
+      <c r="B150" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
         <v>1993</v>
       </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
+      <c r="B151" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
         <v>1994</v>
       </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
+      <c r="B152" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
         <v>1995</v>
       </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
+      <c r="B153" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
         <v>1996</v>
       </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
+      <c r="B154" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
         <v>1997</v>
       </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
+      <c r="B155" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
         <v>1998</v>
       </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
+      <c r="B156" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
         <v>1999</v>
       </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
+      <c r="B157" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
         <v>2000</v>
       </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
+      <c r="B158" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
         <v>2001</v>
       </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
+      <c r="B159" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
         <v>2002</v>
       </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
+      <c r="B160" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
         <v>2003</v>
       </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
+      <c r="B161" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
         <v>2004</v>
       </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
+      <c r="B162" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
         <v>2005</v>
       </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
+      <c r="B163" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
         <v>2006</v>
       </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
+      <c r="B164" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
         <v>2007</v>
       </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
+      <c r="B165" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
         <v>2008</v>
       </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
+      <c r="B166" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
         <v>2009</v>
       </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
+      <c r="B167" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
         <v>2010</v>
       </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
+      <c r="B168" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
         <v>2011</v>
       </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
+      <c r="B169" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
         <v>2012</v>
       </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
+      <c r="B170" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
         <v>2013</v>
       </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
+      <c r="B171" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
         <v>2014</v>
       </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
+      <c r="B172" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
         <v>2015</v>
       </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
+      <c r="B173" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
         <v>2016</v>
       </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
+      <c r="B174" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
         <v>2017</v>
       </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
+      <c r="B175" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
         <v>2018</v>
       </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
+      <c r="B176" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
         <v>2019</v>
       </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
+      <c r="B177" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
         <v>2020</v>
       </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
+      <c r="B178" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
         <v>2021</v>
       </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
+      <c r="B179" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
         <v>2022</v>
       </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
+      <c r="B180" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
         <v>2023</v>
       </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
+      <c r="B181" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
         <v>2024</v>
       </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
+      <c r="B182" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
         <v>2025</v>
       </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
+      <c r="B183" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
         <v>2026</v>
       </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
+      <c r="B184" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
         <v>2027</v>
       </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
+      <c r="B185" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
         <v>2028</v>
       </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
+      <c r="B186" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
         <v>2029</v>
       </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
+      <c r="B187" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
         <v>2030</v>
       </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
+      <c r="B188" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
         <v>2031</v>
       </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
+      <c r="B189" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
         <v>2032</v>
       </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
+      <c r="B190" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
         <v>2033</v>
       </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
+      <c r="B191" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
         <v>2034</v>
       </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
+      <c r="B192" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
         <v>2035</v>
       </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
+      <c r="B193" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
         <v>2036</v>
       </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
+      <c r="B194" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
         <v>2037</v>
       </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
+      <c r="B195" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
         <v>2038</v>
       </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
+      <c r="B196" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
         <v>2039</v>
       </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
+      <c r="B197" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
         <v>2040</v>
       </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
+      <c r="B198" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
         <v>2041</v>
       </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
+      <c r="B199" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
         <v>2042</v>
       </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
+      <c r="B200" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
         <v>2043</v>
       </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
+      <c r="B201" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
         <v>2044</v>
       </c>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
+      <c r="B202" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
         <v>2045</v>
       </c>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
+      <c r="B203" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
         <v>2046</v>
       </c>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
+      <c r="B204" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
         <v>2047</v>
       </c>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
+      <c r="B205" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
         <v>2048</v>
       </c>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
+      <c r="B206" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
         <v>2049</v>
       </c>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A207" t="s">
+      <c r="B207" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
         <v>2050</v>
       </c>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A208" t="s">
+      <c r="B208" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
         <v>2051</v>
       </c>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A209" t="s">
+      <c r="B209" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
         <v>2052</v>
       </c>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A210" t="s">
+      <c r="B210" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
         <v>2053</v>
       </c>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A211" t="s">
+      <c r="B211" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
         <v>2054</v>
       </c>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A212" t="s">
+      <c r="B212" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
         <v>2055</v>
       </c>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A213" t="s">
+      <c r="B213" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
         <v>2056</v>
       </c>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A214" t="s">
+      <c r="B214" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
         <v>2057</v>
       </c>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A215" t="s">
+      <c r="B215" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
         <v>2058</v>
       </c>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A216" t="s">
+      <c r="B216" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
         <v>2059</v>
       </c>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A217" t="s">
+      <c r="B217" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
         <v>2060</v>
       </c>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A218" t="s">
+      <c r="B218" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
         <v>2061</v>
       </c>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A219" t="s">
+      <c r="B219" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
         <v>2062</v>
       </c>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A220" t="s">
+      <c r="B220" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
         <v>2063</v>
       </c>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A221" t="s">
+      <c r="B221" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
         <v>2064</v>
       </c>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A222" t="s">
+      <c r="B222" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
         <v>2065</v>
       </c>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A223" t="s">
+      <c r="B223" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
         <v>2066</v>
       </c>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A224" t="s">
+      <c r="B224" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
         <v>2067</v>
       </c>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A225" t="s">
+      <c r="B225" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
         <v>2068</v>
       </c>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A226" t="s">
+      <c r="B226" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
         <v>2069</v>
       </c>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A227" t="s">
+      <c r="B227" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
         <v>2070</v>
       </c>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A228" t="s">
+      <c r="B228" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
         <v>2071</v>
       </c>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A229" t="s">
+      <c r="B229" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
         <v>2072</v>
       </c>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A230" t="s">
+      <c r="B230" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
         <v>2073</v>
       </c>
-    </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A231" t="s">
+      <c r="B231" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
         <v>2074</v>
       </c>
-    </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A232" t="s">
-        <v>2075</v>
+      <c r="B232" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>2292</v>
+      </c>
+      <c r="B233" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>2293</v>
+      </c>
+      <c r="B234" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>2294</v>
+      </c>
+      <c r="B235" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>2295</v>
+      </c>
+      <c r="B236" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>2296</v>
+      </c>
+      <c r="B237" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>2297</v>
+      </c>
+      <c r="B238" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>2298</v>
+      </c>
+      <c r="B239" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>2299</v>
+      </c>
+      <c r="B240" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>2300</v>
+      </c>
+      <c r="B241" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>2301</v>
+      </c>
+      <c r="B242" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>2302</v>
+      </c>
+      <c r="B243" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>2303</v>
+      </c>
+      <c r="B244" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>2304</v>
+      </c>
+      <c r="B245" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>2305</v>
+      </c>
+      <c r="B246" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>2306</v>
+      </c>
+      <c r="B247" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>2307</v>
+      </c>
+      <c r="B248" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>2308</v>
+      </c>
+      <c r="B249" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>2309</v>
+      </c>
+      <c r="B250" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>2310</v>
+      </c>
+      <c r="B251" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>2311</v>
+      </c>
+      <c r="B252" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>2312</v>
+      </c>
+      <c r="B253" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>2313</v>
+      </c>
+      <c r="B254" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>2314</v>
+      </c>
+      <c r="B255" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>2315</v>
+      </c>
+      <c r="B256" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C256" t="s">
+        <v>2327</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>2316</v>
+      </c>
+      <c r="B257" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>2317</v>
+      </c>
+      <c r="B258" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>2318</v>
+      </c>
+      <c r="B259" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>2319</v>
+      </c>
+      <c r="B260" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>2320</v>
+      </c>
+      <c r="B261" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>2321</v>
+      </c>
+      <c r="B262" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>2322</v>
+      </c>
+      <c r="B263" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>2323</v>
+      </c>
+      <c r="B264" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>2324</v>
+      </c>
+      <c r="B265" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>2325</v>
+      </c>
+      <c r="B266" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>2326</v>
+      </c>
+      <c r="B267" t="s">
+        <v>1114</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/COREd WitE model list.xlsx
+++ b/COREd WitE model list.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3163" uniqueCount="2331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3228" uniqueCount="2396">
   <si>
     <t>A0039</t>
   </si>
@@ -6792,9 +6792,6 @@
     <t>Incorrect spelling</t>
   </si>
   <si>
-    <t>Wrong photo - due to incorrect ID on axishistory.com, which was later corrected</t>
-  </si>
-  <si>
     <t>Dostler, Anton</t>
   </si>
   <si>
@@ -6861,9 +6858,6 @@
     <t>Deßloch, Otto</t>
   </si>
   <si>
-    <t>von Falkenstein, Hans</t>
-  </si>
-  <si>
     <t>Flörke, Hermann</t>
   </si>
   <si>
@@ -7024,6 +7018,207 @@
   </si>
   <si>
     <t>Halder, Franz</t>
+  </si>
+  <si>
+    <t>Bittrich, Wilhelm</t>
+  </si>
+  <si>
+    <t>Böhme , Franz</t>
+  </si>
+  <si>
+    <t>Deisenhofer, Eduard</t>
+  </si>
+  <si>
+    <t>Decker, Karl</t>
+  </si>
+  <si>
+    <t>Demelhuber, Karl</t>
+  </si>
+  <si>
+    <t>Maria was his second name, rather than Karl-Maria being his first</t>
+  </si>
+  <si>
+    <t>Dietrich, Josef</t>
+  </si>
+  <si>
+    <t>Sepp was just his nickname, not his formal name</t>
+  </si>
+  <si>
+    <t>Fuchs, Robert</t>
+  </si>
+  <si>
+    <t>Gille, Herbert</t>
+  </si>
+  <si>
+    <t>Haase, Curt</t>
+  </si>
+  <si>
+    <t>Hagemann, Wolf</t>
+  </si>
+  <si>
+    <t>Hansen, Christian</t>
+  </si>
+  <si>
+    <t>Hansen, Erik</t>
+  </si>
+  <si>
+    <t>Harpe, Josef</t>
+  </si>
+  <si>
+    <t>Hasse, Wilhelm</t>
+  </si>
+  <si>
+    <t>Harteneck, Gustav</t>
+  </si>
+  <si>
+    <t>Hartmann, Walter</t>
+  </si>
+  <si>
+    <t>Hans Freiherr von Falkenstein was Wehrmacht, not Luftwaffe! And naturally the photo is off as a result, too</t>
+  </si>
+  <si>
+    <t>Hauffe, Arthur</t>
+  </si>
+  <si>
+    <t>Hausser, Paul</t>
+  </si>
+  <si>
+    <t>Heinrici, Gotthard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Most likely the wrong photo - due to incorrect ID on axishistory.com, which was later put in doubt (http://forum.axishistory.com/viewtopic.php?t=14230&amp;start=3960#p1693693). </t>
+  </si>
+  <si>
+    <t>Heitz, Walter</t>
+  </si>
+  <si>
+    <t>Hell, Ernst-Eberhard</t>
+  </si>
+  <si>
+    <t>Ernst-Eberhard rather than Ernst, it seems</t>
+  </si>
+  <si>
+    <t>Herr, Traugott</t>
+  </si>
+  <si>
+    <t>Herrlein, Friedrich</t>
+  </si>
+  <si>
+    <t>Herzog, Kurt</t>
+  </si>
+  <si>
+    <t>Hilpert, Karl</t>
+  </si>
+  <si>
+    <t>Hitzfeld, Otto</t>
+  </si>
+  <si>
+    <t>Hoepner, Erich</t>
+  </si>
+  <si>
+    <t>Hoffmeister, Edmund</t>
+  </si>
+  <si>
+    <t>Höhne, Gustav</t>
+  </si>
+  <si>
+    <t>Holle, Alexander</t>
+  </si>
+  <si>
+    <t>Hollidt, Karl</t>
+  </si>
+  <si>
+    <t>Hoßbach, Friedrich</t>
+  </si>
+  <si>
+    <t>Hube, Hans</t>
+  </si>
+  <si>
+    <t>Jaenecke, Erwin</t>
+  </si>
+  <si>
+    <t>Jeckeln, Friedrich</t>
+  </si>
+  <si>
+    <t>Hoth, Hermann</t>
+  </si>
+  <si>
+    <t>Jodl, Alfred</t>
+  </si>
+  <si>
+    <t>Jordan, Hans</t>
+  </si>
+  <si>
+    <t>Junck, Werner</t>
+  </si>
+  <si>
+    <t>Kaempfe, Rudolf</t>
+  </si>
+  <si>
+    <t>Kammhuber, Josef</t>
+  </si>
+  <si>
+    <t>Keller, Alfred</t>
+  </si>
+  <si>
+    <t>Keppler, Georg</t>
+  </si>
+  <si>
+    <t>Kempf, Werner</t>
+  </si>
+  <si>
+    <t>Kienitz, Werner</t>
+  </si>
+  <si>
+    <t>Kleemann, Ulrich</t>
+  </si>
+  <si>
+    <t>Kleffel, Philipp</t>
+  </si>
+  <si>
+    <t>Kleinheisterkamp, Matthias</t>
+  </si>
+  <si>
+    <t>Kirchner, Friedrich</t>
+  </si>
+  <si>
+    <t>Kesselring, Albert</t>
+  </si>
+  <si>
+    <t>Koch, Friedrich</t>
+  </si>
+  <si>
+    <t>Koch-Erbach, Rudolf</t>
+  </si>
+  <si>
+    <t>Köchling, Friedrich</t>
+  </si>
+  <si>
+    <t>Spelling - either 'oe' or 'ö' instead of 'o'</t>
+  </si>
+  <si>
+    <t>Konrad, Rudolf</t>
+  </si>
+  <si>
+    <t>Korten, Günther</t>
+  </si>
+  <si>
+    <t>von Falkenstein, Sigismund</t>
+  </si>
+  <si>
+    <t>Glitches reported until here</t>
+  </si>
+  <si>
+    <t>Kraas, Hugo</t>
+  </si>
+  <si>
+    <t>Kraemer, Fritz</t>
+  </si>
+  <si>
+    <t>Kreysing, Hans</t>
+  </si>
+  <si>
+    <t>Krüger, Walter (SS)</t>
   </si>
 </sst>
 </file>
@@ -17537,14 +17732,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D267"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="C111" sqref="C111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="76.375" customWidth="1"/>
-    <col min="4" max="4" width="106.5" customWidth="1"/>
+    <col min="4" max="4" width="136.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -17560,7 +17755,7 @@
         <v>1114</v>
       </c>
       <c r="C2" s="41" t="s">
-        <v>2266</v>
+        <v>2265</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -17596,7 +17791,7 @@
         <v>1929</v>
       </c>
       <c r="D5" t="s">
-        <v>2253</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -17640,7 +17835,7 @@
         <v>1114</v>
       </c>
       <c r="C9" t="s">
-        <v>2267</v>
+        <v>2266</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -17651,7 +17846,7 @@
         <v>1114</v>
       </c>
       <c r="C10" t="s">
-        <v>2268</v>
+        <v>2267</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -17672,6 +17867,9 @@
       <c r="B12" t="s">
         <v>1114</v>
       </c>
+      <c r="C12" t="s">
+        <v>2329</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -17681,7 +17879,7 @@
         <v>1114</v>
       </c>
       <c r="C13" t="s">
-        <v>2269</v>
+        <v>2268</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -17703,7 +17901,7 @@
         <v>1114</v>
       </c>
       <c r="C15" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -17713,6 +17911,9 @@
       <c r="B16" t="s">
         <v>1114</v>
       </c>
+      <c r="C16" t="s">
+        <v>2330</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -17733,7 +17934,7 @@
         <v>1114</v>
       </c>
       <c r="C18" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -17755,7 +17956,7 @@
         <v>1114</v>
       </c>
       <c r="C20" t="s">
-        <v>2272</v>
+        <v>2271</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -17777,7 +17978,7 @@
         <v>1114</v>
       </c>
       <c r="C22" t="s">
-        <v>2273</v>
+        <v>2272</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -17788,7 +17989,7 @@
         <v>1114</v>
       </c>
       <c r="C23" t="s">
-        <v>2274</v>
+        <v>2273</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -17823,6 +18024,9 @@
       <c r="B26" t="s">
         <v>1114</v>
       </c>
+      <c r="C26" t="s">
+        <v>2332</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -17845,6 +18049,9 @@
       <c r="B28" t="s">
         <v>1114</v>
       </c>
+      <c r="C28" t="s">
+        <v>2331</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
@@ -17853,6 +18060,12 @@
       <c r="B29" t="s">
         <v>1114</v>
       </c>
+      <c r="C29" s="39" t="s">
+        <v>2333</v>
+      </c>
+      <c r="D29" t="s">
+        <v>2334</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -17862,7 +18075,7 @@
         <v>1114</v>
       </c>
       <c r="C30" t="s">
-        <v>2275</v>
+        <v>2274</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -17872,6 +18085,12 @@
       <c r="B31" t="s">
         <v>1114</v>
       </c>
+      <c r="C31" s="39" t="s">
+        <v>2335</v>
+      </c>
+      <c r="D31" t="s">
+        <v>2336</v>
+      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -17881,7 +18100,7 @@
         <v>1114</v>
       </c>
       <c r="C32" t="s">
-        <v>2254</v>
+        <v>2253</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -17892,7 +18111,7 @@
         <v>1114</v>
       </c>
       <c r="C33" t="s">
-        <v>2280</v>
+        <v>2278</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -17903,10 +18122,10 @@
         <v>1114</v>
       </c>
       <c r="C34" s="39" t="s">
+        <v>2254</v>
+      </c>
+      <c r="D34" t="s">
         <v>2255</v>
-      </c>
-      <c r="D34" t="s">
-        <v>2256</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -17917,7 +18136,7 @@
         <v>1114</v>
       </c>
       <c r="C35" t="s">
-        <v>2291</v>
+        <v>2289</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -17928,7 +18147,7 @@
         <v>1114</v>
       </c>
       <c r="C36" t="s">
-        <v>2257</v>
+        <v>2256</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -17938,8 +18157,11 @@
       <c r="B37" t="s">
         <v>1114</v>
       </c>
-      <c r="C37" t="s">
-        <v>2276</v>
+      <c r="C37" s="39" t="s">
+        <v>2390</v>
+      </c>
+      <c r="D37" t="s">
+        <v>2347</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -17950,7 +18172,7 @@
         <v>1114</v>
       </c>
       <c r="C38" t="s">
-        <v>2259</v>
+        <v>2258</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -17961,10 +18183,10 @@
         <v>1114</v>
       </c>
       <c r="C39" s="39" t="s">
+        <v>2261</v>
+      </c>
+      <c r="D39" t="s">
         <v>2262</v>
-      </c>
-      <c r="D39" t="s">
-        <v>2263</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -17975,7 +18197,7 @@
         <v>1114</v>
       </c>
       <c r="C40" t="s">
-        <v>2277</v>
+        <v>2275</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -17986,7 +18208,7 @@
         <v>1114</v>
       </c>
       <c r="C41" t="s">
-        <v>2278</v>
+        <v>2276</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -17997,7 +18219,7 @@
         <v>1114</v>
       </c>
       <c r="C42" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -18008,10 +18230,10 @@
         <v>1114</v>
       </c>
       <c r="C43" s="39" t="s">
+        <v>2259</v>
+      </c>
+      <c r="D43" t="s">
         <v>2260</v>
-      </c>
-      <c r="D43" t="s">
-        <v>2261</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -18022,7 +18244,7 @@
         <v>1114</v>
       </c>
       <c r="C44" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -18033,7 +18255,7 @@
         <v>1114</v>
       </c>
       <c r="C45" t="s">
-        <v>2279</v>
+        <v>2277</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -18044,7 +18266,7 @@
         <v>1114</v>
       </c>
       <c r="C46" t="s">
-        <v>2281</v>
+        <v>2279</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -18054,6 +18276,9 @@
       <c r="B47" t="s">
         <v>1114</v>
       </c>
+      <c r="C47" t="s">
+        <v>2337</v>
+      </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
@@ -18063,7 +18288,7 @@
         <v>1114</v>
       </c>
       <c r="C48" t="s">
-        <v>2328</v>
+        <v>2326</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -18074,7 +18299,7 @@
         <v>1114</v>
       </c>
       <c r="C49" t="s">
-        <v>2282</v>
+        <v>2280</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -18084,6 +18309,9 @@
       <c r="B50" t="s">
         <v>1114</v>
       </c>
+      <c r="C50" t="s">
+        <v>2338</v>
+      </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
@@ -18093,7 +18321,7 @@
         <v>1114</v>
       </c>
       <c r="C51" t="s">
-        <v>2283</v>
+        <v>2281</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -18104,7 +18332,7 @@
         <v>1114</v>
       </c>
       <c r="C52" t="s">
-        <v>2284</v>
+        <v>2282</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -18115,10 +18343,10 @@
         <v>1114</v>
       </c>
       <c r="C53" s="39" t="s">
-        <v>2285</v>
+        <v>2283</v>
       </c>
       <c r="D53" t="s">
-        <v>2286</v>
+        <v>2284</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -18129,7 +18357,7 @@
         <v>1114</v>
       </c>
       <c r="C54" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -18140,7 +18368,7 @@
         <v>1114</v>
       </c>
       <c r="C55" t="s">
-        <v>2288</v>
+        <v>2286</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -18151,7 +18379,7 @@
         <v>1114</v>
       </c>
       <c r="C56" t="s">
-        <v>2289</v>
+        <v>2287</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -18161,6 +18389,9 @@
       <c r="B57" t="s">
         <v>1114</v>
       </c>
+      <c r="C57" t="s">
+        <v>2339</v>
+      </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
@@ -18170,7 +18401,7 @@
         <v>1114</v>
       </c>
       <c r="C58" t="s">
-        <v>2329</v>
+        <v>2327</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -18180,6 +18411,9 @@
       <c r="B59" t="s">
         <v>1114</v>
       </c>
+      <c r="C59" t="s">
+        <v>2340</v>
+      </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
@@ -18189,7 +18423,7 @@
         <v>1114</v>
       </c>
       <c r="C60" t="s">
-        <v>2290</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -18200,7 +18434,7 @@
         <v>1114</v>
       </c>
       <c r="C61" t="s">
-        <v>2330</v>
+        <v>2328</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -18210,6 +18444,9 @@
       <c r="B62" t="s">
         <v>1114</v>
       </c>
+      <c r="C62" t="s">
+        <v>2341</v>
+      </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
@@ -18218,6 +18455,9 @@
       <c r="B63" t="s">
         <v>1114</v>
       </c>
+      <c r="C63" t="s">
+        <v>2342</v>
+      </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
@@ -18226,376 +18466,526 @@
       <c r="B64" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C64" t="s">
+        <v>2343</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>1897</v>
       </c>
       <c r="B65" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C65" t="s">
+        <v>2345</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>1898</v>
       </c>
       <c r="B66" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C66" t="s">
+        <v>2346</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>1899</v>
       </c>
       <c r="B67" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C67" t="s">
+        <v>2344</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>1900</v>
       </c>
       <c r="B68" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C68" t="s">
+        <v>2348</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>1901</v>
       </c>
       <c r="B69" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C69" t="s">
+        <v>2349</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>1902</v>
       </c>
       <c r="B70" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C70" t="s">
+        <v>2350</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>1903</v>
       </c>
       <c r="B71" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C71" t="s">
+        <v>2352</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>1904</v>
       </c>
       <c r="B72" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C72" s="39" t="s">
+        <v>2353</v>
+      </c>
+      <c r="D72" t="s">
+        <v>2354</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>1905</v>
       </c>
       <c r="B73" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C73" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>1906</v>
       </c>
       <c r="B74" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C74" t="s">
+        <v>2356</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>1907</v>
       </c>
       <c r="B75" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C75" t="s">
+        <v>2357</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>1908</v>
       </c>
       <c r="B76" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C76" t="s">
+        <v>2358</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>1909</v>
       </c>
       <c r="B77" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C77" t="s">
+        <v>2359</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>1910</v>
       </c>
       <c r="B78" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C78" t="s">
+        <v>2360</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>1911</v>
       </c>
       <c r="B79" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C79" t="s">
+        <v>2361</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>1912</v>
       </c>
       <c r="B80" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C80" t="s">
+        <v>2362</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>1913</v>
       </c>
       <c r="B81" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C81" t="s">
+        <v>2363</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>1914</v>
       </c>
       <c r="B82" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C82" t="s">
+        <v>2364</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>1915</v>
       </c>
       <c r="B83" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C83" t="s">
+        <v>2365</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>1916</v>
       </c>
       <c r="B84" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C84" t="s">
+        <v>2369</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>1917</v>
       </c>
       <c r="B85" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C85" t="s">
+        <v>2366</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>1918</v>
       </c>
       <c r="B86" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C86" s="3" t="s">
+        <v>2367</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>1919</v>
       </c>
       <c r="B87" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C87" t="s">
+        <v>2368</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>1920</v>
       </c>
       <c r="B88" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C88" t="s">
+        <v>2370</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>1921</v>
       </c>
       <c r="B89" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C89" t="s">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>1922</v>
       </c>
       <c r="B90" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C90" t="s">
+        <v>2372</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>1923</v>
       </c>
       <c r="B91" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C91" t="s">
+        <v>2373</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>1924</v>
       </c>
       <c r="B92" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C92" t="s">
+        <v>2374</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>1925</v>
       </c>
       <c r="B93" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C93" t="s">
+        <v>2375</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>1926</v>
       </c>
       <c r="B94" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C94" t="s">
+        <v>2377</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>1937</v>
       </c>
       <c r="B95" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C95" t="s">
+        <v>2376</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>1938</v>
       </c>
       <c r="B96" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C96" t="s">
+        <v>2383</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>1939</v>
       </c>
       <c r="B97" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C97" t="s">
+        <v>2378</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>1940</v>
       </c>
       <c r="B98" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C98" t="s">
+        <v>2382</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>1941</v>
       </c>
       <c r="B99" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C99" t="s">
+        <v>2379</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>1942</v>
       </c>
       <c r="B100" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C100" t="s">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>1943</v>
       </c>
       <c r="B101" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C101" t="s">
+        <v>2381</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>1944</v>
       </c>
       <c r="B102" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C102" t="s">
+        <v>2384</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>1945</v>
       </c>
       <c r="B103" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C103" t="s">
+        <v>2385</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>1946</v>
       </c>
       <c r="B104" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C104" t="s">
+        <v>2386</v>
+      </c>
+      <c r="D104" s="39" t="s">
+        <v>2387</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>1947</v>
       </c>
       <c r="B105" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C105" t="s">
+        <v>2388</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>1948</v>
       </c>
       <c r="B106" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C106" t="s">
+        <v>2389</v>
+      </c>
+      <c r="D106" s="7" t="s">
+        <v>2391</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>1949</v>
       </c>
       <c r="B107" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C107" t="s">
+        <v>2392</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>1950</v>
       </c>
       <c r="B108" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C108" t="s">
+        <v>2393</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>1951</v>
       </c>
       <c r="B109" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C109" t="s">
+        <v>2394</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>1952</v>
       </c>
       <c r="B110" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C110" t="s">
+        <v>2395</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>1953</v>
       </c>
@@ -18603,7 +18993,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>1954</v>
       </c>
@@ -18651,7 +19041,7 @@
         <v>1114</v>
       </c>
       <c r="C117" t="s">
-        <v>2258</v>
+        <v>2257</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
@@ -19579,7 +19969,7 @@
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>2292</v>
+        <v>2290</v>
       </c>
       <c r="B233" t="s">
         <v>1114</v>
@@ -19587,7 +19977,7 @@
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>2293</v>
+        <v>2291</v>
       </c>
       <c r="B234" t="s">
         <v>1114</v>
@@ -19595,7 +19985,7 @@
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>2294</v>
+        <v>2292</v>
       </c>
       <c r="B235" t="s">
         <v>1114</v>
@@ -19603,7 +19993,7 @@
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>2295</v>
+        <v>2293</v>
       </c>
       <c r="B236" t="s">
         <v>1114</v>
@@ -19611,7 +20001,7 @@
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>2296</v>
+        <v>2294</v>
       </c>
       <c r="B237" t="s">
         <v>1114</v>
@@ -19619,7 +20009,7 @@
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>2297</v>
+        <v>2295</v>
       </c>
       <c r="B238" t="s">
         <v>1114</v>
@@ -19627,7 +20017,7 @@
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>2298</v>
+        <v>2296</v>
       </c>
       <c r="B239" t="s">
         <v>1114</v>
@@ -19635,7 +20025,7 @@
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>2299</v>
+        <v>2297</v>
       </c>
       <c r="B240" t="s">
         <v>1114</v>
@@ -19643,7 +20033,7 @@
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>2300</v>
+        <v>2298</v>
       </c>
       <c r="B241" t="s">
         <v>1114</v>
@@ -19651,7 +20041,7 @@
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>2301</v>
+        <v>2299</v>
       </c>
       <c r="B242" t="s">
         <v>1114</v>
@@ -19659,7 +20049,7 @@
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>2302</v>
+        <v>2300</v>
       </c>
       <c r="B243" t="s">
         <v>1114</v>
@@ -19667,7 +20057,7 @@
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>2303</v>
+        <v>2301</v>
       </c>
       <c r="B244" t="s">
         <v>1114</v>
@@ -19675,7 +20065,7 @@
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>2304</v>
+        <v>2302</v>
       </c>
       <c r="B245" t="s">
         <v>1114</v>
@@ -19683,7 +20073,7 @@
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>2305</v>
+        <v>2303</v>
       </c>
       <c r="B246" t="s">
         <v>1114</v>
@@ -19691,7 +20081,7 @@
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>2306</v>
+        <v>2304</v>
       </c>
       <c r="B247" t="s">
         <v>1114</v>
@@ -19699,7 +20089,7 @@
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>2307</v>
+        <v>2305</v>
       </c>
       <c r="B248" t="s">
         <v>1114</v>
@@ -19707,7 +20097,7 @@
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>2308</v>
+        <v>2306</v>
       </c>
       <c r="B249" t="s">
         <v>1114</v>
@@ -19715,7 +20105,7 @@
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>2309</v>
+        <v>2307</v>
       </c>
       <c r="B250" t="s">
         <v>1114</v>
@@ -19723,7 +20113,7 @@
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>2310</v>
+        <v>2308</v>
       </c>
       <c r="B251" t="s">
         <v>1114</v>
@@ -19731,7 +20121,7 @@
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>2311</v>
+        <v>2309</v>
       </c>
       <c r="B252" t="s">
         <v>1114</v>
@@ -19739,7 +20129,7 @@
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>2312</v>
+        <v>2310</v>
       </c>
       <c r="B253" t="s">
         <v>1114</v>
@@ -19747,7 +20137,7 @@
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>2313</v>
+        <v>2311</v>
       </c>
       <c r="B254" t="s">
         <v>1114</v>
@@ -19755,7 +20145,7 @@
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>2314</v>
+        <v>2312</v>
       </c>
       <c r="B255" t="s">
         <v>1114</v>
@@ -19763,18 +20153,18 @@
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>2315</v>
+        <v>2313</v>
       </c>
       <c r="B256" t="s">
         <v>1114</v>
       </c>
       <c r="C256" t="s">
-        <v>2327</v>
+        <v>2325</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>2316</v>
+        <v>2314</v>
       </c>
       <c r="B257" t="s">
         <v>1114</v>
@@ -19782,7 +20172,7 @@
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>2317</v>
+        <v>2315</v>
       </c>
       <c r="B258" t="s">
         <v>1114</v>
@@ -19790,7 +20180,7 @@
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>2318</v>
+        <v>2316</v>
       </c>
       <c r="B259" t="s">
         <v>1114</v>
@@ -19798,7 +20188,7 @@
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>2319</v>
+        <v>2317</v>
       </c>
       <c r="B260" t="s">
         <v>1114</v>
@@ -19806,7 +20196,7 @@
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>2320</v>
+        <v>2318</v>
       </c>
       <c r="B261" t="s">
         <v>1114</v>
@@ -19814,7 +20204,7 @@
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>2321</v>
+        <v>2319</v>
       </c>
       <c r="B262" t="s">
         <v>1114</v>
@@ -19822,7 +20212,7 @@
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>2322</v>
+        <v>2320</v>
       </c>
       <c r="B263" t="s">
         <v>1114</v>
@@ -19830,7 +20220,7 @@
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>2323</v>
+        <v>2321</v>
       </c>
       <c r="B264" t="s">
         <v>1114</v>
@@ -19838,7 +20228,7 @@
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>2324</v>
+        <v>2322</v>
       </c>
       <c r="B265" t="s">
         <v>1114</v>
@@ -19846,7 +20236,7 @@
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>2325</v>
+        <v>2323</v>
       </c>
       <c r="B266" t="s">
         <v>1114</v>
@@ -19854,7 +20244,7 @@
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>2326</v>
+        <v>2324</v>
       </c>
       <c r="B267" t="s">
         <v>1114</v>

--- a/COREd WitE model list.xlsx
+++ b/COREd WitE model list.xlsx
@@ -14,12 +14,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Land units'!$A$1:$D$1</definedName>
   </definedNames>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3228" uniqueCount="2396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3335" uniqueCount="2502">
   <si>
     <t>A0039</t>
   </si>
@@ -7219,6 +7219,326 @@
   </si>
   <si>
     <t>Krüger, Walter (SS)</t>
+  </si>
+  <si>
+    <t>Kübler, Ludwig</t>
+  </si>
+  <si>
+    <t>Kuntze, Walter</t>
+  </si>
+  <si>
+    <t>Kuntzen, Adolf</t>
+  </si>
+  <si>
+    <t>Lanz, Hubert</t>
+  </si>
+  <si>
+    <t>Laux, Paul</t>
+  </si>
+  <si>
+    <t>Lindemann, Georg</t>
+  </si>
+  <si>
+    <t>List, Wilhelm</t>
+  </si>
+  <si>
+    <t>Loch, Herbert</t>
+  </si>
+  <si>
+    <t>Loerzer, Bruno</t>
+  </si>
+  <si>
+    <t>Löhr, Alexander</t>
+  </si>
+  <si>
+    <t>Lucht, Walther</t>
+  </si>
+  <si>
+    <t>Marcks, Erich</t>
+  </si>
+  <si>
+    <t>Martinek, Robert</t>
+  </si>
+  <si>
+    <t>Materna, Friedrich</t>
+  </si>
+  <si>
+    <t>Matzky, Gerhard</t>
+  </si>
+  <si>
+    <t>Meindl, Eugen</t>
+  </si>
+  <si>
+    <t>Meister, Rudolf</t>
+  </si>
+  <si>
+    <t>Mieth, Friedrich</t>
+  </si>
+  <si>
+    <t>Model, Walter</t>
+  </si>
+  <si>
+    <t>Müller, Friedrich-Wilhelm</t>
+  </si>
+  <si>
+    <t>Spelling</t>
+  </si>
+  <si>
+    <t>Müller, Vincenz</t>
+  </si>
+  <si>
+    <t>Müller, Ludwig</t>
+  </si>
+  <si>
+    <t>Wrong photo (or wrong era)</t>
+  </si>
+  <si>
+    <t>Post-war photo</t>
+  </si>
+  <si>
+    <t>Nehring, Walther</t>
+  </si>
+  <si>
+    <t>Neuling, Ferdinand</t>
+  </si>
+  <si>
+    <t>Neumann, Eduard</t>
+  </si>
+  <si>
+    <t>Made it to Oberst, not Generalmajor… And did not serve in Russia, it seems… Possible replacement: Fiebig, Martin?
+http://www.lexikon-der-wehrmacht.de/Personenregister/Dienstgrade/GMdL-R.htm
+http://www.lexikon-der-wehrmacht.de/Personenregister/Dienstgrade/GdLw-R.htm</t>
+  </si>
+  <si>
+    <t>Nordmann, Karl</t>
+  </si>
+  <si>
+    <t>Likewise, only made it to Oberst… Did serve in Russia</t>
+  </si>
+  <si>
+    <t>Ott, Eugen</t>
+  </si>
+  <si>
+    <t>Peltz, Dietrich</t>
+  </si>
+  <si>
+    <t>Petersen, Erich</t>
+  </si>
+  <si>
+    <t>Pfeiffer, Georg</t>
+  </si>
+  <si>
+    <t>Pflugbeil, Curt</t>
+  </si>
+  <si>
+    <t>Spelling - Curt rather than Kurt, though sources are contradictory.  Most German sites seem to use Curt though, it seems.</t>
+  </si>
+  <si>
+    <t>Paulus, Friedrich</t>
+  </si>
+  <si>
+    <t>Phleps, Artur</t>
+  </si>
+  <si>
+    <t>Spelling - Phleps rather than Phelps</t>
+  </si>
+  <si>
+    <t>Prieß, Hermann</t>
+  </si>
+  <si>
+    <t>Raus, Erhard</t>
+  </si>
+  <si>
+    <t>Rasp, Siegfried</t>
+  </si>
+  <si>
+    <t>Recknagel, Hermann</t>
+  </si>
+  <si>
+    <t>Reinhard, Hans</t>
+  </si>
+  <si>
+    <t>Reinhard, Georg-Hans</t>
+  </si>
+  <si>
+    <t>Rendulic, Lothar</t>
+  </si>
+  <si>
+    <t>Reuß, Franz</t>
+  </si>
+  <si>
+    <t>von Richthofen, Wolfram</t>
+  </si>
+  <si>
+    <t>Röhricht, Edgar</t>
+  </si>
+  <si>
+    <t>von Roman, Rudolf</t>
+  </si>
+  <si>
+    <t>spelling - von</t>
+  </si>
+  <si>
+    <t>Rommel, Erwin</t>
+  </si>
+  <si>
+    <t>Röpke, Kurt</t>
+  </si>
+  <si>
+    <t>Ruoff, Richard</t>
+  </si>
+  <si>
+    <t>Schaal, Ferdinand</t>
+  </si>
+  <si>
+    <t>Schlemm, Alfred</t>
+  </si>
+  <si>
+    <t>Schlemmer, Hans</t>
+  </si>
+  <si>
+    <t>Schmalz, Wilhelm</t>
+  </si>
+  <si>
+    <t>Schmidt, Hans</t>
+  </si>
+  <si>
+    <t>Schmidt, Rudolf</t>
+  </si>
+  <si>
+    <t>Schöpfel , Gerhard</t>
+  </si>
+  <si>
+    <t>Only became major</t>
+  </si>
+  <si>
+    <t>Schörner, Ferdinand</t>
+  </si>
+  <si>
+    <t>Schroth, Walter</t>
+  </si>
+  <si>
+    <t>Schubert, Albrecht</t>
+  </si>
+  <si>
+    <t>Schulz, Friedrich</t>
+  </si>
+  <si>
+    <t>Seidemann, Hans</t>
+  </si>
+  <si>
+    <t>von Senger und Etterlin, Fridolin</t>
+  </si>
+  <si>
+    <t>Sinnhuber, Johann</t>
+  </si>
+  <si>
+    <t>Sperrle, Hugo</t>
+  </si>
+  <si>
+    <t>Strauß, Adolf</t>
+  </si>
+  <si>
+    <t>Stadler, Sylvester</t>
+  </si>
+  <si>
+    <t>Steiner, Felix</t>
+  </si>
+  <si>
+    <t>Straube, Erich</t>
+  </si>
+  <si>
+    <t>Streckenbach, Bruno</t>
+  </si>
+  <si>
+    <t>Strecker, Karl</t>
+  </si>
+  <si>
+    <t>Student, Kurt</t>
+  </si>
+  <si>
+    <t>Stumme, Georg</t>
+  </si>
+  <si>
+    <t>Stumpff, Hans-Jürgen</t>
+  </si>
+  <si>
+    <t>Jürgen or Juergen, rather than Jurgen</t>
+  </si>
+  <si>
+    <t>Theißen, Edgar</t>
+  </si>
+  <si>
+    <t>Tiemann, Otto</t>
+  </si>
+  <si>
+    <t>Vahl, Herbert-Ernst</t>
+  </si>
+  <si>
+    <t>Spelling (Herbert-Ernst)</t>
+  </si>
+  <si>
+    <t>Veiel, Rudolf</t>
+  </si>
+  <si>
+    <t>Vierow, Erwin</t>
+  </si>
+  <si>
+    <t>Volckamer Von Kirchensittenbach, Friedrich</t>
+  </si>
+  <si>
+    <t>But possibly too long</t>
+  </si>
+  <si>
+    <t>Völckers, Paul</t>
+  </si>
+  <si>
+    <t>von Arnim, Hans-Jürgen</t>
+  </si>
+  <si>
+    <t>von Axthelm, Walther</t>
+  </si>
+  <si>
+    <t>Walther instead of Walter</t>
+  </si>
+  <si>
+    <t>von Bock, Fedor</t>
+  </si>
+  <si>
+    <t>von Both, Kuno-Hans</t>
+  </si>
+  <si>
+    <t>von Briesen, Kurt</t>
+  </si>
+  <si>
+    <t>von Brockdorff-Ahlefeld, Walter</t>
+  </si>
+  <si>
+    <t>von Chappuis, Friedrich-Wilhelm</t>
+  </si>
+  <si>
+    <t>Instead of Friedrich</t>
+  </si>
+  <si>
+    <t>von Choltitz, Dietrich</t>
+  </si>
+  <si>
+    <t>von Greim, Robert</t>
+  </si>
+  <si>
+    <t>von Hubicki, Alfred</t>
+  </si>
+  <si>
+    <t>von Kleist, Ewald</t>
+  </si>
+  <si>
+    <t xml:space="preserve">von Kluge, Günther </t>
+  </si>
+  <si>
+    <t>von Knobelsdorff, Otto</t>
+  </si>
+  <si>
+    <t>von Kortzfleisch, Joachim</t>
   </si>
 </sst>
 </file>
@@ -7265,7 +7585,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7287,6 +7607,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7355,7 +7681,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -7412,6 +7738,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -17732,8 +18062,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D267"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="C111" sqref="C111"/>
+    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
+      <selection activeCell="C205" sqref="C205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18937,9 +19267,6 @@
       <c r="C106" t="s">
         <v>2389</v>
       </c>
-      <c r="D106" s="7" t="s">
-        <v>2391</v>
-      </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
@@ -18992,6 +19319,9 @@
       <c r="B111" t="s">
         <v>1114</v>
       </c>
+      <c r="C111" t="s">
+        <v>2396</v>
+      </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
@@ -19000,6 +19330,9 @@
       <c r="B112" t="s">
         <v>1114</v>
       </c>
+      <c r="C112" t="s">
+        <v>2397</v>
+      </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
@@ -19008,6 +19341,9 @@
       <c r="B113" t="s">
         <v>1114</v>
       </c>
+      <c r="C113" t="s">
+        <v>2398</v>
+      </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
@@ -19016,6 +19352,9 @@
       <c r="B114" t="s">
         <v>1114</v>
       </c>
+      <c r="C114" t="s">
+        <v>2399</v>
+      </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
@@ -19024,6 +19363,9 @@
       <c r="B115" t="s">
         <v>1114</v>
       </c>
+      <c r="C115" t="s">
+        <v>2400</v>
+      </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
@@ -19032,6 +19374,9 @@
       <c r="B116" t="s">
         <v>1114</v>
       </c>
+      <c r="C116" t="s">
+        <v>2257</v>
+      </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
@@ -19041,7 +19386,7 @@
         <v>1114</v>
       </c>
       <c r="C117" t="s">
-        <v>2257</v>
+        <v>2401</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
@@ -19051,6 +19396,9 @@
       <c r="B118" t="s">
         <v>1114</v>
       </c>
+      <c r="C118" t="s">
+        <v>2402</v>
+      </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
@@ -19059,6 +19407,9 @@
       <c r="B119" t="s">
         <v>1114</v>
       </c>
+      <c r="C119" t="s">
+        <v>2403</v>
+      </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
@@ -19067,6 +19418,9 @@
       <c r="B120" t="s">
         <v>1114</v>
       </c>
+      <c r="C120" t="s">
+        <v>2405</v>
+      </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
@@ -19075,6 +19429,9 @@
       <c r="B121" t="s">
         <v>1114</v>
       </c>
+      <c r="C121" t="s">
+        <v>2404</v>
+      </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
@@ -19083,6 +19440,9 @@
       <c r="B122" t="s">
         <v>1114</v>
       </c>
+      <c r="C122" t="s">
+        <v>2406</v>
+      </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
@@ -19091,6 +19451,9 @@
       <c r="B123" t="s">
         <v>1114</v>
       </c>
+      <c r="C123" t="s">
+        <v>2407</v>
+      </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
@@ -19099,6 +19462,9 @@
       <c r="B124" t="s">
         <v>1114</v>
       </c>
+      <c r="C124" t="s">
+        <v>2408</v>
+      </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
@@ -19107,6 +19473,9 @@
       <c r="B125" t="s">
         <v>1114</v>
       </c>
+      <c r="C125" t="s">
+        <v>2409</v>
+      </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
@@ -19126,6 +19495,9 @@
       <c r="B127" t="s">
         <v>1114</v>
       </c>
+      <c r="C127" t="s">
+        <v>2410</v>
+      </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
@@ -19134,616 +19506,895 @@
       <c r="B128" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C128" t="s">
+        <v>2411</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>1971</v>
       </c>
       <c r="B129" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C129" t="s">
+        <v>2412</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>1972</v>
       </c>
       <c r="B130" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C130" t="s">
+        <v>2413</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>1973</v>
       </c>
       <c r="B131" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C131" t="s">
+        <v>2414</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>1974</v>
       </c>
       <c r="B132" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C132" t="s">
+        <v>2415</v>
+      </c>
+      <c r="D132" s="39" t="s">
+        <v>2416</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>1975</v>
       </c>
       <c r="B133" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C133" t="s">
+        <v>2417</v>
+      </c>
+      <c r="D133" s="39" t="s">
+        <v>2420</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>1976</v>
       </c>
       <c r="B134" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C134" t="s">
+        <v>2418</v>
+      </c>
+      <c r="D134" s="39" t="s">
+        <v>2419</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>1977</v>
       </c>
       <c r="B135" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C135" t="s">
+        <v>2421</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>1978</v>
       </c>
       <c r="B136" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C136" t="s">
+        <v>2422</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>1979</v>
       </c>
       <c r="B137" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C137" s="39" t="s">
+        <v>2423</v>
+      </c>
+      <c r="D137" s="43" t="s">
+        <v>2424</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>1980</v>
       </c>
       <c r="B138" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C138" s="39" t="s">
+        <v>2425</v>
+      </c>
+      <c r="D138" s="39" t="s">
+        <v>2426</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>1981</v>
       </c>
       <c r="B139" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C139" t="s">
+        <v>2427</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>1982</v>
       </c>
       <c r="B140" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C140" t="s">
+        <v>2433</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>1983</v>
       </c>
       <c r="B141" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C141" t="s">
+        <v>2428</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>1984</v>
       </c>
       <c r="B142" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C142" t="s">
+        <v>2429</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>1985</v>
       </c>
       <c r="B143" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C143" t="s">
+        <v>2430</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>1986</v>
       </c>
       <c r="B144" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C144" s="39" t="s">
+        <v>2431</v>
+      </c>
+      <c r="D144" t="s">
+        <v>2432</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>1987</v>
       </c>
       <c r="B145" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C145" s="39" t="s">
+        <v>2434</v>
+      </c>
+      <c r="D145" t="s">
+        <v>2435</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>1988</v>
       </c>
       <c r="B146" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C146" t="s">
+        <v>2436</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>1989</v>
       </c>
       <c r="B147" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C147" t="s">
+        <v>2438</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>1990</v>
       </c>
       <c r="B148" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C148" t="s">
+        <v>2437</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>1991</v>
       </c>
       <c r="B149" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C149" t="s">
+        <v>2439</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>1992</v>
       </c>
       <c r="B150" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C150" t="s">
+        <v>2440</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>1993</v>
       </c>
       <c r="B151" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C151" t="s">
+        <v>2441</v>
+      </c>
+      <c r="D151" s="42" t="s">
+        <v>2391</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>1994</v>
       </c>
       <c r="B152" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C152" t="s">
+        <v>2442</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>1995</v>
       </c>
       <c r="B153" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C153" t="s">
+        <v>2443</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>1996</v>
       </c>
       <c r="B154" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C154" t="s">
+        <v>2444</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>1997</v>
       </c>
       <c r="B155" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C155" t="s">
+        <v>2445</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>1998</v>
       </c>
       <c r="B156" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C156" s="39" t="s">
+        <v>2446</v>
+      </c>
+      <c r="D156" t="s">
+        <v>2447</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>1999</v>
       </c>
       <c r="B157" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C157" t="s">
+        <v>2448</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>2000</v>
       </c>
       <c r="B158" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C158" t="s">
+        <v>2449</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>2001</v>
       </c>
       <c r="B159" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C159" t="s">
+        <v>2450</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>2002</v>
       </c>
       <c r="B160" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C160" t="s">
+        <v>2451</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>2003</v>
       </c>
       <c r="B161" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C161" t="s">
+        <v>2452</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>2004</v>
       </c>
       <c r="B162" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C162" t="s">
+        <v>2453</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>2005</v>
       </c>
       <c r="B163" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C163" t="s">
+        <v>2454</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>2006</v>
       </c>
       <c r="B164" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C164" t="s">
+        <v>2455</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>2007</v>
       </c>
       <c r="B165" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C165" t="s">
+        <v>2456</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>2008</v>
       </c>
       <c r="B166" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C166" s="39" t="s">
+        <v>2457</v>
+      </c>
+      <c r="D166" t="s">
+        <v>2458</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>2009</v>
       </c>
       <c r="B167" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C167" t="s">
+        <v>2459</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>2010</v>
       </c>
       <c r="B168" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C168" t="s">
+        <v>2460</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>2011</v>
       </c>
       <c r="B169" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C169" t="s">
+        <v>2461</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>2012</v>
       </c>
       <c r="B170" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C170" t="s">
+        <v>2462</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>2013</v>
       </c>
       <c r="B171" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C171" t="s">
+        <v>2463</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>2014</v>
       </c>
       <c r="B172" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C172" t="s">
+        <v>2464</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>2015</v>
       </c>
       <c r="B173" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C173" t="s">
+        <v>2465</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>2016</v>
       </c>
       <c r="B174" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C174" t="s">
+        <v>2466</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>2017</v>
       </c>
       <c r="B175" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C175" t="s">
+        <v>2468</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>2018</v>
       </c>
       <c r="B176" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C176" t="s">
+        <v>2469</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>2019</v>
       </c>
       <c r="B177" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C177" t="s">
+        <v>2470</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>2020</v>
       </c>
       <c r="B178" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C178" t="s">
+        <v>2467</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>2021</v>
       </c>
       <c r="B179" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C179" t="s">
+        <v>2471</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>2022</v>
       </c>
       <c r="B180" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C180" t="s">
+        <v>2472</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>2023</v>
       </c>
       <c r="B181" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C181" t="s">
+        <v>2473</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>2024</v>
       </c>
       <c r="B182" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C182" t="s">
+        <v>2474</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>2025</v>
       </c>
       <c r="B183" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C183" s="39" t="s">
+        <v>2475</v>
+      </c>
+      <c r="D183" t="s">
+        <v>2476</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>2026</v>
       </c>
       <c r="B184" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C184" t="s">
+        <v>2477</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>2027</v>
       </c>
       <c r="B185" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C185" t="s">
+        <v>2478</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>2028</v>
       </c>
       <c r="B186" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C186" t="s">
+        <v>2479</v>
+      </c>
+      <c r="D186" t="s">
+        <v>2480</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>2029</v>
       </c>
       <c r="B187" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C187" t="s">
+        <v>2481</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>2030</v>
       </c>
       <c r="B188" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C188" t="s">
+        <v>2482</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>2031</v>
       </c>
       <c r="B189" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C189" s="39" t="s">
+        <v>2483</v>
+      </c>
+      <c r="D189" t="s">
+        <v>2484</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>2032</v>
       </c>
       <c r="B190" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C190" t="s">
+        <v>2485</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>2033</v>
       </c>
       <c r="B191" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C191" s="39" t="s">
+        <v>2486</v>
+      </c>
+      <c r="D191" t="s">
+        <v>2476</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>2034</v>
       </c>
       <c r="B192" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C192" s="39" t="s">
+        <v>2487</v>
+      </c>
+      <c r="D192" t="s">
+        <v>2488</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>2035</v>
       </c>
       <c r="B193" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C193" s="3" t="s">
+        <v>2489</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>2036</v>
       </c>
       <c r="B194" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C194" s="3" t="s">
+        <v>2490</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>2037</v>
       </c>
       <c r="B195" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C195" s="3" t="s">
+        <v>2491</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>2038</v>
       </c>
       <c r="B196" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C196" s="3" t="s">
+        <v>2492</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>2039</v>
       </c>
       <c r="B197" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C197" s="39" t="s">
+        <v>2493</v>
+      </c>
+      <c r="D197" s="3" t="s">
+        <v>2494</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>2040</v>
       </c>
       <c r="B198" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C198" s="3" t="s">
+        <v>2495</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>2041</v>
       </c>
       <c r="B199" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C199" s="3" t="s">
+        <v>2496</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>2042</v>
       </c>
       <c r="B200" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C200" s="3" t="s">
+        <v>2497</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>2043</v>
       </c>
       <c r="B201" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C201" s="3" t="s">
+        <v>2498</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>2044</v>
       </c>
       <c r="B202" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C202" s="3" t="s">
+        <v>2499</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>2045</v>
       </c>
       <c r="B203" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C203" s="3" t="s">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>2046</v>
       </c>
       <c r="B204" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C204" s="3" t="s">
+        <v>2501</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>2047</v>
       </c>
@@ -19751,7 +20402,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>2048</v>
       </c>
@@ -19759,7 +20410,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>2049</v>
       </c>
@@ -19767,7 +20418,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>2050</v>
       </c>

--- a/COREd WitE model list.xlsx
+++ b/COREd WitE model list.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3335" uniqueCount="2502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4310" uniqueCount="3467">
   <si>
     <t>A0039</t>
   </si>
@@ -7539,6 +7539,2901 @@
   </si>
   <si>
     <t>von Kortzfleisch, Joachim</t>
+  </si>
+  <si>
+    <t>LD0268</t>
+  </si>
+  <si>
+    <t>LD0269</t>
+  </si>
+  <si>
+    <t>LD0270</t>
+  </si>
+  <si>
+    <t>LD0271</t>
+  </si>
+  <si>
+    <t>LD0272</t>
+  </si>
+  <si>
+    <t>LD0273</t>
+  </si>
+  <si>
+    <t>LD0274</t>
+  </si>
+  <si>
+    <t>LD0275</t>
+  </si>
+  <si>
+    <t>LD0276</t>
+  </si>
+  <si>
+    <t>LD0277</t>
+  </si>
+  <si>
+    <t>LD0278</t>
+  </si>
+  <si>
+    <t>LD0279</t>
+  </si>
+  <si>
+    <t>LD0280</t>
+  </si>
+  <si>
+    <t>LD0281</t>
+  </si>
+  <si>
+    <t>LD0282</t>
+  </si>
+  <si>
+    <t>LD0283</t>
+  </si>
+  <si>
+    <t>LD0284</t>
+  </si>
+  <si>
+    <t>LD0285</t>
+  </si>
+  <si>
+    <t>LD0286</t>
+  </si>
+  <si>
+    <t>LD0287</t>
+  </si>
+  <si>
+    <t>LD0288</t>
+  </si>
+  <si>
+    <t>LD0289</t>
+  </si>
+  <si>
+    <t>LD0290</t>
+  </si>
+  <si>
+    <t>LD0291</t>
+  </si>
+  <si>
+    <t>LD0292</t>
+  </si>
+  <si>
+    <t>LD0293</t>
+  </si>
+  <si>
+    <t>LD0294</t>
+  </si>
+  <si>
+    <t>LD0295</t>
+  </si>
+  <si>
+    <t>LD0296</t>
+  </si>
+  <si>
+    <t>LD0297</t>
+  </si>
+  <si>
+    <t>LD0298</t>
+  </si>
+  <si>
+    <t>LD0299</t>
+  </si>
+  <si>
+    <t>LD0300</t>
+  </si>
+  <si>
+    <t>LD0301</t>
+  </si>
+  <si>
+    <t>LD0302</t>
+  </si>
+  <si>
+    <t>LD0303</t>
+  </si>
+  <si>
+    <t>LD0304</t>
+  </si>
+  <si>
+    <t>LD0305</t>
+  </si>
+  <si>
+    <t>LD0306</t>
+  </si>
+  <si>
+    <t>LD0307</t>
+  </si>
+  <si>
+    <t>LD0308</t>
+  </si>
+  <si>
+    <t>LD0309</t>
+  </si>
+  <si>
+    <t>LD0310</t>
+  </si>
+  <si>
+    <t>LD0311</t>
+  </si>
+  <si>
+    <t>LD0312</t>
+  </si>
+  <si>
+    <t>LD0313</t>
+  </si>
+  <si>
+    <t>LD0314</t>
+  </si>
+  <si>
+    <t>LD0315</t>
+  </si>
+  <si>
+    <t>LD0316</t>
+  </si>
+  <si>
+    <t>LD0317</t>
+  </si>
+  <si>
+    <t>LD0318</t>
+  </si>
+  <si>
+    <t>LD0319</t>
+  </si>
+  <si>
+    <t>LD0320</t>
+  </si>
+  <si>
+    <t>LD0321</t>
+  </si>
+  <si>
+    <t>LD0322</t>
+  </si>
+  <si>
+    <t>LD0323</t>
+  </si>
+  <si>
+    <t>LD0324</t>
+  </si>
+  <si>
+    <t>LD0325</t>
+  </si>
+  <si>
+    <t>LD0326</t>
+  </si>
+  <si>
+    <t>LD0327</t>
+  </si>
+  <si>
+    <t>LD0328</t>
+  </si>
+  <si>
+    <t>LD0329</t>
+  </si>
+  <si>
+    <t>LD0330</t>
+  </si>
+  <si>
+    <t>LD0331</t>
+  </si>
+  <si>
+    <t>LD0332</t>
+  </si>
+  <si>
+    <t>LD0333</t>
+  </si>
+  <si>
+    <t>LD0334</t>
+  </si>
+  <si>
+    <t>LD0335</t>
+  </si>
+  <si>
+    <t>LD0336</t>
+  </si>
+  <si>
+    <t>LD0337</t>
+  </si>
+  <si>
+    <t>LD0338</t>
+  </si>
+  <si>
+    <t>LD0339</t>
+  </si>
+  <si>
+    <t>LD0340</t>
+  </si>
+  <si>
+    <t>LD0341</t>
+  </si>
+  <si>
+    <t>LD0342</t>
+  </si>
+  <si>
+    <t>LD0343</t>
+  </si>
+  <si>
+    <t>LD0344</t>
+  </si>
+  <si>
+    <t>LD0345</t>
+  </si>
+  <si>
+    <t>LD0346</t>
+  </si>
+  <si>
+    <t>LD0347</t>
+  </si>
+  <si>
+    <t>LD0348</t>
+  </si>
+  <si>
+    <t>LD0349</t>
+  </si>
+  <si>
+    <t>LD0350</t>
+  </si>
+  <si>
+    <t>LD0351</t>
+  </si>
+  <si>
+    <t>LD0352</t>
+  </si>
+  <si>
+    <t>LD0353</t>
+  </si>
+  <si>
+    <t>LD0354</t>
+  </si>
+  <si>
+    <t>LD0355</t>
+  </si>
+  <si>
+    <t>LD0356</t>
+  </si>
+  <si>
+    <t>LD0357</t>
+  </si>
+  <si>
+    <t>LD0358</t>
+  </si>
+  <si>
+    <t>LD0359</t>
+  </si>
+  <si>
+    <t>LD0360</t>
+  </si>
+  <si>
+    <t>LD0361</t>
+  </si>
+  <si>
+    <t>LD0362</t>
+  </si>
+  <si>
+    <t>LD0363</t>
+  </si>
+  <si>
+    <t>LD0364</t>
+  </si>
+  <si>
+    <t>LD0365</t>
+  </si>
+  <si>
+    <t>LD0366</t>
+  </si>
+  <si>
+    <t>LD0367</t>
+  </si>
+  <si>
+    <t>LD0368</t>
+  </si>
+  <si>
+    <t>LD0369</t>
+  </si>
+  <si>
+    <t>LD0370</t>
+  </si>
+  <si>
+    <t>LD0371</t>
+  </si>
+  <si>
+    <t>LD0372</t>
+  </si>
+  <si>
+    <t>LD0373</t>
+  </si>
+  <si>
+    <t>LD0374</t>
+  </si>
+  <si>
+    <t>LD0375</t>
+  </si>
+  <si>
+    <t>LD0376</t>
+  </si>
+  <si>
+    <t>LD0377</t>
+  </si>
+  <si>
+    <t>LD0378</t>
+  </si>
+  <si>
+    <t>LD0379</t>
+  </si>
+  <si>
+    <t>LD0380</t>
+  </si>
+  <si>
+    <t>LD0381</t>
+  </si>
+  <si>
+    <t>LD0382</t>
+  </si>
+  <si>
+    <t>LD0383</t>
+  </si>
+  <si>
+    <t>LD0384</t>
+  </si>
+  <si>
+    <t>LD0385</t>
+  </si>
+  <si>
+    <t>LD0386</t>
+  </si>
+  <si>
+    <t>LD0387</t>
+  </si>
+  <si>
+    <t>LD0388</t>
+  </si>
+  <si>
+    <t>LD0389</t>
+  </si>
+  <si>
+    <t>LD0390</t>
+  </si>
+  <si>
+    <t>LD0391</t>
+  </si>
+  <si>
+    <t>LD0392</t>
+  </si>
+  <si>
+    <t>LD0393</t>
+  </si>
+  <si>
+    <t>LD0394</t>
+  </si>
+  <si>
+    <t>LD0395</t>
+  </si>
+  <si>
+    <t>LD0396</t>
+  </si>
+  <si>
+    <t>LD0397</t>
+  </si>
+  <si>
+    <t>LD0398</t>
+  </si>
+  <si>
+    <t>LD0399</t>
+  </si>
+  <si>
+    <t>LD0400</t>
+  </si>
+  <si>
+    <t>LD0401</t>
+  </si>
+  <si>
+    <t>LD0402</t>
+  </si>
+  <si>
+    <t>LD0403</t>
+  </si>
+  <si>
+    <t>LD0404</t>
+  </si>
+  <si>
+    <t>LD0405</t>
+  </si>
+  <si>
+    <t>LD0406</t>
+  </si>
+  <si>
+    <t>LD0407</t>
+  </si>
+  <si>
+    <t>LD0408</t>
+  </si>
+  <si>
+    <t>LD0409</t>
+  </si>
+  <si>
+    <t>LD0410</t>
+  </si>
+  <si>
+    <t>LD0411</t>
+  </si>
+  <si>
+    <t>LD0412</t>
+  </si>
+  <si>
+    <t>LD0413</t>
+  </si>
+  <si>
+    <t>LD0414</t>
+  </si>
+  <si>
+    <t>LD0415</t>
+  </si>
+  <si>
+    <t>LD0416</t>
+  </si>
+  <si>
+    <t>LD0417</t>
+  </si>
+  <si>
+    <t>LD0418</t>
+  </si>
+  <si>
+    <t>LD0419</t>
+  </si>
+  <si>
+    <t>LD0420</t>
+  </si>
+  <si>
+    <t>LD0421</t>
+  </si>
+  <si>
+    <t>LD0422</t>
+  </si>
+  <si>
+    <t>LD0423</t>
+  </si>
+  <si>
+    <t>LD0424</t>
+  </si>
+  <si>
+    <t>LD0425</t>
+  </si>
+  <si>
+    <t>LD0426</t>
+  </si>
+  <si>
+    <t>LD0427</t>
+  </si>
+  <si>
+    <t>LD0428</t>
+  </si>
+  <si>
+    <t>LD0429</t>
+  </si>
+  <si>
+    <t>LD0430</t>
+  </si>
+  <si>
+    <t>LD0431</t>
+  </si>
+  <si>
+    <t>LD0432</t>
+  </si>
+  <si>
+    <t>LD0433</t>
+  </si>
+  <si>
+    <t>LD0434</t>
+  </si>
+  <si>
+    <t>LD0435</t>
+  </si>
+  <si>
+    <t>LD0436</t>
+  </si>
+  <si>
+    <t>LD0437</t>
+  </si>
+  <si>
+    <t>LD0438</t>
+  </si>
+  <si>
+    <t>LD0439</t>
+  </si>
+  <si>
+    <t>LD0440</t>
+  </si>
+  <si>
+    <t>LD0441</t>
+  </si>
+  <si>
+    <t>LD0442</t>
+  </si>
+  <si>
+    <t>LD0443</t>
+  </si>
+  <si>
+    <t>LD0444</t>
+  </si>
+  <si>
+    <t>LD0445</t>
+  </si>
+  <si>
+    <t>LD0446</t>
+  </si>
+  <si>
+    <t>LD0447</t>
+  </si>
+  <si>
+    <t>LD0448</t>
+  </si>
+  <si>
+    <t>LD0449</t>
+  </si>
+  <si>
+    <t>LD0450</t>
+  </si>
+  <si>
+    <t>LD0451</t>
+  </si>
+  <si>
+    <t>LD0452</t>
+  </si>
+  <si>
+    <t>LD0453</t>
+  </si>
+  <si>
+    <t>LD0454</t>
+  </si>
+  <si>
+    <t>LD0455</t>
+  </si>
+  <si>
+    <t>LD0456</t>
+  </si>
+  <si>
+    <t>LD0457</t>
+  </si>
+  <si>
+    <t>LD0458</t>
+  </si>
+  <si>
+    <t>LD0459</t>
+  </si>
+  <si>
+    <t>LD0460</t>
+  </si>
+  <si>
+    <t>LD0461</t>
+  </si>
+  <si>
+    <t>LD0462</t>
+  </si>
+  <si>
+    <t>LD0463</t>
+  </si>
+  <si>
+    <t>LD0464</t>
+  </si>
+  <si>
+    <t>LD0465</t>
+  </si>
+  <si>
+    <t>LD0466</t>
+  </si>
+  <si>
+    <t>LD0467</t>
+  </si>
+  <si>
+    <t>LD0468</t>
+  </si>
+  <si>
+    <t>LD0469</t>
+  </si>
+  <si>
+    <t>LD0470</t>
+  </si>
+  <si>
+    <t>LD0471</t>
+  </si>
+  <si>
+    <t>LD0472</t>
+  </si>
+  <si>
+    <t>LD0473</t>
+  </si>
+  <si>
+    <t>LD0474</t>
+  </si>
+  <si>
+    <t>LD0475</t>
+  </si>
+  <si>
+    <t>LD0476</t>
+  </si>
+  <si>
+    <t>LD0477</t>
+  </si>
+  <si>
+    <t>LD0478</t>
+  </si>
+  <si>
+    <t>LD0479</t>
+  </si>
+  <si>
+    <t>LD0480</t>
+  </si>
+  <si>
+    <t>LD0481</t>
+  </si>
+  <si>
+    <t>LD0482</t>
+  </si>
+  <si>
+    <t>LD0483</t>
+  </si>
+  <si>
+    <t>LD0484</t>
+  </si>
+  <si>
+    <t>LD0485</t>
+  </si>
+  <si>
+    <t>LD0486</t>
+  </si>
+  <si>
+    <t>LD0487</t>
+  </si>
+  <si>
+    <t>LD0488</t>
+  </si>
+  <si>
+    <t>LD0489</t>
+  </si>
+  <si>
+    <t>LD0490</t>
+  </si>
+  <si>
+    <t>LD0491</t>
+  </si>
+  <si>
+    <t>LD0492</t>
+  </si>
+  <si>
+    <t>LD0493</t>
+  </si>
+  <si>
+    <t>LD0494</t>
+  </si>
+  <si>
+    <t>LD0495</t>
+  </si>
+  <si>
+    <t>LD0496</t>
+  </si>
+  <si>
+    <t>LD0497</t>
+  </si>
+  <si>
+    <t>LD0498</t>
+  </si>
+  <si>
+    <t>LD0499</t>
+  </si>
+  <si>
+    <t>LD0500</t>
+  </si>
+  <si>
+    <t>LD0501</t>
+  </si>
+  <si>
+    <t>LD0502</t>
+  </si>
+  <si>
+    <t>LD0503</t>
+  </si>
+  <si>
+    <t>LD0504</t>
+  </si>
+  <si>
+    <t>LD0505</t>
+  </si>
+  <si>
+    <t>LD0506</t>
+  </si>
+  <si>
+    <t>LD0507</t>
+  </si>
+  <si>
+    <t>LD0508</t>
+  </si>
+  <si>
+    <t>LD0509</t>
+  </si>
+  <si>
+    <t>LD0510</t>
+  </si>
+  <si>
+    <t>LD0511</t>
+  </si>
+  <si>
+    <t>LD0512</t>
+  </si>
+  <si>
+    <t>LD0513</t>
+  </si>
+  <si>
+    <t>LD0514</t>
+  </si>
+  <si>
+    <t>LD0515</t>
+  </si>
+  <si>
+    <t>LD0516</t>
+  </si>
+  <si>
+    <t>LD0517</t>
+  </si>
+  <si>
+    <t>LD0518</t>
+  </si>
+  <si>
+    <t>LD0519</t>
+  </si>
+  <si>
+    <t>LD0520</t>
+  </si>
+  <si>
+    <t>LD0521</t>
+  </si>
+  <si>
+    <t>LD0522</t>
+  </si>
+  <si>
+    <t>LD0523</t>
+  </si>
+  <si>
+    <t>LD0524</t>
+  </si>
+  <si>
+    <t>LD0525</t>
+  </si>
+  <si>
+    <t>LD0526</t>
+  </si>
+  <si>
+    <t>LD0527</t>
+  </si>
+  <si>
+    <t>LD0528</t>
+  </si>
+  <si>
+    <t>LD0529</t>
+  </si>
+  <si>
+    <t>LD0530</t>
+  </si>
+  <si>
+    <t>LD0531</t>
+  </si>
+  <si>
+    <t>LD0532</t>
+  </si>
+  <si>
+    <t>LD0533</t>
+  </si>
+  <si>
+    <t>LD0534</t>
+  </si>
+  <si>
+    <t>LD0535</t>
+  </si>
+  <si>
+    <t>LD0536</t>
+  </si>
+  <si>
+    <t>LD0537</t>
+  </si>
+  <si>
+    <t>LD0538</t>
+  </si>
+  <si>
+    <t>LD0539</t>
+  </si>
+  <si>
+    <t>LD0540</t>
+  </si>
+  <si>
+    <t>LD0541</t>
+  </si>
+  <si>
+    <t>LD0542</t>
+  </si>
+  <si>
+    <t>LD0543</t>
+  </si>
+  <si>
+    <t>LD0544</t>
+  </si>
+  <si>
+    <t>LD0545</t>
+  </si>
+  <si>
+    <t>LD0546</t>
+  </si>
+  <si>
+    <t>LD0547</t>
+  </si>
+  <si>
+    <t>LD0548</t>
+  </si>
+  <si>
+    <t>LD0549</t>
+  </si>
+  <si>
+    <t>LD0550</t>
+  </si>
+  <si>
+    <t>LD0551</t>
+  </si>
+  <si>
+    <t>LD0552</t>
+  </si>
+  <si>
+    <t>LD0553</t>
+  </si>
+  <si>
+    <t>LD0554</t>
+  </si>
+  <si>
+    <t>LD0555</t>
+  </si>
+  <si>
+    <t>LD0556</t>
+  </si>
+  <si>
+    <t>LD0557</t>
+  </si>
+  <si>
+    <t>LD0558</t>
+  </si>
+  <si>
+    <t>LD0559</t>
+  </si>
+  <si>
+    <t>LD0560</t>
+  </si>
+  <si>
+    <t>LD0561</t>
+  </si>
+  <si>
+    <t>LD0562</t>
+  </si>
+  <si>
+    <t>LD0563</t>
+  </si>
+  <si>
+    <t>LD0564</t>
+  </si>
+  <si>
+    <t>LD0565</t>
+  </si>
+  <si>
+    <t>LD0566</t>
+  </si>
+  <si>
+    <t>LD0567</t>
+  </si>
+  <si>
+    <t>LD0568</t>
+  </si>
+  <si>
+    <t>LD0569</t>
+  </si>
+  <si>
+    <t>LD0570</t>
+  </si>
+  <si>
+    <t>LD0571</t>
+  </si>
+  <si>
+    <t>LD0572</t>
+  </si>
+  <si>
+    <t>LD0573</t>
+  </si>
+  <si>
+    <t>LD0574</t>
+  </si>
+  <si>
+    <t>LD0575</t>
+  </si>
+  <si>
+    <t>LD0576</t>
+  </si>
+  <si>
+    <t>LD0577</t>
+  </si>
+  <si>
+    <t>LD0578</t>
+  </si>
+  <si>
+    <t>LD0579</t>
+  </si>
+  <si>
+    <t>LD0580</t>
+  </si>
+  <si>
+    <t>LD0581</t>
+  </si>
+  <si>
+    <t>LD0582</t>
+  </si>
+  <si>
+    <t>LD0583</t>
+  </si>
+  <si>
+    <t>LD0584</t>
+  </si>
+  <si>
+    <t>LD0585</t>
+  </si>
+  <si>
+    <t>LD0586</t>
+  </si>
+  <si>
+    <t>LD0587</t>
+  </si>
+  <si>
+    <t>LD0588</t>
+  </si>
+  <si>
+    <t>LD0589</t>
+  </si>
+  <si>
+    <t>LD0590</t>
+  </si>
+  <si>
+    <t>LD0591</t>
+  </si>
+  <si>
+    <t>LD0592</t>
+  </si>
+  <si>
+    <t>LD0593</t>
+  </si>
+  <si>
+    <t>LD0594</t>
+  </si>
+  <si>
+    <t>LD0595</t>
+  </si>
+  <si>
+    <t>LD0596</t>
+  </si>
+  <si>
+    <t>LD0597</t>
+  </si>
+  <si>
+    <t>LD0598</t>
+  </si>
+  <si>
+    <t>LD0599</t>
+  </si>
+  <si>
+    <t>LD0600</t>
+  </si>
+  <si>
+    <t>LD0601</t>
+  </si>
+  <si>
+    <t>LD0602</t>
+  </si>
+  <si>
+    <t>LD0603</t>
+  </si>
+  <si>
+    <t>LD0604</t>
+  </si>
+  <si>
+    <t>LD0605</t>
+  </si>
+  <si>
+    <t>LD0606</t>
+  </si>
+  <si>
+    <t>LD0607</t>
+  </si>
+  <si>
+    <t>LD0608</t>
+  </si>
+  <si>
+    <t>LD0609</t>
+  </si>
+  <si>
+    <t>LD0610</t>
+  </si>
+  <si>
+    <t>LD0611</t>
+  </si>
+  <si>
+    <t>LD0612</t>
+  </si>
+  <si>
+    <t>LD0613</t>
+  </si>
+  <si>
+    <t>LD0614</t>
+  </si>
+  <si>
+    <t>LD0615</t>
+  </si>
+  <si>
+    <t>LD0616</t>
+  </si>
+  <si>
+    <t>LD0617</t>
+  </si>
+  <si>
+    <t>LD0618</t>
+  </si>
+  <si>
+    <t>LD0619</t>
+  </si>
+  <si>
+    <t>LD0620</t>
+  </si>
+  <si>
+    <t>LD0621</t>
+  </si>
+  <si>
+    <t>LD0622</t>
+  </si>
+  <si>
+    <t>LD0623</t>
+  </si>
+  <si>
+    <t>LD0624</t>
+  </si>
+  <si>
+    <t>LD0625</t>
+  </si>
+  <si>
+    <t>LD0626</t>
+  </si>
+  <si>
+    <t>LD0627</t>
+  </si>
+  <si>
+    <t>LD0628</t>
+  </si>
+  <si>
+    <t>LD0629</t>
+  </si>
+  <si>
+    <t>LD0630</t>
+  </si>
+  <si>
+    <t>LD0631</t>
+  </si>
+  <si>
+    <t>LD0632</t>
+  </si>
+  <si>
+    <t>LD0633</t>
+  </si>
+  <si>
+    <t>LD0634</t>
+  </si>
+  <si>
+    <t>LD0635</t>
+  </si>
+  <si>
+    <t>LD0636</t>
+  </si>
+  <si>
+    <t>LD0637</t>
+  </si>
+  <si>
+    <t>LD0638</t>
+  </si>
+  <si>
+    <t>LD0639</t>
+  </si>
+  <si>
+    <t>LD0640</t>
+  </si>
+  <si>
+    <t>LD0641</t>
+  </si>
+  <si>
+    <t>LD0642</t>
+  </si>
+  <si>
+    <t>LD0643</t>
+  </si>
+  <si>
+    <t>LD0644</t>
+  </si>
+  <si>
+    <t>LD0645</t>
+  </si>
+  <si>
+    <t>LD0646</t>
+  </si>
+  <si>
+    <t>LD0647</t>
+  </si>
+  <si>
+    <t>LD0648</t>
+  </si>
+  <si>
+    <t>LD0649</t>
+  </si>
+  <si>
+    <t>LD0650</t>
+  </si>
+  <si>
+    <t>LD0651</t>
+  </si>
+  <si>
+    <t>LD0652</t>
+  </si>
+  <si>
+    <t>LD0653</t>
+  </si>
+  <si>
+    <t>LD0654</t>
+  </si>
+  <si>
+    <t>LD0655</t>
+  </si>
+  <si>
+    <t>LD0656</t>
+  </si>
+  <si>
+    <t>LD0657</t>
+  </si>
+  <si>
+    <t>LD0658</t>
+  </si>
+  <si>
+    <t>LD0659</t>
+  </si>
+  <si>
+    <t>LD0660</t>
+  </si>
+  <si>
+    <t>LD0661</t>
+  </si>
+  <si>
+    <t>LD0662</t>
+  </si>
+  <si>
+    <t>LD0663</t>
+  </si>
+  <si>
+    <t>LD0664</t>
+  </si>
+  <si>
+    <t>LD0665</t>
+  </si>
+  <si>
+    <t>LD0666</t>
+  </si>
+  <si>
+    <t>LD0667</t>
+  </si>
+  <si>
+    <t>LD0668</t>
+  </si>
+  <si>
+    <t>LD0669</t>
+  </si>
+  <si>
+    <t>LD0670</t>
+  </si>
+  <si>
+    <t>LD0671</t>
+  </si>
+  <si>
+    <t>LD0672</t>
+  </si>
+  <si>
+    <t>LD0673</t>
+  </si>
+  <si>
+    <t>LD0674</t>
+  </si>
+  <si>
+    <t>LD0675</t>
+  </si>
+  <si>
+    <t>LD0676</t>
+  </si>
+  <si>
+    <t>LD0677</t>
+  </si>
+  <si>
+    <t>LD0678</t>
+  </si>
+  <si>
+    <t>LD0679</t>
+  </si>
+  <si>
+    <t>LD0680</t>
+  </si>
+  <si>
+    <t>LD0681</t>
+  </si>
+  <si>
+    <t>LD0682</t>
+  </si>
+  <si>
+    <t>LD0683</t>
+  </si>
+  <si>
+    <t>LD0684</t>
+  </si>
+  <si>
+    <t>LD0685</t>
+  </si>
+  <si>
+    <t>LD0686</t>
+  </si>
+  <si>
+    <t>LD0687</t>
+  </si>
+  <si>
+    <t>LD0688</t>
+  </si>
+  <si>
+    <t>LD0689</t>
+  </si>
+  <si>
+    <t>LD0690</t>
+  </si>
+  <si>
+    <t>LD0691</t>
+  </si>
+  <si>
+    <t>LD0692</t>
+  </si>
+  <si>
+    <t>LD0693</t>
+  </si>
+  <si>
+    <t>LD0694</t>
+  </si>
+  <si>
+    <t>LD0695</t>
+  </si>
+  <si>
+    <t>LD0696</t>
+  </si>
+  <si>
+    <t>LD0697</t>
+  </si>
+  <si>
+    <t>LD0698</t>
+  </si>
+  <si>
+    <t>LD0699</t>
+  </si>
+  <si>
+    <t>LD0700</t>
+  </si>
+  <si>
+    <t>LD0701</t>
+  </si>
+  <si>
+    <t>LD0702</t>
+  </si>
+  <si>
+    <t>LD0703</t>
+  </si>
+  <si>
+    <t>LD0704</t>
+  </si>
+  <si>
+    <t>LD0705</t>
+  </si>
+  <si>
+    <t>LD0706</t>
+  </si>
+  <si>
+    <t>LD0707</t>
+  </si>
+  <si>
+    <t>LD0708</t>
+  </si>
+  <si>
+    <t>LD0709</t>
+  </si>
+  <si>
+    <t>LD0710</t>
+  </si>
+  <si>
+    <t>LD0711</t>
+  </si>
+  <si>
+    <t>LD0712</t>
+  </si>
+  <si>
+    <t>LD0713</t>
+  </si>
+  <si>
+    <t>LD0714</t>
+  </si>
+  <si>
+    <t>LD0715</t>
+  </si>
+  <si>
+    <t>LD0716</t>
+  </si>
+  <si>
+    <t>LD0717</t>
+  </si>
+  <si>
+    <t>LD0718</t>
+  </si>
+  <si>
+    <t>LD0719</t>
+  </si>
+  <si>
+    <t>LD0720</t>
+  </si>
+  <si>
+    <t>LD0721</t>
+  </si>
+  <si>
+    <t>LD0722</t>
+  </si>
+  <si>
+    <t>LD0723</t>
+  </si>
+  <si>
+    <t>LD0724</t>
+  </si>
+  <si>
+    <t>LD0725</t>
+  </si>
+  <si>
+    <t>LD0726</t>
+  </si>
+  <si>
+    <t>LD0727</t>
+  </si>
+  <si>
+    <t>LD0728</t>
+  </si>
+  <si>
+    <t>LD0729</t>
+  </si>
+  <si>
+    <t>LD0730</t>
+  </si>
+  <si>
+    <t>LD0731</t>
+  </si>
+  <si>
+    <t>LD0732</t>
+  </si>
+  <si>
+    <t>LD0733</t>
+  </si>
+  <si>
+    <t>LD0734</t>
+  </si>
+  <si>
+    <t>LD0735</t>
+  </si>
+  <si>
+    <t>LD0736</t>
+  </si>
+  <si>
+    <t>LD0737</t>
+  </si>
+  <si>
+    <t>LD0738</t>
+  </si>
+  <si>
+    <t>LD0739</t>
+  </si>
+  <si>
+    <t>LD0740</t>
+  </si>
+  <si>
+    <t>LD0741</t>
+  </si>
+  <si>
+    <t>LD0742</t>
+  </si>
+  <si>
+    <t>LD0743</t>
+  </si>
+  <si>
+    <t>LD0744</t>
+  </si>
+  <si>
+    <t>LD0745</t>
+  </si>
+  <si>
+    <t>LD0746</t>
+  </si>
+  <si>
+    <t>LD0747</t>
+  </si>
+  <si>
+    <t>LD0748</t>
+  </si>
+  <si>
+    <t>LD0749</t>
+  </si>
+  <si>
+    <t>LD0750</t>
+  </si>
+  <si>
+    <t>LD0751</t>
+  </si>
+  <si>
+    <t>LD0752</t>
+  </si>
+  <si>
+    <t>LD0753</t>
+  </si>
+  <si>
+    <t>LD0754</t>
+  </si>
+  <si>
+    <t>LD0755</t>
+  </si>
+  <si>
+    <t>LD0756</t>
+  </si>
+  <si>
+    <t>LD0800</t>
+  </si>
+  <si>
+    <t>LD0801</t>
+  </si>
+  <si>
+    <t>LD0802</t>
+  </si>
+  <si>
+    <t>LD0803</t>
+  </si>
+  <si>
+    <t>LD0804</t>
+  </si>
+  <si>
+    <t>LD0805</t>
+  </si>
+  <si>
+    <t>LD0806</t>
+  </si>
+  <si>
+    <t>LD0807</t>
+  </si>
+  <si>
+    <t>LD0808</t>
+  </si>
+  <si>
+    <t>LD0809</t>
+  </si>
+  <si>
+    <t>LD0810</t>
+  </si>
+  <si>
+    <t>LD0811</t>
+  </si>
+  <si>
+    <t>LD0812</t>
+  </si>
+  <si>
+    <t>LD0813</t>
+  </si>
+  <si>
+    <t>LD0814</t>
+  </si>
+  <si>
+    <t>LD0815</t>
+  </si>
+  <si>
+    <t>LD0816</t>
+  </si>
+  <si>
+    <t>LD0817</t>
+  </si>
+  <si>
+    <t>LD0818</t>
+  </si>
+  <si>
+    <t>LD0819</t>
+  </si>
+  <si>
+    <t>LD0820</t>
+  </si>
+  <si>
+    <t>LD0821</t>
+  </si>
+  <si>
+    <t>LD0822</t>
+  </si>
+  <si>
+    <t>LD0823</t>
+  </si>
+  <si>
+    <t>LD0824</t>
+  </si>
+  <si>
+    <t>LD0825</t>
+  </si>
+  <si>
+    <t>LD0826</t>
+  </si>
+  <si>
+    <t>LD0827</t>
+  </si>
+  <si>
+    <t>LD0828</t>
+  </si>
+  <si>
+    <t>LD0829</t>
+  </si>
+  <si>
+    <t>LD0830</t>
+  </si>
+  <si>
+    <t>LD0831</t>
+  </si>
+  <si>
+    <t>LD0832</t>
+  </si>
+  <si>
+    <t>LD0833</t>
+  </si>
+  <si>
+    <t>LD0834</t>
+  </si>
+  <si>
+    <t>LD0835</t>
+  </si>
+  <si>
+    <t>LD0836</t>
+  </si>
+  <si>
+    <t>LD0837</t>
+  </si>
+  <si>
+    <t>LD0838</t>
+  </si>
+  <si>
+    <t>LD0839</t>
+  </si>
+  <si>
+    <t>LD0840</t>
+  </si>
+  <si>
+    <t>LD0841</t>
+  </si>
+  <si>
+    <t>LD0842</t>
+  </si>
+  <si>
+    <t>LD0843</t>
+  </si>
+  <si>
+    <t>LD0844</t>
+  </si>
+  <si>
+    <t>LD0845</t>
+  </si>
+  <si>
+    <t>LD0846</t>
+  </si>
+  <si>
+    <t>LD0847</t>
+  </si>
+  <si>
+    <t>LD0848</t>
+  </si>
+  <si>
+    <t>LD0849</t>
+  </si>
+  <si>
+    <t>LD0850</t>
+  </si>
+  <si>
+    <t>LD0851</t>
+  </si>
+  <si>
+    <t>LD0852</t>
+  </si>
+  <si>
+    <t>LD0853</t>
+  </si>
+  <si>
+    <t>LD0854</t>
+  </si>
+  <si>
+    <t>LD0855</t>
+  </si>
+  <si>
+    <t>LD0856</t>
+  </si>
+  <si>
+    <t>LD0857</t>
+  </si>
+  <si>
+    <t>LD0858</t>
+  </si>
+  <si>
+    <t>LD0859</t>
+  </si>
+  <si>
+    <t>LD0860</t>
+  </si>
+  <si>
+    <t>LD0861</t>
+  </si>
+  <si>
+    <t>LD0862</t>
+  </si>
+  <si>
+    <t>LD0863</t>
+  </si>
+  <si>
+    <t>LD0864</t>
+  </si>
+  <si>
+    <t>LD0865</t>
+  </si>
+  <si>
+    <t>LD0866</t>
+  </si>
+  <si>
+    <t>LD0867</t>
+  </si>
+  <si>
+    <t>LD0868</t>
+  </si>
+  <si>
+    <t>LD0869</t>
+  </si>
+  <si>
+    <t>LD0870</t>
+  </si>
+  <si>
+    <t>LD0871</t>
+  </si>
+  <si>
+    <t>LD0872</t>
+  </si>
+  <si>
+    <t>LD0873</t>
+  </si>
+  <si>
+    <t>LD0874</t>
+  </si>
+  <si>
+    <t>LD0875</t>
+  </si>
+  <si>
+    <t>LD0876</t>
+  </si>
+  <si>
+    <t>LD0877</t>
+  </si>
+  <si>
+    <t>LD0878</t>
+  </si>
+  <si>
+    <t>LD0879</t>
+  </si>
+  <si>
+    <t>LD0880</t>
+  </si>
+  <si>
+    <t>LD0881</t>
+  </si>
+  <si>
+    <t>LD0882</t>
+  </si>
+  <si>
+    <t>LD0883</t>
+  </si>
+  <si>
+    <t>LD0884</t>
+  </si>
+  <si>
+    <t>LD0885</t>
+  </si>
+  <si>
+    <t>LD0886</t>
+  </si>
+  <si>
+    <t>LD0887</t>
+  </si>
+  <si>
+    <t>LD0888</t>
+  </si>
+  <si>
+    <t>LD0889</t>
+  </si>
+  <si>
+    <t>LD0890</t>
+  </si>
+  <si>
+    <t>LD0891</t>
+  </si>
+  <si>
+    <t>LD0892</t>
+  </si>
+  <si>
+    <t>LD0893</t>
+  </si>
+  <si>
+    <t>LD0894</t>
+  </si>
+  <si>
+    <t>LD0895</t>
+  </si>
+  <si>
+    <t>LD0896</t>
+  </si>
+  <si>
+    <t>LD0897</t>
+  </si>
+  <si>
+    <t>LD0898</t>
+  </si>
+  <si>
+    <t>LD0899</t>
+  </si>
+  <si>
+    <t>LD0900</t>
+  </si>
+  <si>
+    <t>LD0901</t>
+  </si>
+  <si>
+    <t>LD0902</t>
+  </si>
+  <si>
+    <t>LD0903</t>
+  </si>
+  <si>
+    <t>LD0904</t>
+  </si>
+  <si>
+    <t>LD0905</t>
+  </si>
+  <si>
+    <t>LD0906</t>
+  </si>
+  <si>
+    <t>LD0907</t>
+  </si>
+  <si>
+    <t>LD0908</t>
+  </si>
+  <si>
+    <t>LD0909</t>
+  </si>
+  <si>
+    <t>LD0910</t>
+  </si>
+  <si>
+    <t>LD0911</t>
+  </si>
+  <si>
+    <t>LD0912</t>
+  </si>
+  <si>
+    <t>LD0913</t>
+  </si>
+  <si>
+    <t>LD0914</t>
+  </si>
+  <si>
+    <t>LD0915</t>
+  </si>
+  <si>
+    <t>LD0916</t>
+  </si>
+  <si>
+    <t>LD0917</t>
+  </si>
+  <si>
+    <t>LD0918</t>
+  </si>
+  <si>
+    <t>LD0919</t>
+  </si>
+  <si>
+    <t>LD0920</t>
+  </si>
+  <si>
+    <t>LD0921</t>
+  </si>
+  <si>
+    <t>LD0922</t>
+  </si>
+  <si>
+    <t>LD0923</t>
+  </si>
+  <si>
+    <t>LD0924</t>
+  </si>
+  <si>
+    <t>LD0925</t>
+  </si>
+  <si>
+    <t>LD0926</t>
+  </si>
+  <si>
+    <t>LD0927</t>
+  </si>
+  <si>
+    <t>LD0928</t>
+  </si>
+  <si>
+    <t>LD0929</t>
+  </si>
+  <si>
+    <t>LD0930</t>
+  </si>
+  <si>
+    <t>LD0931</t>
+  </si>
+  <si>
+    <t>LD0932</t>
+  </si>
+  <si>
+    <t>LD0933</t>
+  </si>
+  <si>
+    <t>LD0934</t>
+  </si>
+  <si>
+    <t>LD0935</t>
+  </si>
+  <si>
+    <t>LD0936</t>
+  </si>
+  <si>
+    <t>LD0937</t>
+  </si>
+  <si>
+    <t>LD0938</t>
+  </si>
+  <si>
+    <t>LD0939</t>
+  </si>
+  <si>
+    <t>LD0940</t>
+  </si>
+  <si>
+    <t>LD0941</t>
+  </si>
+  <si>
+    <t>LD0942</t>
+  </si>
+  <si>
+    <t>LD0943</t>
+  </si>
+  <si>
+    <t>LD0944</t>
+  </si>
+  <si>
+    <t>LD0945</t>
+  </si>
+  <si>
+    <t>LD0946</t>
+  </si>
+  <si>
+    <t>LD0947</t>
+  </si>
+  <si>
+    <t>LD0948</t>
+  </si>
+  <si>
+    <t>LD0949</t>
+  </si>
+  <si>
+    <t>LD0950</t>
+  </si>
+  <si>
+    <t>LD0951</t>
+  </si>
+  <si>
+    <t>LD0952</t>
+  </si>
+  <si>
+    <t>LD0953</t>
+  </si>
+  <si>
+    <t>LD0954</t>
+  </si>
+  <si>
+    <t>LD0955</t>
+  </si>
+  <si>
+    <t>LD0956</t>
+  </si>
+  <si>
+    <t>LD0957</t>
+  </si>
+  <si>
+    <t>LD0958</t>
+  </si>
+  <si>
+    <t>LD0959</t>
+  </si>
+  <si>
+    <t>LD0960</t>
+  </si>
+  <si>
+    <t>LD0961</t>
+  </si>
+  <si>
+    <t>LD0962</t>
+  </si>
+  <si>
+    <t>LD0963</t>
+  </si>
+  <si>
+    <t>LD0964</t>
+  </si>
+  <si>
+    <t>LD0965</t>
+  </si>
+  <si>
+    <t>LD0966</t>
+  </si>
+  <si>
+    <t>LD0967</t>
+  </si>
+  <si>
+    <t>LD0968</t>
+  </si>
+  <si>
+    <t>LD0969</t>
+  </si>
+  <si>
+    <t>LD0970</t>
+  </si>
+  <si>
+    <t>LD0971</t>
+  </si>
+  <si>
+    <t>LD0972</t>
+  </si>
+  <si>
+    <t>LD0973</t>
+  </si>
+  <si>
+    <t>LD0974</t>
+  </si>
+  <si>
+    <t>LD0975</t>
+  </si>
+  <si>
+    <t>LD0976</t>
+  </si>
+  <si>
+    <t>LD0977</t>
+  </si>
+  <si>
+    <t>LD0978</t>
+  </si>
+  <si>
+    <t>LD0979</t>
+  </si>
+  <si>
+    <t>LD0980</t>
+  </si>
+  <si>
+    <t>LD0981</t>
+  </si>
+  <si>
+    <t>LD0982</t>
+  </si>
+  <si>
+    <t>LD0983</t>
+  </si>
+  <si>
+    <t>LD0984</t>
+  </si>
+  <si>
+    <t>LD0985</t>
+  </si>
+  <si>
+    <t>LD0986</t>
+  </si>
+  <si>
+    <t>LD0987</t>
+  </si>
+  <si>
+    <t>LD0988</t>
+  </si>
+  <si>
+    <t>LD0989</t>
+  </si>
+  <si>
+    <t>LD0990</t>
+  </si>
+  <si>
+    <t>LD0991</t>
+  </si>
+  <si>
+    <t>LD0992</t>
+  </si>
+  <si>
+    <t>LD0993</t>
+  </si>
+  <si>
+    <t>LD0994</t>
+  </si>
+  <si>
+    <t>LD0995</t>
+  </si>
+  <si>
+    <t>LD0996</t>
+  </si>
+  <si>
+    <t>LD0997</t>
+  </si>
+  <si>
+    <t>LD0998</t>
+  </si>
+  <si>
+    <t>LD0999</t>
+  </si>
+  <si>
+    <t>LD1000</t>
+  </si>
+  <si>
+    <t>LD1001</t>
+  </si>
+  <si>
+    <t>LD1002</t>
+  </si>
+  <si>
+    <t>LD1003</t>
+  </si>
+  <si>
+    <t>LD1004</t>
+  </si>
+  <si>
+    <t>LD1005</t>
+  </si>
+  <si>
+    <t>LD1006</t>
+  </si>
+  <si>
+    <t>LD1007</t>
+  </si>
+  <si>
+    <t>LD1008</t>
+  </si>
+  <si>
+    <t>LD1009</t>
+  </si>
+  <si>
+    <t>LD1010</t>
+  </si>
+  <si>
+    <t>LD1011</t>
+  </si>
+  <si>
+    <t>LD1012</t>
+  </si>
+  <si>
+    <t>LD1013</t>
+  </si>
+  <si>
+    <t>LD1014</t>
+  </si>
+  <si>
+    <t>LD1015</t>
+  </si>
+  <si>
+    <t>LD1016</t>
+  </si>
+  <si>
+    <t>LD1017</t>
+  </si>
+  <si>
+    <t>LD1018</t>
+  </si>
+  <si>
+    <t>LD1019</t>
+  </si>
+  <si>
+    <t>LD1020</t>
+  </si>
+  <si>
+    <t>LD1021</t>
+  </si>
+  <si>
+    <t>LD1022</t>
+  </si>
+  <si>
+    <t>LD1023</t>
+  </si>
+  <si>
+    <t>LD1024</t>
+  </si>
+  <si>
+    <t>LD1025</t>
+  </si>
+  <si>
+    <t>LD1026</t>
+  </si>
+  <si>
+    <t>LD1027</t>
+  </si>
+  <si>
+    <t>LD1028</t>
+  </si>
+  <si>
+    <t>LD1029</t>
+  </si>
+  <si>
+    <t>LD1030</t>
+  </si>
+  <si>
+    <t>LD1031</t>
+  </si>
+  <si>
+    <t>LD1032</t>
+  </si>
+  <si>
+    <t>LD1033</t>
+  </si>
+  <si>
+    <t>LD1034</t>
+  </si>
+  <si>
+    <t>LD1035</t>
+  </si>
+  <si>
+    <t>LD1036</t>
+  </si>
+  <si>
+    <t>LD1037</t>
+  </si>
+  <si>
+    <t>LD1038</t>
+  </si>
+  <si>
+    <t>LD1039</t>
+  </si>
+  <si>
+    <t>LD1040</t>
+  </si>
+  <si>
+    <t>LD1041</t>
+  </si>
+  <si>
+    <t>LD1042</t>
+  </si>
+  <si>
+    <t>LD1043</t>
+  </si>
+  <si>
+    <t>LD1044</t>
+  </si>
+  <si>
+    <t>LD1045</t>
+  </si>
+  <si>
+    <t>LD1046</t>
+  </si>
+  <si>
+    <t>LD1047</t>
+  </si>
+  <si>
+    <t>LD1048</t>
+  </si>
+  <si>
+    <t>LD1049</t>
+  </si>
+  <si>
+    <t>LD1050</t>
+  </si>
+  <si>
+    <t>LD1051</t>
+  </si>
+  <si>
+    <t>LD1052</t>
+  </si>
+  <si>
+    <t>LD1053</t>
+  </si>
+  <si>
+    <t>LD1054</t>
+  </si>
+  <si>
+    <t>LD1055</t>
+  </si>
+  <si>
+    <t>LD1056</t>
+  </si>
+  <si>
+    <t>LD1057</t>
+  </si>
+  <si>
+    <t>LD1058</t>
+  </si>
+  <si>
+    <t>LD1059</t>
+  </si>
+  <si>
+    <t>LD1060</t>
+  </si>
+  <si>
+    <t>LD1061</t>
+  </si>
+  <si>
+    <t>LD1062</t>
+  </si>
+  <si>
+    <t>LD1063</t>
+  </si>
+  <si>
+    <t>LD1064</t>
+  </si>
+  <si>
+    <t>LD1065</t>
+  </si>
+  <si>
+    <t>LD1066</t>
+  </si>
+  <si>
+    <t>LD1067</t>
+  </si>
+  <si>
+    <t>LD1068</t>
+  </si>
+  <si>
+    <t>LD1069</t>
+  </si>
+  <si>
+    <t>LD1070</t>
+  </si>
+  <si>
+    <t>LD1071</t>
+  </si>
+  <si>
+    <t>LD1072</t>
+  </si>
+  <si>
+    <t>LD1073</t>
+  </si>
+  <si>
+    <t>LD1074</t>
+  </si>
+  <si>
+    <t>LD1075</t>
+  </si>
+  <si>
+    <t>LD1076</t>
+  </si>
+  <si>
+    <t>LD1077</t>
+  </si>
+  <si>
+    <t>LD1078</t>
+  </si>
+  <si>
+    <t>LD1079</t>
+  </si>
+  <si>
+    <t>LD1080</t>
+  </si>
+  <si>
+    <t>LD1081</t>
+  </si>
+  <si>
+    <t>LD1082</t>
+  </si>
+  <si>
+    <t>LD1083</t>
+  </si>
+  <si>
+    <t>LD1084</t>
+  </si>
+  <si>
+    <t>LD1085</t>
+  </si>
+  <si>
+    <t>LD1086</t>
+  </si>
+  <si>
+    <t>LD1087</t>
+  </si>
+  <si>
+    <t>LD1088</t>
+  </si>
+  <si>
+    <t>LD1089</t>
+  </si>
+  <si>
+    <t>LD1090</t>
+  </si>
+  <si>
+    <t>LD1091</t>
+  </si>
+  <si>
+    <t>LD1092</t>
+  </si>
+  <si>
+    <t>LD1093</t>
+  </si>
+  <si>
+    <t>LD1094</t>
+  </si>
+  <si>
+    <t>LD1095</t>
+  </si>
+  <si>
+    <t>LD1096</t>
+  </si>
+  <si>
+    <t>LD1097</t>
+  </si>
+  <si>
+    <t>LD1098</t>
+  </si>
+  <si>
+    <t>LD1099</t>
+  </si>
+  <si>
+    <t>LD1100</t>
+  </si>
+  <si>
+    <t>LD1101</t>
+  </si>
+  <si>
+    <t>LD1102</t>
+  </si>
+  <si>
+    <t>LD1103</t>
+  </si>
+  <si>
+    <t>LD1104</t>
+  </si>
+  <si>
+    <t>LD1105</t>
+  </si>
+  <si>
+    <t>LD1106</t>
+  </si>
+  <si>
+    <t>LD1107</t>
+  </si>
+  <si>
+    <t>LD1108</t>
+  </si>
+  <si>
+    <t>LD1109</t>
+  </si>
+  <si>
+    <t>LD1110</t>
+  </si>
+  <si>
+    <t>LD1111</t>
+  </si>
+  <si>
+    <t>LD1112</t>
+  </si>
+  <si>
+    <t>LD1113</t>
+  </si>
+  <si>
+    <t>LD1114</t>
+  </si>
+  <si>
+    <t>LD1115</t>
+  </si>
+  <si>
+    <t>LD1116</t>
+  </si>
+  <si>
+    <t>LD1117</t>
+  </si>
+  <si>
+    <t>LD1118</t>
+  </si>
+  <si>
+    <t>LD1119</t>
+  </si>
+  <si>
+    <t>LD1120</t>
+  </si>
+  <si>
+    <t>LD1121</t>
+  </si>
+  <si>
+    <t>LD1122</t>
+  </si>
+  <si>
+    <t>LD1123</t>
+  </si>
+  <si>
+    <t>LD1124</t>
+  </si>
+  <si>
+    <t>LD1125</t>
+  </si>
+  <si>
+    <t>LD1126</t>
+  </si>
+  <si>
+    <t>LD1127</t>
+  </si>
+  <si>
+    <t>LD1128</t>
+  </si>
+  <si>
+    <t>LD1129</t>
+  </si>
+  <si>
+    <t>LD1130</t>
+  </si>
+  <si>
+    <t>LD1131</t>
+  </si>
+  <si>
+    <t>LD1132</t>
+  </si>
+  <si>
+    <t>LD1133</t>
+  </si>
+  <si>
+    <t>LD1134</t>
+  </si>
+  <si>
+    <t>LD1135</t>
+  </si>
+  <si>
+    <t>LD1136</t>
+  </si>
+  <si>
+    <t>LD1137</t>
+  </si>
+  <si>
+    <t>LD1138</t>
+  </si>
+  <si>
+    <t>LD1139</t>
+  </si>
+  <si>
+    <t>LD1140</t>
+  </si>
+  <si>
+    <t>LD1141</t>
+  </si>
+  <si>
+    <t>LD1142</t>
+  </si>
+  <si>
+    <t>LD1143</t>
+  </si>
+  <si>
+    <t>LD1144</t>
+  </si>
+  <si>
+    <t>LD1145</t>
+  </si>
+  <si>
+    <t>LD1146</t>
+  </si>
+  <si>
+    <t>LD1147</t>
+  </si>
+  <si>
+    <t>LD1148</t>
+  </si>
+  <si>
+    <t>LD1149</t>
+  </si>
+  <si>
+    <t>LD1150</t>
+  </si>
+  <si>
+    <t>LD1151</t>
+  </si>
+  <si>
+    <t>LD1152</t>
+  </si>
+  <si>
+    <t>LD1153</t>
+  </si>
+  <si>
+    <t>LD1154</t>
+  </si>
+  <si>
+    <t>LD1155</t>
+  </si>
+  <si>
+    <t>LD1156</t>
+  </si>
+  <si>
+    <t>LD1157</t>
+  </si>
+  <si>
+    <t>LD1158</t>
+  </si>
+  <si>
+    <t>LD1159</t>
+  </si>
+  <si>
+    <t>LD1160</t>
+  </si>
+  <si>
+    <t>LD1161</t>
+  </si>
+  <si>
+    <t>LD1162</t>
+  </si>
+  <si>
+    <t>LD1163</t>
+  </si>
+  <si>
+    <t>LD1164</t>
+  </si>
+  <si>
+    <t>LD1165</t>
+  </si>
+  <si>
+    <t>LD1166</t>
+  </si>
+  <si>
+    <t>LD1167</t>
+  </si>
+  <si>
+    <t>LD1168</t>
+  </si>
+  <si>
+    <t>LD1169</t>
+  </si>
+  <si>
+    <t>LD1170</t>
+  </si>
+  <si>
+    <t>LD1171</t>
+  </si>
+  <si>
+    <t>LD1172</t>
+  </si>
+  <si>
+    <t>LD1173</t>
+  </si>
+  <si>
+    <t>LD1174</t>
+  </si>
+  <si>
+    <t>LD1175</t>
+  </si>
+  <si>
+    <t>LD1176</t>
+  </si>
+  <si>
+    <t>LD1177</t>
+  </si>
+  <si>
+    <t>LD1178</t>
+  </si>
+  <si>
+    <t>LD1179</t>
+  </si>
+  <si>
+    <t>LD1180</t>
+  </si>
+  <si>
+    <t>LD1181</t>
+  </si>
+  <si>
+    <t>LD1182</t>
+  </si>
+  <si>
+    <t>LD1183</t>
+  </si>
+  <si>
+    <t>LD1184</t>
+  </si>
+  <si>
+    <t>LD1185</t>
+  </si>
+  <si>
+    <t>LD1186</t>
+  </si>
+  <si>
+    <t>LD1187</t>
+  </si>
+  <si>
+    <t>LD1188</t>
+  </si>
+  <si>
+    <t>LD1189</t>
+  </si>
+  <si>
+    <t>LD1190</t>
+  </si>
+  <si>
+    <t>LD1191</t>
+  </si>
+  <si>
+    <t>LD1192</t>
+  </si>
+  <si>
+    <t>LD1193</t>
+  </si>
+  <si>
+    <t>LD1194</t>
+  </si>
+  <si>
+    <t>LD1195</t>
+  </si>
+  <si>
+    <t>LD1196</t>
+  </si>
+  <si>
+    <t>LD1197</t>
+  </si>
+  <si>
+    <t>LD1198</t>
+  </si>
+  <si>
+    <t>LD1199</t>
+  </si>
+  <si>
+    <t>LD1200</t>
+  </si>
+  <si>
+    <t>LD1201</t>
+  </si>
+  <si>
+    <t>Konev, Ivan</t>
+  </si>
+  <si>
+    <t>Zhukov, Georgy</t>
+  </si>
+  <si>
+    <t>Eremenko, Andrei</t>
+  </si>
+  <si>
+    <t>**  SOVIET **</t>
+  </si>
+  <si>
+    <t>LD0757-LD0799</t>
+  </si>
+  <si>
+    <t>** empty **</t>
+  </si>
+  <si>
+    <t>** SLOVAKIAN **</t>
+  </si>
+  <si>
+    <t>Ahlyustin, Pyotr</t>
+  </si>
+  <si>
+    <t>Ахлюстин, Пётр Николаевич</t>
+  </si>
+  <si>
+    <t>Akimov, Stefan</t>
+  </si>
+  <si>
+    <t>Акимов, Степан Дмитриевич</t>
+  </si>
+  <si>
+    <t>Čatloš, Ferdinand</t>
+  </si>
+  <si>
+    <t>Wrong photo - shows a more modern shot of Catlos instead</t>
+  </si>
+  <si>
+    <t>Pulanich, Anton</t>
+  </si>
+  <si>
+    <t>Jurech, Stefan</t>
+  </si>
+  <si>
+    <t>Malár, Augustin</t>
+  </si>
+  <si>
+    <t>Pilfousek, Rudolf</t>
+  </si>
+  <si>
+    <t>Turanec, Jozef</t>
+  </si>
+  <si>
+    <t>von Krosigk, Ernst-Anton</t>
+  </si>
+  <si>
+    <t>Ernst-Anton instead of Ernst</t>
+  </si>
+  <si>
+    <t>von Küchler, Georg</t>
+  </si>
+  <si>
+    <t>voln Leeb, Wilhelm</t>
+  </si>
+  <si>
+    <t>von Leyser, Ernst</t>
+  </si>
+  <si>
+    <t>von Lüttwitz, Smilo</t>
+  </si>
+  <si>
+    <t>von Lützow, Kurt-Jürgen</t>
+  </si>
+  <si>
+    <t>vom Mackensen, Eberhard</t>
+  </si>
+  <si>
+    <t>von Manstein, Erich</t>
+  </si>
+  <si>
+    <t>von Roques, Karl</t>
+  </si>
+  <si>
+    <t>von Manteuffel, Hasso</t>
+  </si>
+  <si>
+    <t>von Obstfelder, Hans</t>
+  </si>
+  <si>
+    <t>von Rundstedt, Gerd</t>
+  </si>
+  <si>
+    <t>Pfeffer-Wildenbruch, Karl</t>
+  </si>
+  <si>
+    <t>No 'von'</t>
+  </si>
+  <si>
+    <t>von Reichenau, Walter</t>
+  </si>
+  <si>
+    <t>von Roques, Franz</t>
+  </si>
+  <si>
+    <t>von Salmuth, Hans</t>
+  </si>
+  <si>
+    <t>von Saucken, Dietrich</t>
+  </si>
+  <si>
+    <t>von Schenckendorff, Max</t>
+  </si>
+  <si>
+    <t>von Schobert, Eugen</t>
+  </si>
+  <si>
+    <t>von Scholtz, Fritz</t>
+  </si>
+  <si>
+    <t>von Schwedler, Viktor</t>
+  </si>
+  <si>
+    <t>von Seydlitz-Kurzbach , Walther</t>
+  </si>
+  <si>
+    <t>von Sodenstern, Georg</t>
+  </si>
+  <si>
+    <t>von Sponeck, Hans</t>
+  </si>
+  <si>
+    <t>von Stulpnagel, Carl</t>
+  </si>
+  <si>
+    <t>von Thoma, Wilhelm</t>
+  </si>
+  <si>
+    <t>von Tippelskirch, Kurt</t>
+  </si>
+  <si>
+    <t>von Vaerst, Gustav</t>
+  </si>
+  <si>
+    <t>von Vietinghoff, Heinrich</t>
+  </si>
+  <si>
+    <t>von Vormann, Nikolaus</t>
+  </si>
+  <si>
+    <t>von Weichs, Maximilian</t>
+  </si>
+  <si>
+    <t>von Wietersheim, Gustav</t>
+  </si>
+  <si>
+    <t>von Wiktorin, Mauritz</t>
+  </si>
+  <si>
+    <t>von Witzleben, Erwin</t>
+  </si>
+  <si>
+    <t>von Zangen, Gustav-Adolf</t>
+  </si>
+  <si>
+    <t>Spelling - double name</t>
+  </si>
+  <si>
+    <t>Wegener, Wilhelm</t>
+  </si>
+  <si>
+    <t>Weise, Hubert</t>
+  </si>
+  <si>
+    <t>Weisenberger, Karl</t>
+  </si>
+  <si>
+    <t>Weiß, Walter</t>
+  </si>
+  <si>
+    <t>Wenck, Walther</t>
+  </si>
+  <si>
+    <t>Wiese, Friedrich</t>
+  </si>
+  <si>
+    <t>Wisch, Theodor</t>
+  </si>
+  <si>
+    <t>Wodrig, Albert</t>
+  </si>
+  <si>
+    <t>Wöhler, Otto</t>
+  </si>
+  <si>
+    <t>Wuthmann, Rolf</t>
+  </si>
+  <si>
+    <t>Zeitzler, Kurt</t>
+  </si>
+  <si>
+    <t>Ziegler, Heinz</t>
+  </si>
+  <si>
+    <t>Zorn, Hans</t>
+  </si>
+  <si>
+    <t>Krebs, Hans</t>
+  </si>
+  <si>
+    <t>von Wild, Wolfgang</t>
+  </si>
+  <si>
+    <t>Zander, Konrad</t>
+  </si>
+  <si>
+    <t>Förster, Helmuth</t>
+  </si>
+  <si>
+    <t>Felmy, Hellmuth</t>
   </si>
 </sst>
 </file>
@@ -7739,7 +10634,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -18060,16 +20955,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D267"/>
+  <dimension ref="A1:D1159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
-      <selection activeCell="C205" sqref="C205"/>
+    <sheetView tabSelected="1" topLeftCell="A227" workbookViewId="0">
+      <selection activeCell="C259" sqref="C259"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="76.375" customWidth="1"/>
-    <col min="4" max="4" width="136.375" customWidth="1"/>
+    <col min="4" max="4" width="136.375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -18120,7 +21015,7 @@
       <c r="C5" s="39" t="s">
         <v>1929</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="2" t="s">
         <v>2351</v>
       </c>
     </row>
@@ -18343,7 +21238,7 @@
       <c r="C25" s="39" t="s">
         <v>2249</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="2" t="s">
         <v>2252</v>
       </c>
     </row>
@@ -18368,7 +21263,7 @@
       <c r="C27" s="39" t="s">
         <v>2250</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="2" t="s">
         <v>2251</v>
       </c>
     </row>
@@ -18393,7 +21288,7 @@
       <c r="C29" s="39" t="s">
         <v>2333</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="2" t="s">
         <v>2334</v>
       </c>
     </row>
@@ -18418,7 +21313,7 @@
       <c r="C31" s="39" t="s">
         <v>2335</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="2" t="s">
         <v>2336</v>
       </c>
     </row>
@@ -18454,7 +21349,7 @@
       <c r="C34" s="39" t="s">
         <v>2254</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="2" t="s">
         <v>2255</v>
       </c>
     </row>
@@ -18490,7 +21385,7 @@
       <c r="C37" s="39" t="s">
         <v>2390</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="2" t="s">
         <v>2347</v>
       </c>
     </row>
@@ -18515,7 +21410,7 @@
       <c r="C39" s="39" t="s">
         <v>2261</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="2" t="s">
         <v>2262</v>
       </c>
     </row>
@@ -18562,7 +21457,7 @@
       <c r="C43" s="39" t="s">
         <v>2259</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="2" t="s">
         <v>2260</v>
       </c>
     </row>
@@ -18675,7 +21570,7 @@
       <c r="C53" s="39" t="s">
         <v>2283</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" s="2" t="s">
         <v>2284</v>
       </c>
     </row>
@@ -18887,7 +21782,7 @@
       <c r="C72" s="39" t="s">
         <v>2353</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D72" s="2" t="s">
         <v>2354</v>
       </c>
     </row>
@@ -19242,7 +22137,7 @@
       <c r="C104" t="s">
         <v>2386</v>
       </c>
-      <c r="D104" s="39" t="s">
+      <c r="D104" s="7" t="s">
         <v>2387</v>
       </c>
     </row>
@@ -19553,7 +22448,7 @@
       <c r="C132" t="s">
         <v>2415</v>
       </c>
-      <c r="D132" s="39" t="s">
+      <c r="D132" s="7" t="s">
         <v>2416</v>
       </c>
     </row>
@@ -19567,7 +22462,7 @@
       <c r="C133" t="s">
         <v>2417</v>
       </c>
-      <c r="D133" s="39" t="s">
+      <c r="D133" s="7" t="s">
         <v>2420</v>
       </c>
     </row>
@@ -19581,7 +22476,7 @@
       <c r="C134" t="s">
         <v>2418</v>
       </c>
-      <c r="D134" s="39" t="s">
+      <c r="D134" s="7" t="s">
         <v>2419</v>
       </c>
     </row>
@@ -19631,7 +22526,7 @@
       <c r="C138" s="39" t="s">
         <v>2425</v>
       </c>
-      <c r="D138" s="39" t="s">
+      <c r="D138" s="7" t="s">
         <v>2426</v>
       </c>
     </row>
@@ -19700,7 +22595,7 @@
       <c r="C144" s="39" t="s">
         <v>2431</v>
       </c>
-      <c r="D144" t="s">
+      <c r="D144" s="2" t="s">
         <v>2432</v>
       </c>
     </row>
@@ -19714,7 +22609,7 @@
       <c r="C145" s="39" t="s">
         <v>2434</v>
       </c>
-      <c r="D145" t="s">
+      <c r="D145" s="2" t="s">
         <v>2435</v>
       </c>
     </row>
@@ -19841,7 +22736,7 @@
       <c r="C156" s="39" t="s">
         <v>2446</v>
       </c>
-      <c r="D156" t="s">
+      <c r="D156" s="2" t="s">
         <v>2447</v>
       </c>
     </row>
@@ -19954,7 +22849,7 @@
       <c r="C166" s="39" t="s">
         <v>2457</v>
       </c>
-      <c r="D166" t="s">
+      <c r="D166" s="2" t="s">
         <v>2458</v>
       </c>
     </row>
@@ -20144,7 +23039,7 @@
       <c r="C183" s="39" t="s">
         <v>2475</v>
       </c>
-      <c r="D183" t="s">
+      <c r="D183" s="2" t="s">
         <v>2476</v>
       </c>
     </row>
@@ -20180,7 +23075,7 @@
       <c r="C186" t="s">
         <v>2479</v>
       </c>
-      <c r="D186" t="s">
+      <c r="D186" s="2" t="s">
         <v>2480</v>
       </c>
     </row>
@@ -20216,7 +23111,7 @@
       <c r="C189" s="39" t="s">
         <v>2483</v>
       </c>
-      <c r="D189" t="s">
+      <c r="D189" s="2" t="s">
         <v>2484</v>
       </c>
     </row>
@@ -20241,7 +23136,7 @@
       <c r="C191" s="39" t="s">
         <v>2486</v>
       </c>
-      <c r="D191" t="s">
+      <c r="D191" s="2" t="s">
         <v>2476</v>
       </c>
     </row>
@@ -20255,7 +23150,7 @@
       <c r="C192" s="39" t="s">
         <v>2487</v>
       </c>
-      <c r="D192" t="s">
+      <c r="D192" s="2" t="s">
         <v>2488</v>
       </c>
     </row>
@@ -20313,7 +23208,7 @@
       <c r="C197" s="39" t="s">
         <v>2493</v>
       </c>
-      <c r="D197" s="3" t="s">
+      <c r="D197" s="6" t="s">
         <v>2494</v>
       </c>
     </row>
@@ -20401,6 +23296,12 @@
       <c r="B205" t="s">
         <v>1114</v>
       </c>
+      <c r="C205" s="39" t="s">
+        <v>3411</v>
+      </c>
+      <c r="D205" s="6" t="s">
+        <v>3412</v>
+      </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
@@ -20409,6 +23310,9 @@
       <c r="B206" t="s">
         <v>1114</v>
       </c>
+      <c r="C206" s="3" t="s">
+        <v>3413</v>
+      </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
@@ -20417,6 +23321,9 @@
       <c r="B207" t="s">
         <v>1114</v>
       </c>
+      <c r="C207" s="3" t="s">
+        <v>3414</v>
+      </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
@@ -20425,261 +23332,369 @@
       <c r="B208" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C208" s="3" t="s">
+        <v>3415</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>2051</v>
       </c>
       <c r="B209" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C209" s="3" t="s">
+        <v>3416</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>2052</v>
       </c>
       <c r="B210" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C210" s="39" t="s">
+        <v>3417</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>2476</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>2053</v>
       </c>
       <c r="B211" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C211" s="3" t="s">
+        <v>3418</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>2054</v>
       </c>
       <c r="B212" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C212" s="3" t="s">
+        <v>3419</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>2055</v>
       </c>
       <c r="B213" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C213" s="3" t="s">
+        <v>3421</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>2056</v>
       </c>
       <c r="B214" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C214" s="3" t="s">
+        <v>3422</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>2057</v>
       </c>
       <c r="B215" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C215" s="39" t="s">
+        <v>3424</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>3425</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>2058</v>
       </c>
       <c r="B216" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C216" s="3" t="s">
+        <v>3426</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>2059</v>
       </c>
       <c r="B217" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C217" s="3" t="s">
+        <v>3427</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>2060</v>
       </c>
       <c r="B218" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C218" t="s">
+        <v>3420</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>2061</v>
       </c>
       <c r="B219" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C219" s="3" t="s">
+        <v>3423</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>2062</v>
       </c>
       <c r="B220" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C220" s="3" t="s">
+        <v>3428</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>2063</v>
       </c>
       <c r="B221" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C221" s="3" t="s">
+        <v>3429</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>2064</v>
       </c>
       <c r="B222" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C222" s="3" t="s">
+        <v>3430</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>2065</v>
       </c>
       <c r="B223" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C223" s="3" t="s">
+        <v>3431</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>2066</v>
       </c>
       <c r="B224" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C224" s="3" t="s">
+        <v>3432</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>2067</v>
       </c>
       <c r="B225" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C225" s="3" t="s">
+        <v>3433</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>2068</v>
       </c>
       <c r="B226" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C226" s="3" t="s">
+        <v>3434</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>2069</v>
       </c>
       <c r="B227" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C227" s="3" t="s">
+        <v>3435</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>2070</v>
       </c>
       <c r="B228" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C228" s="3" t="s">
+        <v>3436</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>2071</v>
       </c>
       <c r="B229" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C229" s="3" t="s">
+        <v>3437</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>2072</v>
       </c>
       <c r="B230" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C230" s="3" t="s">
+        <v>3438</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>2073</v>
       </c>
       <c r="B231" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C231" s="3" t="s">
+        <v>3439</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>2074</v>
       </c>
       <c r="B232" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C232" s="3" t="s">
+        <v>3440</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>2290</v>
       </c>
       <c r="B233" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C233" s="3" t="s">
+        <v>3441</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>2291</v>
       </c>
       <c r="B234" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C234" s="3" t="s">
+        <v>3442</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>2292</v>
       </c>
       <c r="B235" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C235" s="3" t="s">
+        <v>3443</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>2293</v>
       </c>
       <c r="B236" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C236" s="3" t="s">
+        <v>3444</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>2294</v>
       </c>
       <c r="B237" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C237" s="3" t="s">
+        <v>3445</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>2295</v>
       </c>
       <c r="B238" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C238" s="3" t="s">
+        <v>3446</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>2296</v>
       </c>
       <c r="B239" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C239" s="39" t="s">
+        <v>3447</v>
+      </c>
+      <c r="D239" s="2" t="s">
+        <v>3448</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>2297</v>
       </c>
       <c r="B240" t="s">
         <v>1114</v>
+      </c>
+      <c r="C240" s="3" t="s">
+        <v>3449</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
@@ -20689,6 +23704,9 @@
       <c r="B241" t="s">
         <v>1114</v>
       </c>
+      <c r="C241" s="3" t="s">
+        <v>3450</v>
+      </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
@@ -20697,6 +23715,9 @@
       <c r="B242" t="s">
         <v>1114</v>
       </c>
+      <c r="C242" s="3" t="s">
+        <v>3451</v>
+      </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
@@ -20705,6 +23726,9 @@
       <c r="B243" t="s">
         <v>1114</v>
       </c>
+      <c r="C243" t="s">
+        <v>3452</v>
+      </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
@@ -20713,6 +23737,9 @@
       <c r="B244" t="s">
         <v>1114</v>
       </c>
+      <c r="C244" t="s">
+        <v>3453</v>
+      </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
@@ -20721,6 +23748,9 @@
       <c r="B245" t="s">
         <v>1114</v>
       </c>
+      <c r="C245" t="s">
+        <v>3454</v>
+      </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
@@ -20729,6 +23759,9 @@
       <c r="B246" t="s">
         <v>1114</v>
       </c>
+      <c r="C246" t="s">
+        <v>3455</v>
+      </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
@@ -20737,6 +23770,9 @@
       <c r="B247" t="s">
         <v>1114</v>
       </c>
+      <c r="C247" t="s">
+        <v>3456</v>
+      </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
@@ -20745,6 +23781,9 @@
       <c r="B248" t="s">
         <v>1114</v>
       </c>
+      <c r="C248" t="s">
+        <v>3457</v>
+      </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
@@ -20753,6 +23792,9 @@
       <c r="B249" t="s">
         <v>1114</v>
       </c>
+      <c r="C249" t="s">
+        <v>3458</v>
+      </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
@@ -20761,6 +23803,9 @@
       <c r="B250" t="s">
         <v>1114</v>
       </c>
+      <c r="C250" t="s">
+        <v>3459</v>
+      </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
@@ -20769,6 +23814,9 @@
       <c r="B251" t="s">
         <v>1114</v>
       </c>
+      <c r="C251" t="s">
+        <v>3460</v>
+      </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
@@ -20777,6 +23825,9 @@
       <c r="B252" t="s">
         <v>1114</v>
       </c>
+      <c r="C252" t="s">
+        <v>3461</v>
+      </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
@@ -20785,6 +23836,9 @@
       <c r="B253" t="s">
         <v>1114</v>
       </c>
+      <c r="C253" t="s">
+        <v>3462</v>
+      </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
@@ -20793,6 +23847,9 @@
       <c r="B254" t="s">
         <v>1114</v>
       </c>
+      <c r="C254" t="s">
+        <v>3463</v>
+      </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
@@ -20801,6 +23858,9 @@
       <c r="B255" t="s">
         <v>1114</v>
       </c>
+      <c r="C255" t="s">
+        <v>3464</v>
+      </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
@@ -20813,23 +23873,29 @@
         <v>2325</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>2314</v>
       </c>
       <c r="B257" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C257" t="s">
+        <v>3465</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>2315</v>
       </c>
       <c r="B258" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C258" t="s">
+        <v>3466</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>2316</v>
       </c>
@@ -20837,7 +23903,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>2317</v>
       </c>
@@ -20845,7 +23911,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>2318</v>
       </c>
@@ -20853,7 +23919,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>2319</v>
       </c>
@@ -20861,7 +23927,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>2320</v>
       </c>
@@ -20869,7 +23935,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>2321</v>
       </c>
@@ -20877,7 +23943,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>2322</v>
       </c>
@@ -20885,7 +23951,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>2323</v>
       </c>
@@ -20893,12 +23959,4550 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>2324</v>
       </c>
       <c r="B267" t="s">
         <v>1114</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>2502</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>2503</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>2504</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>2505</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>2506</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>2507</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>2508</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>2509</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>2510</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>2511</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>2512</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>2513</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>2516</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>2517</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>2518</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>2519</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>2521</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>2522</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>2523</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>2524</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>2525</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>2526</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>2527</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>2528</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>2529</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>2530</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>2531</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>2533</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>2534</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>2535</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>2536</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>2538</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>2539</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>2540</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>2541</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>2542</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>2543</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>2544</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>2545</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>2546</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>2547</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>2548</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>2549</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>2550</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>2551</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>2552</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>2553</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>2554</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>2555</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>2556</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>2557</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>2558</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>2559</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>2561</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>2562</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>2563</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>2565</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>2566</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>2567</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>2569</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>2570</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>2571</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>2572</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>2573</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>2575</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>2576</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>2577</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>2578</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>2579</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>2580</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>2581</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>2582</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>2583</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>2584</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>2585</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>2586</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>2587</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
+        <v>2588</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>2589</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>2590</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>2591</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>2592</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>2593</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>2594</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>2595</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>2596</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>2597</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A364" t="s">
+        <v>2598</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
+        <v>2599</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A366" t="s">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A367" t="s">
+        <v>2601</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
+        <v>2602</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A369" t="s">
+        <v>2603</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A370" t="s">
+        <v>2604</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A371" t="s">
+        <v>2605</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A372" t="s">
+        <v>2606</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A373" t="s">
+        <v>2607</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A374" t="s">
+        <v>2608</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A375" t="s">
+        <v>2609</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A376" t="s">
+        <v>2610</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A377" t="s">
+        <v>2611</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A378" t="s">
+        <v>2612</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A379" t="s">
+        <v>2613</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A380" t="s">
+        <v>2614</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A381" t="s">
+        <v>2615</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A382" t="s">
+        <v>2616</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A383" t="s">
+        <v>2617</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A384" t="s">
+        <v>2618</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A385" t="s">
+        <v>2619</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A386" t="s">
+        <v>2620</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A387" t="s">
+        <v>2621</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A388" t="s">
+        <v>2622</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A389" t="s">
+        <v>2623</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A390" t="s">
+        <v>2624</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A391" t="s">
+        <v>2625</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A392" t="s">
+        <v>2626</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A393" t="s">
+        <v>2627</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A394" t="s">
+        <v>2628</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A395" t="s">
+        <v>2629</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A396" t="s">
+        <v>2630</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A397" t="s">
+        <v>2631</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A398" t="s">
+        <v>2632</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A399" t="s">
+        <v>2633</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A400" t="s">
+        <v>2634</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A401" t="s">
+        <v>2635</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A402" t="s">
+        <v>2636</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A403" t="s">
+        <v>2637</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A404" t="s">
+        <v>2638</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A405" t="s">
+        <v>2639</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A406" t="s">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A407" t="s">
+        <v>2641</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A408" t="s">
+        <v>2642</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A409" t="s">
+        <v>2643</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A410" t="s">
+        <v>2644</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A411" t="s">
+        <v>2645</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A412" t="s">
+        <v>2646</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A413" t="s">
+        <v>2647</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A414" t="s">
+        <v>2648</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A415" t="s">
+        <v>2649</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A416" t="s">
+        <v>2650</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A417" t="s">
+        <v>2651</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A418" t="s">
+        <v>2652</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A419" t="s">
+        <v>2653</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A420" t="s">
+        <v>2654</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A421" t="s">
+        <v>2655</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A422" t="s">
+        <v>2656</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A423" t="s">
+        <v>2657</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A424" t="s">
+        <v>2658</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A425" t="s">
+        <v>2659</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A426" t="s">
+        <v>2660</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A427" t="s">
+        <v>2661</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A428" t="s">
+        <v>2662</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A429" t="s">
+        <v>2663</v>
+      </c>
+    </row>
+    <row r="430" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A430" t="s">
+        <v>2664</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A431" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="432" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A432" t="s">
+        <v>2666</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A433" t="s">
+        <v>2667</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A434" t="s">
+        <v>2668</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A435" t="s">
+        <v>2669</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A436" t="s">
+        <v>2670</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A437" t="s">
+        <v>2671</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A438" t="s">
+        <v>2672</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A439" t="s">
+        <v>2673</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A440" t="s">
+        <v>2674</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A441" t="s">
+        <v>2675</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A442" t="s">
+        <v>2676</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A443" t="s">
+        <v>2677</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A444" t="s">
+        <v>2678</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A445" t="s">
+        <v>2679</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A446" t="s">
+        <v>2680</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A447" t="s">
+        <v>2681</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A448" t="s">
+        <v>2682</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A449" t="s">
+        <v>2683</v>
+      </c>
+    </row>
+    <row r="450" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A450" t="s">
+        <v>2684</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A451" t="s">
+        <v>2685</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A452" t="s">
+        <v>2686</v>
+      </c>
+    </row>
+    <row r="453" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A453" t="s">
+        <v>2687</v>
+      </c>
+    </row>
+    <row r="454" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A454" t="s">
+        <v>2688</v>
+      </c>
+    </row>
+    <row r="455" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A455" t="s">
+        <v>2689</v>
+      </c>
+    </row>
+    <row r="456" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A456" t="s">
+        <v>2690</v>
+      </c>
+    </row>
+    <row r="457" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A457" t="s">
+        <v>2691</v>
+      </c>
+    </row>
+    <row r="458" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A458" t="s">
+        <v>2692</v>
+      </c>
+    </row>
+    <row r="459" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A459" t="s">
+        <v>2693</v>
+      </c>
+    </row>
+    <row r="460" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A460" t="s">
+        <v>2694</v>
+      </c>
+    </row>
+    <row r="461" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A461" t="s">
+        <v>2695</v>
+      </c>
+    </row>
+    <row r="462" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A462" t="s">
+        <v>2696</v>
+      </c>
+    </row>
+    <row r="463" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A463" t="s">
+        <v>2697</v>
+      </c>
+    </row>
+    <row r="464" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A464" t="s">
+        <v>2698</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A465" t="s">
+        <v>2699</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A466" t="s">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A467" t="s">
+        <v>2701</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A468" t="s">
+        <v>2702</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A469" t="s">
+        <v>2703</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A470" t="s">
+        <v>2704</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A471" t="s">
+        <v>2705</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A472" t="s">
+        <v>2706</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A473" t="s">
+        <v>2707</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A474" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A475" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A476" t="s">
+        <v>2710</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A477" t="s">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A478" t="s">
+        <v>2712</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A479" t="s">
+        <v>2713</v>
+      </c>
+    </row>
+    <row r="480" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A480" t="s">
+        <v>2714</v>
+      </c>
+    </row>
+    <row r="481" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A481" t="s">
+        <v>2715</v>
+      </c>
+    </row>
+    <row r="482" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A482" t="s">
+        <v>2716</v>
+      </c>
+    </row>
+    <row r="483" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A483" t="s">
+        <v>2717</v>
+      </c>
+    </row>
+    <row r="484" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A484" t="s">
+        <v>2718</v>
+      </c>
+    </row>
+    <row r="485" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A485" t="s">
+        <v>2719</v>
+      </c>
+    </row>
+    <row r="486" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A486" t="s">
+        <v>2720</v>
+      </c>
+    </row>
+    <row r="487" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A487" t="s">
+        <v>2721</v>
+      </c>
+    </row>
+    <row r="488" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A488" t="s">
+        <v>2722</v>
+      </c>
+    </row>
+    <row r="489" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A489" t="s">
+        <v>2723</v>
+      </c>
+    </row>
+    <row r="490" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A490" t="s">
+        <v>2724</v>
+      </c>
+    </row>
+    <row r="491" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A491" t="s">
+        <v>2725</v>
+      </c>
+    </row>
+    <row r="492" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A492" t="s">
+        <v>2726</v>
+      </c>
+    </row>
+    <row r="493" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A493" t="s">
+        <v>2727</v>
+      </c>
+    </row>
+    <row r="494" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A494" t="s">
+        <v>2728</v>
+      </c>
+    </row>
+    <row r="495" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A495" t="s">
+        <v>2729</v>
+      </c>
+    </row>
+    <row r="496" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A496" t="s">
+        <v>2730</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A497" t="s">
+        <v>2731</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A498" t="s">
+        <v>2732</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A499" t="s">
+        <v>2733</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A500" t="s">
+        <v>2734</v>
+      </c>
+    </row>
+    <row r="501" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A501" t="s">
+        <v>2735</v>
+      </c>
+    </row>
+    <row r="502" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A502" t="s">
+        <v>2736</v>
+      </c>
+    </row>
+    <row r="503" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A503" t="s">
+        <v>2737</v>
+      </c>
+    </row>
+    <row r="504" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A504" t="s">
+        <v>2738</v>
+      </c>
+    </row>
+    <row r="505" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A505" t="s">
+        <v>2739</v>
+      </c>
+    </row>
+    <row r="506" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A506" t="s">
+        <v>2740</v>
+      </c>
+    </row>
+    <row r="507" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A507" t="s">
+        <v>2741</v>
+      </c>
+    </row>
+    <row r="508" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A508" t="s">
+        <v>2742</v>
+      </c>
+    </row>
+    <row r="509" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A509" t="s">
+        <v>2743</v>
+      </c>
+    </row>
+    <row r="510" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A510" t="s">
+        <v>2744</v>
+      </c>
+    </row>
+    <row r="511" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A511" t="s">
+        <v>2745</v>
+      </c>
+    </row>
+    <row r="512" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A512" t="s">
+        <v>2746</v>
+      </c>
+    </row>
+    <row r="513" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A513" t="s">
+        <v>2747</v>
+      </c>
+    </row>
+    <row r="514" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A514" t="s">
+        <v>2748</v>
+      </c>
+    </row>
+    <row r="515" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A515" t="s">
+        <v>2749</v>
+      </c>
+    </row>
+    <row r="516" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A516" t="s">
+        <v>2750</v>
+      </c>
+    </row>
+    <row r="517" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A517" t="s">
+        <v>2751</v>
+      </c>
+    </row>
+    <row r="518" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A518" t="s">
+        <v>2752</v>
+      </c>
+    </row>
+    <row r="519" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A519" t="s">
+        <v>2753</v>
+      </c>
+    </row>
+    <row r="520" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A520" t="s">
+        <v>2754</v>
+      </c>
+    </row>
+    <row r="521" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A521" t="s">
+        <v>2755</v>
+      </c>
+    </row>
+    <row r="522" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A522" t="s">
+        <v>2756</v>
+      </c>
+    </row>
+    <row r="523" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A523" t="s">
+        <v>2757</v>
+      </c>
+    </row>
+    <row r="524" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A524" t="s">
+        <v>2758</v>
+      </c>
+    </row>
+    <row r="525" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A525" t="s">
+        <v>2759</v>
+      </c>
+    </row>
+    <row r="526" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A526" t="s">
+        <v>2760</v>
+      </c>
+    </row>
+    <row r="527" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A527" t="s">
+        <v>2761</v>
+      </c>
+    </row>
+    <row r="528" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A528" t="s">
+        <v>2762</v>
+      </c>
+    </row>
+    <row r="529" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A529" t="s">
+        <v>2763</v>
+      </c>
+    </row>
+    <row r="530" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A530" t="s">
+        <v>2764</v>
+      </c>
+    </row>
+    <row r="531" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A531" t="s">
+        <v>2765</v>
+      </c>
+    </row>
+    <row r="532" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A532" t="s">
+        <v>2766</v>
+      </c>
+    </row>
+    <row r="533" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A533" t="s">
+        <v>2767</v>
+      </c>
+    </row>
+    <row r="534" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A534" t="s">
+        <v>2768</v>
+      </c>
+    </row>
+    <row r="535" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A535" t="s">
+        <v>2769</v>
+      </c>
+    </row>
+    <row r="536" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A536" t="s">
+        <v>2770</v>
+      </c>
+    </row>
+    <row r="537" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A537" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="538" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A538" t="s">
+        <v>2772</v>
+      </c>
+    </row>
+    <row r="539" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A539" t="s">
+        <v>2773</v>
+      </c>
+    </row>
+    <row r="540" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A540" t="s">
+        <v>2774</v>
+      </c>
+    </row>
+    <row r="541" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A541" t="s">
+        <v>2775</v>
+      </c>
+    </row>
+    <row r="542" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A542" t="s">
+        <v>2776</v>
+      </c>
+    </row>
+    <row r="543" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A543" t="s">
+        <v>2777</v>
+      </c>
+    </row>
+    <row r="544" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A544" t="s">
+        <v>2778</v>
+      </c>
+    </row>
+    <row r="545" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A545" t="s">
+        <v>2779</v>
+      </c>
+    </row>
+    <row r="546" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A546" t="s">
+        <v>2780</v>
+      </c>
+    </row>
+    <row r="547" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A547" t="s">
+        <v>2781</v>
+      </c>
+    </row>
+    <row r="548" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A548" t="s">
+        <v>2782</v>
+      </c>
+    </row>
+    <row r="549" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A549" t="s">
+        <v>2783</v>
+      </c>
+    </row>
+    <row r="550" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A550" t="s">
+        <v>2784</v>
+      </c>
+    </row>
+    <row r="551" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A551" t="s">
+        <v>2785</v>
+      </c>
+    </row>
+    <row r="552" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A552" t="s">
+        <v>2786</v>
+      </c>
+    </row>
+    <row r="553" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A553" t="s">
+        <v>2787</v>
+      </c>
+    </row>
+    <row r="554" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A554" t="s">
+        <v>2788</v>
+      </c>
+    </row>
+    <row r="555" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A555" t="s">
+        <v>2789</v>
+      </c>
+    </row>
+    <row r="556" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A556" t="s">
+        <v>2790</v>
+      </c>
+    </row>
+    <row r="557" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A557" t="s">
+        <v>2791</v>
+      </c>
+    </row>
+    <row r="558" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A558" t="s">
+        <v>2792</v>
+      </c>
+    </row>
+    <row r="559" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A559" t="s">
+        <v>2793</v>
+      </c>
+    </row>
+    <row r="560" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A560" t="s">
+        <v>2794</v>
+      </c>
+    </row>
+    <row r="561" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A561" t="s">
+        <v>2795</v>
+      </c>
+    </row>
+    <row r="562" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A562" t="s">
+        <v>2796</v>
+      </c>
+    </row>
+    <row r="563" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A563" t="s">
+        <v>2797</v>
+      </c>
+    </row>
+    <row r="564" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A564" t="s">
+        <v>2798</v>
+      </c>
+    </row>
+    <row r="565" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A565" t="s">
+        <v>2799</v>
+      </c>
+    </row>
+    <row r="566" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A566" t="s">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="567" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A567" t="s">
+        <v>2801</v>
+      </c>
+    </row>
+    <row r="568" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A568" t="s">
+        <v>2802</v>
+      </c>
+    </row>
+    <row r="569" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A569" t="s">
+        <v>2803</v>
+      </c>
+    </row>
+    <row r="570" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A570" t="s">
+        <v>2804</v>
+      </c>
+    </row>
+    <row r="571" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A571" t="s">
+        <v>2805</v>
+      </c>
+    </row>
+    <row r="572" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A572" t="s">
+        <v>2806</v>
+      </c>
+    </row>
+    <row r="573" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A573" t="s">
+        <v>2807</v>
+      </c>
+    </row>
+    <row r="574" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A574" t="s">
+        <v>2808</v>
+      </c>
+    </row>
+    <row r="575" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A575" t="s">
+        <v>2809</v>
+      </c>
+    </row>
+    <row r="576" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A576" t="s">
+        <v>2810</v>
+      </c>
+    </row>
+    <row r="577" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A577" t="s">
+        <v>2811</v>
+      </c>
+    </row>
+    <row r="578" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A578" t="s">
+        <v>2812</v>
+      </c>
+    </row>
+    <row r="579" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A579" t="s">
+        <v>2813</v>
+      </c>
+    </row>
+    <row r="580" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A580" t="s">
+        <v>2814</v>
+      </c>
+    </row>
+    <row r="581" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A581" t="s">
+        <v>2815</v>
+      </c>
+    </row>
+    <row r="582" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A582" t="s">
+        <v>2816</v>
+      </c>
+    </row>
+    <row r="583" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A583" t="s">
+        <v>2817</v>
+      </c>
+    </row>
+    <row r="584" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A584" t="s">
+        <v>2818</v>
+      </c>
+    </row>
+    <row r="585" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A585" t="s">
+        <v>2819</v>
+      </c>
+    </row>
+    <row r="586" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A586" t="s">
+        <v>2820</v>
+      </c>
+    </row>
+    <row r="587" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A587" t="s">
+        <v>2821</v>
+      </c>
+    </row>
+    <row r="588" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A588" t="s">
+        <v>2822</v>
+      </c>
+    </row>
+    <row r="589" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A589" t="s">
+        <v>2823</v>
+      </c>
+    </row>
+    <row r="590" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A590" t="s">
+        <v>2824</v>
+      </c>
+    </row>
+    <row r="591" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A591" t="s">
+        <v>2825</v>
+      </c>
+    </row>
+    <row r="592" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A592" t="s">
+        <v>2826</v>
+      </c>
+    </row>
+    <row r="593" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A593" t="s">
+        <v>2827</v>
+      </c>
+    </row>
+    <row r="594" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A594" t="s">
+        <v>2828</v>
+      </c>
+    </row>
+    <row r="595" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A595" t="s">
+        <v>2829</v>
+      </c>
+    </row>
+    <row r="596" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A596" t="s">
+        <v>2830</v>
+      </c>
+    </row>
+    <row r="597" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A597" t="s">
+        <v>2831</v>
+      </c>
+    </row>
+    <row r="598" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A598" t="s">
+        <v>2832</v>
+      </c>
+    </row>
+    <row r="599" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A599" t="s">
+        <v>2833</v>
+      </c>
+    </row>
+    <row r="600" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A600" t="s">
+        <v>2834</v>
+      </c>
+    </row>
+    <row r="601" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A601" t="s">
+        <v>2835</v>
+      </c>
+    </row>
+    <row r="602" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A602" t="s">
+        <v>2836</v>
+      </c>
+    </row>
+    <row r="603" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A603" t="s">
+        <v>2837</v>
+      </c>
+    </row>
+    <row r="604" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A604" t="s">
+        <v>2838</v>
+      </c>
+    </row>
+    <row r="605" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A605" t="s">
+        <v>2839</v>
+      </c>
+    </row>
+    <row r="606" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A606" t="s">
+        <v>2840</v>
+      </c>
+    </row>
+    <row r="607" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A607" t="s">
+        <v>2841</v>
+      </c>
+    </row>
+    <row r="608" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A608" t="s">
+        <v>2842</v>
+      </c>
+    </row>
+    <row r="609" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A609" t="s">
+        <v>2843</v>
+      </c>
+    </row>
+    <row r="610" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A610" t="s">
+        <v>2844</v>
+      </c>
+    </row>
+    <row r="611" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A611" t="s">
+        <v>2845</v>
+      </c>
+    </row>
+    <row r="612" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A612" t="s">
+        <v>2846</v>
+      </c>
+    </row>
+    <row r="613" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A613" t="s">
+        <v>2847</v>
+      </c>
+    </row>
+    <row r="614" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A614" t="s">
+        <v>2848</v>
+      </c>
+    </row>
+    <row r="615" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A615" t="s">
+        <v>2849</v>
+      </c>
+    </row>
+    <row r="616" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A616" t="s">
+        <v>2850</v>
+      </c>
+    </row>
+    <row r="617" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A617" t="s">
+        <v>2851</v>
+      </c>
+    </row>
+    <row r="618" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A618" t="s">
+        <v>2852</v>
+      </c>
+    </row>
+    <row r="619" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A619" t="s">
+        <v>2853</v>
+      </c>
+    </row>
+    <row r="620" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A620" t="s">
+        <v>2854</v>
+      </c>
+    </row>
+    <row r="621" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A621" t="s">
+        <v>2855</v>
+      </c>
+    </row>
+    <row r="622" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A622" t="s">
+        <v>2856</v>
+      </c>
+    </row>
+    <row r="623" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A623" t="s">
+        <v>2857</v>
+      </c>
+    </row>
+    <row r="624" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A624" t="s">
+        <v>2858</v>
+      </c>
+    </row>
+    <row r="625" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A625" t="s">
+        <v>2859</v>
+      </c>
+    </row>
+    <row r="626" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A626" t="s">
+        <v>2860</v>
+      </c>
+    </row>
+    <row r="627" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A627" t="s">
+        <v>2861</v>
+      </c>
+    </row>
+    <row r="628" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A628" t="s">
+        <v>2862</v>
+      </c>
+    </row>
+    <row r="629" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A629" t="s">
+        <v>2863</v>
+      </c>
+    </row>
+    <row r="630" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A630" t="s">
+        <v>2864</v>
+      </c>
+    </row>
+    <row r="631" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A631" t="s">
+        <v>2865</v>
+      </c>
+    </row>
+    <row r="632" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A632" t="s">
+        <v>2866</v>
+      </c>
+    </row>
+    <row r="633" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A633" t="s">
+        <v>2867</v>
+      </c>
+    </row>
+    <row r="634" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A634" t="s">
+        <v>2868</v>
+      </c>
+    </row>
+    <row r="635" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A635" t="s">
+        <v>2869</v>
+      </c>
+    </row>
+    <row r="636" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A636" t="s">
+        <v>2870</v>
+      </c>
+    </row>
+    <row r="637" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A637" t="s">
+        <v>2871</v>
+      </c>
+    </row>
+    <row r="638" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A638" t="s">
+        <v>2872</v>
+      </c>
+    </row>
+    <row r="639" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A639" t="s">
+        <v>2873</v>
+      </c>
+    </row>
+    <row r="640" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A640" t="s">
+        <v>2874</v>
+      </c>
+    </row>
+    <row r="641" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A641" t="s">
+        <v>2875</v>
+      </c>
+    </row>
+    <row r="642" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A642" t="s">
+        <v>2876</v>
+      </c>
+    </row>
+    <row r="643" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A643" t="s">
+        <v>2877</v>
+      </c>
+    </row>
+    <row r="644" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A644" t="s">
+        <v>2878</v>
+      </c>
+    </row>
+    <row r="645" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A645" t="s">
+        <v>2879</v>
+      </c>
+    </row>
+    <row r="646" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A646" t="s">
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="647" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A647" t="s">
+        <v>2881</v>
+      </c>
+    </row>
+    <row r="648" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A648" t="s">
+        <v>2882</v>
+      </c>
+    </row>
+    <row r="649" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A649" t="s">
+        <v>2883</v>
+      </c>
+    </row>
+    <row r="650" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A650" t="s">
+        <v>2884</v>
+      </c>
+    </row>
+    <row r="651" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A651" t="s">
+        <v>2885</v>
+      </c>
+    </row>
+    <row r="652" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A652" t="s">
+        <v>2886</v>
+      </c>
+    </row>
+    <row r="653" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A653" t="s">
+        <v>2887</v>
+      </c>
+    </row>
+    <row r="654" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A654" t="s">
+        <v>2888</v>
+      </c>
+    </row>
+    <row r="655" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A655" t="s">
+        <v>2889</v>
+      </c>
+    </row>
+    <row r="656" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A656" t="s">
+        <v>2890</v>
+      </c>
+    </row>
+    <row r="657" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A657" t="s">
+        <v>2891</v>
+      </c>
+    </row>
+    <row r="658" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A658" t="s">
+        <v>2892</v>
+      </c>
+    </row>
+    <row r="659" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A659" t="s">
+        <v>2893</v>
+      </c>
+    </row>
+    <row r="660" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A660" t="s">
+        <v>2894</v>
+      </c>
+    </row>
+    <row r="661" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A661" t="s">
+        <v>2895</v>
+      </c>
+    </row>
+    <row r="662" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A662" t="s">
+        <v>2896</v>
+      </c>
+    </row>
+    <row r="663" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A663" t="s">
+        <v>2897</v>
+      </c>
+    </row>
+    <row r="664" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A664" t="s">
+        <v>2898</v>
+      </c>
+    </row>
+    <row r="665" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A665" t="s">
+        <v>2899</v>
+      </c>
+    </row>
+    <row r="666" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A666" t="s">
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="667" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A667" t="s">
+        <v>2901</v>
+      </c>
+    </row>
+    <row r="668" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A668" t="s">
+        <v>2902</v>
+      </c>
+    </row>
+    <row r="669" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A669" t="s">
+        <v>2903</v>
+      </c>
+    </row>
+    <row r="670" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A670" t="s">
+        <v>2904</v>
+      </c>
+    </row>
+    <row r="671" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A671" t="s">
+        <v>2905</v>
+      </c>
+    </row>
+    <row r="672" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A672" t="s">
+        <v>2906</v>
+      </c>
+    </row>
+    <row r="673" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A673" t="s">
+        <v>2907</v>
+      </c>
+    </row>
+    <row r="674" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A674" t="s">
+        <v>2908</v>
+      </c>
+    </row>
+    <row r="675" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A675" t="s">
+        <v>2909</v>
+      </c>
+    </row>
+    <row r="676" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A676" t="s">
+        <v>2910</v>
+      </c>
+    </row>
+    <row r="677" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A677" t="s">
+        <v>2911</v>
+      </c>
+    </row>
+    <row r="678" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A678" t="s">
+        <v>2912</v>
+      </c>
+    </row>
+    <row r="679" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A679" t="s">
+        <v>2913</v>
+      </c>
+    </row>
+    <row r="680" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A680" t="s">
+        <v>2914</v>
+      </c>
+    </row>
+    <row r="681" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A681" t="s">
+        <v>2915</v>
+      </c>
+    </row>
+    <row r="682" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A682" t="s">
+        <v>2916</v>
+      </c>
+    </row>
+    <row r="683" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A683" t="s">
+        <v>2917</v>
+      </c>
+    </row>
+    <row r="684" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A684" t="s">
+        <v>2918</v>
+      </c>
+    </row>
+    <row r="685" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A685" t="s">
+        <v>2919</v>
+      </c>
+    </row>
+    <row r="686" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A686" t="s">
+        <v>2920</v>
+      </c>
+    </row>
+    <row r="687" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A687" t="s">
+        <v>2921</v>
+      </c>
+    </row>
+    <row r="688" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A688" t="s">
+        <v>2922</v>
+      </c>
+    </row>
+    <row r="689" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A689" t="s">
+        <v>2923</v>
+      </c>
+    </row>
+    <row r="690" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A690" t="s">
+        <v>2924</v>
+      </c>
+    </row>
+    <row r="691" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A691" t="s">
+        <v>2925</v>
+      </c>
+    </row>
+    <row r="692" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A692" t="s">
+        <v>2926</v>
+      </c>
+    </row>
+    <row r="693" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A693" t="s">
+        <v>2927</v>
+      </c>
+    </row>
+    <row r="694" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A694" t="s">
+        <v>2928</v>
+      </c>
+    </row>
+    <row r="695" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A695" t="s">
+        <v>2929</v>
+      </c>
+    </row>
+    <row r="696" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A696" t="s">
+        <v>2930</v>
+      </c>
+    </row>
+    <row r="697" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A697" t="s">
+        <v>2931</v>
+      </c>
+    </row>
+    <row r="698" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A698" t="s">
+        <v>2932</v>
+      </c>
+    </row>
+    <row r="699" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A699" t="s">
+        <v>2933</v>
+      </c>
+    </row>
+    <row r="700" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A700" t="s">
+        <v>2934</v>
+      </c>
+    </row>
+    <row r="701" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A701" t="s">
+        <v>2935</v>
+      </c>
+    </row>
+    <row r="702" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A702" t="s">
+        <v>2936</v>
+      </c>
+    </row>
+    <row r="703" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A703" t="s">
+        <v>2937</v>
+      </c>
+    </row>
+    <row r="704" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A704" t="s">
+        <v>2938</v>
+      </c>
+    </row>
+    <row r="705" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A705" t="s">
+        <v>2939</v>
+      </c>
+    </row>
+    <row r="706" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A706" t="s">
+        <v>2940</v>
+      </c>
+    </row>
+    <row r="707" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A707" t="s">
+        <v>2941</v>
+      </c>
+    </row>
+    <row r="708" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A708" t="s">
+        <v>2942</v>
+      </c>
+    </row>
+    <row r="709" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A709" t="s">
+        <v>2943</v>
+      </c>
+    </row>
+    <row r="710" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A710" t="s">
+        <v>2944</v>
+      </c>
+    </row>
+    <row r="711" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A711" t="s">
+        <v>2945</v>
+      </c>
+    </row>
+    <row r="712" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A712" t="s">
+        <v>2946</v>
+      </c>
+    </row>
+    <row r="713" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A713" t="s">
+        <v>2947</v>
+      </c>
+    </row>
+    <row r="714" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A714" t="s">
+        <v>2948</v>
+      </c>
+    </row>
+    <row r="715" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A715" t="s">
+        <v>2949</v>
+      </c>
+    </row>
+    <row r="716" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A716" t="s">
+        <v>2950</v>
+      </c>
+    </row>
+    <row r="717" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A717" t="s">
+        <v>2951</v>
+      </c>
+    </row>
+    <row r="718" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A718" t="s">
+        <v>2952</v>
+      </c>
+    </row>
+    <row r="719" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A719" t="s">
+        <v>2953</v>
+      </c>
+    </row>
+    <row r="720" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A720" t="s">
+        <v>2954</v>
+      </c>
+    </row>
+    <row r="721" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A721" t="s">
+        <v>2955</v>
+      </c>
+    </row>
+    <row r="722" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A722" t="s">
+        <v>2956</v>
+      </c>
+    </row>
+    <row r="723" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A723" t="s">
+        <v>2957</v>
+      </c>
+    </row>
+    <row r="724" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A724" t="s">
+        <v>2958</v>
+      </c>
+    </row>
+    <row r="725" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A725" t="s">
+        <v>2959</v>
+      </c>
+    </row>
+    <row r="726" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A726" t="s">
+        <v>2960</v>
+      </c>
+    </row>
+    <row r="727" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A727" t="s">
+        <v>2961</v>
+      </c>
+    </row>
+    <row r="728" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A728" t="s">
+        <v>2962</v>
+      </c>
+    </row>
+    <row r="729" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A729" t="s">
+        <v>2963</v>
+      </c>
+    </row>
+    <row r="730" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A730" t="s">
+        <v>2964</v>
+      </c>
+    </row>
+    <row r="731" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A731" t="s">
+        <v>2965</v>
+      </c>
+    </row>
+    <row r="732" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A732" t="s">
+        <v>2966</v>
+      </c>
+    </row>
+    <row r="733" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A733" t="s">
+        <v>2967</v>
+      </c>
+    </row>
+    <row r="734" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A734" t="s">
+        <v>2968</v>
+      </c>
+    </row>
+    <row r="735" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A735" t="s">
+        <v>2969</v>
+      </c>
+    </row>
+    <row r="736" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A736" t="s">
+        <v>2970</v>
+      </c>
+    </row>
+    <row r="737" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A737" t="s">
+        <v>2971</v>
+      </c>
+    </row>
+    <row r="738" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A738" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="739" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A739" t="s">
+        <v>2973</v>
+      </c>
+    </row>
+    <row r="740" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A740" t="s">
+        <v>2974</v>
+      </c>
+    </row>
+    <row r="741" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A741" t="s">
+        <v>2975</v>
+      </c>
+    </row>
+    <row r="742" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A742" t="s">
+        <v>2976</v>
+      </c>
+    </row>
+    <row r="743" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A743" t="s">
+        <v>2977</v>
+      </c>
+    </row>
+    <row r="744" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A744" t="s">
+        <v>2978</v>
+      </c>
+    </row>
+    <row r="745" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A745" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="746" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A746" t="s">
+        <v>2980</v>
+      </c>
+    </row>
+    <row r="747" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A747" t="s">
+        <v>2981</v>
+      </c>
+    </row>
+    <row r="748" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A748" t="s">
+        <v>2982</v>
+      </c>
+    </row>
+    <row r="749" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A749" t="s">
+        <v>2983</v>
+      </c>
+    </row>
+    <row r="750" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A750" t="s">
+        <v>2984</v>
+      </c>
+      <c r="C750" s="5" t="s">
+        <v>3399</v>
+      </c>
+    </row>
+    <row r="751" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A751" t="s">
+        <v>2985</v>
+      </c>
+      <c r="B751" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C751" t="s">
+        <v>3404</v>
+      </c>
+    </row>
+    <row r="752" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A752" t="s">
+        <v>2986</v>
+      </c>
+      <c r="B752" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C752" t="s">
+        <v>3406</v>
+      </c>
+      <c r="D752" s="7" t="s">
+        <v>3405</v>
+      </c>
+    </row>
+    <row r="753" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A753" t="s">
+        <v>2987</v>
+      </c>
+      <c r="B753" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C753" t="s">
+        <v>3407</v>
+      </c>
+    </row>
+    <row r="754" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A754" t="s">
+        <v>2988</v>
+      </c>
+      <c r="B754" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C754" t="s">
+        <v>3408</v>
+      </c>
+    </row>
+    <row r="755" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A755" t="s">
+        <v>2989</v>
+      </c>
+      <c r="B755" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C755" t="s">
+        <v>3409</v>
+      </c>
+    </row>
+    <row r="756" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A756" t="s">
+        <v>2990</v>
+      </c>
+      <c r="B756" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C756" t="s">
+        <v>3410</v>
+      </c>
+    </row>
+    <row r="757" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A757" t="s">
+        <v>3397</v>
+      </c>
+      <c r="C757" t="s">
+        <v>3398</v>
+      </c>
+    </row>
+    <row r="758" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A758" t="s">
+        <v>2991</v>
+      </c>
+      <c r="C758" s="5" t="s">
+        <v>3396</v>
+      </c>
+    </row>
+    <row r="759" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A759" t="s">
+        <v>2992</v>
+      </c>
+      <c r="C759" t="s">
+        <v>3400</v>
+      </c>
+      <c r="D759" s="2" t="s">
+        <v>3401</v>
+      </c>
+    </row>
+    <row r="760" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A760" t="s">
+        <v>2993</v>
+      </c>
+      <c r="C760" t="s">
+        <v>3402</v>
+      </c>
+      <c r="D760" s="2" t="s">
+        <v>3403</v>
+      </c>
+    </row>
+    <row r="761" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A761" t="s">
+        <v>2994</v>
+      </c>
+    </row>
+    <row r="762" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A762" t="s">
+        <v>2995</v>
+      </c>
+    </row>
+    <row r="763" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A763" t="s">
+        <v>2996</v>
+      </c>
+    </row>
+    <row r="764" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A764" t="s">
+        <v>2997</v>
+      </c>
+    </row>
+    <row r="765" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A765" t="s">
+        <v>2998</v>
+      </c>
+    </row>
+    <row r="766" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A766" t="s">
+        <v>2999</v>
+      </c>
+    </row>
+    <row r="767" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A767" t="s">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="768" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A768" t="s">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="769" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A769" t="s">
+        <v>3002</v>
+      </c>
+    </row>
+    <row r="770" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A770" t="s">
+        <v>3003</v>
+      </c>
+    </row>
+    <row r="771" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A771" t="s">
+        <v>3004</v>
+      </c>
+    </row>
+    <row r="772" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A772" t="s">
+        <v>3005</v>
+      </c>
+    </row>
+    <row r="773" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A773" t="s">
+        <v>3006</v>
+      </c>
+    </row>
+    <row r="774" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A774" t="s">
+        <v>3007</v>
+      </c>
+    </row>
+    <row r="775" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A775" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="776" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A776" t="s">
+        <v>3009</v>
+      </c>
+    </row>
+    <row r="777" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A777" t="s">
+        <v>3010</v>
+      </c>
+    </row>
+    <row r="778" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A778" t="s">
+        <v>3011</v>
+      </c>
+    </row>
+    <row r="779" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A779" t="s">
+        <v>3012</v>
+      </c>
+    </row>
+    <row r="780" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A780" t="s">
+        <v>3013</v>
+      </c>
+    </row>
+    <row r="781" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A781" t="s">
+        <v>3014</v>
+      </c>
+    </row>
+    <row r="782" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A782" t="s">
+        <v>3015</v>
+      </c>
+    </row>
+    <row r="783" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A783" t="s">
+        <v>3016</v>
+      </c>
+    </row>
+    <row r="784" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A784" t="s">
+        <v>3017</v>
+      </c>
+    </row>
+    <row r="785" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A785" t="s">
+        <v>3018</v>
+      </c>
+    </row>
+    <row r="786" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A786" t="s">
+        <v>3019</v>
+      </c>
+    </row>
+    <row r="787" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A787" t="s">
+        <v>3020</v>
+      </c>
+    </row>
+    <row r="788" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A788" t="s">
+        <v>3021</v>
+      </c>
+    </row>
+    <row r="789" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A789" t="s">
+        <v>3022</v>
+      </c>
+    </row>
+    <row r="790" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A790" t="s">
+        <v>3023</v>
+      </c>
+    </row>
+    <row r="791" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A791" t="s">
+        <v>3024</v>
+      </c>
+    </row>
+    <row r="792" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A792" t="s">
+        <v>3025</v>
+      </c>
+    </row>
+    <row r="793" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A793" t="s">
+        <v>3026</v>
+      </c>
+    </row>
+    <row r="794" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A794" t="s">
+        <v>3027</v>
+      </c>
+    </row>
+    <row r="795" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A795" t="s">
+        <v>3028</v>
+      </c>
+    </row>
+    <row r="796" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A796" t="s">
+        <v>3029</v>
+      </c>
+    </row>
+    <row r="797" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A797" t="s">
+        <v>3030</v>
+      </c>
+    </row>
+    <row r="798" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A798" t="s">
+        <v>3031</v>
+      </c>
+    </row>
+    <row r="799" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A799" t="s">
+        <v>3032</v>
+      </c>
+    </row>
+    <row r="800" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A800" t="s">
+        <v>3033</v>
+      </c>
+    </row>
+    <row r="801" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A801" t="s">
+        <v>3034</v>
+      </c>
+    </row>
+    <row r="802" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A802" t="s">
+        <v>3035</v>
+      </c>
+    </row>
+    <row r="803" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A803" t="s">
+        <v>3036</v>
+      </c>
+    </row>
+    <row r="804" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A804" t="s">
+        <v>3037</v>
+      </c>
+    </row>
+    <row r="805" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A805" t="s">
+        <v>3038</v>
+      </c>
+    </row>
+    <row r="806" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A806" t="s">
+        <v>3039</v>
+      </c>
+    </row>
+    <row r="807" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A807" t="s">
+        <v>3040</v>
+      </c>
+    </row>
+    <row r="808" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A808" t="s">
+        <v>3041</v>
+      </c>
+    </row>
+    <row r="809" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A809" t="s">
+        <v>3042</v>
+      </c>
+    </row>
+    <row r="810" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A810" t="s">
+        <v>3043</v>
+      </c>
+    </row>
+    <row r="811" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A811" t="s">
+        <v>3044</v>
+      </c>
+    </row>
+    <row r="812" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A812" t="s">
+        <v>3045</v>
+      </c>
+    </row>
+    <row r="813" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A813" t="s">
+        <v>3046</v>
+      </c>
+    </row>
+    <row r="814" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A814" t="s">
+        <v>3047</v>
+      </c>
+    </row>
+    <row r="815" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A815" t="s">
+        <v>3048</v>
+      </c>
+    </row>
+    <row r="816" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A816" t="s">
+        <v>3049</v>
+      </c>
+    </row>
+    <row r="817" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A817" t="s">
+        <v>3050</v>
+      </c>
+    </row>
+    <row r="818" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A818" t="s">
+        <v>3051</v>
+      </c>
+    </row>
+    <row r="819" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A819" t="s">
+        <v>3052</v>
+      </c>
+    </row>
+    <row r="820" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A820" t="s">
+        <v>3053</v>
+      </c>
+    </row>
+    <row r="821" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A821" t="s">
+        <v>3054</v>
+      </c>
+    </row>
+    <row r="822" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A822" t="s">
+        <v>3055</v>
+      </c>
+    </row>
+    <row r="823" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A823" t="s">
+        <v>3056</v>
+      </c>
+    </row>
+    <row r="824" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A824" t="s">
+        <v>3057</v>
+      </c>
+    </row>
+    <row r="825" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A825" t="s">
+        <v>3058</v>
+      </c>
+    </row>
+    <row r="826" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A826" t="s">
+        <v>3059</v>
+      </c>
+    </row>
+    <row r="827" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A827" t="s">
+        <v>3060</v>
+      </c>
+      <c r="B827" t="s">
+        <v>1685</v>
+      </c>
+      <c r="C827" t="s">
+        <v>3395</v>
+      </c>
+    </row>
+    <row r="828" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A828" t="s">
+        <v>3061</v>
+      </c>
+    </row>
+    <row r="829" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A829" t="s">
+        <v>3062</v>
+      </c>
+    </row>
+    <row r="830" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A830" t="s">
+        <v>3063</v>
+      </c>
+    </row>
+    <row r="831" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A831" t="s">
+        <v>3064</v>
+      </c>
+    </row>
+    <row r="832" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A832" t="s">
+        <v>3065</v>
+      </c>
+    </row>
+    <row r="833" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A833" t="s">
+        <v>3066</v>
+      </c>
+    </row>
+    <row r="834" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A834" t="s">
+        <v>3067</v>
+      </c>
+    </row>
+    <row r="835" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A835" t="s">
+        <v>3068</v>
+      </c>
+    </row>
+    <row r="836" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A836" t="s">
+        <v>3069</v>
+      </c>
+    </row>
+    <row r="837" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A837" t="s">
+        <v>3070</v>
+      </c>
+    </row>
+    <row r="838" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A838" t="s">
+        <v>3071</v>
+      </c>
+    </row>
+    <row r="839" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A839" t="s">
+        <v>3072</v>
+      </c>
+    </row>
+    <row r="840" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A840" t="s">
+        <v>3073</v>
+      </c>
+    </row>
+    <row r="841" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A841" t="s">
+        <v>3074</v>
+      </c>
+    </row>
+    <row r="842" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A842" t="s">
+        <v>3075</v>
+      </c>
+    </row>
+    <row r="843" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A843" t="s">
+        <v>3076</v>
+      </c>
+    </row>
+    <row r="844" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A844" t="s">
+        <v>3077</v>
+      </c>
+    </row>
+    <row r="845" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A845" t="s">
+        <v>3078</v>
+      </c>
+    </row>
+    <row r="846" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A846" t="s">
+        <v>3079</v>
+      </c>
+    </row>
+    <row r="847" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A847" t="s">
+        <v>3080</v>
+      </c>
+    </row>
+    <row r="848" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A848" t="s">
+        <v>3081</v>
+      </c>
+    </row>
+    <row r="849" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A849" t="s">
+        <v>3082</v>
+      </c>
+    </row>
+    <row r="850" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A850" t="s">
+        <v>3083</v>
+      </c>
+    </row>
+    <row r="851" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A851" t="s">
+        <v>3084</v>
+      </c>
+    </row>
+    <row r="852" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A852" t="s">
+        <v>3085</v>
+      </c>
+    </row>
+    <row r="853" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A853" t="s">
+        <v>3086</v>
+      </c>
+    </row>
+    <row r="854" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A854" t="s">
+        <v>3087</v>
+      </c>
+    </row>
+    <row r="855" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A855" t="s">
+        <v>3088</v>
+      </c>
+    </row>
+    <row r="856" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A856" t="s">
+        <v>3089</v>
+      </c>
+    </row>
+    <row r="857" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A857" t="s">
+        <v>3090</v>
+      </c>
+    </row>
+    <row r="858" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A858" t="s">
+        <v>3091</v>
+      </c>
+    </row>
+    <row r="859" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A859" t="s">
+        <v>3092</v>
+      </c>
+    </row>
+    <row r="860" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A860" t="s">
+        <v>3093</v>
+      </c>
+    </row>
+    <row r="861" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A861" t="s">
+        <v>3094</v>
+      </c>
+    </row>
+    <row r="862" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A862" t="s">
+        <v>3095</v>
+      </c>
+    </row>
+    <row r="863" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A863" t="s">
+        <v>3096</v>
+      </c>
+    </row>
+    <row r="864" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A864" t="s">
+        <v>3097</v>
+      </c>
+    </row>
+    <row r="865" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A865" t="s">
+        <v>3098</v>
+      </c>
+    </row>
+    <row r="866" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A866" t="s">
+        <v>3099</v>
+      </c>
+    </row>
+    <row r="867" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A867" t="s">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="868" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A868" t="s">
+        <v>3101</v>
+      </c>
+    </row>
+    <row r="869" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A869" t="s">
+        <v>3102</v>
+      </c>
+    </row>
+    <row r="870" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A870" t="s">
+        <v>3103</v>
+      </c>
+    </row>
+    <row r="871" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A871" t="s">
+        <v>3104</v>
+      </c>
+    </row>
+    <row r="872" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A872" t="s">
+        <v>3105</v>
+      </c>
+    </row>
+    <row r="873" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A873" t="s">
+        <v>3106</v>
+      </c>
+    </row>
+    <row r="874" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A874" t="s">
+        <v>3107</v>
+      </c>
+    </row>
+    <row r="875" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A875" t="s">
+        <v>3108</v>
+      </c>
+    </row>
+    <row r="876" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A876" t="s">
+        <v>3109</v>
+      </c>
+    </row>
+    <row r="877" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A877" t="s">
+        <v>3110</v>
+      </c>
+    </row>
+    <row r="878" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A878" t="s">
+        <v>3111</v>
+      </c>
+    </row>
+    <row r="879" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A879" t="s">
+        <v>3112</v>
+      </c>
+    </row>
+    <row r="880" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A880" t="s">
+        <v>3113</v>
+      </c>
+    </row>
+    <row r="881" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A881" t="s">
+        <v>3114</v>
+      </c>
+    </row>
+    <row r="882" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A882" t="s">
+        <v>3115</v>
+      </c>
+    </row>
+    <row r="883" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A883" t="s">
+        <v>3116</v>
+      </c>
+    </row>
+    <row r="884" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A884" t="s">
+        <v>3117</v>
+      </c>
+    </row>
+    <row r="885" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A885" t="s">
+        <v>3118</v>
+      </c>
+    </row>
+    <row r="886" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A886" t="s">
+        <v>3119</v>
+      </c>
+    </row>
+    <row r="887" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A887" t="s">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="888" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A888" t="s">
+        <v>3121</v>
+      </c>
+    </row>
+    <row r="889" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A889" t="s">
+        <v>3122</v>
+      </c>
+    </row>
+    <row r="890" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A890" t="s">
+        <v>3123</v>
+      </c>
+    </row>
+    <row r="891" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A891" t="s">
+        <v>3124</v>
+      </c>
+    </row>
+    <row r="892" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A892" t="s">
+        <v>3125</v>
+      </c>
+    </row>
+    <row r="893" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A893" t="s">
+        <v>3126</v>
+      </c>
+    </row>
+    <row r="894" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A894" t="s">
+        <v>3127</v>
+      </c>
+    </row>
+    <row r="895" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A895" t="s">
+        <v>3128</v>
+      </c>
+    </row>
+    <row r="896" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A896" t="s">
+        <v>3129</v>
+      </c>
+    </row>
+    <row r="897" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A897" t="s">
+        <v>3130</v>
+      </c>
+    </row>
+    <row r="898" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A898" t="s">
+        <v>3131</v>
+      </c>
+    </row>
+    <row r="899" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A899" t="s">
+        <v>3132</v>
+      </c>
+    </row>
+    <row r="900" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A900" t="s">
+        <v>3133</v>
+      </c>
+    </row>
+    <row r="901" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A901" t="s">
+        <v>3134</v>
+      </c>
+    </row>
+    <row r="902" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A902" t="s">
+        <v>3135</v>
+      </c>
+    </row>
+    <row r="903" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A903" t="s">
+        <v>3136</v>
+      </c>
+    </row>
+    <row r="904" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A904" t="s">
+        <v>3137</v>
+      </c>
+    </row>
+    <row r="905" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A905" t="s">
+        <v>3138</v>
+      </c>
+    </row>
+    <row r="906" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A906" t="s">
+        <v>3139</v>
+      </c>
+    </row>
+    <row r="907" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A907" t="s">
+        <v>3140</v>
+      </c>
+    </row>
+    <row r="908" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A908" t="s">
+        <v>3141</v>
+      </c>
+    </row>
+    <row r="909" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A909" t="s">
+        <v>3142</v>
+      </c>
+    </row>
+    <row r="910" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A910" t="s">
+        <v>3143</v>
+      </c>
+    </row>
+    <row r="911" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A911" t="s">
+        <v>3144</v>
+      </c>
+    </row>
+    <row r="912" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A912" t="s">
+        <v>3145</v>
+      </c>
+    </row>
+    <row r="913" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A913" t="s">
+        <v>3146</v>
+      </c>
+    </row>
+    <row r="914" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A914" t="s">
+        <v>3147</v>
+      </c>
+    </row>
+    <row r="915" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A915" t="s">
+        <v>3148</v>
+      </c>
+    </row>
+    <row r="916" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A916" t="s">
+        <v>3149</v>
+      </c>
+      <c r="B916" t="s">
+        <v>1685</v>
+      </c>
+      <c r="C916" t="s">
+        <v>3393</v>
+      </c>
+    </row>
+    <row r="917" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A917" t="s">
+        <v>3150</v>
+      </c>
+    </row>
+    <row r="918" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A918" t="s">
+        <v>3151</v>
+      </c>
+    </row>
+    <row r="919" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A919" t="s">
+        <v>3152</v>
+      </c>
+    </row>
+    <row r="920" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A920" t="s">
+        <v>3153</v>
+      </c>
+    </row>
+    <row r="921" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A921" t="s">
+        <v>3154</v>
+      </c>
+    </row>
+    <row r="922" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A922" t="s">
+        <v>3155</v>
+      </c>
+    </row>
+    <row r="923" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A923" t="s">
+        <v>3156</v>
+      </c>
+    </row>
+    <row r="924" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A924" t="s">
+        <v>3157</v>
+      </c>
+    </row>
+    <row r="925" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A925" t="s">
+        <v>3158</v>
+      </c>
+    </row>
+    <row r="926" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A926" t="s">
+        <v>3159</v>
+      </c>
+    </row>
+    <row r="927" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A927" t="s">
+        <v>3160</v>
+      </c>
+    </row>
+    <row r="928" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A928" t="s">
+        <v>3161</v>
+      </c>
+    </row>
+    <row r="929" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A929" t="s">
+        <v>3162</v>
+      </c>
+    </row>
+    <row r="930" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A930" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="931" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A931" t="s">
+        <v>3164</v>
+      </c>
+    </row>
+    <row r="932" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A932" t="s">
+        <v>3165</v>
+      </c>
+    </row>
+    <row r="933" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A933" t="s">
+        <v>3166</v>
+      </c>
+    </row>
+    <row r="934" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A934" t="s">
+        <v>3167</v>
+      </c>
+    </row>
+    <row r="935" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A935" t="s">
+        <v>3168</v>
+      </c>
+    </row>
+    <row r="936" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A936" t="s">
+        <v>3169</v>
+      </c>
+    </row>
+    <row r="937" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A937" t="s">
+        <v>3170</v>
+      </c>
+    </row>
+    <row r="938" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A938" t="s">
+        <v>3171</v>
+      </c>
+    </row>
+    <row r="939" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A939" t="s">
+        <v>3172</v>
+      </c>
+    </row>
+    <row r="940" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A940" t="s">
+        <v>3173</v>
+      </c>
+    </row>
+    <row r="941" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A941" t="s">
+        <v>3174</v>
+      </c>
+    </row>
+    <row r="942" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A942" t="s">
+        <v>3175</v>
+      </c>
+    </row>
+    <row r="943" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A943" t="s">
+        <v>3176</v>
+      </c>
+    </row>
+    <row r="944" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A944" t="s">
+        <v>3177</v>
+      </c>
+    </row>
+    <row r="945" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A945" t="s">
+        <v>3178</v>
+      </c>
+    </row>
+    <row r="946" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A946" t="s">
+        <v>3179</v>
+      </c>
+    </row>
+    <row r="947" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A947" t="s">
+        <v>3180</v>
+      </c>
+    </row>
+    <row r="948" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A948" t="s">
+        <v>3181</v>
+      </c>
+    </row>
+    <row r="949" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A949" t="s">
+        <v>3182</v>
+      </c>
+    </row>
+    <row r="950" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A950" t="s">
+        <v>3183</v>
+      </c>
+    </row>
+    <row r="951" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A951" t="s">
+        <v>3184</v>
+      </c>
+    </row>
+    <row r="952" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A952" t="s">
+        <v>3185</v>
+      </c>
+    </row>
+    <row r="953" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A953" t="s">
+        <v>3186</v>
+      </c>
+    </row>
+    <row r="954" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A954" t="s">
+        <v>3187</v>
+      </c>
+    </row>
+    <row r="955" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A955" t="s">
+        <v>3188</v>
+      </c>
+    </row>
+    <row r="956" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A956" t="s">
+        <v>3189</v>
+      </c>
+    </row>
+    <row r="957" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A957" t="s">
+        <v>3190</v>
+      </c>
+    </row>
+    <row r="958" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A958" t="s">
+        <v>3191</v>
+      </c>
+    </row>
+    <row r="959" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A959" t="s">
+        <v>3192</v>
+      </c>
+    </row>
+    <row r="960" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A960" t="s">
+        <v>3193</v>
+      </c>
+    </row>
+    <row r="961" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A961" t="s">
+        <v>3194</v>
+      </c>
+    </row>
+    <row r="962" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A962" t="s">
+        <v>3195</v>
+      </c>
+    </row>
+    <row r="963" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A963" t="s">
+        <v>3196</v>
+      </c>
+    </row>
+    <row r="964" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A964" t="s">
+        <v>3197</v>
+      </c>
+    </row>
+    <row r="965" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A965" t="s">
+        <v>3198</v>
+      </c>
+    </row>
+    <row r="966" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A966" t="s">
+        <v>3199</v>
+      </c>
+    </row>
+    <row r="967" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A967" t="s">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="968" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A968" t="s">
+        <v>3201</v>
+      </c>
+    </row>
+    <row r="969" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A969" t="s">
+        <v>3202</v>
+      </c>
+    </row>
+    <row r="970" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A970" t="s">
+        <v>3203</v>
+      </c>
+    </row>
+    <row r="971" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A971" t="s">
+        <v>3204</v>
+      </c>
+    </row>
+    <row r="972" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A972" t="s">
+        <v>3205</v>
+      </c>
+    </row>
+    <row r="973" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A973" t="s">
+        <v>3206</v>
+      </c>
+    </row>
+    <row r="974" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A974" t="s">
+        <v>3207</v>
+      </c>
+    </row>
+    <row r="975" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A975" t="s">
+        <v>3208</v>
+      </c>
+    </row>
+    <row r="976" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A976" t="s">
+        <v>3209</v>
+      </c>
+    </row>
+    <row r="977" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A977" t="s">
+        <v>3210</v>
+      </c>
+    </row>
+    <row r="978" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A978" t="s">
+        <v>3211</v>
+      </c>
+    </row>
+    <row r="979" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A979" t="s">
+        <v>3212</v>
+      </c>
+    </row>
+    <row r="980" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A980" t="s">
+        <v>3213</v>
+      </c>
+    </row>
+    <row r="981" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A981" t="s">
+        <v>3214</v>
+      </c>
+    </row>
+    <row r="982" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A982" t="s">
+        <v>3215</v>
+      </c>
+    </row>
+    <row r="983" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A983" t="s">
+        <v>3216</v>
+      </c>
+    </row>
+    <row r="984" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A984" t="s">
+        <v>3217</v>
+      </c>
+    </row>
+    <row r="985" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A985" t="s">
+        <v>3218</v>
+      </c>
+    </row>
+    <row r="986" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A986" t="s">
+        <v>3219</v>
+      </c>
+    </row>
+    <row r="987" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A987" t="s">
+        <v>3220</v>
+      </c>
+    </row>
+    <row r="988" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A988" t="s">
+        <v>3221</v>
+      </c>
+    </row>
+    <row r="989" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A989" t="s">
+        <v>3222</v>
+      </c>
+    </row>
+    <row r="990" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A990" t="s">
+        <v>3223</v>
+      </c>
+    </row>
+    <row r="991" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A991" t="s">
+        <v>3224</v>
+      </c>
+    </row>
+    <row r="992" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A992" t="s">
+        <v>3225</v>
+      </c>
+    </row>
+    <row r="993" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A993" t="s">
+        <v>3226</v>
+      </c>
+    </row>
+    <row r="994" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A994" t="s">
+        <v>3227</v>
+      </c>
+    </row>
+    <row r="995" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A995" t="s">
+        <v>3228</v>
+      </c>
+    </row>
+    <row r="996" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A996" t="s">
+        <v>3229</v>
+      </c>
+    </row>
+    <row r="997" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A997" t="s">
+        <v>3230</v>
+      </c>
+    </row>
+    <row r="998" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A998" t="s">
+        <v>3231</v>
+      </c>
+    </row>
+    <row r="999" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A999" t="s">
+        <v>3232</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1000" t="s">
+        <v>3233</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1001" t="s">
+        <v>3234</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1002" t="s">
+        <v>3235</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1003" t="s">
+        <v>3236</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1004" t="s">
+        <v>3237</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1005" t="s">
+        <v>3238</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1006" t="s">
+        <v>3239</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1007" t="s">
+        <v>3240</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1008" t="s">
+        <v>3241</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1009" t="s">
+        <v>3242</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1010" t="s">
+        <v>3243</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1011" t="s">
+        <v>3244</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1012" t="s">
+        <v>3245</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1013" t="s">
+        <v>3246</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1014" t="s">
+        <v>3247</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1015" t="s">
+        <v>3248</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1016" t="s">
+        <v>3249</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1017" t="s">
+        <v>3250</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1018" t="s">
+        <v>3251</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1019" t="s">
+        <v>3252</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1020" t="s">
+        <v>3253</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1021" t="s">
+        <v>3254</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1022" t="s">
+        <v>3255</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1023" t="s">
+        <v>3256</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1024" t="s">
+        <v>3257</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1025" t="s">
+        <v>3258</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1026" t="s">
+        <v>3259</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1027" t="s">
+        <v>3260</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1028" t="s">
+        <v>3261</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1029" t="s">
+        <v>3262</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1030" t="s">
+        <v>3263</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1031" t="s">
+        <v>3264</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1032" t="s">
+        <v>3265</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1033" t="s">
+        <v>3266</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1034" t="s">
+        <v>3267</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1035" t="s">
+        <v>3268</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1036" t="s">
+        <v>3269</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1037" t="s">
+        <v>3270</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1038" t="s">
+        <v>3271</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1039" t="s">
+        <v>3272</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1040" t="s">
+        <v>3273</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1041" t="s">
+        <v>3274</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1042" t="s">
+        <v>3275</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1043" t="s">
+        <v>3276</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1044" t="s">
+        <v>3277</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1045" t="s">
+        <v>3278</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1046" t="s">
+        <v>3279</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1047" t="s">
+        <v>3280</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048" t="s">
+        <v>3281</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1049" t="s">
+        <v>3282</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1050" t="s">
+        <v>3283</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1051" t="s">
+        <v>3284</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1052" t="s">
+        <v>3285</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1053" t="s">
+        <v>3286</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1054" t="s">
+        <v>3287</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1055" t="s">
+        <v>3288</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1056" t="s">
+        <v>3289</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1057" t="s">
+        <v>3290</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1058" t="s">
+        <v>3291</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1059" t="s">
+        <v>3292</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1060" t="s">
+        <v>3293</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1061" t="s">
+        <v>3294</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1062" t="s">
+        <v>3295</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1063" t="s">
+        <v>3296</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1064" t="s">
+        <v>3297</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1065" t="s">
+        <v>3298</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1066" t="s">
+        <v>3299</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1067" t="s">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1068" t="s">
+        <v>3301</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1069" t="s">
+        <v>3302</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1070" t="s">
+        <v>3303</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1071" t="s">
+        <v>3304</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1072" t="s">
+        <v>3305</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1073" t="s">
+        <v>3306</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1074" t="s">
+        <v>3307</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1075" t="s">
+        <v>3308</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1076" t="s">
+        <v>3309</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1077" t="s">
+        <v>3310</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1078" t="s">
+        <v>3311</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1079" t="s">
+        <v>3312</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1080" t="s">
+        <v>3313</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1081" t="s">
+        <v>3314</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1082" t="s">
+        <v>3315</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1083" t="s">
+        <v>3316</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1084" t="s">
+        <v>3317</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1085" t="s">
+        <v>3318</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1086" t="s">
+        <v>3319</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1087" t="s">
+        <v>3320</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1088" t="s">
+        <v>3321</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1089" t="s">
+        <v>3322</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1090" t="s">
+        <v>3323</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1091" t="s">
+        <v>3324</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1092" t="s">
+        <v>3325</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1093" t="s">
+        <v>3326</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1094" t="s">
+        <v>3327</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1095" t="s">
+        <v>3328</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1096" t="s">
+        <v>3329</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1097" t="s">
+        <v>3330</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1098" t="s">
+        <v>3331</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1099" t="s">
+        <v>3332</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1100" t="s">
+        <v>3333</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1101" t="s">
+        <v>3334</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1102" t="s">
+        <v>3335</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1103" t="s">
+        <v>3336</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1104" t="s">
+        <v>3337</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1105" t="s">
+        <v>3338</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1106" t="s">
+        <v>3339</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1107" t="s">
+        <v>3340</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1108" t="s">
+        <v>3341</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1109" t="s">
+        <v>3342</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1110" t="s">
+        <v>3343</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1111" t="s">
+        <v>3344</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1112" t="s">
+        <v>3345</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1113" t="s">
+        <v>3346</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1114" t="s">
+        <v>3347</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1115" t="s">
+        <v>3348</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1116" t="s">
+        <v>3349</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1117" t="s">
+        <v>3350</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1118" t="s">
+        <v>3351</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1119" t="s">
+        <v>3352</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1120" t="s">
+        <v>3353</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1121" t="s">
+        <v>3354</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1122" t="s">
+        <v>3355</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1123" t="s">
+        <v>3356</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1124" t="s">
+        <v>3357</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1125" t="s">
+        <v>3358</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1126" t="s">
+        <v>3359</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1127" t="s">
+        <v>3360</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1128" t="s">
+        <v>3361</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1129" t="s">
+        <v>3362</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1130" t="s">
+        <v>3363</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1131" t="s">
+        <v>3364</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1132" t="s">
+        <v>3365</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1133" t="s">
+        <v>3366</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1134" t="s">
+        <v>3367</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1135" t="s">
+        <v>3368</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1136" t="s">
+        <v>3369</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1137" t="s">
+        <v>3370</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1138" t="s">
+        <v>3371</v>
+      </c>
+      <c r="B1138" t="s">
+        <v>1685</v>
+      </c>
+      <c r="C1138" t="s">
+        <v>3394</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1139" t="s">
+        <v>3372</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1140" t="s">
+        <v>3373</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1141" t="s">
+        <v>3374</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1142" t="s">
+        <v>3375</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1143" t="s">
+        <v>3376</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1144" t="s">
+        <v>3377</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1145" t="s">
+        <v>3378</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1146" t="s">
+        <v>3379</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1147" t="s">
+        <v>3380</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1148" t="s">
+        <v>3381</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1149" t="s">
+        <v>3382</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1150" t="s">
+        <v>3383</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1151" t="s">
+        <v>3384</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1152" t="s">
+        <v>3385</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1153" t="s">
+        <v>3386</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1154" t="s">
+        <v>3387</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1155" t="s">
+        <v>3388</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1156" t="s">
+        <v>3389</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1157" t="s">
+        <v>3390</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1158" t="s">
+        <v>3391</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1159" t="s">
+        <v>3392</v>
       </c>
     </row>
   </sheetData>
